--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BCB9494-C2AF-4FD4-B081-CF09045BBC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D2905F-1914-46D0-8D5A-525EE47FC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4540,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4590,7 +4590,7 @@
       <c r="H6" s="154"/>
       <c r="I6" s="420">
         <f>I4*I5/1000000</f>
-        <v>2360.0002949999998</v>
+        <v>2520.0003149999998</v>
       </c>
       <c r="J6" s="421"/>
       <c r="K6" s="172"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C7" s="166">
         <f>(Data!C39)/I4</f>
-        <v>2.4858895197722844E-2</v>
+        <v>2.3280552645486476E-2</v>
       </c>
       <c r="D7" s="166">
         <f>(Data!C40)/I4</f>
@@ -4632,11 +4632,11 @@
       </c>
       <c r="I9" s="142">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>22.435459504846989</v>
+        <v>24.081502927264523</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.4572298587597842E-2</v>
+        <v>4.1525647424099227E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="I10" s="159">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.75537591583827124</v>
+        <v>0.81079628988719954</v>
       </c>
       <c r="J10" s="151" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="H12" s="154"/>
       <c r="I12" s="156">
-        <v>1.1422218606795194</v>
+        <v>1.1362931448569271</v>
       </c>
       <c r="J12" s="157" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4713,21 +4713,21 @@
       </c>
       <c r="D14" s="205">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.970972605673585</v>
+        <v>1.9607422494919924</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="205">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>2.2555597764769106</v>
+        <v>2.2438522672828158</v>
       </c>
       <c r="G14" s="206" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="214">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>2.101660068021058</v>
+        <v>2.0907513770496085</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="154"/>
@@ -4758,42 +4758,42 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="152">
         <f>I4</f>
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="C16" s="383">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
-        <v>8.7378569503422682E-2</v>
+        <v>6.2176598146076179E-3</v>
       </c>
       <c r="E16" s="380">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>1.9189327259415925E-2</v>
+        <v>1.9089724833596375E-2</v>
       </c>
       <c r="F16" s="182">
         <f>E16/B16</f>
-        <v>1.0841427830178489E-2</v>
+        <v>1.0100383509839352E-2</v>
       </c>
       <c r="G16" s="396" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="422">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.9588855171014021</v>
+        <v>1.9487178990933063</v>
       </c>
       <c r="I16" s="396" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
         <f>B16-$H$16</f>
-        <v>-0.18888551710140211</v>
+        <v>-5.871789909330638E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="311">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.9106000618373253</v>
+        <v>1.9006830700450985</v>
       </c>
       <c r="C17" s="384"/>
       <c r="D17" s="310">
@@ -4803,14 +4803,14 @@
       <c r="E17" s="381"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
-        <v>1.0043612811863169E-2</v>
+        <v>1.0043612811863171E-2</v>
       </c>
       <c r="G17" s="397"/>
       <c r="H17" s="423"/>
       <c r="I17" s="397"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
-        <v>-4.8285455264076793E-2</v>
+        <v>-4.8034829048207772E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4821,19 +4821,19 @@
       <c r="C18" s="385"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.21353754251316123</v>
+        <v>0.20671961065600528</v>
       </c>
       <c r="E18" s="382"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.1993329537134953E-2</v>
+        <v>1.1931078020997734E-2</v>
       </c>
       <c r="G18" s="398"/>
       <c r="H18" s="424"/>
       <c r="I18" s="398"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.35888551710140204</v>
+        <v>-0.34871789909330619</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="J25" s="366">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.6813280544168463</v>
+        <v>1.6726011016396867</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5132,7 +5132,7 @@
       <c r="H35" s="372"/>
       <c r="I35" s="430">
         <f ca="1">'FCFF Model'!C33*0.9</f>
-        <v>2.0514668160851408</v>
+        <v>2.0408186537703243</v>
       </c>
       <c r="J35" s="431"/>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="I4" s="112">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4017890128813919</v>
+        <v>2.3893224991388458</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="D7" s="82">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.8448560809483465</v>
+        <v>1.83528033405184</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10781,7 +10781,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="455">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-181308.70500000007</v>
+        <v>-21308.685000000056</v>
       </c>
       <c r="E60" s="456"/>
       <c r="F60" s="6"/>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="C29" s="273">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.970972605673585</v>
+        <v>1.9607422494919924</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12908,7 +12908,7 @@
       </c>
       <c r="E29" s="272">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>2.2555597764769106</v>
+        <v>2.2438522672828158</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="C32" s="274">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>2.101660068021058</v>
+        <v>2.0907513770496085</v>
       </c>
       <c r="D32" s="140" t="str">
         <f>Dashboard!J4</f>
@@ -12952,11 +12952,11 @@
       </c>
       <c r="E32" s="141">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.970957565778448</v>
+        <v>11.633244665904497</v>
       </c>
       <c r="F32" s="179">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.89691717438538421</v>
+        <v>0.8969171743853841</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="6"/>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="C33" s="275">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>2.279407573427934</v>
+        <v>2.2675762819670271</v>
       </c>
       <c r="D33" s="229" t="str">
         <f>D32</f>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="E33" s="141">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.473691638402055</v>
+        <v>17.10741673346854</v>
       </c>
       <c r="F33" s="179">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14D2905F-1914-46D0-8D5A-525EE47FC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23406EE1-1DC9-4162-92D2-DBCBAB4DE6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="356">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1065,10 +1065,6 @@
   </si>
   <si>
     <t>家居清潔产品生产商</t>
-  </si>
-  <si>
-    <t>1. 可依托母公司立白的支持
-2. 通过IPO积累大量现金，Strong Balance Sheet with no debt</t>
   </si>
   <si>
     <t>1. 宠物护理市场容量及基数都较小，不足以取代家居清潔業務
@@ -1231,6 +1227,14 @@
   </si>
   <si>
     <t>Book Cash Ratio</t>
+  </si>
+  <si>
+    <t>Expected Upside</t>
+  </si>
+  <si>
+    <t>1. 可依托母公司立白的支持
+2. 通过IPO积累大量现金，Strong Balance Sheet with no debt
+3. 家居清潔業務市场地位比较稳定</t>
   </si>
 </sst>
 </file>
@@ -2938,7 +2942,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3860,109 +3864,29 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3989,16 +3913,14 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4016,9 +3938,22 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4031,12 +3966,52 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4046,11 +4021,47 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4074,10 +4085,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4469,8 +4476,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4514,33 +4521,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="406" t="s">
+      <c r="C3" s="378" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="407"/>
+      <c r="D3" s="379"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="416" t="s">
+      <c r="I3" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="417"/>
+      <c r="J3" s="391"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="408" t="s">
+      <c r="C4" s="380" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="409"/>
+      <c r="D4" s="381"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4551,10 +4558,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="410">
+      <c r="C5" s="382">
         <v>44931</v>
       </c>
-      <c r="D5" s="409"/>
+      <c r="D5" s="381"/>
       <c r="E5" s="143" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4562,10 +4569,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="418">
+      <c r="I5" s="375">
         <v>1333333500</v>
       </c>
-      <c r="J5" s="419"/>
+      <c r="J5" s="376"/>
       <c r="K5" s="172"/>
       <c r="L5" s="106"/>
     </row>
@@ -4588,11 +4595,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="154"/>
-      <c r="I6" s="420">
+      <c r="I6" s="392">
         <f>I4*I5/1000000</f>
-        <v>2520.0003149999998</v>
-      </c>
-      <c r="J6" s="421"/>
+        <v>2320.0002899999999</v>
+      </c>
+      <c r="J6" s="393"/>
       <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4601,7 +4608,7 @@
       </c>
       <c r="C7" s="166">
         <f>(Data!C39)/I4</f>
-        <v>2.3280552645486476E-2</v>
+        <v>2.5287496839062895E-2</v>
       </c>
       <c r="D7" s="166">
         <f>(Data!C40)/I4</f>
@@ -4632,11 +4639,11 @@
       </c>
       <c r="I9" s="142">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>24.081502927264523</v>
+        <v>22.089273519148335</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.1525647424099227E-2</v>
+        <v>4.5270841484811114E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4655,7 +4662,7 @@
       </c>
       <c r="I10" s="159">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.81079628988719954</v>
+        <v>0.74372023497552808</v>
       </c>
       <c r="J10" s="151" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4666,36 +4673,36 @@
       <c r="B11" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="428">
+      <c r="C11" s="405">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="429"/>
+      <c r="D11" s="406"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="426" t="s">
+      <c r="I11" s="403" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="427"/>
+      <c r="J11" s="404"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="335" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="375">
+      <c r="C12" s="414">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="376"/>
+      <c r="D12" s="415"/>
       <c r="G12" s="155" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="154"/>
       <c r="I12" s="156">
-        <v>1.1362931448569271</v>
+        <v>1.1404598109878687</v>
       </c>
       <c r="J12" s="157" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4713,21 +4720,21 @@
       </c>
       <c r="D14" s="205">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.9607422494919924</v>
+        <v>1.9679320828192832</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="205">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>2.2438522672828158</v>
+        <v>2.252080234939966</v>
       </c>
       <c r="G14" s="206" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="214">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>2.0907513770496085</v>
+        <v>2.0984179400227303</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="154"/>
@@ -4758,82 +4765,82 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="152">
         <f>I4</f>
-        <v>1.89</v>
-      </c>
-      <c r="C16" s="383">
+        <v>1.74</v>
+      </c>
+      <c r="C16" s="421">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
-        <v>6.2176598146076179E-3</v>
-      </c>
-      <c r="E16" s="380">
+        <v>0.10598732185214374</v>
+      </c>
+      <c r="E16" s="418">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>1.9089724833596375E-2</v>
+        <v>1.9159724824596193E-2</v>
       </c>
       <c r="F16" s="182">
         <f>E16/B16</f>
-        <v>1.0100383509839352E-2</v>
-      </c>
-      <c r="G16" s="396" t="s">
+        <v>1.1011336106089765E-2</v>
+      </c>
+      <c r="G16" s="397" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="422">
+      <c r="H16" s="394">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.9487178990933063</v>
-      </c>
-      <c r="I16" s="396" t="s">
+        <v>1.9558636404063319</v>
+      </c>
+      <c r="I16" s="397" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
         <f>B16-$H$16</f>
-        <v>-5.871789909330638E-2</v>
+        <v>-0.21586364040633188</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="311">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.9006830700450985</v>
-      </c>
-      <c r="C17" s="384"/>
+        <v>1.9076526727479364</v>
+      </c>
+      <c r="C17" s="422"/>
       <c r="D17" s="310">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="381"/>
+      <c r="E17" s="419"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
         <v>1.0043612811863171E-2</v>
       </c>
-      <c r="G17" s="397"/>
-      <c r="H17" s="423"/>
-      <c r="I17" s="397"/>
+      <c r="G17" s="398"/>
+      <c r="H17" s="395"/>
+      <c r="I17" s="398"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
-        <v>-4.8034829048207772E-2</v>
+        <v>-4.8210967658395498E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="364">
         <f>C35</f>
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="385"/>
+        <v>1.74</v>
+      </c>
+      <c r="C18" s="423"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.20671961065600528</v>
-      </c>
-      <c r="E18" s="382"/>
+        <v>0.10598732185214374</v>
+      </c>
+      <c r="E18" s="420"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.1931078020997734E-2</v>
-      </c>
-      <c r="G18" s="398"/>
-      <c r="H18" s="424"/>
-      <c r="I18" s="398"/>
+        <v>1.1011336106089765E-2</v>
+      </c>
+      <c r="G18" s="399"/>
+      <c r="H18" s="396"/>
+      <c r="I18" s="399"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.34871789909330619</v>
+        <v>-0.21586364040633188</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4864,52 +4871,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="413" t="s">
+      <c r="C21" s="385" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="414"/>
-      <c r="E21" s="414"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="414"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="414"/>
-      <c r="J21" s="415"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="386"/>
+      <c r="F21" s="386"/>
+      <c r="G21" s="386"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="387"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="386" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="387"/>
-      <c r="E22" s="387"/>
-      <c r="F22" s="387"/>
-      <c r="G22" s="386" t="s">
-        <v>324</v>
-      </c>
-      <c r="H22" s="386"/>
-      <c r="I22" s="387"/>
-      <c r="J22" s="387"/>
+      <c r="C22" s="401" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="402"/>
+      <c r="E22" s="402"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="401" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="401"/>
+      <c r="I22" s="402"/>
+      <c r="J22" s="402"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="394" t="s">
-        <v>323</v>
-      </c>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394" t="s">
+      <c r="C23" s="388" t="s">
         <v>322</v>
       </c>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="D23" s="389"/>
+      <c r="E23" s="389"/>
+      <c r="F23" s="389"/>
+      <c r="G23" s="388" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="388"/>
+      <c r="I23" s="389"/>
+      <c r="J23" s="389"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4935,216 +4942,229 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="365">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J25" s="366">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.6726011016396867</v>
+        <v>1.6787343520181843</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="411">
+      <c r="C26" s="383">
         <v>44932</v>
       </c>
-      <c r="D26" s="412"/>
-      <c r="E26" s="368" t="str">
+      <c r="D26" s="384"/>
+      <c r="E26" s="433" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="369"/>
-      <c r="G26" s="369"/>
-      <c r="H26" s="370"/>
-      <c r="I26" s="425" t="s">
+      <c r="F26" s="434"/>
+      <c r="G26" s="434"/>
+      <c r="H26" s="435"/>
+      <c r="I26" s="400" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="425"/>
+      <c r="J26" s="400"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="379">
+      <c r="C27" s="417">
         <f>C31/D25</f>
-        <v>3.2633333333333334E-2</v>
-      </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="377">
+        <v>6.4533333333333331E-2</v>
+      </c>
+      <c r="D27" s="374"/>
+      <c r="E27" s="416">
         <f>E31/D25</f>
-        <v>5.8666666666666666E-2</v>
-      </c>
-      <c r="F27" s="378"/>
-      <c r="G27" s="400">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="F27" s="374"/>
+      <c r="G27" s="408">
         <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="401"/>
-      <c r="I27" s="399">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="H27" s="409"/>
+      <c r="I27" s="407">
         <f>C27+E27+G27</f>
-        <v>9.1299999999999992E-2</v>
-      </c>
-      <c r="J27" s="399"/>
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="J27" s="407"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="373">
-        <v>11000</v>
-      </c>
-      <c r="D28" s="387"/>
-      <c r="E28" s="373">
+      <c r="C28" s="412">
         <v>22000</v>
       </c>
-      <c r="F28" s="387"/>
-      <c r="G28" s="418"/>
-      <c r="H28" s="419"/>
-      <c r="I28" s="405">
+      <c r="D28" s="402"/>
+      <c r="E28" s="412">
+        <v>18000</v>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="375">
+        <v>40000</v>
+      </c>
+      <c r="H28" s="376"/>
+      <c r="I28" s="411">
         <f>C28+E28+G28</f>
-        <v>33000</v>
-      </c>
-      <c r="J28" s="405"/>
+        <v>80000</v>
+      </c>
+      <c r="J28" s="411"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="434">
-        <v>1.78</v>
-      </c>
-      <c r="D29" s="387"/>
-      <c r="E29" s="434">
+      <c r="C29" s="425">
+        <v>1.76</v>
+      </c>
+      <c r="D29" s="402"/>
+      <c r="E29" s="425">
+        <v>1.74</v>
+      </c>
+      <c r="F29" s="402"/>
+      <c r="G29" s="438">
         <v>1.6</v>
       </c>
-      <c r="F29" s="387"/>
-      <c r="G29" s="388"/>
-      <c r="H29" s="389"/>
-      <c r="I29" s="402"/>
-      <c r="J29" s="402"/>
+      <c r="H29" s="439"/>
+      <c r="I29" s="410"/>
+      <c r="J29" s="410"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="432">
+      <c r="C30" s="377">
         <f>C29*$I$5/1000000</f>
-        <v>2373.3336300000001</v>
-      </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="432">
+        <v>2346.66696</v>
+      </c>
+      <c r="D30" s="424"/>
+      <c r="E30" s="377">
         <f>E29*$I$5/1000000</f>
+        <v>2320.0002899999999</v>
+      </c>
+      <c r="F30" s="424"/>
+      <c r="G30" s="440">
+        <f>G29*$I$5/1000000</f>
         <v>2133.3335999999999</v>
       </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="390">
-        <f>G29*$I$5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="391"/>
-      <c r="I30" s="403"/>
-      <c r="J30" s="403"/>
+      <c r="H30" s="441"/>
+      <c r="I30" s="444"/>
+      <c r="J30" s="444"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="439">
+      <c r="C31" s="369">
         <f>C28*C29</f>
-        <v>19580</v>
-      </c>
-      <c r="D31" s="440"/>
-      <c r="E31" s="404">
+        <v>38720</v>
+      </c>
+      <c r="D31" s="370"/>
+      <c r="E31" s="371">
         <f>E28*E29</f>
-        <v>35200</v>
-      </c>
-      <c r="F31" s="441"/>
-      <c r="G31" s="392">
+        <v>31320</v>
+      </c>
+      <c r="F31" s="372"/>
+      <c r="G31" s="442">
         <f>G28*G29</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="393"/>
-      <c r="I31" s="404">
+        <v>64000</v>
+      </c>
+      <c r="H31" s="443"/>
+      <c r="I31" s="371">
         <f>C31+E31+G31</f>
-        <v>54780</v>
-      </c>
-      <c r="J31" s="404"/>
+        <v>134040</v>
+      </c>
+      <c r="J31" s="371"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="435"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="367">
+      <c r="C32" s="426"/>
+      <c r="D32" s="427"/>
+      <c r="E32" s="373">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.66</v>
-      </c>
-      <c r="F32" s="378"/>
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="F32" s="374"/>
       <c r="G32" s="138"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="367">
+      <c r="I32" s="373">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.66</v>
-      </c>
-      <c r="J32" s="367"/>
+        <v>1.6755</v>
+      </c>
+      <c r="J32" s="373"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="437"/>
-      <c r="D33" s="438"/>
-      <c r="E33" s="432">
+      <c r="C33" s="428"/>
+      <c r="D33" s="429"/>
+      <c r="E33" s="377">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2213.3336100000001</v>
-      </c>
-      <c r="F33" s="433"/>
+        <v>2334.6669585</v>
+      </c>
+      <c r="F33" s="424"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="432">
+      <c r="I33" s="377">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2213.3336100000001</v>
-      </c>
-      <c r="J33" s="432"/>
+        <v>2234.0002792499999</v>
+      </c>
+      <c r="J33" s="377"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="430">
+        <v>346</v>
+      </c>
+      <c r="C35" s="367">
         <f>E29</f>
-        <v>1.6</v>
-      </c>
-      <c r="D35" s="431"/>
-      <c r="G35" s="371" t="s">
-        <v>351</v>
-      </c>
-      <c r="H35" s="372"/>
-      <c r="I35" s="430">
-        <f ca="1">'FCFF Model'!C33*0.9</f>
-        <v>2.0408186537703243</v>
-      </c>
-      <c r="J35" s="431"/>
+        <v>1.74</v>
+      </c>
+      <c r="D35" s="368"/>
+      <c r="G35" s="436" t="s">
+        <v>350</v>
+      </c>
+      <c r="H35" s="437"/>
+      <c r="I35" s="367">
+        <f ca="1">'FCFF Model'!C33</f>
+        <v>2.2758912430632572</v>
+      </c>
+      <c r="J35" s="368"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="373">
+        <v>347</v>
+      </c>
+      <c r="C36" s="412">
         <f>E28</f>
-        <v>22000</v>
-      </c>
-      <c r="D36" s="374"/>
+        <v>18000</v>
+      </c>
+      <c r="D36" s="413"/>
+      <c r="G36" s="430" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="430"/>
+      <c r="I36" s="431">
+        <f ca="1">IF(C26="",0,I35/C29-1)</f>
+        <v>0.29312002446775987</v>
+      </c>
+      <c r="J36" s="432"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6077,8 +6097,25 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E29:F29"/>
@@ -6088,12 +6125,13 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6109,27 +6147,11 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
@@ -6161,7 +6183,7 @@
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
+  <conditionalFormatting sqref="I35:J36">
     <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
@@ -7883,10 +7905,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="442" t="s">
+      <c r="D49" s="445" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="387"/>
+      <c r="E49" s="402"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7901,10 +7923,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="443">
+      <c r="D51" s="446">
         <v>5</v>
       </c>
-      <c r="E51" s="444"/>
+      <c r="E51" s="447"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7915,10 +7937,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="445" t="s">
+      <c r="D52" s="448" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="446"/>
+      <c r="E52" s="449"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9682,7 +9704,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9748,7 +9770,7 @@
       </c>
       <c r="I4" s="112">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.3893224991388458</v>
+        <v>2.3980838906671842</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9774,7 +9796,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I6" s="90">
         <f>C26/I26</f>
@@ -9788,14 +9810,14 @@
       </c>
       <c r="D7" s="82">
         <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.83528033405184</v>
+        <v>1.8420101118765928</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I7" s="90">
         <f>C25/I26</f>
@@ -9806,7 +9828,7 @@
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I8" s="90">
         <f>C24/I26</f>
@@ -10667,11 +10689,11 @@
         <v>295</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="447">
+      <c r="D52" s="450">
         <f>D53+D54+D55</f>
         <v>19676</v>
       </c>
-      <c r="E52" s="448"/>
+      <c r="E52" s="451"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10680,11 +10702,11 @@
         <v>265</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="450">
+      <c r="D53" s="453">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>19676</v>
       </c>
-      <c r="E53" s="440"/>
+      <c r="E53" s="370"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10700,10 +10722,10 @@
         <v>164</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="457">
+      <c r="D54" s="458">
         <v>0</v>
       </c>
-      <c r="E54" s="387"/>
+      <c r="E54" s="402"/>
       <c r="F54" s="6" t="s">
         <v>165</v>
       </c>
@@ -10714,10 +10736,10 @@
         <v>163</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="457">
+      <c r="D55" s="458">
         <v>0</v>
       </c>
-      <c r="E55" s="387"/>
+      <c r="E55" s="402"/>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
@@ -10732,8 +10754,8 @@
         <v>167</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="449"/>
-      <c r="E57" s="449"/>
+      <c r="D57" s="452"/>
+      <c r="E57" s="452"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10779,11 +10801,11 @@
         <v>168</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="455">
+      <c r="D60" s="456">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-21308.685000000056</v>
-      </c>
-      <c r="E60" s="456"/>
+        <v>-221308.70999999996</v>
+      </c>
+      <c r="E60" s="457"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10800,20 +10822,20 @@
       <c r="B63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="453">
+      <c r="D63" s="431">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-5.6597577264199846E-3</v>
       </c>
-      <c r="E63" s="454"/>
+      <c r="E63" s="432"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="451">
+      <c r="D64" s="454">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="452"/>
+      <c r="E64" s="455"/>
       <c r="F64" s="287" t="s">
         <v>281</v>
       </c>
@@ -10822,10 +10844,10 @@
       <c r="B65" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="451">
+      <c r="D65" s="454">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="452"/>
+      <c r="E65" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10860,8 +10882,8 @@
   </sheetPr>
   <dimension ref="A1:M903"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12327,7 +12349,7 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -12654,7 +12676,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C15" s="258">
         <f>C12</f>
@@ -12748,7 +12770,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.475699815537523E-2</v>
       </c>
-      <c r="E20" s="460" t="str">
+      <c r="E20" s="461" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12771,7 +12793,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6149987981251504E-4</v>
       </c>
-      <c r="E21" s="460"/>
+      <c r="E21" s="461"/>
       <c r="F21" s="169">
         <f>D18</f>
         <v>1.6488380438952446</v>
@@ -12793,11 +12815,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="463" t="s">
+      <c r="E23" s="464" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="463"/>
-      <c r="G23" s="463"/>
+      <c r="F23" s="464"/>
+      <c r="G23" s="464"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="148" t="str">
@@ -12825,7 +12847,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
@@ -12838,7 +12860,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>9.7153368871105567E-2</v>
       </c>
-      <c r="F25" s="461">
+      <c r="F25" s="462">
         <f ca="1">SUM(C15:F15)</f>
         <v>3.3043161952354558E-2</v>
       </c>
@@ -12850,7 +12872,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="323" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" s="324">
         <f t="shared" ref="C26" si="0">1/D26</f>
@@ -12863,7 +12885,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>0.2266911940325797</v>
       </c>
-      <c r="F26" s="462"/>
+      <c r="F26" s="463"/>
       <c r="G26" s="228">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.9747124916126673</v>
@@ -12900,7 +12922,7 @@
       </c>
       <c r="C29" s="273">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.9607422494919924</v>
+        <v>1.9679320828192832</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -12908,7 +12930,7 @@
       </c>
       <c r="E29" s="272">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>2.2438522672828158</v>
+        <v>2.252080234939966</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -12925,10 +12947,10 @@
       <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="458" t="s">
+      <c r="C31" s="459" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="459"/>
+      <c r="D31" s="460"/>
       <c r="E31" s="30" t="s">
         <v>248</v>
       </c>
@@ -12944,7 +12966,7 @@
       </c>
       <c r="C32" s="274">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>2.0907513770496085</v>
+        <v>2.0984179400227303</v>
       </c>
       <c r="D32" s="140" t="str">
         <f>Dashboard!J4</f>
@@ -12952,11 +12974,11 @@
       </c>
       <c r="E32" s="141">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.633244665904497</v>
+        <v>11.870587278367852</v>
       </c>
       <c r="F32" s="179">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.8969171743853841</v>
+        <v>0.89691717438538421</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="6"/>
@@ -12968,7 +12990,7 @@
       </c>
       <c r="C33" s="275">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>2.2675762819670271</v>
+        <v>2.2758912430632572</v>
       </c>
       <c r="D33" s="229" t="str">
         <f>D32</f>
@@ -12976,11 +12998,11 @@
       </c>
       <c r="E33" s="141">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.10741673346854</v>
+        <v>17.36483255279061</v>
       </c>
       <c r="F33" s="179">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.97277377590215652</v>
+        <v>0.97277377590215641</v>
       </c>
       <c r="G33" s="302">
         <f>Dashboard!D10+4.5%</f>
@@ -13935,7 +13957,7 @@
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="117"/>
       <c r="D3" s="115">
@@ -13949,7 +13971,7 @@
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="115">
@@ -13963,7 +13985,7 @@
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C5" s="117"/>
       <c r="D5" s="115">
@@ -13978,7 +14000,7 @@
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="117"/>
       <c r="D6" s="115">
@@ -13993,7 +14015,7 @@
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="117"/>
       <c r="D7" s="121">
@@ -14047,7 +14069,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D12" s="121">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -14234,7 +14256,7 @@
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="121">
         <f t="shared" si="2"/>
@@ -14248,7 +14270,7 @@
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" s="121">
         <f t="shared" si="2"/>
@@ -14313,7 +14335,7 @@
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D32" s="121">
         <f t="shared" si="3"/>
@@ -14327,7 +14349,7 @@
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D33" s="121">
         <f t="shared" si="3"/>
@@ -14341,7 +14363,7 @@
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D34" s="121">
         <f t="shared" si="3"/>
@@ -14355,7 +14377,7 @@
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D35" s="121">
         <f t="shared" si="3"/>
@@ -14397,7 +14419,7 @@
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" s="121">
         <f t="shared" si="4"/>
@@ -14411,7 +14433,7 @@
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D39" s="121">
         <f t="shared" si="4"/>
@@ -14425,7 +14447,7 @@
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" s="121">
         <f t="shared" si="4"/>
@@ -14439,7 +14461,7 @@
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D41" s="121">
         <f t="shared" si="4"/>
@@ -14593,7 +14615,7 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" s="121">
         <f t="shared" si="6"/>
@@ -14606,7 +14628,7 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D53" s="121">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
@@ -14621,7 +14643,7 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D54" s="125">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23406EE1-1DC9-4162-92D2-DBCBAB4DE6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926361E6-AF94-4B56-A289-9A731A46310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="370">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1235,6 +1235,66 @@
     <t>1. 可依托母公司立白的支持
 2. 通过IPO积累大量现金，Strong Balance Sheet with no debt
 3. 家居清潔業務市场地位比较稳定</t>
+  </si>
+  <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>4. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>5. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒ Half Kelly %</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = [W – (1 – W)/R] /2</t>
+    </r>
+  </si>
+  <si>
+    <t>capped at</t>
   </si>
 </sst>
 </file>
@@ -2942,7 +3002,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3864,6 +3924,30 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3884,9 +3968,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4012,6 +4093,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4118,17 +4202,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4137,16 +4211,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4168,6 +4238,13 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4208,8 +4285,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDD7E6B"/>
+          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4234,20 +4312,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDD7E6B"/>
-          <bgColor rgb="FFDD7E6B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4476,8 +4553,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4521,27 +4598,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="378" t="s">
+      <c r="C3" s="387" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="379"/>
+      <c r="D3" s="388"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="390" t="s">
+      <c r="I3" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="391"/>
+      <c r="J3" s="400"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="380" t="s">
+      <c r="C4" s="389" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="381"/>
+      <c r="D4" s="390"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4558,10 +4635,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="382">
+      <c r="C5" s="391">
         <v>44931</v>
       </c>
-      <c r="D5" s="381"/>
+      <c r="D5" s="390"/>
       <c r="E5" s="143" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4569,10 +4646,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="375">
+      <c r="I5" s="385">
         <v>1333333500</v>
       </c>
-      <c r="J5" s="376"/>
+      <c r="J5" s="386"/>
       <c r="K5" s="172"/>
       <c r="L5" s="106"/>
     </row>
@@ -4595,11 +4672,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="154"/>
-      <c r="I6" s="392">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
         <v>2320.0002899999999</v>
       </c>
-      <c r="J6" s="393"/>
+      <c r="J6" s="402"/>
       <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4673,30 +4750,30 @@
       <c r="B11" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="405">
+      <c r="C11" s="414">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="406"/>
+      <c r="D11" s="415"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="403" t="s">
+      <c r="I11" s="412" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="404"/>
+      <c r="J11" s="413"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="335" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="414">
+      <c r="C12" s="423">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="415"/>
+      <c r="D12" s="424"/>
       <c r="G12" s="155" t="s">
         <v>16</v>
       </c>
@@ -4767,14 +4844,14 @@
         <f>I4</f>
         <v>1.74</v>
       </c>
-      <c r="C16" s="421">
+      <c r="C16" s="430">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
         <v>0.10598732185214374</v>
       </c>
-      <c r="E16" s="418">
+      <c r="E16" s="427">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.9159724824596193E-2</v>
       </c>
@@ -4782,14 +4859,14 @@
         <f>E16/B16</f>
         <v>1.1011336106089765E-2</v>
       </c>
-      <c r="G16" s="397" t="s">
+      <c r="G16" s="406" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="394">
+      <c r="H16" s="403">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.9558636404063319</v>
       </c>
-      <c r="I16" s="397" t="s">
+      <c r="I16" s="406" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
@@ -4802,19 +4879,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>1.9076526727479364</v>
       </c>
-      <c r="C17" s="422"/>
+      <c r="C17" s="431"/>
       <c r="D17" s="310">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="419"/>
+      <c r="E17" s="428"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
         <v>1.0043612811863171E-2</v>
       </c>
-      <c r="G17" s="398"/>
-      <c r="H17" s="395"/>
-      <c r="I17" s="398"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="404"/>
+      <c r="I17" s="407"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
         <v>-4.8210967658395498E-2</v>
@@ -4823,24 +4900,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="364">
         <f>C35</f>
-        <v>1.74</v>
-      </c>
-      <c r="C18" s="423"/>
+        <v>1.7</v>
+      </c>
+      <c r="C18" s="432"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.10598732185214374</v>
-      </c>
-      <c r="E18" s="420"/>
+        <v>0.13436349413101775</v>
+      </c>
+      <c r="E18" s="429"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.1011336106089765E-2</v>
-      </c>
-      <c r="G18" s="399"/>
-      <c r="H18" s="396"/>
-      <c r="I18" s="399"/>
+        <v>1.1270426367409525E-2</v>
+      </c>
+      <c r="G18" s="408"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="408"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.21586364040633188</v>
+        <v>-0.25586364040633192</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4871,52 +4948,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="385" t="s">
+      <c r="C21" s="394" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386"/>
-      <c r="F21" s="386"/>
-      <c r="G21" s="386"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="387"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="395"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+      <c r="J21" s="396"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="401" t="s">
+      <c r="C22" s="410" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="402"/>
-      <c r="E22" s="402"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="401" t="s">
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="410" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="401"/>
-      <c r="I22" s="402"/>
-      <c r="J22" s="402"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="388" t="s">
+      <c r="C23" s="397" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="389"/>
-      <c r="E23" s="389"/>
-      <c r="F23" s="389"/>
-      <c r="G23" s="388" t="s">
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
+      <c r="F23" s="398"/>
+      <c r="G23" s="397" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="388"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="389"/>
+      <c r="H23" s="397"/>
+      <c r="I23" s="398"/>
+      <c r="J23" s="398"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -4960,240 +5037,369 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="383">
+      <c r="C26" s="392">
         <v>44932</v>
       </c>
-      <c r="D26" s="384"/>
-      <c r="E26" s="433" t="str">
+      <c r="D26" s="393"/>
+      <c r="E26" s="443" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="434"/>
-      <c r="G26" s="434"/>
-      <c r="H26" s="435"/>
-      <c r="I26" s="400" t="s">
+      <c r="F26" s="444"/>
+      <c r="G26" s="444"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="409" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="400"/>
+      <c r="J26" s="409"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="417">
+      <c r="C27" s="426">
         <f>C31/D25</f>
-        <v>6.4533333333333331E-2</v>
-      </c>
-      <c r="D27" s="374"/>
-      <c r="E27" s="416">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="D27" s="384"/>
+      <c r="E27" s="425">
         <f>E31/D25</f>
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="F27" s="374"/>
-      <c r="G27" s="408">
+        <v>5.6666666666666664E-2</v>
+      </c>
+      <c r="F27" s="384"/>
+      <c r="G27" s="417">
         <f>G31/D25</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="H27" s="409"/>
-      <c r="I27" s="407">
+      <c r="H27" s="418"/>
+      <c r="I27" s="416">
         <f>C27+E27+G27</f>
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="J27" s="407"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J27" s="416"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="412">
-        <v>22000</v>
-      </c>
-      <c r="D28" s="402"/>
-      <c r="E28" s="412">
-        <v>18000</v>
-      </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="375">
+      <c r="C28" s="421">
         <v>40000</v>
       </c>
-      <c r="H28" s="376"/>
-      <c r="I28" s="411">
+      <c r="D28" s="411"/>
+      <c r="E28" s="421">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="411"/>
+      <c r="G28" s="385">
+        <v>40000</v>
+      </c>
+      <c r="H28" s="386"/>
+      <c r="I28" s="420">
         <f>C28+E28+G28</f>
-        <v>80000</v>
-      </c>
-      <c r="J28" s="411"/>
+        <v>100000</v>
+      </c>
+      <c r="J28" s="420"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="425">
-        <v>1.76</v>
-      </c>
-      <c r="D29" s="402"/>
-      <c r="E29" s="425">
-        <v>1.74</v>
-      </c>
-      <c r="F29" s="402"/>
-      <c r="G29" s="438">
+      <c r="C29" s="435">
+        <v>1.75</v>
+      </c>
+      <c r="D29" s="411"/>
+      <c r="E29" s="435">
+        <v>1.7</v>
+      </c>
+      <c r="F29" s="411"/>
+      <c r="G29" s="448">
         <v>1.6</v>
       </c>
-      <c r="H29" s="439"/>
-      <c r="I29" s="410"/>
-      <c r="J29" s="410"/>
+      <c r="H29" s="449"/>
+      <c r="I29" s="419"/>
+      <c r="J29" s="419"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="377">
+      <c r="C30" s="433">
         <f>C29*$I$5/1000000</f>
-        <v>2346.66696</v>
-      </c>
-      <c r="D30" s="424"/>
-      <c r="E30" s="377">
+        <v>2333.3336250000002</v>
+      </c>
+      <c r="D30" s="434"/>
+      <c r="E30" s="433">
         <f>E29*$I$5/1000000</f>
-        <v>2320.0002899999999</v>
-      </c>
-      <c r="F30" s="424"/>
-      <c r="G30" s="440">
+        <v>2266.6669499999998</v>
+      </c>
+      <c r="F30" s="434"/>
+      <c r="G30" s="450">
         <f>G29*$I$5/1000000</f>
         <v>2133.3335999999999</v>
       </c>
-      <c r="H30" s="441"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="444"/>
+      <c r="H30" s="451"/>
+      <c r="I30" s="454"/>
+      <c r="J30" s="454"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="369">
+      <c r="C31" s="379">
         <f>C28*C29</f>
-        <v>38720</v>
-      </c>
-      <c r="D31" s="370"/>
-      <c r="E31" s="371">
+        <v>70000</v>
+      </c>
+      <c r="D31" s="380"/>
+      <c r="E31" s="381">
         <f>E28*E29</f>
-        <v>31320</v>
-      </c>
-      <c r="F31" s="372"/>
-      <c r="G31" s="442">
+        <v>34000</v>
+      </c>
+      <c r="F31" s="382"/>
+      <c r="G31" s="452">
         <f>G28*G29</f>
         <v>64000</v>
       </c>
-      <c r="H31" s="443"/>
-      <c r="I31" s="371">
+      <c r="H31" s="453"/>
+      <c r="I31" s="381">
         <f>C31+E31+G31</f>
-        <v>134040</v>
-      </c>
-      <c r="J31" s="371"/>
+        <v>168000</v>
+      </c>
+      <c r="J31" s="381"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="426"/>
-      <c r="D32" s="427"/>
-      <c r="E32" s="373">
+      <c r="C32" s="436"/>
+      <c r="D32" s="437"/>
+      <c r="E32" s="383">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="F32" s="374"/>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="F32" s="384"/>
       <c r="G32" s="138"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="373">
+      <c r="I32" s="383">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.6755</v>
-      </c>
-      <c r="J32" s="373"/>
+        <v>1.68</v>
+      </c>
+      <c r="J32" s="383"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="428"/>
-      <c r="D33" s="429"/>
-      <c r="E33" s="377">
+      <c r="C33" s="438"/>
+      <c r="D33" s="439"/>
+      <c r="E33" s="433">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2334.6669585</v>
-      </c>
-      <c r="F33" s="424"/>
+        <v>2311.1113999999998</v>
+      </c>
+      <c r="F33" s="434"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="377">
+      <c r="I33" s="433">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2234.0002792499999</v>
-      </c>
-      <c r="J33" s="377"/>
+        <v>2240.0002800000002</v>
+      </c>
+      <c r="J33" s="433"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="367">
+      <c r="C35" s="377">
         <f>E29</f>
-        <v>1.74</v>
-      </c>
-      <c r="D35" s="368"/>
-      <c r="G35" s="436" t="s">
+        <v>1.7</v>
+      </c>
+      <c r="D35" s="378"/>
+      <c r="G35" s="446" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="367">
-        <f ca="1">'FCFF Model'!C33</f>
-        <v>2.2758912430632572</v>
-      </c>
-      <c r="J35" s="368"/>
+      <c r="H35" s="447"/>
+      <c r="I35" s="377">
+        <f ca="1">'FCFF Model'!E29</f>
+        <v>2.252080234939966</v>
+      </c>
+      <c r="J35" s="378"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="412">
+      <c r="C36" s="421">
         <f>E28</f>
-        <v>18000</v>
-      </c>
-      <c r="D36" s="413"/>
-      <c r="G36" s="430" t="s">
+        <v>20000</v>
+      </c>
+      <c r="D36" s="422"/>
+      <c r="G36" s="440" t="s">
         <v>354</v>
       </c>
-      <c r="H36" s="430"/>
-      <c r="I36" s="431">
+      <c r="H36" s="440"/>
+      <c r="I36" s="441">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
-        <v>0.29312002446775987</v>
-      </c>
-      <c r="J36" s="432"/>
+        <v>0.28690299139426623</v>
+      </c>
+      <c r="J36" s="442"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="374" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="374"/>
+      <c r="I38" s="374"/>
+      <c r="J38" s="374"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="235">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.48000000000000009</v>
+      </c>
+      <c r="G39" s="375"/>
+      <c r="H39" s="373"/>
+      <c r="I39" s="373"/>
+      <c r="J39" s="373"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="235">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="376"/>
+      <c r="H40" s="376"/>
+      <c r="I40" s="376"/>
+      <c r="J40" s="376"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E41" s="367">
+        <f ca="1">I35/C29-1</f>
+        <v>0.28690299139426623</v>
+      </c>
+      <c r="F41" s="368">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.45921768707482991</v>
+      </c>
+      <c r="G41" s="375" t="s">
+        <v>360</v>
+      </c>
+      <c r="H41" s="373"/>
+      <c r="I41" s="373"/>
+      <c r="J41" s="373"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F42" s="369">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="376" t="s">
+        <v>362</v>
+      </c>
+      <c r="H42" s="376"/>
+      <c r="I42" s="376"/>
+      <c r="J42" s="376"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E43" s="367">
+        <f>IF(F43="Strongly disagree",0,IF(F43="disagree",1,IF(F43="unclear",2,IF(F43="agree",3,4))))/4</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G43" s="373"/>
+      <c r="H43" s="373"/>
+      <c r="I43" s="373"/>
+      <c r="J43" s="373"/>
+    </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F45" s="368">
+        <f ca="1">I35/C29-1</f>
+        <v>0.28690299139426623</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F46" s="368">
+        <f ca="1">'FCFF Model'!C29/C29-1</f>
+        <v>0.12453261875387622</v>
+      </c>
+    </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="235">
+        <f>AVERAGE(F39:F41,1-F42,E43)</f>
+        <v>0.64784353741496603</v>
+      </c>
+      <c r="G48" s="95"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F49" s="370">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>100</v>
+      </c>
+      <c r="G49" s="95"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F50" s="371">
+        <f ca="1">MIN((F48-(1-F48)/F49)/2,H50)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="372" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="99">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6097,7 +6303,7 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="60">
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I32:J32"/>
@@ -6109,6 +6315,7 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E27:F27"/>
@@ -6125,13 +6332,11 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G23:J23"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I33:J33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6147,18 +6352,30 @@
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
   </mergeCells>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C35:D36">
+    <cfRule type="containsBlanks" priority="4">
+      <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="containsBlanks" priority="2">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:G29 I26 I28:I29">
     <cfRule type="containsBlanks" priority="17">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -6168,9 +6385,9 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
-      <formula>$B$16</formula>
+  <conditionalFormatting sqref="E26:H26">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
@@ -6178,9 +6395,14 @@
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
-      <formula>LEN(TRIM(C35))=0</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+      <formula>$B$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
@@ -6188,17 +6410,7 @@
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6210,6 +6422,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F43" xr:uid="{DF616270-17B9-4998-A8A3-F67BC72D6F30}">
+      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7905,10 +8120,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="445" t="s">
+      <c r="D49" s="455" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="402"/>
+      <c r="E49" s="411"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7923,10 +8138,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="446">
+      <c r="D51" s="456">
         <v>5</v>
       </c>
-      <c r="E51" s="447"/>
+      <c r="E51" s="457"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7937,10 +8152,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="448" t="s">
+      <c r="D52" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="449"/>
+      <c r="E52" s="459"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9660,23 +9875,23 @@
     <mergeCell ref="D52:E52"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:F73">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$D$49="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:M46 C7:M35">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+  <conditionalFormatting sqref="C7:M35 D42:M46">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(C7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
-      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
     <cfRule type="containsBlanks" dxfId="7" priority="4">
       <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:M18">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9704,7 +9919,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9809,7 +10024,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="82">
-        <f>MAX((D6*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.8420101118765928</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10689,11 +10904,11 @@
         <v>295</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="450">
+      <c r="D52" s="460">
         <f>D53+D54+D55</f>
         <v>19676</v>
       </c>
-      <c r="E52" s="451"/>
+      <c r="E52" s="461"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10702,11 +10917,11 @@
         <v>265</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="453">
+      <c r="D53" s="463">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>19676</v>
       </c>
-      <c r="E53" s="370"/>
+      <c r="E53" s="380"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10722,10 +10937,10 @@
         <v>164</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="458">
+      <c r="D54" s="468">
         <v>0</v>
       </c>
-      <c r="E54" s="402"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="6" t="s">
         <v>165</v>
       </c>
@@ -10736,10 +10951,10 @@
         <v>163</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="458">
+      <c r="D55" s="468">
         <v>0</v>
       </c>
-      <c r="E55" s="402"/>
+      <c r="E55" s="411"/>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
@@ -10754,8 +10969,8 @@
         <v>167</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="452"/>
-      <c r="E57" s="452"/>
+      <c r="D57" s="462"/>
+      <c r="E57" s="462"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10801,11 +11016,11 @@
         <v>168</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="456">
+      <c r="D60" s="466">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>-221308.70999999996</v>
       </c>
-      <c r="E60" s="457"/>
+      <c r="E60" s="467"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10822,20 +11037,20 @@
       <c r="B63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="431">
+      <c r="D63" s="441">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-5.6597577264199846E-3</v>
       </c>
-      <c r="E63" s="432"/>
+      <c r="E63" s="442"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="454">
+      <c r="D64" s="464">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="455"/>
+      <c r="E64" s="465"/>
       <c r="F64" s="287" t="s">
         <v>281</v>
       </c>
@@ -10844,10 +11059,10 @@
       <c r="B65" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="454">
+      <c r="D65" s="464">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="455"/>
+      <c r="E65" s="465"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12302,38 +12517,32 @@
     <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="G10:H13 I12 I14:I17 G15:H17 H14 I9:I10 H9">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
-      <formula>LEN(TRIM(G9))=0</formula>
+  <conditionalFormatting sqref="E18:E20 G20 I20">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:H13 G15:H17 H9 H14">
     <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 I13 I11">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G15:H17">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(G15))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:J13 G15:J20 H9:J9 H14:J14">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(G9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:J17">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J17">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="5">
-      <formula>LEN(TRIM(J9))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E20 G20 I20">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(E18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:J13 H9:J9 G15:J20 H14:J14">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -12349,8 +12558,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12754,7 +12963,7 @@
         <v>268</v>
       </c>
       <c r="G19" s="218">
-        <f>G18*Data!C$4/Dashboard!I5</f>
+        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>1.7149781356277329</v>
       </c>
     </row>
@@ -12770,7 +12979,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.475699815537523E-2</v>
       </c>
-      <c r="E20" s="461" t="str">
+      <c r="E20" s="471" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12793,7 +13002,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6149987981251504E-4</v>
       </c>
-      <c r="E21" s="461"/>
+      <c r="E21" s="471"/>
       <c r="F21" s="169">
         <f>D18</f>
         <v>1.6488380438952446</v>
@@ -12815,11 +13024,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="464" t="s">
+      <c r="E23" s="474" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="464"/>
-      <c r="G23" s="464"/>
+      <c r="F23" s="474"/>
+      <c r="G23" s="474"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="148" t="str">
@@ -12860,7 +13069,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>9.7153368871105567E-2</v>
       </c>
-      <c r="F25" s="462">
+      <c r="F25" s="472">
         <f ca="1">SUM(C15:F15)</f>
         <v>3.3043161952354558E-2</v>
       </c>
@@ -12885,7 +13094,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>0.2266911940325797</v>
       </c>
-      <c r="F26" s="463"/>
+      <c r="F26" s="473"/>
       <c r="G26" s="228">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.9747124916126673</v>
@@ -12947,10 +13156,10 @@
       <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="459" t="s">
+      <c r="C31" s="469" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="460"/>
+      <c r="D31" s="470"/>
       <c r="E31" s="30" t="s">
         <v>248</v>
       </c>
@@ -13905,14 +14114,14 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:F6 E8:F9 F7 E13:F15">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:E26 G25:G26">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+      <formula>$E$29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26 G25:G26">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$29</formula>
+  <conditionalFormatting sqref="E4:F6 E8:F9 E13:F15 F7">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13927,7 +14136,7 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926361E6-AF94-4B56-A289-9A731A46310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4AD3C0-C73B-49FA-B940-821B5E057C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="370">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1301,7 +1301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1327,6 +1327,7 @@
     <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="185" formatCode="&quot;Next Action Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -3002,7 +3003,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3928,9 +3929,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3940,163 +3938,105 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4105,47 +4045,103 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4202,7 +4198,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4308,6 +4304,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4553,8 +4559,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4598,33 +4604,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="387" t="s">
+      <c r="C3" s="425" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="388"/>
+      <c r="D3" s="426"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="399" t="s">
+      <c r="I3" s="437" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="400"/>
+      <c r="J3" s="438"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="389" t="s">
+      <c r="C4" s="427" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="390"/>
+      <c r="D4" s="428"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4635,10 +4641,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="391">
+      <c r="C5" s="429">
         <v>44931</v>
       </c>
-      <c r="D5" s="390"/>
+      <c r="D5" s="428"/>
       <c r="E5" s="143" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4646,10 +4652,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="385">
+      <c r="I5" s="439">
         <v>1333333500</v>
       </c>
-      <c r="J5" s="386"/>
+      <c r="J5" s="440"/>
       <c r="K5" s="172"/>
       <c r="L5" s="106"/>
     </row>
@@ -4672,11 +4678,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="154"/>
-      <c r="I6" s="401">
+      <c r="I6" s="441">
         <f>I4*I5/1000000</f>
-        <v>2320.0002899999999</v>
-      </c>
-      <c r="J6" s="402"/>
+        <v>2426.6669700000002</v>
+      </c>
+      <c r="J6" s="442"/>
       <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4685,7 +4691,7 @@
       </c>
       <c r="C7" s="166">
         <f>(Data!C39)/I4</f>
-        <v>2.5287496839062895E-2</v>
+        <v>2.4175958516466721E-2</v>
       </c>
       <c r="D7" s="166">
         <f>(Data!C40)/I4</f>
@@ -4716,11 +4722,11 @@
       </c>
       <c r="I9" s="142">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>22.089273519148335</v>
+        <v>23.120919078488924</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.5270841484811114E-2</v>
+        <v>4.3250875823979372E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4739,7 +4745,7 @@
       </c>
       <c r="I10" s="159">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.74372023497552808</v>
+        <v>0.77845454514372525</v>
       </c>
       <c r="J10" s="151" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4750,36 +4756,36 @@
       <c r="B11" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="414">
+      <c r="C11" s="449">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="415"/>
+      <c r="D11" s="450"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="412" t="s">
+      <c r="I11" s="447" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="413"/>
+      <c r="J11" s="448"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="335" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="423">
+      <c r="C12" s="398">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="424"/>
+      <c r="D12" s="399"/>
       <c r="G12" s="155" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="154"/>
       <c r="I12" s="156">
-        <v>1.1404598109878687</v>
+        <v>1.1396682895075876</v>
       </c>
       <c r="J12" s="157" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4797,21 +4803,21 @@
       </c>
       <c r="D14" s="205">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.9679320828192832</v>
+        <v>1.9665662648393085</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="205">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>2.252080234939966</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="G14" s="206" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="214">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>2.0984179400227303</v>
+        <v>2.0969615600099205</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="154"/>
@@ -4842,59 +4848,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="152">
         <f>I4</f>
-        <v>1.74</v>
-      </c>
-      <c r="C16" s="430">
+        <v>1.82</v>
+      </c>
+      <c r="C16" s="406">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
-        <v>0.10598732185214374</v>
-      </c>
-      <c r="E16" s="427">
+        <v>5.2176681324132085E-2</v>
+      </c>
+      <c r="E16" s="403">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>1.9159724824596193E-2</v>
+        <v>1.9146427263727471E-2</v>
       </c>
       <c r="F16" s="182">
         <f>E16/B16</f>
-        <v>1.1011336106089765E-2</v>
-      </c>
-      <c r="G16" s="406" t="s">
+        <v>1.0520014980070038E-2</v>
+      </c>
+      <c r="G16" s="417" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="403">
+      <c r="H16" s="443">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.9558636404063319</v>
-      </c>
-      <c r="I16" s="406" t="s">
+        <v>1.9545061983737699</v>
+      </c>
+      <c r="I16" s="417" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
         <f>B16-$H$16</f>
-        <v>-0.21586364040633188</v>
+        <v>-0.13450619837376987</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="311">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.9076526727479364</v>
-      </c>
-      <c r="C17" s="431"/>
+        <v>1.9063286909181094</v>
+      </c>
+      <c r="C17" s="407"/>
       <c r="D17" s="310">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="428"/>
+      <c r="E17" s="404"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
         <v>1.0043612811863171E-2</v>
       </c>
-      <c r="G17" s="407"/>
-      <c r="H17" s="404"/>
-      <c r="I17" s="407"/>
+      <c r="G17" s="418"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="418"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
-        <v>-4.8210967658395498E-2</v>
+        <v>-4.8177507455660518E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4902,22 +4908,22 @@
         <f>C35</f>
         <v>1.7</v>
       </c>
-      <c r="C18" s="432"/>
+      <c r="C18" s="408"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.13436349413101775</v>
-      </c>
-      <c r="E18" s="429"/>
+        <v>0.13350680000583556</v>
+      </c>
+      <c r="E18" s="405"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.1270426367409525E-2</v>
-      </c>
-      <c r="G18" s="408"/>
-      <c r="H18" s="405"/>
-      <c r="I18" s="408"/>
+        <v>1.1262604272780866E-2</v>
+      </c>
+      <c r="G18" s="419"/>
+      <c r="H18" s="445"/>
+      <c r="I18" s="419"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.25586364040633192</v>
+        <v>-0.25450619837376998</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4948,52 +4954,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="394" t="s">
+      <c r="C21" s="432" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="396"/>
+      <c r="D21" s="433"/>
+      <c r="E21" s="433"/>
+      <c r="F21" s="433"/>
+      <c r="G21" s="433"/>
+      <c r="H21" s="433"/>
+      <c r="I21" s="433"/>
+      <c r="J21" s="434"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="410" t="s">
+      <c r="C22" s="409" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="411"/>
-      <c r="E22" s="411"/>
-      <c r="F22" s="411"/>
-      <c r="G22" s="410" t="s">
+      <c r="D22" s="410"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="410"/>
+      <c r="G22" s="409" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="410"/>
-      <c r="I22" s="411"/>
-      <c r="J22" s="411"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="410"/>
+      <c r="J22" s="410"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="397" t="s">
+      <c r="C23" s="435" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="398"/>
-      <c r="E23" s="398"/>
-      <c r="F23" s="398"/>
-      <c r="G23" s="397" t="s">
+      <c r="D23" s="436"/>
+      <c r="E23" s="436"/>
+      <c r="F23" s="436"/>
+      <c r="G23" s="435" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="397"/>
-      <c r="I23" s="398"/>
-      <c r="J23" s="398"/>
+      <c r="H23" s="435"/>
+      <c r="I23" s="436"/>
+      <c r="J23" s="436"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5030,230 +5036,230 @@
       </c>
       <c r="J25" s="366">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.6787343520181843</v>
+        <v>1.6775692480079365</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="392">
+      <c r="C26" s="430">
         <v>44932</v>
       </c>
-      <c r="D26" s="393"/>
-      <c r="E26" s="443" t="str">
+      <c r="D26" s="431"/>
+      <c r="E26" s="380" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="444"/>
-      <c r="G26" s="444"/>
-      <c r="H26" s="445"/>
-      <c r="I26" s="409" t="s">
+      <c r="F26" s="381"/>
+      <c r="G26" s="381"/>
+      <c r="H26" s="382"/>
+      <c r="I26" s="446" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="409"/>
+      <c r="J26" s="446"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="426">
+      <c r="C27" s="402">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D27" s="384"/>
-      <c r="E27" s="425">
+      <c r="D27" s="401"/>
+      <c r="E27" s="400">
         <f>E31/D25</f>
         <v>5.6666666666666664E-2</v>
       </c>
-      <c r="F27" s="384"/>
-      <c r="G27" s="417">
+      <c r="F27" s="401"/>
+      <c r="G27" s="421">
         <f>G31/D25</f>
         <v>0.10666666666666667</v>
       </c>
-      <c r="H27" s="418"/>
-      <c r="I27" s="416">
+      <c r="H27" s="422"/>
+      <c r="I27" s="420">
         <f>C27+E27+G27</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J27" s="416"/>
+      <c r="J27" s="420"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="421">
+      <c r="C28" s="396">
         <v>40000</v>
       </c>
-      <c r="D28" s="411"/>
-      <c r="E28" s="421">
+      <c r="D28" s="410"/>
+      <c r="E28" s="396">
         <v>20000</v>
       </c>
-      <c r="F28" s="411"/>
-      <c r="G28" s="385">
+      <c r="F28" s="410"/>
+      <c r="G28" s="439">
         <v>40000</v>
       </c>
-      <c r="H28" s="386"/>
-      <c r="I28" s="420">
+      <c r="H28" s="440"/>
+      <c r="I28" s="424">
         <f>C28+E28+G28</f>
         <v>100000</v>
       </c>
-      <c r="J28" s="420"/>
+      <c r="J28" s="424"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="435">
+      <c r="C29" s="412">
         <v>1.75</v>
       </c>
-      <c r="D29" s="411"/>
-      <c r="E29" s="435">
+      <c r="D29" s="410"/>
+      <c r="E29" s="412">
         <v>1.7</v>
       </c>
-      <c r="F29" s="411"/>
-      <c r="G29" s="448">
+      <c r="F29" s="410"/>
+      <c r="G29" s="385">
         <v>1.6</v>
       </c>
-      <c r="H29" s="449"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
+      <c r="H29" s="386"/>
+      <c r="I29" s="423"/>
+      <c r="J29" s="423"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="433">
+      <c r="C30" s="395">
         <f>C29*$I$5/1000000</f>
         <v>2333.3336250000002</v>
       </c>
-      <c r="D30" s="434"/>
-      <c r="E30" s="433">
+      <c r="D30" s="411"/>
+      <c r="E30" s="395">
         <f>E29*$I$5/1000000</f>
         <v>2266.6669499999998</v>
       </c>
-      <c r="F30" s="434"/>
-      <c r="G30" s="450">
+      <c r="F30" s="411"/>
+      <c r="G30" s="387">
         <f>G29*$I$5/1000000</f>
         <v>2133.3335999999999</v>
       </c>
-      <c r="H30" s="451"/>
-      <c r="I30" s="454"/>
-      <c r="J30" s="454"/>
+      <c r="H30" s="388"/>
+      <c r="I30" s="391"/>
+      <c r="J30" s="391"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="379">
+      <c r="C31" s="451">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="380"/>
-      <c r="E31" s="381">
+      <c r="D31" s="452"/>
+      <c r="E31" s="392">
         <f>E28*E29</f>
         <v>34000</v>
       </c>
-      <c r="F31" s="382"/>
-      <c r="G31" s="452">
+      <c r="F31" s="453"/>
+      <c r="G31" s="389">
         <f>G28*G29</f>
         <v>64000</v>
       </c>
-      <c r="H31" s="453"/>
-      <c r="I31" s="381">
+      <c r="H31" s="390"/>
+      <c r="I31" s="392">
         <f>C31+E31+G31</f>
         <v>168000</v>
       </c>
-      <c r="J31" s="381"/>
+      <c r="J31" s="392"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="436"/>
-      <c r="D32" s="437"/>
-      <c r="E32" s="383">
+      <c r="C32" s="413"/>
+      <c r="D32" s="414"/>
+      <c r="E32" s="379">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.7333333333333334</v>
       </c>
-      <c r="F32" s="384"/>
+      <c r="F32" s="401"/>
       <c r="G32" s="138"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="383">
+      <c r="I32" s="379">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.68</v>
       </c>
-      <c r="J32" s="383"/>
+      <c r="J32" s="379"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="438"/>
-      <c r="D33" s="439"/>
-      <c r="E33" s="433">
+      <c r="C33" s="415"/>
+      <c r="D33" s="416"/>
+      <c r="E33" s="395">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2311.1113999999998</v>
       </c>
-      <c r="F33" s="434"/>
+      <c r="F33" s="411"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="433">
+      <c r="I33" s="395">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2240.0002800000002</v>
       </c>
-      <c r="J33" s="433"/>
+      <c r="J33" s="395"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="377">
+      <c r="C35" s="393">
         <f>E29</f>
         <v>1.7</v>
       </c>
-      <c r="D35" s="378"/>
-      <c r="G35" s="446" t="s">
+      <c r="D35" s="394"/>
+      <c r="G35" s="383" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="447"/>
-      <c r="I35" s="377">
+      <c r="H35" s="384"/>
+      <c r="I35" s="393">
         <f ca="1">'FCFF Model'!E29</f>
-        <v>2.252080234939966</v>
-      </c>
-      <c r="J35" s="378"/>
+        <v>2.2505172075854749</v>
+      </c>
+      <c r="J35" s="394"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="421">
+      <c r="C36" s="396">
         <f>E28</f>
         <v>20000</v>
       </c>
-      <c r="D36" s="422"/>
-      <c r="G36" s="440" t="s">
+      <c r="D36" s="397"/>
+      <c r="G36" s="376" t="s">
         <v>354</v>
       </c>
-      <c r="H36" s="440"/>
-      <c r="I36" s="441">
+      <c r="H36" s="376"/>
+      <c r="I36" s="377">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
-        <v>0.28690299139426623</v>
-      </c>
-      <c r="J36" s="442"/>
+        <v>0.28600983290598569</v>
+      </c>
+      <c r="J36" s="378"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="374" t="s">
+      <c r="G38" s="373" t="s">
         <v>169</v>
       </c>
-      <c r="H38" s="374"/>
-      <c r="I38" s="374"/>
-      <c r="J38" s="374"/>
+      <c r="H38" s="373"/>
+      <c r="I38" s="373"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -5263,10 +5269,10 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.48000000000000009</v>
       </c>
-      <c r="G39" s="375"/>
-      <c r="H39" s="373"/>
-      <c r="I39" s="373"/>
-      <c r="J39" s="373"/>
+      <c r="G39" s="372"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
@@ -5276,60 +5282,58 @@
         <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
         <v>0.8</v>
       </c>
-      <c r="G40" s="376"/>
-      <c r="H40" s="376"/>
-      <c r="I40" s="376"/>
-      <c r="J40" s="376"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
     </row>
     <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E41" s="367">
-        <f ca="1">I35/C29-1</f>
-        <v>0.28690299139426623</v>
-      </c>
+      <c r="E41" s="367"/>
       <c r="F41" s="368">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.45921768707482991</v>
       </c>
-      <c r="G41" s="375" t="s">
+      <c r="G41" s="372" t="s">
         <v>360</v>
       </c>
-      <c r="H41" s="373"/>
-      <c r="I41" s="373"/>
-      <c r="J41" s="373"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F42" s="369">
-        <f>AVERAGE(80%*0.5,0.6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="376" t="s">
+      <c r="E42" s="367">
+        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="F42" s="123" t="str">
+        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Agree</v>
+      </c>
+      <c r="G42" s="95" t="s">
         <v>362</v>
       </c>
-      <c r="H42" s="376"/>
-      <c r="I42" s="376"/>
-      <c r="J42" s="376"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="367">
-        <f>IF(F43="Strongly disagree",0,IF(F43="disagree",1,IF(F43="unclear",2,IF(F43="agree",3,4))))/4</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43" s="373"/>
-      <c r="H43" s="373"/>
-      <c r="I43" s="373"/>
-      <c r="J43" s="373"/>
+      <c r="F43" s="374">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5338,7 +5342,7 @@
       </c>
       <c r="F45" s="368">
         <f ca="1">I35/C29-1</f>
-        <v>0.28690299139426623</v>
+        <v>0.28600983290598569</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5346,8 +5350,8 @@
         <v>365</v>
       </c>
       <c r="F46" s="368">
-        <f ca="1">'FCFF Model'!C29/C29-1</f>
-        <v>0.12453261875387622</v>
+        <f ca="1">D14/C29-1</f>
+        <v>0.12375215133674766</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5356,8 +5360,8 @@
         <v>366</v>
       </c>
       <c r="F48" s="235">
-        <f>AVERAGE(F39:F41,1-F42,E43)</f>
-        <v>0.64784353741496603</v>
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.59784353741496599</v>
       </c>
       <c r="G48" s="95"/>
     </row>
@@ -5365,7 +5369,11 @@
       <c r="B49" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F49" s="370">
+      <c r="E49" s="375">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>2.3111503906522901</v>
+      </c>
+      <c r="F49" s="369">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>100</v>
       </c>
@@ -5375,11 +5383,15 @@
       <c r="B50" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F50" s="371">
-        <f ca="1">MIN((F48-(1-F48)/F49)/2,H50)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G50" s="372" t="s">
+      <c r="E50" s="128">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.29691098639455782</v>
+      </c>
+      <c r="F50" s="370">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.29691098639455782</v>
+      </c>
+      <c r="G50" s="371" t="s">
         <v>369</v>
       </c>
       <c r="H50" s="99">
@@ -6303,19 +6315,33 @@
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
+  <mergeCells count="54">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E27:F27"/>
@@ -6332,81 +6358,66 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="4">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="17">
+    <cfRule type="containsBlanks" priority="19">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="3">
+    <cfRule type="containsBlanks" priority="5">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6423,8 +6434,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F43" xr:uid="{DF616270-17B9-4998-A8A3-F67BC72D6F30}">
-      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{C4F39980-E89F-4A27-9BCC-02EE39BCDEC6}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8120,10 +8131,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="455" t="s">
+      <c r="D49" s="454" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="411"/>
+      <c r="E49" s="410"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8138,10 +8149,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="456">
+      <c r="D51" s="455">
         <v>5</v>
       </c>
-      <c r="E51" s="457"/>
+      <c r="E51" s="456"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8152,10 +8163,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="458" t="s">
+      <c r="D52" s="457" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="459"/>
+      <c r="E52" s="458"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9985,7 +9996,7 @@
       </c>
       <c r="I4" s="112">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.3980838906671842</v>
+        <v>2.3964195313511514</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10025,7 +10036,7 @@
       </c>
       <c r="D7" s="82">
         <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.8420101118765928</v>
+        <v>1.840731688422826</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10904,11 +10915,11 @@
         <v>295</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="460">
+      <c r="D52" s="459">
         <f>D53+D54+D55</f>
         <v>19676</v>
       </c>
-      <c r="E52" s="461"/>
+      <c r="E52" s="460"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10917,11 +10928,11 @@
         <v>265</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="463">
+      <c r="D53" s="462">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>19676</v>
       </c>
-      <c r="E53" s="380"/>
+      <c r="E53" s="452"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10937,10 +10948,10 @@
         <v>164</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="468">
+      <c r="D54" s="467">
         <v>0</v>
       </c>
-      <c r="E54" s="411"/>
+      <c r="E54" s="410"/>
       <c r="F54" s="6" t="s">
         <v>165</v>
       </c>
@@ -10951,10 +10962,10 @@
         <v>163</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="468">
+      <c r="D55" s="467">
         <v>0</v>
       </c>
-      <c r="E55" s="411"/>
+      <c r="E55" s="410"/>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
@@ -10969,8 +10980,8 @@
         <v>167</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="462"/>
-      <c r="E57" s="462"/>
+      <c r="D57" s="461"/>
+      <c r="E57" s="461"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11016,11 +11027,11 @@
         <v>168</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="466">
+      <c r="D60" s="465">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-221308.70999999996</v>
-      </c>
-      <c r="E60" s="467"/>
+        <v>-114642.0299999998</v>
+      </c>
+      <c r="E60" s="466"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11037,20 +11048,20 @@
       <c r="B63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="441">
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-5.6597577264199846E-3</v>
       </c>
-      <c r="E63" s="442"/>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="464">
+      <c r="D64" s="463">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="465"/>
+      <c r="E64" s="464"/>
       <c r="F64" s="287" t="s">
         <v>281</v>
       </c>
@@ -11059,10 +11070,10 @@
       <c r="B65" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="464">
+      <c r="D65" s="463">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="465"/>
+      <c r="E65" s="464"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12979,7 +12990,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.475699815537523E-2</v>
       </c>
-      <c r="E20" s="471" t="str">
+      <c r="E20" s="470" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13002,7 +13013,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6149987981251504E-4</v>
       </c>
-      <c r="E21" s="471"/>
+      <c r="E21" s="470"/>
       <c r="F21" s="169">
         <f>D18</f>
         <v>1.6488380438952446</v>
@@ -13024,11 +13035,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="474" t="s">
+      <c r="E23" s="473" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="474"/>
-      <c r="G23" s="474"/>
+      <c r="F23" s="473"/>
+      <c r="G23" s="473"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="148" t="str">
@@ -13069,7 +13080,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>9.7153368871105567E-2</v>
       </c>
-      <c r="F25" s="472">
+      <c r="F25" s="471">
         <f ca="1">SUM(C15:F15)</f>
         <v>3.3043161952354558E-2</v>
       </c>
@@ -13094,7 +13105,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>0.2266911940325797</v>
       </c>
-      <c r="F26" s="473"/>
+      <c r="F26" s="472"/>
       <c r="G26" s="228">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.9747124916126673</v>
@@ -13131,7 +13142,7 @@
       </c>
       <c r="C29" s="273">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.9679320828192832</v>
+        <v>1.9665662648393085</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -13139,7 +13150,7 @@
       </c>
       <c r="E29" s="272">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>2.252080234939966</v>
+        <v>2.2505172075854749</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -13156,10 +13167,10 @@
       <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="469" t="s">
+      <c r="C31" s="468" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="470"/>
+      <c r="D31" s="469"/>
       <c r="E31" s="30" t="s">
         <v>248</v>
       </c>
@@ -13175,7 +13186,7 @@
       </c>
       <c r="C32" s="274">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>2.0984179400227303</v>
+        <v>2.0969615600099205</v>
       </c>
       <c r="D32" s="140" t="str">
         <f>Dashboard!J4</f>
@@ -13183,11 +13194,11 @@
       </c>
       <c r="E32" s="141">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.870587278367852</v>
+        <v>11.825500446342661</v>
       </c>
       <c r="F32" s="179">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.89691717438538421</v>
+        <v>0.8969171743853841</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="6"/>
@@ -13199,7 +13210,7 @@
       </c>
       <c r="C33" s="275">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>2.2758912430632572</v>
+        <v>2.2743116899844793</v>
       </c>
       <c r="D33" s="229" t="str">
         <f>D32</f>
@@ -13207,11 +13218,11 @@
       </c>
       <c r="E33" s="141">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.36483255279061</v>
+        <v>17.315932510417511</v>
       </c>
       <c r="F33" s="179">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.97277377590215641</v>
+        <v>0.97277377590215652</v>
       </c>
       <c r="G33" s="302">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C4AD3C0-C73B-49FA-B940-821B5E057C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0CB65-C805-4A1D-A9D3-E17D2E43B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1252,13 +1252,7 @@
     <t>80% chance of recession in US, and 50% chance of spilling over</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t>60% chance of chinese recession</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
   </si>
   <si>
     <t>A = Upside in event of a win</t>
@@ -1295,6 +1289,12 @@
   </si>
   <si>
     <t>capped at</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -3944,58 +3944,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4011,7 +4069,6 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4033,10 +4090,9 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4045,103 +4101,47 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4560,7 +4560,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="G31" sqref="C31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4604,27 +4604,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="425" t="s">
+      <c r="C3" s="386" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="426"/>
+      <c r="D3" s="387"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="437" t="s">
+      <c r="I3" s="398" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="438"/>
+      <c r="J3" s="399"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="427" t="s">
+      <c r="C4" s="388" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="428"/>
+      <c r="D4" s="389"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4641,10 +4641,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="429">
+      <c r="C5" s="390">
         <v>44931</v>
       </c>
-      <c r="D5" s="428"/>
+      <c r="D5" s="389"/>
       <c r="E5" s="143" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4652,10 +4652,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="439">
+      <c r="I5" s="384">
         <v>1333333500</v>
       </c>
-      <c r="J5" s="440"/>
+      <c r="J5" s="385"/>
       <c r="K5" s="172"/>
       <c r="L5" s="106"/>
     </row>
@@ -4678,11 +4678,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="154"/>
-      <c r="I6" s="441">
+      <c r="I6" s="400">
         <f>I4*I5/1000000</f>
         <v>2426.6669700000002</v>
       </c>
-      <c r="J6" s="442"/>
+      <c r="J6" s="401"/>
       <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4756,30 +4756,30 @@
       <c r="B11" s="334" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="449">
+      <c r="C11" s="413">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="450"/>
+      <c r="D11" s="414"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="447" t="s">
+      <c r="I11" s="411" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="448"/>
+      <c r="J11" s="412"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="335" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="398">
+      <c r="C12" s="422">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="399"/>
+      <c r="D12" s="423"/>
       <c r="G12" s="155" t="s">
         <v>16</v>
       </c>
@@ -4850,14 +4850,14 @@
         <f>I4</f>
         <v>1.82</v>
       </c>
-      <c r="C16" s="406">
+      <c r="C16" s="429">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
         <v>5.2176681324132085E-2</v>
       </c>
-      <c r="E16" s="403">
+      <c r="E16" s="426">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.9146427263727471E-2</v>
       </c>
@@ -4865,14 +4865,14 @@
         <f>E16/B16</f>
         <v>1.0520014980070038E-2</v>
       </c>
-      <c r="G16" s="417" t="s">
+      <c r="G16" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="443">
+      <c r="H16" s="402">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.9545061983737699</v>
       </c>
-      <c r="I16" s="417" t="s">
+      <c r="I16" s="405" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
@@ -4885,19 +4885,19 @@
         <f ca="1">H14/(1+C16)</f>
         <v>1.9063286909181094</v>
       </c>
-      <c r="C17" s="407"/>
+      <c r="C17" s="430"/>
       <c r="D17" s="310">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="404"/>
+      <c r="E17" s="427"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
         <v>1.0043612811863171E-2</v>
       </c>
-      <c r="G17" s="418"/>
-      <c r="H17" s="444"/>
-      <c r="I17" s="418"/>
+      <c r="G17" s="406"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="406"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
         <v>-4.8177507455660518E-2</v>
@@ -4906,24 +4906,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="364">
         <f>C35</f>
-        <v>1.7</v>
-      </c>
-      <c r="C18" s="408"/>
+        <v>1.75</v>
+      </c>
+      <c r="C18" s="431"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>0.13350680000583556</v>
-      </c>
-      <c r="E18" s="405"/>
+        <v>9.8263748577097493E-2</v>
+      </c>
+      <c r="E18" s="428"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.1262604272780866E-2</v>
-      </c>
-      <c r="G18" s="419"/>
-      <c r="H18" s="445"/>
-      <c r="I18" s="419"/>
+        <v>1.0940815579272841E-2</v>
+      </c>
+      <c r="G18" s="407"/>
+      <c r="H18" s="404"/>
+      <c r="I18" s="407"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.25450619837376998</v>
+        <v>-0.20450619837376993</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4954,16 +4954,16 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="432" t="s">
+      <c r="C21" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="433"/>
-      <c r="E21" s="433"/>
-      <c r="F21" s="433"/>
-      <c r="G21" s="433"/>
-      <c r="H21" s="433"/>
-      <c r="I21" s="433"/>
-      <c r="J21" s="434"/>
+      <c r="D21" s="394"/>
+      <c r="E21" s="394"/>
+      <c r="F21" s="394"/>
+      <c r="G21" s="394"/>
+      <c r="H21" s="394"/>
+      <c r="I21" s="394"/>
+      <c r="J21" s="395"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -4988,18 +4988,18 @@
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="435" t="s">
+      <c r="C23" s="396" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="436"/>
-      <c r="E23" s="436"/>
-      <c r="F23" s="436"/>
-      <c r="G23" s="435" t="s">
+      <c r="D23" s="397"/>
+      <c r="E23" s="397"/>
+      <c r="F23" s="397"/>
+      <c r="G23" s="396" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="435"/>
-      <c r="I23" s="436"/>
-      <c r="J23" s="436"/>
+      <c r="H23" s="396"/>
+      <c r="I23" s="397"/>
+      <c r="J23" s="397"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5043,211 +5043,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="430">
+      <c r="C26" s="391">
         <v>44932</v>
       </c>
-      <c r="D26" s="431"/>
-      <c r="E26" s="380" t="str">
+      <c r="D26" s="392"/>
+      <c r="E26" s="442" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="381"/>
-      <c r="G26" s="381"/>
-      <c r="H26" s="382"/>
-      <c r="I26" s="446" t="s">
+      <c r="F26" s="443"/>
+      <c r="G26" s="443"/>
+      <c r="H26" s="444"/>
+      <c r="I26" s="408" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="446"/>
+      <c r="J26" s="408"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="402">
+      <c r="C27" s="425">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D27" s="401"/>
-      <c r="E27" s="400">
+      <c r="D27" s="383"/>
+      <c r="E27" s="424">
         <f>E31/D25</f>
-        <v>5.6666666666666664E-2</v>
-      </c>
-      <c r="F27" s="401"/>
-      <c r="G27" s="421">
+        <v>2.9166666666666667E-2</v>
+      </c>
+      <c r="F27" s="383"/>
+      <c r="G27" s="416">
         <f>G31/D25</f>
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="H27" s="422"/>
-      <c r="I27" s="420">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H27" s="417"/>
+      <c r="I27" s="415">
         <f>C27+E27+G27</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J27" s="420"/>
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="J27" s="415"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="396">
+      <c r="C28" s="420">
         <v>40000</v>
       </c>
       <c r="D28" s="410"/>
-      <c r="E28" s="396">
-        <v>20000</v>
+      <c r="E28" s="420">
+        <v>10000</v>
       </c>
       <c r="F28" s="410"/>
-      <c r="G28" s="439">
-        <v>40000</v>
-      </c>
-      <c r="H28" s="440"/>
-      <c r="I28" s="424">
+      <c r="G28" s="384">
+        <v>50000</v>
+      </c>
+      <c r="H28" s="385"/>
+      <c r="I28" s="419">
         <f>C28+E28+G28</f>
         <v>100000</v>
       </c>
-      <c r="J28" s="424"/>
+      <c r="J28" s="419"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="412">
+      <c r="C29" s="434">
         <v>1.75</v>
       </c>
       <c r="D29" s="410"/>
-      <c r="E29" s="412">
-        <v>1.7</v>
+      <c r="E29" s="434">
+        <v>1.75</v>
       </c>
       <c r="F29" s="410"/>
-      <c r="G29" s="385">
+      <c r="G29" s="447">
         <v>1.6</v>
       </c>
-      <c r="H29" s="386"/>
-      <c r="I29" s="423"/>
-      <c r="J29" s="423"/>
+      <c r="H29" s="448"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="395">
+      <c r="C30" s="432">
         <f>C29*$I$5/1000000</f>
         <v>2333.3336250000002</v>
       </c>
-      <c r="D30" s="411"/>
-      <c r="E30" s="395">
+      <c r="D30" s="433"/>
+      <c r="E30" s="432">
         <f>E29*$I$5/1000000</f>
-        <v>2266.6669499999998</v>
-      </c>
-      <c r="F30" s="411"/>
-      <c r="G30" s="387">
+        <v>2333.3336250000002</v>
+      </c>
+      <c r="F30" s="433"/>
+      <c r="G30" s="449">
         <f>G29*$I$5/1000000</f>
         <v>2133.3335999999999</v>
       </c>
-      <c r="H30" s="388"/>
-      <c r="I30" s="391"/>
-      <c r="J30" s="391"/>
+      <c r="H30" s="450"/>
+      <c r="I30" s="453"/>
+      <c r="J30" s="453"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="451">
+      <c r="C31" s="378">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="452"/>
-      <c r="E31" s="392">
+      <c r="D31" s="379"/>
+      <c r="E31" s="380">
         <f>E28*E29</f>
-        <v>34000</v>
-      </c>
-      <c r="F31" s="453"/>
-      <c r="G31" s="389">
+        <v>17500</v>
+      </c>
+      <c r="F31" s="381"/>
+      <c r="G31" s="451">
         <f>G28*G29</f>
-        <v>64000</v>
-      </c>
-      <c r="H31" s="390"/>
-      <c r="I31" s="392">
+        <v>80000</v>
+      </c>
+      <c r="H31" s="452"/>
+      <c r="I31" s="380">
         <f>C31+E31+G31</f>
-        <v>168000</v>
-      </c>
-      <c r="J31" s="392"/>
+        <v>167500</v>
+      </c>
+      <c r="J31" s="380"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="413"/>
-      <c r="D32" s="414"/>
-      <c r="E32" s="379">
+      <c r="C32" s="435"/>
+      <c r="D32" s="436"/>
+      <c r="E32" s="382">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="F32" s="401"/>
+        <v>1.75</v>
+      </c>
+      <c r="F32" s="383"/>
       <c r="G32" s="138"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="379">
+      <c r="I32" s="382">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.68</v>
-      </c>
-      <c r="J32" s="379"/>
+        <v>1.675</v>
+      </c>
+      <c r="J32" s="382"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="415"/>
-      <c r="D33" s="416"/>
-      <c r="E33" s="395">
+      <c r="C33" s="437"/>
+      <c r="D33" s="438"/>
+      <c r="E33" s="432">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2311.1113999999998</v>
-      </c>
-      <c r="F33" s="411"/>
+        <v>2333.3336250000002</v>
+      </c>
+      <c r="F33" s="433"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="395">
+      <c r="I33" s="432">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2240.0002800000002</v>
-      </c>
-      <c r="J33" s="395"/>
+        <v>2233.3336125000001</v>
+      </c>
+      <c r="J33" s="432"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="393">
+      <c r="C35" s="376">
         <f>E29</f>
-        <v>1.7</v>
-      </c>
-      <c r="D35" s="394"/>
-      <c r="G35" s="383" t="s">
+        <v>1.75</v>
+      </c>
+      <c r="D35" s="377"/>
+      <c r="G35" s="445" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="384"/>
-      <c r="I35" s="393">
+      <c r="H35" s="446"/>
+      <c r="I35" s="376">
         <f ca="1">'FCFF Model'!E29</f>
         <v>2.2505172075854749</v>
       </c>
-      <c r="J35" s="394"/>
+      <c r="J35" s="377"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="396">
+      <c r="C36" s="420">
         <f>E28</f>
-        <v>20000</v>
-      </c>
-      <c r="D36" s="397"/>
-      <c r="G36" s="376" t="s">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="421"/>
+      <c r="G36" s="439" t="s">
         <v>354</v>
       </c>
-      <c r="H36" s="376"/>
-      <c r="I36" s="377">
+      <c r="H36" s="439"/>
+      <c r="I36" s="440">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.28600983290598569</v>
       </c>
-      <c r="J36" s="378"/>
+      <c r="J36" s="441"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5305,7 +5305,7 @@
     </row>
     <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E42" s="367">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5316,7 +5316,7 @@
         <v>Agree</v>
       </c>
       <c r="G42" s="95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F43" s="374">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5338,7 +5338,7 @@
     <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F45" s="368">
         <f ca="1">I35/C29-1</f>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F46" s="368">
         <f ca="1">D14/C29-1</f>
@@ -5357,7 +5357,7 @@
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F48" s="235">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E49" s="375">
         <f ca="1">F45/ABS(F46)</f>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E50" s="128">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5392,7 +5392,7 @@
         <v>0.29691098639455782</v>
       </c>
       <c r="G50" s="371" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H50" s="99">
         <v>0.3</v>
@@ -6316,11 +6316,39 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6337,39 +6365,11 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6421,7 +6421,7 @@
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -9930,7 +9930,7 @@
   <dimension ref="A2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="80">
-        <f>E46-I46-E50</f>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
         <v>2153529.4500000002</v>
       </c>
       <c r="E6" s="14">
@@ -10035,7 +10035,7 @@
         <v>111</v>
       </c>
       <c r="D7" s="82">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Dashboard!I12*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.840731688422826</v>
       </c>
       <c r="E7" s="49" t="str">
@@ -10932,7 +10932,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>19676</v>
       </c>
-      <c r="E53" s="452"/>
+      <c r="E53" s="379"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11048,11 +11048,11 @@
       <c r="B63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="377">
+      <c r="D63" s="440">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-5.6597577264199846E-3</v>
       </c>
-      <c r="E63" s="378"/>
+      <c r="E63" s="441"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0CB65-C805-4A1D-A9D3-E17D2E43B868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6347C5-6202-47D3-8BBB-C1804A79553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4559,8 +4559,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="C31:H31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4630,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4680,7 +4680,7 @@
       <c r="H6" s="154"/>
       <c r="I6" s="400">
         <f>I4*I5/1000000</f>
-        <v>2426.6669700000002</v>
+        <v>2493.3336450000002</v>
       </c>
       <c r="J6" s="401"/>
       <c r="K6" s="172"/>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C7" s="166">
         <f>(Data!C39)/I4</f>
-        <v>2.4175958516466721E-2</v>
+        <v>2.3529542513352639E-2</v>
       </c>
       <c r="D7" s="166">
         <f>(Data!C40)/I4</f>
@@ -4722,11 +4722,11 @@
       </c>
       <c r="I9" s="142">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>23.120919078488924</v>
+        <v>23.703896220183381</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.3250875823979372E-2</v>
+        <v>4.2187157364809949E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="I10" s="159">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.77845454514372525</v>
+        <v>0.7980827097563149</v>
       </c>
       <c r="J10" s="151" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H12" s="154"/>
       <c r="I12" s="156">
-        <v>1.1396682895075876</v>
+        <v>1.1421786546707153</v>
       </c>
       <c r="J12" s="157" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4803,21 +4803,21 @@
       </c>
       <c r="D14" s="205">
         <f ca="1">MIN('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>1.9665662648393085</v>
+        <v>1.9708980511035099</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>263</v>
       </c>
       <c r="F14" s="205">
         <f ca="1">MAX('FCFF Model'!C29,'FCFF Model'!E29)</f>
-        <v>2.2505172075854749</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="G14" s="206" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="214">
         <f ca="1">IF('FCFF Model'!C32&lt;0, "Error", 'FCFF Model'!C32)</f>
-        <v>2.0969615600099205</v>
+        <v>2.1015805700298813</v>
       </c>
       <c r="I14" s="154"/>
       <c r="J14" s="154"/>
@@ -4848,42 +4848,42 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="152">
         <f>I4</f>
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="C16" s="429">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
-        <v>5.2176681324132085E-2</v>
+        <v>2.3839877021326922E-2</v>
       </c>
       <c r="E16" s="426">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>1.9146427263727471E-2</v>
+        <v>1.9188601398468015E-2</v>
       </c>
       <c r="F16" s="182">
         <f>E16/B16</f>
-        <v>1.0520014980070038E-2</v>
+        <v>1.0261284170303751E-2</v>
       </c>
       <c r="G16" s="405" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="402">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.9545061983737699</v>
+        <v>1.9588114197409756</v>
       </c>
       <c r="I16" s="405" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
         <f>B16-$H$16</f>
-        <v>-0.13450619837376987</v>
+        <v>-8.8811419740975506E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="311">
         <f ca="1">H14/(1+C16)</f>
-        <v>1.9063286909181094</v>
+        <v>1.9105277909362555</v>
       </c>
       <c r="C17" s="430"/>
       <c r="D17" s="310">
@@ -4893,14 +4893,14 @@
       <c r="E17" s="427"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
-        <v>1.0043612811863171E-2</v>
+        <v>1.0043612811863169E-2</v>
       </c>
       <c r="G17" s="406"/>
       <c r="H17" s="403"/>
       <c r="I17" s="406"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
-        <v>-4.8177507455660518E-2</v>
+        <v>-4.8283628804720147E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4911,19 +4911,19 @@
       <c r="C18" s="431"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
-        <v>9.8263748577097493E-2</v>
+        <v>0.10090318287421782</v>
       </c>
       <c r="E18" s="428"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
-        <v>1.0940815579272841E-2</v>
+        <v>1.0964915084838866E-2</v>
       </c>
       <c r="G18" s="407"/>
       <c r="H18" s="404"/>
       <c r="I18" s="407"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
-        <v>-0.20450619837376993</v>
+        <v>-0.20881141974097561</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="J25" s="366">
         <f ca="1">H14/(H25+C16+1)</f>
-        <v>1.6775692480079365</v>
+        <v>1.681264456023905</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5226,7 +5226,7 @@
       <c r="H35" s="446"/>
       <c r="I35" s="376">
         <f ca="1">'FCFF Model'!E29</f>
-        <v>2.2505172075854749</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="J35" s="377"/>
     </row>
@@ -5245,7 +5245,7 @@
       <c r="H36" s="439"/>
       <c r="I36" s="440">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
-        <v>0.28600983290598569</v>
+        <v>0.28884254687520716</v>
       </c>
       <c r="J36" s="441"/>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="F45" s="368">
         <f ca="1">I35/C29-1</f>
-        <v>0.28600983290598569</v>
+        <v>0.28884254687520716</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="F46" s="368">
         <f ca="1">D14/C29-1</f>
-        <v>0.12375215133674766</v>
+        <v>0.12622745777343414</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="E49" s="375">
         <f ca="1">F45/ABS(F46)</f>
-        <v>2.3111503906522901</v>
+        <v>2.2882703333346943</v>
       </c>
       <c r="F49" s="369">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
@@ -6454,7 +6454,7 @@
   <dimension ref="A1:N962"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="I4" s="112">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.3964195313511514</v>
+        <v>2.4016981621274289</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="D7" s="82">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.840731688422826</v>
+        <v>1.8447862968977873</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -11029,7 +11029,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="465">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-114642.0299999998</v>
+        <v>-47975.354999999981</v>
       </c>
       <c r="E60" s="466"/>
       <c r="F60" s="6"/>
@@ -13142,7 +13142,7 @@
       </c>
       <c r="C29" s="273">
         <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.9665662648393085</v>
+        <v>1.9708980511035099</v>
       </c>
       <c r="D29" s="23" t="str">
         <f ca="1">IF(C29&lt;E29,"&lt;",IF(C29=E29,"=","&gt;"))</f>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="E29" s="272">
         <f ca="1">G26*Exchange_Rate</f>
-        <v>2.2505172075854749</v>
+        <v>2.2554744570316125</v>
       </c>
       <c r="F29" s="30"/>
       <c r="H29" s="6"/>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="C32" s="274">
         <f ca="1">MIN(C29,E29)+ABS(C29-E29)*'Qualitative Analysis'!$E$64</f>
-        <v>2.0969615600099205</v>
+        <v>2.1015805700298813</v>
       </c>
       <c r="D32" s="140" t="str">
         <f>Dashboard!J4</f>
@@ -13194,11 +13194,11 @@
       </c>
       <c r="E32" s="141">
         <f ca="1">(C32-G19)/C9</f>
-        <v>11.825500446342661</v>
+        <v>11.96849645498113</v>
       </c>
       <c r="F32" s="179">
         <f ca="1">C32/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.8969171743853841</v>
+        <v>0.89691717438538421</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="6"/>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="C33" s="275">
         <f ca="1">MAX(Asset_Model!D7,(G12/(1+G33)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>2.2743116899844793</v>
+        <v>2.2793213519090889</v>
       </c>
       <c r="D33" s="229" t="str">
         <f>D32</f>
@@ -13218,11 +13218,11 @@
       </c>
       <c r="E33" s="141">
         <f ca="1">(C33-G19)/C9</f>
-        <v>17.315932510417511</v>
+        <v>17.471022379621427</v>
       </c>
       <c r="F33" s="179">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.97277377590215652</v>
+        <v>0.97277377590215641</v>
       </c>
       <c r="G33" s="302">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6347C5-6202-47D3-8BBB-C1804A79553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD281EF8-1006-4299-935F-1F0CEF64A28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="371">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1295,6 +1295,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3006,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3702,9 +3705,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="183" fontId="2" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3944,155 +3944,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="186" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="18" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4101,47 +4045,103 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4559,8 +4559,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4588,7 +4588,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="329" t="str">
+      <c r="C2" s="328" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>6601.HK : CHEERWIN GP</v>
       </c>
@@ -4604,27 +4604,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="386" t="s">
+      <c r="C3" s="424" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="387"/>
+      <c r="D3" s="425"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="398" t="s">
+      <c r="I3" s="436" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="399"/>
+      <c r="J3" s="437"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="388" t="s">
+      <c r="C4" s="426" t="s">
         <v>309</v>
       </c>
-      <c r="D4" s="389"/>
+      <c r="D4" s="427"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4641,10 +4641,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="390">
+      <c r="C5" s="428">
         <v>44931</v>
       </c>
-      <c r="D5" s="389"/>
+      <c r="D5" s="427"/>
       <c r="E5" s="143" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4652,10 +4652,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="438">
         <v>1333333500</v>
       </c>
-      <c r="J5" s="385"/>
+      <c r="J5" s="439"/>
       <c r="K5" s="172"/>
       <c r="L5" s="106"/>
     </row>
@@ -4663,26 +4663,26 @@
       <c r="B6" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="291">
+      <c r="C6" s="290">
         <v>8</v>
       </c>
-      <c r="D6" s="292">
+      <c r="D6" s="291">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>44985</v>
       </c>
-      <c r="E6" s="363">
-        <f>Data!C3</f>
+      <c r="E6" s="362">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44561</v>
       </c>
       <c r="G6" s="155" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="154"/>
-      <c r="I6" s="400">
+      <c r="I6" s="440">
         <f>I4*I5/1000000</f>
         <v>2493.3336450000002</v>
       </c>
-      <c r="J6" s="401"/>
+      <c r="J6" s="441"/>
       <c r="K6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4714,8 +4714,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="322"/>
-      <c r="D9" s="320"/>
+      <c r="C9" s="321"/>
+      <c r="D9" s="319"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4733,10 +4733,10 @@
       <c r="B10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="321" t="s">
+      <c r="C10" s="320" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="321">
+      <c r="D10" s="320">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4753,33 +4753,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="334" t="s">
+      <c r="B11" s="333" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="413">
+      <c r="C11" s="448">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="414"/>
+      <c r="D11" s="449"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="411" t="s">
+      <c r="I11" s="446" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="412"/>
+      <c r="J11" s="447"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="422">
+      <c r="C12" s="397">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="423"/>
+      <c r="D12" s="398"/>
       <c r="G12" s="155" t="s">
         <v>16</v>
       </c>
@@ -4850,14 +4850,14 @@
         <f>I4</f>
         <v>1.87</v>
       </c>
-      <c r="C16" s="429">
+      <c r="C16" s="405">
         <v>0.1</v>
       </c>
       <c r="D16" s="180">
         <f ca="1">H14/B16-1-C16</f>
         <v>2.3839877021326922E-2</v>
       </c>
-      <c r="E16" s="426">
+      <c r="E16" s="402">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>1.9188601398468015E-2</v>
       </c>
@@ -4865,14 +4865,14 @@
         <f>E16/B16</f>
         <v>1.0261284170303751E-2</v>
       </c>
-      <c r="G16" s="405" t="s">
+      <c r="G16" s="416" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="402">
+      <c r="H16" s="442">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.9588114197409756</v>
       </c>
-      <c r="I16" s="405" t="s">
+      <c r="I16" s="416" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="227">
@@ -4881,46 +4881,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="311">
+      <c r="B17" s="310">
         <f ca="1">H14/(1+C16)</f>
         <v>1.9105277909362555</v>
       </c>
-      <c r="C17" s="430"/>
-      <c r="D17" s="310">
+      <c r="C17" s="406"/>
+      <c r="D17" s="309">
         <f ca="1">H14/B17-1-C16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="427"/>
+      <c r="E17" s="403"/>
       <c r="F17" s="183">
         <f ca="1">E16/B17</f>
         <v>1.0043612811863169E-2</v>
       </c>
-      <c r="G17" s="406"/>
-      <c r="H17" s="403"/>
-      <c r="I17" s="406"/>
+      <c r="G17" s="417"/>
+      <c r="H17" s="443"/>
+      <c r="I17" s="417"/>
       <c r="J17" s="226">
         <f ca="1">B17-$H$16</f>
         <v>-4.8283628804720147E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="364">
+      <c r="B18" s="363">
         <f>C35</f>
         <v>1.75</v>
       </c>
-      <c r="C18" s="431"/>
+      <c r="C18" s="407"/>
       <c r="D18" s="181">
         <f ca="1">H14/B18-1-C16</f>
         <v>0.10090318287421782</v>
       </c>
-      <c r="E18" s="428"/>
+      <c r="E18" s="404"/>
       <c r="F18" s="184">
         <f>E16/B18</f>
         <v>1.0964915084838866E-2</v>
       </c>
-      <c r="G18" s="407"/>
-      <c r="H18" s="404"/>
-      <c r="I18" s="407"/>
+      <c r="G18" s="418"/>
+      <c r="H18" s="444"/>
+      <c r="I18" s="418"/>
       <c r="J18" s="228">
         <f>B18-$H$16</f>
         <v>-0.20881141974097561</v>
@@ -4938,7 +4938,7 @@
       <c r="C20" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="312" t="s">
+      <c r="D20" s="311" t="s">
         <v>311</v>
       </c>
       <c r="E20" s="287" t="s">
@@ -4954,52 +4954,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="393" t="s">
+      <c r="C21" s="431" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="394"/>
-      <c r="E21" s="394"/>
-      <c r="F21" s="394"/>
-      <c r="G21" s="394"/>
-      <c r="H21" s="394"/>
-      <c r="I21" s="394"/>
-      <c r="J21" s="395"/>
+      <c r="D21" s="432"/>
+      <c r="E21" s="432"/>
+      <c r="F21" s="432"/>
+      <c r="G21" s="432"/>
+      <c r="H21" s="432"/>
+      <c r="I21" s="432"/>
+      <c r="J21" s="433"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="409" t="s">
+      <c r="C22" s="408" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="410"/>
-      <c r="E22" s="410"/>
-      <c r="F22" s="410"/>
-      <c r="G22" s="409" t="s">
+      <c r="D22" s="409"/>
+      <c r="E22" s="409"/>
+      <c r="F22" s="409"/>
+      <c r="G22" s="408" t="s">
         <v>323</v>
       </c>
-      <c r="H22" s="409"/>
-      <c r="I22" s="410"/>
-      <c r="J22" s="410"/>
+      <c r="H22" s="408"/>
+      <c r="I22" s="409"/>
+      <c r="J22" s="409"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="396" t="s">
+      <c r="C23" s="434" t="s">
         <v>322</v>
       </c>
-      <c r="D23" s="397"/>
-      <c r="E23" s="397"/>
-      <c r="F23" s="397"/>
-      <c r="G23" s="396" t="s">
+      <c r="D23" s="435"/>
+      <c r="E23" s="435"/>
+      <c r="F23" s="435"/>
+      <c r="G23" s="434" t="s">
         <v>321</v>
       </c>
-      <c r="H23" s="396"/>
-      <c r="I23" s="397"/>
-      <c r="J23" s="397"/>
+      <c r="H23" s="434"/>
+      <c r="I23" s="435"/>
+      <c r="J23" s="435"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5028,13 +5028,13 @@
         <v>348</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="365">
+      <c r="H25" s="364">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="J25" s="366">
+      <c r="J25" s="365">
         <f ca="1">H14/(H25+C16+1)</f>
         <v>1.681264456023905</v>
       </c>
@@ -5043,223 +5043,223 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="391">
+      <c r="C26" s="429">
         <v>44932</v>
       </c>
-      <c r="D26" s="392"/>
-      <c r="E26" s="442" t="str">
+      <c r="D26" s="430"/>
+      <c r="E26" s="379" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="443"/>
-      <c r="G26" s="443"/>
-      <c r="H26" s="444"/>
-      <c r="I26" s="408" t="s">
+      <c r="F26" s="380"/>
+      <c r="G26" s="380"/>
+      <c r="H26" s="381"/>
+      <c r="I26" s="445" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="408"/>
+      <c r="J26" s="445"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="425">
+      <c r="C27" s="401">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D27" s="383"/>
-      <c r="E27" s="424">
+      <c r="D27" s="400"/>
+      <c r="E27" s="399">
         <f>E31/D25</f>
         <v>2.9166666666666667E-2</v>
       </c>
-      <c r="F27" s="383"/>
-      <c r="G27" s="416">
+      <c r="F27" s="400"/>
+      <c r="G27" s="420">
         <f>G31/D25</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="H27" s="417"/>
-      <c r="I27" s="415">
+      <c r="H27" s="421"/>
+      <c r="I27" s="419">
         <f>C27+E27+G27</f>
         <v>0.27916666666666667</v>
       </c>
-      <c r="J27" s="415"/>
+      <c r="J27" s="419"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="420">
+      <c r="C28" s="395">
         <v>40000</v>
       </c>
-      <c r="D28" s="410"/>
-      <c r="E28" s="420">
+      <c r="D28" s="409"/>
+      <c r="E28" s="395">
         <v>10000</v>
       </c>
-      <c r="F28" s="410"/>
-      <c r="G28" s="384">
+      <c r="F28" s="409"/>
+      <c r="G28" s="438">
         <v>50000</v>
       </c>
-      <c r="H28" s="385"/>
-      <c r="I28" s="419">
+      <c r="H28" s="439"/>
+      <c r="I28" s="423">
         <f>C28+E28+G28</f>
         <v>100000</v>
       </c>
-      <c r="J28" s="419"/>
+      <c r="J28" s="423"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="434">
+      <c r="C29" s="411">
         <v>1.75</v>
       </c>
-      <c r="D29" s="410"/>
-      <c r="E29" s="434">
+      <c r="D29" s="409"/>
+      <c r="E29" s="411">
         <v>1.75</v>
       </c>
-      <c r="F29" s="410"/>
-      <c r="G29" s="447">
+      <c r="F29" s="409"/>
+      <c r="G29" s="384">
         <v>1.6</v>
       </c>
-      <c r="H29" s="448"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
+      <c r="H29" s="385"/>
+      <c r="I29" s="422"/>
+      <c r="J29" s="422"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="432">
+      <c r="C30" s="394">
         <f>C29*$I$5/1000000</f>
         <v>2333.3336250000002</v>
       </c>
-      <c r="D30" s="433"/>
-      <c r="E30" s="432">
+      <c r="D30" s="410"/>
+      <c r="E30" s="394">
         <f>E29*$I$5/1000000</f>
         <v>2333.3336250000002</v>
       </c>
-      <c r="F30" s="433"/>
-      <c r="G30" s="449">
+      <c r="F30" s="410"/>
+      <c r="G30" s="386">
         <f>G29*$I$5/1000000</f>
         <v>2133.3335999999999</v>
       </c>
-      <c r="H30" s="450"/>
-      <c r="I30" s="453"/>
-      <c r="J30" s="453"/>
+      <c r="H30" s="387"/>
+      <c r="I30" s="390"/>
+      <c r="J30" s="390"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="450">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="380">
+      <c r="D31" s="451"/>
+      <c r="E31" s="391">
         <f>E28*E29</f>
         <v>17500</v>
       </c>
-      <c r="F31" s="381"/>
-      <c r="G31" s="451">
+      <c r="F31" s="452"/>
+      <c r="G31" s="388">
         <f>G28*G29</f>
         <v>80000</v>
       </c>
-      <c r="H31" s="452"/>
-      <c r="I31" s="380">
+      <c r="H31" s="389"/>
+      <c r="I31" s="391">
         <f>C31+E31+G31</f>
         <v>167500</v>
       </c>
-      <c r="J31" s="380"/>
+      <c r="J31" s="391"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="435"/>
-      <c r="D32" s="436"/>
-      <c r="E32" s="382">
+      <c r="C32" s="412"/>
+      <c r="D32" s="413"/>
+      <c r="E32" s="378">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.75</v>
       </c>
-      <c r="F32" s="383"/>
+      <c r="F32" s="400"/>
       <c r="G32" s="138"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="382">
+      <c r="I32" s="378">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.675</v>
       </c>
-      <c r="J32" s="382"/>
+      <c r="J32" s="378"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="437"/>
-      <c r="D33" s="438"/>
-      <c r="E33" s="432">
+      <c r="C33" s="414"/>
+      <c r="D33" s="415"/>
+      <c r="E33" s="394">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2333.3336250000002</v>
       </c>
-      <c r="F33" s="433"/>
+      <c r="F33" s="410"/>
       <c r="G33" s="139"/>
       <c r="H33" s="139"/>
-      <c r="I33" s="432">
+      <c r="I33" s="394">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2233.3336125000001</v>
       </c>
-      <c r="J33" s="432"/>
+      <c r="J33" s="394"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C35" s="376">
+      <c r="C35" s="392">
         <f>E29</f>
         <v>1.75</v>
       </c>
-      <c r="D35" s="377"/>
-      <c r="G35" s="445" t="s">
+      <c r="D35" s="393"/>
+      <c r="G35" s="382" t="s">
         <v>350</v>
       </c>
-      <c r="H35" s="446"/>
-      <c r="I35" s="376">
+      <c r="H35" s="383"/>
+      <c r="I35" s="392">
         <f ca="1">'FCFF Model'!E29</f>
         <v>2.2554744570316125</v>
       </c>
-      <c r="J35" s="377"/>
+      <c r="J35" s="393"/>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="420">
+      <c r="C36" s="395">
         <f>E28</f>
         <v>10000</v>
       </c>
-      <c r="D36" s="421"/>
-      <c r="G36" s="439" t="s">
+      <c r="D36" s="396"/>
+      <c r="G36" s="375" t="s">
         <v>354</v>
       </c>
-      <c r="H36" s="439"/>
-      <c r="I36" s="440">
+      <c r="H36" s="375"/>
+      <c r="I36" s="376">
         <f ca="1">IF(C26="",0,I35/C29-1)</f>
         <v>0.28884254687520716</v>
       </c>
-      <c r="J36" s="441"/>
+      <c r="J36" s="377"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G38" s="373" t="s">
+      <c r="G38" s="372" t="s">
         <v>169</v>
       </c>
-      <c r="H38" s="373"/>
-      <c r="I38" s="373"/>
-      <c r="J38" s="373"/>
+      <c r="H38" s="372"/>
+      <c r="I38" s="372"/>
+      <c r="J38" s="372"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -5269,7 +5269,7 @@
         <f>'Qualitative Analysis'!E8</f>
         <v>0.48000000000000009</v>
       </c>
-      <c r="G39" s="372"/>
+      <c r="G39" s="371"/>
       <c r="H39" s="137"/>
       <c r="I39" s="137"/>
       <c r="J39" s="137"/>
@@ -5291,12 +5291,12 @@
       <c r="B41" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E41" s="367"/>
-      <c r="F41" s="368">
+      <c r="E41" s="366"/>
+      <c r="F41" s="367">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.45921768707482991</v>
       </c>
-      <c r="G41" s="372" t="s">
+      <c r="G41" s="371" t="s">
         <v>360</v>
       </c>
       <c r="H41" s="137"/>
@@ -5307,7 +5307,7 @@
       <c r="B42" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E42" s="367">
+      <c r="E42" s="366">
         <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.75</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="B43" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F43" s="374">
+      <c r="F43" s="373">
         <f>AVERAGE(80%*0.5,0.6)</f>
         <v>0.5</v>
       </c>
@@ -5340,7 +5340,7 @@
       <c r="B45" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F45" s="368">
+      <c r="F45" s="367">
         <f ca="1">I35/C29-1</f>
         <v>0.28884254687520716</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="B46" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="F46" s="368">
+      <c r="F46" s="367">
         <f ca="1">D14/C29-1</f>
         <v>0.12622745777343414</v>
       </c>
@@ -5369,11 +5369,11 @@
       <c r="B49" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E49" s="375">
+      <c r="E49" s="374">
         <f ca="1">F45/ABS(F46)</f>
         <v>2.2882703333346943</v>
       </c>
-      <c r="F49" s="369">
+      <c r="F49" s="368">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>100</v>
       </c>
@@ -5387,11 +5387,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.29691098639455782</v>
       </c>
-      <c r="F50" s="370">
+      <c r="F50" s="369">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.29691098639455782</v>
       </c>
-      <c r="G50" s="371" t="s">
+      <c r="G50" s="370" t="s">
         <v>367</v>
       </c>
       <c r="H50" s="99">
@@ -6316,18 +6316,32 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E27:F27"/>
@@ -6344,32 +6358,18 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="C35:D36">
     <cfRule type="containsBlanks" priority="6">
@@ -6545,47 +6545,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="300">
+      <c r="C6" s="299">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="301">
+      <c r="D6" s="300">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="301">
+      <c r="E6" s="300">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="301">
+      <c r="F6" s="300">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="301">
+      <c r="G6" s="300">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="301">
+      <c r="H6" s="300">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="301">
+      <c r="I6" s="300">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="301">
+      <c r="J6" s="300">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="301">
+      <c r="K6" s="300">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="301">
+      <c r="L6" s="300">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="301">
+      <c r="M6" s="300">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7243,7 +7243,7 @@
       <c r="B24" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="294">
+      <c r="C24" s="293">
         <v>5517</v>
       </c>
       <c r="D24" s="161">
@@ -8131,10 +8131,10 @@
         <v>78</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="454" t="s">
+      <c r="D49" s="453" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="410"/>
+      <c r="E49" s="409"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8149,10 +8149,10 @@
         <v>80</v>
       </c>
       <c r="C51" s="55"/>
-      <c r="D51" s="455">
+      <c r="D51" s="454">
         <v>5</v>
       </c>
-      <c r="E51" s="456"/>
+      <c r="E51" s="455"/>
       <c r="F51" s="56"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8163,10 +8163,10 @@
       <c r="C52" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="457" t="s">
+      <c r="D52" s="456" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="458"/>
+      <c r="E52" s="457"/>
       <c r="F52" s="59" t="s">
         <v>84</v>
       </c>
@@ -9929,8 +9929,8 @@
   </sheetPr>
   <dimension ref="A2:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9963,7 +9963,7 @@
         <v>288</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="295">
+      <c r="D3" s="294">
         <v>2804928</v>
       </c>
       <c r="E3" s="177" t="str">
@@ -9972,10 +9972,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="295" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="297">
+      <c r="I3" s="296">
         <v>2803646</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <v>255</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="298">
+      <c r="D4" s="297">
         <f>D3-I3</f>
         <v>1282</v>
       </c>
@@ -10067,12 +10067,11 @@
         <v>284</v>
       </c>
       <c r="C9" s="276"/>
-      <c r="D9" s="293">
+      <c r="D9" s="292">
         <v>44742</v>
       </c>
-      <c r="E9" s="290" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="311" t="s">
+        <v>370</v>
       </c>
       <c r="F9" s="154"/>
       <c r="G9" s="154"/>
@@ -10915,11 +10914,11 @@
         <v>295</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="459">
+      <c r="D52" s="458">
         <f>D53+D54+D55</f>
         <v>19676</v>
       </c>
-      <c r="E52" s="460"/>
+      <c r="E52" s="459"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10928,11 +10927,11 @@
         <v>265</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="462">
+      <c r="D53" s="461">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>19676</v>
       </c>
-      <c r="E53" s="379"/>
+      <c r="E53" s="451"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10948,10 +10947,10 @@
         <v>164</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="467">
+      <c r="D54" s="466">
         <v>0</v>
       </c>
-      <c r="E54" s="410"/>
+      <c r="E54" s="409"/>
       <c r="F54" s="6" t="s">
         <v>165</v>
       </c>
@@ -10962,10 +10961,10 @@
         <v>163</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="467">
+      <c r="D55" s="466">
         <v>0</v>
       </c>
-      <c r="E55" s="410"/>
+      <c r="E55" s="409"/>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
@@ -10980,8 +10979,8 @@
         <v>167</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="461"/>
-      <c r="E57" s="461"/>
+      <c r="D57" s="460"/>
+      <c r="E57" s="460"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11027,11 +11026,11 @@
         <v>168</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="465">
+      <c r="D60" s="464">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>-47975.354999999981</v>
       </c>
-      <c r="E60" s="466"/>
+      <c r="E60" s="465"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11040,7 +11039,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="313" t="s">
+      <c r="B62" s="312" t="s">
         <v>294</v>
       </c>
     </row>
@@ -11048,32 +11047,32 @@
       <c r="B63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="440">
+      <c r="D63" s="376">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-5.6597577264199846E-3</v>
       </c>
-      <c r="E63" s="441"/>
+      <c r="E63" s="377"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D64" s="463">
+      <c r="D64" s="462">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="464"/>
+      <c r="E64" s="463"/>
       <c r="F64" s="287" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="313" t="s">
+      <c r="B65" s="312" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="463">
+      <c r="D65" s="462">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="464"/>
+      <c r="E65" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11087,10 +11086,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{018BAD02-BFF6-45A4-BC1B-13B00157C76A}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -11109,7 +11111,7 @@
   <dimension ref="A1:M903"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11142,22 +11144,22 @@
       <c r="B2" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="306" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307">
+      <c r="D2" s="306"/>
+      <c r="E2" s="306">
         <v>1</v>
       </c>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307">
+      <c r="F2" s="306"/>
+      <c r="G2" s="306">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="307">
+      <c r="I2" s="306">
         <v>3</v>
       </c>
-      <c r="J2" s="307"/>
+      <c r="J2" s="306"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -11166,46 +11168,46 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="299">
-        <f>Data!C3</f>
+      <c r="C3" s="298">
+        <f>Dashboard!E6</f>
         <v>44561</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="299">
+      <c r="E3" s="298">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>44926</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="G3" s="299">
+      <c r="G3" s="298">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
         <v>45291</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="299" t="str">
+      <c r="I3" s="298" t="str">
         <f>IF(I16="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="318"/>
+      <c r="J3" s="317"/>
       <c r="L3" s="93" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="313" t="s">
         <v>313</v>
       </c>
-      <c r="C4" s="315">
+      <c r="C4" s="314">
         <v>1608309</v>
       </c>
       <c r="D4" s="281">
         <f>C4/C8</f>
         <v>0.90908212216326756</v>
       </c>
-      <c r="E4" s="315">
+      <c r="E4" s="314">
         <f>C4*0.8</f>
         <v>1286647.2000000002</v>
       </c>
@@ -11219,7 +11221,7 @@
       </c>
       <c r="H4" s="281"/>
       <c r="I4" s="243"/>
-      <c r="J4" s="308"/>
+      <c r="J4" s="307"/>
       <c r="K4" s="6"/>
       <c r="L4" s="95" t="s">
         <v>317</v>
@@ -11227,17 +11229,17 @@
       <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="314" t="s">
+      <c r="B5" s="313" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="315">
+      <c r="C5" s="314">
         <v>100817</v>
       </c>
       <c r="D5" s="281">
         <f>C5/C8</f>
         <v>5.6985897803304063E-2</v>
       </c>
-      <c r="E5" s="315">
+      <c r="E5" s="314">
         <f>C5*0.6</f>
         <v>60490.2</v>
       </c>
@@ -11251,23 +11253,23 @@
       </c>
       <c r="H5" s="281"/>
       <c r="I5" s="243"/>
-      <c r="J5" s="308"/>
+      <c r="J5" s="307"/>
       <c r="K5" s="6"/>
       <c r="L5" s="95"/>
       <c r="M5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="313" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="315">
+      <c r="C6" s="314">
         <v>52662</v>
       </c>
       <c r="D6" s="281">
         <f>C6/C8</f>
         <v>2.9766719403648178E-2</v>
       </c>
-      <c r="E6" s="315">
+      <c r="E6" s="314">
         <f>C6*1.23</f>
         <v>64774.26</v>
       </c>
@@ -11281,7 +11283,7 @@
       </c>
       <c r="H6" s="281"/>
       <c r="I6" s="243"/>
-      <c r="J6" s="308"/>
+      <c r="J6" s="307"/>
       <c r="K6" s="6"/>
       <c r="L6" s="95" t="s">
         <v>319</v>
@@ -11289,17 +11291,17 @@
       <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="313" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="315">
+      <c r="C7" s="314">
         <v>7369</v>
       </c>
       <c r="D7" s="281">
         <f>C7/C8</f>
         <v>4.1652606297801721E-3</v>
       </c>
-      <c r="E7" s="315">
+      <c r="E7" s="314">
         <f>C7</f>
         <v>7369</v>
       </c>
@@ -11313,7 +11315,7 @@
       </c>
       <c r="H7" s="281"/>
       <c r="I7" s="243"/>
-      <c r="J7" s="308"/>
+      <c r="J7" s="307"/>
       <c r="K7" s="6"/>
       <c r="L7" s="95" t="s">
         <v>318</v>
@@ -11329,18 +11331,18 @@
         <v>1769157</v>
       </c>
       <c r="D8" s="280"/>
-      <c r="E8" s="359">
+      <c r="E8" s="358">
         <f>SUM(E4:E7)</f>
         <v>1419280.6600000001</v>
       </c>
       <c r="F8" s="280"/>
-      <c r="G8" s="359">
+      <c r="G8" s="358">
         <f>SUM(G4:G7)</f>
         <v>1352566.399</v>
       </c>
       <c r="H8" s="280"/>
       <c r="I8" s="249"/>
-      <c r="J8" s="309"/>
+      <c r="J8" s="308"/>
       <c r="K8" s="6"/>
       <c r="L8" s="95"/>
       <c r="M8" s="78"/>
@@ -11362,7 +11364,7 @@
       </c>
       <c r="H9" s="282"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="349"/>
+      <c r="J9" s="348"/>
       <c r="K9" s="6"/>
       <c r="L9" s="95"/>
       <c r="M9" s="78"/>
@@ -11381,16 +11383,16 @@
         <v>797209.94672200002</v>
       </c>
       <c r="F10" s="283"/>
-      <c r="G10" s="303">
+      <c r="G10" s="302">
         <f>IF(G8="","",G8*(1-G11))</f>
         <v>759736.54631829995</v>
       </c>
       <c r="H10" s="283"/>
-      <c r="I10" s="303" t="str">
+      <c r="I10" s="302" t="str">
         <f>IF(I8="","",I8*(1-I11))</f>
         <v/>
       </c>
-      <c r="J10" s="350"/>
+      <c r="J10" s="349"/>
       <c r="K10" s="6"/>
       <c r="L10" s="137"/>
       <c r="M10" s="1"/>
@@ -11414,7 +11416,7 @@
       </c>
       <c r="H11" s="207"/>
       <c r="I11" s="94"/>
-      <c r="J11" s="351"/>
+      <c r="J11" s="350"/>
       <c r="K11" s="6"/>
       <c r="L11" s="95"/>
     </row>
@@ -11464,7 +11466,7 @@
       </c>
       <c r="H13" s="210"/>
       <c r="I13" s="86"/>
-      <c r="J13" s="352"/>
+      <c r="J13" s="351"/>
       <c r="K13" s="6"/>
       <c r="L13" s="95"/>
     </row>
@@ -11488,7 +11490,7 @@
       </c>
       <c r="H14" s="284"/>
       <c r="I14" s="97"/>
-      <c r="J14" s="353"/>
+      <c r="J14" s="352"/>
       <c r="K14" s="6"/>
       <c r="L14" s="95"/>
     </row>
@@ -11540,7 +11542,7 @@
         <f>IF(I9="","",IF(ABS(G17+I17)=ABS(G17)+ABS(I17),IF(I17&lt;0,-1,1)*(I17-G17)/G17,"Turn"))</f>
         <v/>
       </c>
-      <c r="J16" s="354"/>
+      <c r="J16" s="353"/>
       <c r="K16" s="6"/>
       <c r="L16" s="98"/>
       <c r="M16" s="99"/>
@@ -11549,100 +11551,100 @@
       <c r="B17" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="341">
+      <c r="C17" s="340">
         <f>C12-C14</f>
         <v>82036</v>
       </c>
-      <c r="D17" s="342"/>
-      <c r="E17" s="341">
+      <c r="D17" s="341"/>
+      <c r="E17" s="340">
         <f>E12-E14</f>
         <v>54358.449278000044</v>
       </c>
-      <c r="F17" s="342"/>
-      <c r="G17" s="341">
+      <c r="F17" s="341"/>
+      <c r="G17" s="340">
         <f>IF(G9="","",G12-G14)</f>
         <v>51803.293081699987</v>
       </c>
-      <c r="H17" s="342"/>
-      <c r="I17" s="341" t="str">
+      <c r="H17" s="341"/>
+      <c r="I17" s="340" t="str">
         <f>IF(I9="","",I12-I14)</f>
         <v/>
       </c>
-      <c r="J17" s="355"/>
+      <c r="J17" s="354"/>
       <c r="K17" s="6"/>
       <c r="L17" s="100"/>
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="337" t="s">
+      <c r="B18" s="336" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="338">
+      <c r="C18" s="337">
         <v>0.25</v>
       </c>
-      <c r="D18" s="339"/>
-      <c r="E18" s="340">
+      <c r="D18" s="338"/>
+      <c r="E18" s="339">
         <f>IF(E17="","",C18)</f>
         <v>0.25</v>
       </c>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340">
+      <c r="F18" s="339"/>
+      <c r="G18" s="339">
         <f>IF(G17="","",E18)</f>
         <v>0.25</v>
       </c>
-      <c r="H18" s="340"/>
-      <c r="I18" s="340" t="str">
+      <c r="H18" s="339"/>
+      <c r="I18" s="339" t="str">
         <f>IF(I17="","",G18)</f>
         <v/>
       </c>
-      <c r="J18" s="356"/>
+      <c r="J18" s="355"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="346" t="s">
+      <c r="B19" s="345" t="s">
         <v>307</v>
       </c>
       <c r="C19" s="209"/>
-      <c r="D19" s="348"/>
-      <c r="E19" s="347">
+      <c r="D19" s="347"/>
+      <c r="E19" s="346">
         <f>E20/C20-1</f>
         <v>-0.33738298700570424</v>
       </c>
-      <c r="F19" s="347"/>
-      <c r="G19" s="347">
+      <c r="F19" s="346"/>
+      <c r="G19" s="346">
         <f>IF(G20="","",G20/E20-1)</f>
         <v>-4.7005685964889743E-2</v>
       </c>
-      <c r="H19" s="347"/>
-      <c r="I19" s="347" t="str">
+      <c r="H19" s="346"/>
+      <c r="I19" s="346" t="str">
         <f>IF(I20="","",I20/G20-1)</f>
         <v/>
       </c>
-      <c r="J19" s="357"/>
+      <c r="J19" s="356"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="343" t="s">
+      <c r="B20" s="342" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="344">
+      <c r="C20" s="343">
         <f>IF(C17&lt;=0,C17,C17*(1-C18))</f>
         <v>61527</v>
       </c>
-      <c r="D20" s="344"/>
-      <c r="E20" s="345">
+      <c r="D20" s="343"/>
+      <c r="E20" s="344">
         <f>IF(E17="","",IF(E17&lt;=0,E17,E17*(1-E18)))</f>
         <v>40768.836958500033</v>
       </c>
-      <c r="F20" s="344"/>
-      <c r="G20" s="345">
+      <c r="F20" s="343"/>
+      <c r="G20" s="344">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
         <v>38852.46981127499</v>
       </c>
-      <c r="H20" s="344"/>
-      <c r="I20" s="345" t="str">
+      <c r="H20" s="343"/>
+      <c r="I20" s="344" t="str">
         <f>IF(I17="","",IF(I17&lt;=0,I17,I17*(1-I18)))</f>
         <v/>
       </c>
-      <c r="J20" s="358"/>
+      <c r="J20" s="357"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12593,19 +12595,19 @@
       <c r="B2" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="306" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="307">
+      <c r="D2" s="306">
         <v>1</v>
       </c>
-      <c r="E2" s="307">
+      <c r="E2" s="306">
         <v>2</v>
       </c>
-      <c r="F2" s="307">
+      <c r="F2" s="306">
         <v>3</v>
       </c>
-      <c r="G2" s="307" t="str">
+      <c r="G2" s="306" t="str">
         <f>B24</f>
         <v>Exit after Year 2</v>
       </c>
@@ -12617,19 +12619,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C3" s="299">
+      <c r="C3" s="298">
         <f>Operation!C3</f>
         <v>44561</v>
       </c>
-      <c r="D3" s="299">
+      <c r="D3" s="298">
         <f>Operation!E3</f>
         <v>44926</v>
       </c>
-      <c r="E3" s="299">
+      <c r="E3" s="298">
         <f>Operation!G3</f>
         <v>45291</v>
       </c>
-      <c r="F3" s="299" t="str">
+      <c r="F3" s="298" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12660,7 +12662,7 @@
         <f>Operation!I20</f>
         <v/>
       </c>
-      <c r="G4" s="325">
+      <c r="G4" s="324">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>2</v>
       </c>
@@ -12703,7 +12705,7 @@
       <c r="E6" s="86">
         <v>0.3</v>
       </c>
-      <c r="F6" s="330"/>
+      <c r="F6" s="329"/>
       <c r="G6" s="220"/>
       <c r="H6" s="6"/>
       <c r="I6" s="98"/>
@@ -12712,19 +12714,19 @@
       <c r="B7" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="331">
+      <c r="C7" s="330">
         <f>C4*C6</f>
         <v>18458.099999999999</v>
       </c>
-      <c r="D7" s="331">
+      <c r="D7" s="330">
         <f>D4*D6</f>
         <v>12230.65108755001</v>
       </c>
-      <c r="E7" s="331">
+      <c r="E7" s="330">
         <f>E4*E6</f>
         <v>11655.740943382496</v>
       </c>
-      <c r="F7" s="332"/>
+      <c r="F7" s="331"/>
       <c r="G7" s="221"/>
       <c r="H7" s="103"/>
       <c r="I7" s="77"/>
@@ -12766,19 +12768,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>3.2301670962291133E-2</v>
       </c>
-      <c r="D9" s="327">
+      <c r="D9" s="326">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>2.1403636727757927E-2</v>
       </c>
-      <c r="E9" s="327">
+      <c r="E9" s="326">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v>2.0397544101226361E-2</v>
       </c>
-      <c r="F9" s="327" t="str">
+      <c r="F9" s="326" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="328">
+      <c r="G9" s="327">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>2.0397544101226361E-2</v>
       </c>
@@ -12790,16 +12792,16 @@
       <c r="B10" s="255" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="333">
+      <c r="C10" s="332">
         <f>C11/C9</f>
         <v>0.52009693305378113</v>
       </c>
-      <c r="D10" s="333">
+      <c r="D10" s="332">
         <f>D11/D9</f>
         <v>0.78491334036764093</v>
       </c>
-      <c r="E10" s="360"/>
-      <c r="F10" s="360"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
       <c r="G10" s="256"/>
       <c r="H10" s="103"/>
       <c r="I10" s="77"/>
@@ -12809,16 +12811,16 @@
       <c r="B11" s="255" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="305">
+      <c r="C11" s="304">
         <f>0.0168</f>
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="D11" s="306">
+      <c r="D11" s="305">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="E11" s="361"/>
-      <c r="F11" s="361"/>
-      <c r="G11" s="304"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="360"/>
+      <c r="G11" s="303"/>
       <c r="H11" s="103"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
@@ -12834,8 +12836,8 @@
         <f>D11</f>
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="E12" s="362"/>
-      <c r="F12" s="362"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
       <c r="G12" s="251">
         <f>G9*D26</f>
         <v>0.28556561741716907</v>
@@ -12990,7 +12992,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.475699815537523E-2</v>
       </c>
-      <c r="E20" s="470" t="str">
+      <c r="E20" s="469" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13013,7 +13015,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6149987981251504E-4</v>
       </c>
-      <c r="E21" s="470"/>
+      <c r="E21" s="469"/>
       <c r="F21" s="169">
         <f>D18</f>
         <v>1.6488380438952446</v>
@@ -13035,11 +13037,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="473" t="s">
+      <c r="E23" s="472" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="473"/>
-      <c r="G23" s="473"/>
+      <c r="F23" s="472"/>
+      <c r="G23" s="472"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="148" t="str">
@@ -13052,7 +13054,7 @@
       <c r="D24" s="223" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="326" t="s">
+      <c r="E24" s="325" t="s">
         <v>257</v>
       </c>
       <c r="F24" s="286" t="s">
@@ -13073,14 +13075,14 @@
         <f>1/D25</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="319">
+      <c r="D25" s="318">
         <v>6</v>
       </c>
       <c r="E25" s="227">
         <f ca="1">G9*D25/G14</f>
         <v>9.7153368871105567E-2</v>
       </c>
-      <c r="F25" s="471">
+      <c r="F25" s="470">
         <f ca="1">SUM(C15:F15)</f>
         <v>3.3043161952354558E-2</v>
       </c>
@@ -13091,21 +13093,21 @@
       <c r="I25" s="95"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="322" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="324">
+      <c r="C26" s="323">
         <f t="shared" ref="C26" si="0">1/D26</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="D26" s="336">
+      <c r="D26" s="335">
         <v>14</v>
       </c>
       <c r="E26" s="228">
         <f ca="1">G9*D26/G14</f>
         <v>0.2266911940325797</v>
       </c>
-      <c r="F26" s="472"/>
+      <c r="F26" s="471"/>
       <c r="G26" s="228">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>1.9747124916126673</v>
@@ -13167,10 +13169,10 @@
       <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="468" t="s">
+      <c r="C31" s="467" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="469"/>
+      <c r="D31" s="468"/>
       <c r="E31" s="30" t="s">
         <v>248</v>
       </c>
@@ -13224,7 +13226,7 @@
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.97277377590215641</v>
       </c>
-      <c r="G33" s="302">
+      <c r="G33" s="301">
         <f>Dashboard!D10+4.5%</f>
         <v>7.3999999999999996E-2</v>
       </c>
@@ -14277,7 +14279,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="316"/>
+      <c r="G10" s="315"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="120" t="s">
@@ -14285,7 +14287,7 @@
       </c>
       <c r="C11" s="114"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="316"/>
+      <c r="G11" s="315"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -14299,7 +14301,7 @@
         <v>207</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="316"/>
+      <c r="G12" s="315"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
@@ -14313,7 +14315,7 @@
         <v>191</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="316"/>
+      <c r="G13" s="315"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -14327,7 +14329,7 @@
         <v>191</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="316"/>
+      <c r="G14" s="315"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -14341,7 +14343,7 @@
         <v>191</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="316"/>
+      <c r="G15" s="315"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -14355,7 +14357,7 @@
         <v>193</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="316"/>
+      <c r="G16" s="315"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="120" t="s">
@@ -14363,7 +14365,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="316"/>
+      <c r="G17" s="315"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -14380,7 +14382,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="316"/>
+      <c r="G18" s="315"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -14394,7 +14396,7 @@
         <v>183</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="316"/>
+      <c r="G19" s="315"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14408,7 +14410,7 @@
         <v>191</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="316"/>
+      <c r="G20" s="315"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14422,7 +14424,7 @@
         <v>183</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="316"/>
+      <c r="G21" s="315"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14436,7 +14438,7 @@
         <v>191</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="316"/>
+      <c r="G22" s="315"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="120" t="s">
@@ -14444,7 +14446,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="316"/>
+      <c r="G23" s="315"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14458,7 +14460,7 @@
         <v>184</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="316"/>
+      <c r="G24" s="315"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14472,7 +14474,7 @@
         <v>183</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="316"/>
+      <c r="G25" s="315"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14486,7 +14488,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="316"/>
+      <c r="G26" s="315"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14500,7 +14502,7 @@
         <v>183</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="316"/>
+      <c r="G27" s="315"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14514,7 +14516,7 @@
         <v>183</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="316"/>
+      <c r="G28" s="315"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="120" t="s">
@@ -14522,7 +14524,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="316"/>
+      <c r="G29" s="315"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14537,7 +14539,7 @@
         <v>High</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="316"/>
+      <c r="G30" s="315"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14551,7 +14553,7 @@
         <v>191</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="316"/>
+      <c r="G31" s="315"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14565,7 +14567,7 @@
         <v>193</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="316"/>
+      <c r="G32" s="315"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14579,7 +14581,7 @@
         <v>191</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="316"/>
+      <c r="G33" s="315"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14593,7 +14595,7 @@
         <v>184</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="316"/>
+      <c r="G34" s="315"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14606,7 +14608,7 @@
       <c r="E35" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="316"/>
+      <c r="G35" s="315"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14621,7 +14623,7 @@
         <v>Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="316"/>
+      <c r="G36" s="315"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14635,7 +14637,7 @@
         <v>207</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="316"/>
+      <c r="G37" s="315"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14649,7 +14651,7 @@
         <v>207</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="316"/>
+      <c r="G38" s="315"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14663,7 +14665,7 @@
         <v>184</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="316"/>
+      <c r="G39" s="315"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14677,7 +14679,7 @@
         <v>184</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="316"/>
+      <c r="G40" s="315"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14690,7 +14692,7 @@
       <c r="E41" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="316"/>
+      <c r="G41" s="315"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14705,7 +14707,7 @@
         <v>Low</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="316"/>
+      <c r="G42" s="315"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14719,7 +14721,7 @@
         <v>207</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="316"/>
+      <c r="G43" s="315"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14733,7 +14735,7 @@
         <v>183</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="316"/>
+      <c r="G44" s="315"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14747,7 +14749,7 @@
         <v>193</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="316"/>
+      <c r="G45" s="315"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14761,7 +14763,7 @@
         <v>207</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="316"/>
+      <c r="G46" s="315"/>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -14775,7 +14777,7 @@
         <v>207</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="316"/>
+      <c r="G47" s="315"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14789,7 +14791,7 @@
         <v>183</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="316"/>
+      <c r="G48" s="315"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14804,7 +14806,7 @@
         <v>High</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="316"/>
+      <c r="G49" s="315"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14817,7 +14819,7 @@
       <c r="E50" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="G50" s="316"/>
+      <c r="G50" s="315"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14831,7 +14833,7 @@
         <v>183</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="316"/>
+      <c r="G51" s="315"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14844,7 +14846,7 @@
       <c r="E52" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="G52" s="316"/>
+      <c r="G52" s="315"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14858,7 +14860,7 @@
         <v>193</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="316"/>
+      <c r="G53" s="315"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14873,7 +14875,7 @@
         <v>312</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="316"/>
+      <c r="G54" s="315"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14889,7 +14891,7 @@
         <v>Very High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="316"/>
+      <c r="G55" s="315"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14904,7 +14906,7 @@
         <v>193</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="316"/>
+      <c r="G56" s="315"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14919,7 +14921,7 @@
         <v>193</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="316"/>
+      <c r="G57" s="315"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14934,7 +14936,7 @@
         <v>184</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="316"/>
+      <c r="G58" s="315"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14949,7 +14951,7 @@
         <v>193</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="316"/>
+      <c r="G59" s="315"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14964,7 +14966,7 @@
         <v>193</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="316"/>
+      <c r="G60" s="315"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14979,7 +14981,7 @@
         <v>184</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="316"/>
+      <c r="G61" s="315"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14995,12 +14997,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="316"/>
+      <c r="G62" s="315"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="316"/>
+      <c r="G63" s="315"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="118" t="s">
@@ -15014,10 +15016,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.45921768707482991</v>
       </c>
-      <c r="G64" s="316"/>
+      <c r="G64" s="315"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="317"/>
+      <c r="G65" s="316"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611136D8-8C37-49E8-A81C-2BAD473AF88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92AFDE-6DE9-457C-89E2-2FD148A3B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="352">
   <si>
     <t>Company Info:</t>
   </si>
@@ -761,12 +761,6 @@
   </si>
   <si>
     <t>TV per share</t>
-  </si>
-  <si>
-    <t>Equity Value per share</t>
-  </si>
-  <si>
-    <t>Investor Dividends</t>
   </si>
   <si>
     <t>Present Value</t>
@@ -3006,7 +3000,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="464">
+  <cellXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3932,182 +3926,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4130,9 +3952,182 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4163,22 +4158,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4349,9 +4334,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB6D7A8"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFB6D7A8"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -4571,7 +4556,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4615,33 +4600,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="399" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="400"/>
+      <c r="C3" s="395" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="396"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="409" t="s">
+      <c r="I3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="410"/>
+      <c r="J3" s="408"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="401" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="402"/>
+      <c r="C4" s="397" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="398"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4652,10 +4637,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="399">
         <v>44931</v>
       </c>
-      <c r="D5" s="402"/>
+      <c r="D5" s="398"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4663,16 +4648,16 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="411">
+      <c r="I5" s="391">
         <v>1333330500</v>
       </c>
-      <c r="J5" s="412"/>
+      <c r="J5" s="392"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" s="269">
         <v>8</v>
@@ -4689,11 +4674,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="413">
+      <c r="I6" s="409">
         <f>I4*I5/1000000</f>
-        <v>2026.66236</v>
-      </c>
-      <c r="J6" s="414"/>
+        <v>2346.6616800000002</v>
+      </c>
+      <c r="J6" s="410"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4702,7 +4687,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.3115044209625612E-2</v>
+        <v>2.8599356362858482E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4733,19 +4718,19 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>19.237202686547526</v>
+        <v>22.274655742318188</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>5.1982609753303412E-2</v>
+        <v>4.4894072059671129E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="299" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="299">
         <v>2.8999999999999998E-2</v>
@@ -4756,7 +4741,7 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.64769431597235261</v>
+        <v>0.74996183954693452</v>
       </c>
       <c r="J10" s="130" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4765,32 +4750,32 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="312" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="423">
+        <v>267</v>
+      </c>
+      <c r="C11" s="421">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="424"/>
+      <c r="D11" s="422"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="421" t="s">
-        <v>338</v>
-      </c>
-      <c r="J11" s="422"/>
+      <c r="I11" s="419" t="s">
+        <v>336</v>
+      </c>
+      <c r="J11" s="420"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="377">
+      <c r="C12" s="423">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="378"/>
+      <c r="D12" s="424"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4813,31 +4798,34 @@
         <v>212</v>
       </c>
       <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.799970205559946</v>
+        <f>MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <v>1.8001153392017026</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
+        <f>MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
         <v>2.0402161228044116</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.9102953800061204</v>
+        <f>IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
+        <v>1.9103738657125928</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="96"/>
+      <c r="B15" s="234" t="str">
+        <f>"(in "&amp;J4&amp;")"</f>
+        <v>(in HKD)</v>
+      </c>
       <c r="C15" s="238" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" s="89" t="s">
         <v>19</v>
@@ -4859,59 +4847,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.52</v>
-      </c>
-      <c r="C16" s="387">
+        <v>1.76</v>
+      </c>
+      <c r="C16" s="430">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
-        <f ca="1">IF(B17='FCFF Model'!F29,"Net Asset", H14/B16-1-C16)</f>
-        <v>0.15677327631981605</v>
-      </c>
-      <c r="E16" s="382">
+        <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
+        <v>-1.4560303572390382E-2</v>
+      </c>
+      <c r="E16" s="427">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0</v>
+        <v>0.25167237122853597</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="390" t="s">
+        <v>0.14299566547075906</v>
+      </c>
+      <c r="G16" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="415">
+      <c r="H16" s="411">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>2.0402161228044116</v>
       </c>
-      <c r="I16" s="390" t="s">
+      <c r="I16" s="414" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>-0.52021612280441154</v>
+        <v>-0.28021612280441155</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="289">
-        <f ca="1">MAX(H14/(1+C16),'FCFF Model'!F29)</f>
-        <v>1.7366321636419275</v>
-      </c>
-      <c r="C17" s="388"/>
+        <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
+        <v>1.7367035142841751</v>
+      </c>
+      <c r="C17" s="431"/>
       <c r="D17" s="288">
-        <f ca="1">IF(B17='FCFF Model'!F29,"Net Asset",H14/B17-1-C16)</f>
+        <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="E17" s="383"/>
+      <c r="E17" s="428"/>
       <c r="F17" s="162">
-        <f ca="1">E16/B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="391"/>
-      <c r="H17" s="416"/>
-      <c r="I17" s="391"/>
+        <f>E16/B17</f>
+        <v>0.14491383771528146</v>
+      </c>
+      <c r="G17" s="415"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="415"/>
       <c r="J17" s="205">
-        <f ca="1">B17-$H$16</f>
-        <v>-0.30358395916248404</v>
+        <f>B17-$H$16</f>
+        <v>-0.30351260852023643</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4919,19 +4907,19 @@
         <f>C35</f>
         <v>1.62</v>
       </c>
-      <c r="C18" s="389"/>
+      <c r="C18" s="432"/>
       <c r="D18" s="160">
-        <f ca="1">IF(B17='FCFF Model'!F29,"NA: "&amp;ROUND('FCFF Model'!F29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>7.919467901612362E-2</v>
-      </c>
-      <c r="E18" s="384"/>
+        <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
+        <v>7.9243126983081863E-2</v>
+      </c>
+      <c r="E18" s="429"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="392"/>
-      <c r="H18" s="417"/>
-      <c r="I18" s="392"/>
+        <v>0.15535331557317034</v>
+      </c>
+      <c r="G18" s="416"/>
+      <c r="H18" s="413"/>
+      <c r="I18" s="416"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>-0.42021612280441145</v>
@@ -4947,13 +4935,13 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D20" s="290" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E20" s="266" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -4964,52 +4952,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="406" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
-      <c r="F21" s="407"/>
-      <c r="G21" s="407"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="407"/>
-      <c r="J21" s="408"/>
+      <c r="C21" s="402" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="403"/>
+      <c r="H21" s="403"/>
+      <c r="I21" s="403"/>
+      <c r="J21" s="404"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="419" t="s">
-        <v>341</v>
-      </c>
-      <c r="D22" s="420"/>
-      <c r="E22" s="420"/>
-      <c r="F22" s="420"/>
-      <c r="G22" s="419" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="420"/>
-      <c r="J22" s="420"/>
+      <c r="C22" s="418" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="383"/>
+      <c r="E22" s="383"/>
+      <c r="F22" s="383"/>
+      <c r="G22" s="418" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="418"/>
+      <c r="I22" s="383"/>
+      <c r="J22" s="383"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="385" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="385" t="s">
-        <v>344</v>
-      </c>
-      <c r="H23" s="385"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
+      <c r="C23" s="405" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="406"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="406"/>
+      <c r="G23" s="405" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="405"/>
+      <c r="I23" s="406"/>
+      <c r="J23" s="406"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5035,234 +5023,234 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="353">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J25" s="354">
-        <f ca="1">IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
-        <v>1.5282363040048963</v>
+        <f>IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
+        <v>1.5282990925700743</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="404">
+      <c r="C26" s="400">
         <v>44932</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="396" t="str">
+      <c r="D26" s="401"/>
+      <c r="E26" s="436" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="397"/>
-      <c r="G26" s="397"/>
-      <c r="H26" s="398"/>
-      <c r="I26" s="418" t="s">
+      <c r="F26" s="437"/>
+      <c r="G26" s="437"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="417" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="418"/>
+      <c r="J26" s="417"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="381">
+      <c r="C27" s="426">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D27" s="380"/>
-      <c r="E27" s="379">
+      <c r="D27" s="381"/>
+      <c r="E27" s="425">
         <f>E31/D25</f>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F27" s="380"/>
-      <c r="G27" s="394">
+      <c r="F27" s="381"/>
+      <c r="G27" s="434">
         <f>G31/D25</f>
         <v>0.10533333333333333</v>
       </c>
-      <c r="H27" s="395"/>
-      <c r="I27" s="393">
+      <c r="H27" s="435"/>
+      <c r="I27" s="433">
         <f>C27+E27+G27</f>
         <v>0.30299999999999999</v>
       </c>
-      <c r="J27" s="393"/>
+      <c r="J27" s="433"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="370">
+      <c r="C28" s="382">
         <v>40000</v>
       </c>
-      <c r="D28" s="420"/>
-      <c r="E28" s="370">
+      <c r="D28" s="383"/>
+      <c r="E28" s="382">
         <v>30000</v>
       </c>
-      <c r="F28" s="420"/>
-      <c r="G28" s="411">
+      <c r="F28" s="383"/>
+      <c r="G28" s="391">
         <v>40000</v>
       </c>
-      <c r="H28" s="412"/>
-      <c r="I28" s="435">
+      <c r="H28" s="392"/>
+      <c r="I28" s="371">
         <f>C28+E28+G28</f>
         <v>110000</v>
       </c>
-      <c r="J28" s="435"/>
+      <c r="J28" s="371"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="445">
+      <c r="C29" s="384">
         <v>1.75</v>
       </c>
-      <c r="D29" s="420"/>
-      <c r="E29" s="445">
+      <c r="D29" s="383"/>
+      <c r="E29" s="384">
         <v>1.62</v>
       </c>
-      <c r="F29" s="420"/>
-      <c r="G29" s="425">
+      <c r="F29" s="383"/>
+      <c r="G29" s="385">
         <v>1.58</v>
       </c>
-      <c r="H29" s="426"/>
-      <c r="I29" s="431"/>
-      <c r="J29" s="431"/>
+      <c r="H29" s="386"/>
+      <c r="I29" s="393"/>
+      <c r="J29" s="393"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="433">
+      <c r="C30" s="369">
         <f>C29*$I$5/1000000</f>
         <v>2333.3283750000001</v>
       </c>
-      <c r="D30" s="440"/>
-      <c r="E30" s="433">
+      <c r="D30" s="376"/>
+      <c r="E30" s="369">
         <f>E29*$I$5/1000000</f>
         <v>2159.99541</v>
       </c>
-      <c r="F30" s="440"/>
-      <c r="G30" s="427">
+      <c r="F30" s="376"/>
+      <c r="G30" s="387">
         <f>G29*$I$5/1000000</f>
         <v>2106.66219</v>
       </c>
-      <c r="H30" s="428"/>
-      <c r="I30" s="432"/>
-      <c r="J30" s="432"/>
+      <c r="H30" s="388"/>
+      <c r="I30" s="394"/>
+      <c r="J30" s="394"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="441">
+      <c r="C31" s="377">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="442"/>
-      <c r="E31" s="434">
+      <c r="D31" s="378"/>
+      <c r="E31" s="370">
         <f>E28*E29</f>
         <v>48600</v>
       </c>
-      <c r="F31" s="443"/>
-      <c r="G31" s="429">
+      <c r="F31" s="379"/>
+      <c r="G31" s="389">
         <f>G28*G29</f>
         <v>63200</v>
       </c>
-      <c r="H31" s="430"/>
-      <c r="I31" s="434">
+      <c r="H31" s="390"/>
+      <c r="I31" s="370">
         <f>C31+E31+G31</f>
         <v>181800</v>
       </c>
-      <c r="J31" s="434"/>
+      <c r="J31" s="370"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="436"/>
-      <c r="D32" s="437"/>
-      <c r="E32" s="444">
+      <c r="C32" s="372"/>
+      <c r="D32" s="373"/>
+      <c r="E32" s="380">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.6942857142857144</v>
       </c>
-      <c r="F32" s="380"/>
+      <c r="F32" s="381"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="444">
+      <c r="I32" s="380">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.6527272727272728</v>
       </c>
-      <c r="J32" s="444"/>
+      <c r="J32" s="380"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="438"/>
-      <c r="D33" s="439"/>
-      <c r="E33" s="433">
+      <c r="C33" s="374"/>
+      <c r="D33" s="375"/>
+      <c r="E33" s="369">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="F33" s="440"/>
+      <c r="F33" s="376"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="433">
+      <c r="I33" s="369">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2203.6316809090908</v>
       </c>
-      <c r="J33" s="433"/>
+      <c r="J33" s="369"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="368">
+        <v>309</v>
+      </c>
+      <c r="C35" s="439">
         <f>E29</f>
         <v>1.62</v>
       </c>
-      <c r="D35" s="369"/>
-      <c r="G35" s="372" t="s">
-        <v>313</v>
-      </c>
-      <c r="H35" s="373"/>
-      <c r="I35" s="368">
-        <f ca="1">F14</f>
+      <c r="D35" s="440"/>
+      <c r="G35" s="442" t="s">
+        <v>311</v>
+      </c>
+      <c r="H35" s="443"/>
+      <c r="I35" s="439">
+        <f>F14</f>
         <v>2.0402161228044116</v>
       </c>
-      <c r="J35" s="369"/>
+      <c r="J35" s="440"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="370">
+        <v>310</v>
+      </c>
+      <c r="C36" s="382">
         <f>E28</f>
         <v>30000</v>
       </c>
-      <c r="D36" s="371"/>
-      <c r="G36" s="374" t="s">
-        <v>323</v>
-      </c>
-      <c r="H36" s="374"/>
-      <c r="I36" s="375">
-        <f ca="1">IF(C26="",0,I35/C29-1)</f>
+      <c r="D36" s="441"/>
+      <c r="G36" s="444" t="s">
+        <v>321</v>
+      </c>
+      <c r="H36" s="444"/>
+      <c r="I36" s="445">
+        <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.16583778445966368</v>
       </c>
-      <c r="J36" s="376"/>
+      <c r="J36" s="446"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G38" s="346" t="s">
         <v>136</v>
@@ -5274,7 +5262,7 @@
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F39" s="214">
         <f>'Qualitative Analysis'!E8</f>
@@ -5287,7 +5275,7 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F40" s="214">
         <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
@@ -5300,7 +5288,7 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E41" s="358"/>
       <c r="F41" s="361">
@@ -5308,7 +5296,7 @@
         <v>0.45921768707482991</v>
       </c>
       <c r="G41" s="364" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H41" s="116"/>
       <c r="I41" s="116"/>
@@ -5316,18 +5304,18 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E42" s="358">
-        <f ca="1">IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>0.5</v>
       </c>
       <c r="F42" s="102" t="str">
-        <f ca="1">IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
         <v>So-so</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="74"/>
@@ -5335,7 +5323,7 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F43" s="365">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5349,70 +5337,70 @@
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F45" s="365">
-        <f ca="1">I35/C29-1</f>
+        <f>I35/C29-1</f>
         <v>0.16583778445966368</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F46" s="365">
-        <f ca="1">D14/C29-1</f>
-        <v>2.8554403177112109E-2</v>
+        <f>D14/C29-1</f>
+        <v>2.863733668668722E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F48" s="214">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
         <v>0.54784353741496594</v>
       </c>
       <c r="G48" s="74"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D49" s="462">
-        <f ca="1">IF(OR(F42="Strongly Agree",F42="Agree"),2,4)</f>
+        <v>329</v>
+      </c>
+      <c r="D49" s="367">
+        <f>IF(OR(F42="Strongly Agree",F42="Agree"),2,4)</f>
         <v>4</v>
       </c>
       <c r="E49" s="363">
-        <f ca="1">F45/ABS(F46)</f>
-        <v>5.8077832490854373</v>
+        <f>F45/ABS(F46)</f>
+        <v>5.7909639528999044</v>
       </c>
       <c r="F49" s="360">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>100</v>
       </c>
       <c r="G49" s="74"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="463" t="str">
-        <f ca="1">IF(D49=4,"⇒ Quarter Kelly %", "⇒ Half Kelly %")</f>
+      <c r="B50" s="368" t="str">
+        <f>IF(D49=4,"⇒ Quarter Kelly %", "⇒ Half Kelly %")</f>
         <v>⇒ Quarter Kelly %</v>
       </c>
       <c r="C50" s="85" t="str">
-        <f ca="1">" [W – (1 – W)/R] /"&amp;D49</f>
+        <f>" [W – (1 – W)/R] /"&amp;D49</f>
         <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
       </c>
       <c r="E50" s="107">
-        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/D49</f>
+        <f>MAX(F48-ABS((1-F48)/F49),0)/D49</f>
         <v>0.13583049319727891</v>
       </c>
       <c r="F50" s="359">
-        <f ca="1">MIN(E50,H50)</f>
+        <f>MIN(E50,H50)</f>
         <v>0.13583049319727891</v>
       </c>
       <c r="G50" s="362" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -6336,6 +6324,44 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6352,44 +6378,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
@@ -7098,7 +7086,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" s="144">
         <v>1613</v>
@@ -7146,7 +7134,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C20" s="14">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -7464,7 +7452,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" s="176">
         <v>2558156</v>
@@ -7710,7 +7698,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="168" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C37" s="165">
         <v>58667</v>
@@ -7928,7 +7916,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
@@ -8189,7 +8177,7 @@
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="339" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="165"/>
       <c r="D51" s="165"/>
@@ -8206,7 +8194,7 @@
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="340" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="347" t="str">
         <f>IF(C51="","",C51/C7)</f>
@@ -9654,7 +9642,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="273">
@@ -9667,7 +9655,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="274" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I3" s="275">
         <v>2803646</v>
@@ -9719,7 +9707,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
@@ -9741,7 +9729,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
@@ -9753,7 +9741,7 @@
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
@@ -9764,14 +9752,14 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="268" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="255"/>
       <c r="D9" s="271">
         <v>44926</v>
       </c>
       <c r="E9" s="290" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -9793,7 +9781,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="63" t="s">
@@ -9943,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="94">
         <f>IF(F16="Y",0,1)</f>
@@ -10005,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" s="94">
         <f>IF(F19="Y",0,1)</f>
@@ -10029,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" s="94">
         <f>IF(F20="Y",0,1)</f>
@@ -10098,7 +10086,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
@@ -10128,7 +10116,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
@@ -10171,7 +10159,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -10263,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" s="94">
         <f>IF(F31="Y",0,1)</f>
@@ -10315,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="204" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" s="94">
         <f>IF(F33="Y",0,1)</f>
@@ -10338,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G34" s="94">
         <f>IF(F34="Y",0,1)</f>
@@ -10360,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="204" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G35" s="94">
         <f>IF(F35="Y",0,1)</f>
@@ -10369,7 +10357,7 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C36" s="64">
         <f>163961+23609+618</f>
@@ -10387,7 +10375,7 @@
     </row>
     <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C37" s="64">
         <v>0</v>
@@ -10510,7 +10498,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
@@ -10540,7 +10528,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
@@ -10570,7 +10558,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I46" s="155">
         <f>I26+I42</f>
@@ -10627,31 +10615,31 @@
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="446">
+      <c r="D52" s="447">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="447"/>
+      <c r="E52" s="448"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B53" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="449">
+      <c r="D53" s="450">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="442"/>
+      <c r="E53" s="378"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -10663,10 +10651,10 @@
         <v>131</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="454">
+      <c r="D54" s="455">
         <v>0</v>
       </c>
-      <c r="E54" s="420"/>
+      <c r="E54" s="383"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10677,10 +10665,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="454">
+      <c r="D55" s="455">
         <v>0</v>
       </c>
-      <c r="E55" s="420"/>
+      <c r="E55" s="383"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10695,14 +10683,14 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="448"/>
-      <c r="E57" s="448"/>
+      <c r="D57" s="449"/>
+      <c r="E57" s="449"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C58" s="213">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
@@ -10742,11 +10730,11 @@
         <v>135</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="452">
+      <c r="D60" s="453">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-818868.6399999999</v>
-      </c>
-      <c r="E60" s="453"/>
+        <v>-498869.31999999983</v>
+      </c>
+      <c r="E60" s="454"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10756,40 +10744,40 @@
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="291" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D63" s="375">
+        <v>260</v>
+      </c>
+      <c r="D63" s="445">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16776182102549406</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="446"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64" s="450">
+        <v>259</v>
+      </c>
+      <c r="D64" s="451">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="451"/>
+      <c r="E64" s="452"/>
       <c r="F64" s="266" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="291" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="450">
+        <v>261</v>
+      </c>
+      <c r="D65" s="451">
         <f>D64</f>
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="451"/>
+      <c r="E65" s="452"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10859,10 +10847,10 @@
     <row r="2" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="285" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="285"/>
       <c r="E2" s="285">
@@ -10890,14 +10878,14 @@
         <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G3" s="277" t="str">
         <f>IF(G9="","",EOMONTH(EDATE(E3,12),0))</f>
@@ -10915,7 +10903,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="292" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C4" s="293">
         <v>1296901</v>
@@ -10942,7 +10930,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="292" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C5" s="293">
         <v>64283</v>
@@ -10969,7 +10957,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="292" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="293">
         <v>76943</v>
@@ -10996,7 +10984,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="292" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="293">
         <v>4067</v>
@@ -11041,7 +11029,7 @@
       <c r="J8" s="287"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M8" s="57"/>
     </row>
@@ -11236,7 +11224,7 @@
     </row>
     <row r="17" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="134" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="319">
         <f>C12-C14</f>
@@ -11288,7 +11276,7 @@
     </row>
     <row r="19" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="324" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C19" s="264">
         <f>C20/C10</f>
@@ -12265,7 +12253,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12289,7 +12277,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="285" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="285">
         <v>1</v>
@@ -12329,7 +12317,7 @@
         <v/>
       </c>
       <c r="G3" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>136</v>
@@ -12365,7 +12353,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="257"/>
       <c r="D5" s="258">
@@ -12403,7 +12391,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C7" s="309">
         <f>C4*C6</f>
@@ -12478,7 +12466,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="234" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="311">
         <f>C11/C9</f>
@@ -12486,7 +12474,7 @@
       </c>
       <c r="D10" s="311">
         <f>D11/D9</f>
-        <v>0</v>
+        <v>-4.1586033270056832</v>
       </c>
       <c r="E10" s="343"/>
       <c r="F10" s="343"/>
@@ -12497,13 +12485,13 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="234" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C11" s="283">
         <v>0</v>
       </c>
       <c r="D11" s="284">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E11" s="344"/>
       <c r="F11" s="344"/>
@@ -12514,13 +12502,13 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C12" s="236">
         <v>0</v>
       </c>
       <c r="D12" s="236">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E12" s="345"/>
       <c r="F12" s="345"/>
@@ -12584,7 +12572,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C15" s="237">
         <f>C12</f>
@@ -12592,7 +12580,7 @@
       </c>
       <c r="D15" s="195">
         <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
-        <v>0</v>
+        <v>0.20370370370370369</v>
       </c>
       <c r="E15" s="196" t="str">
         <f>IF(E9="","",E9/E14)</f>
@@ -12628,7 +12616,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="84">
         <f>Asset_Model!E59</f>
@@ -12639,7 +12627,7 @@
         <v>1.7477784240291512</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
@@ -12648,7 +12636,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" s="84">
         <f>Asset_Model!E58</f>
@@ -12659,7 +12647,7 @@
         <v>0.13529166249478281</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
@@ -12678,12 +12666,12 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.2460526478618767E-2</v>
       </c>
-      <c r="E20" s="457" t="str">
+      <c r="E20" s="458" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G20" s="87" t="s">
         <v>23</v>
@@ -12691,7 +12679,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
@@ -12701,7 +12689,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6150204319184174E-4</v>
       </c>
-      <c r="E21" s="457"/>
+      <c r="E21" s="458"/>
       <c r="F21" s="148">
         <f>D18+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.6615901269293709</v>
@@ -12723,11 +12711,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="461" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="461"/>
-      <c r="G23" s="461"/>
+      <c r="E23" s="459" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="459"/>
+      <c r="G23" s="459"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12743,11 +12731,13 @@
       <c r="E24" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="265" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="265" t="s">
-        <v>224</v>
+      <c r="F24" s="265" t="str">
+        <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
+        <v>Equity Value (CNY)</v>
+      </c>
+      <c r="G24" s="265" t="str">
+        <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
+        <v>Equity Value (HKD)</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>136</v>
@@ -12755,7 +12745,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
@@ -12768,19 +12758,19 @@
         <f>IF(G9&lt;0,G9,G9*D25/G14)</f>
         <v>-5.2902376759845111E-2</v>
       </c>
-      <c r="F25" s="458">
-        <f ca="1">SUM(C15:F15)</f>
-        <v>0</v>
+      <c r="F25" s="206">
+        <f>E25+$G$19</f>
+        <v>1.7305573841424982</v>
       </c>
       <c r="G25" s="206">
-        <f ca="1">$F$25+E25+$G$19</f>
-        <v>1.7305573841424982</v>
+        <f>ROUND(F25*Exchange_Rate,2)</f>
+        <v>1.98</v>
       </c>
       <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26" s="349">
         <f>1/D26</f>
@@ -12793,18 +12783,21 @@
         <f>IF(G9&lt;0,G9,G9*D26/G14)</f>
         <v>-5.2902376759845111E-2</v>
       </c>
-      <c r="F26" s="459"/>
+      <c r="F26" s="351">
+        <f>E26+$G$19</f>
+        <v>1.7305573841424982</v>
+      </c>
       <c r="G26" s="351">
-        <f ca="1">$F$25+E26+$G$19</f>
-        <v>1.7305573841424982</v>
+        <f>ROUND(F26*Exchange_Rate,2)</f>
+        <v>1.98</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="301" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C27" s="302">
         <f t="shared" ref="C27" si="0">1/D27</f>
@@ -12817,13 +12810,16 @@
         <f>IF(G9&lt;0,G9,G9*D27/G14)</f>
         <v>-5.2902376759845111E-2</v>
       </c>
-      <c r="F27" s="460"/>
+      <c r="F27" s="207">
+        <f>E27+$G$19</f>
+        <v>1.7305573841424982</v>
+      </c>
       <c r="G27" s="207">
-        <f ca="1">$F$25+E27+$G$19</f>
-        <v>1.7305573841424982</v>
+        <f>ROUND(F27*Exchange_Rate,2)</f>
+        <v>1.98</v>
       </c>
       <c r="I27" s="74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12843,14 +12839,14 @@
         <v>(Numbers in HKD per share)</v>
       </c>
       <c r="D29" s="127"/>
-      <c r="E29" s="366" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" s="367">
+      <c r="E29" s="133"/>
+      <c r="F29" s="366" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" s="460">
         <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
         <v>1.6340679600032741</v>
       </c>
-      <c r="G29" s="127"/>
       <c r="H29" s="12"/>
       <c r="I29" s="90"/>
     </row>
@@ -12860,15 +12856,15 @@
         <v>147</v>
       </c>
       <c r="C30" s="252">
-        <f ca="1">MIN(F29,G25*Exchange_Rate)+(ABS(F29-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.799970205559946</v>
+        <f>MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
+        <v>1.8001153392017026</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
+        <f>IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
       <c r="E30" s="251">
-        <f ca="1">MAX(G26*Exchange_Rate, G19*Exchange_Rate)</f>
+        <f>MAX(G26, G19*Exchange_Rate)</f>
         <v>2.0402161228044116</v>
       </c>
       <c r="F30" s="30"/>
@@ -12886,10 +12882,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="455" t="s">
+      <c r="C32" s="456" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="456"/>
+      <c r="D32" s="457"/>
       <c r="E32" s="30" t="s">
         <v>214</v>
       </c>
@@ -12901,23 +12897,23 @@
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="256" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C33" s="253">
-        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>1.9102953800061204</v>
+        <f>MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>1.9103738657125928</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
       <c r="E33" s="120">
-        <f ca="1">(C33-G19)/C9</f>
-        <v>464.42374463734927</v>
+        <f>(C33-G19)/C9</f>
+        <v>464.7111294111059</v>
       </c>
       <c r="F33" s="158">
-        <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81400490753829569</v>
+        <f>C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.81403835145011627</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12925,10 +12921,10 @@
     </row>
     <row r="34" spans="2:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="255" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C34" s="254">
-        <f ca="1">MAX(Asset_Model!D7,G19,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
+        <f>MAX(Asset_Model!D7,G19,(G12/(1+G34)^G4+G19)*Exchange_Rate)</f>
         <v>1.9838674407205463</v>
       </c>
       <c r="D34" s="208" t="str">
@@ -12936,11 +12932,11 @@
         <v>HKD</v>
       </c>
       <c r="E34" s="120">
-        <f ca="1">(C34-G19)/C9</f>
+        <f>(C34-G19)/C9</f>
         <v>733.81661849341697</v>
       </c>
       <c r="F34" s="158">
-        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <f>C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.84535504276139206</v>
       </c>
       <c r="G34" s="280">
@@ -13838,13 +13834,12 @@
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F25:F27"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:E27 G25:G27">
+  <conditionalFormatting sqref="E25:G27">
     <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>$E$30</formula>
     </cfRule>
@@ -13896,7 +13891,7 @@
     </row>
     <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="94">
@@ -13907,12 +13902,12 @@
         <v>173</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="94">
@@ -13926,7 +13921,7 @@
     </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="94">
@@ -13941,7 +13936,7 @@
     </row>
     <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C6" s="96"/>
       <c r="D6" s="94">
@@ -13956,7 +13951,7 @@
     </row>
     <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" s="96"/>
       <c r="D7" s="100">
@@ -14010,7 +14005,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="100">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -14021,7 +14016,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="294" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14090,7 +14085,7 @@
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D18" s="100">
         <f>Asset_Model!J26</f>
@@ -14116,7 +14111,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="294" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14182,7 +14177,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="294" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14198,12 +14193,12 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="294" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D26" s="100">
         <f t="shared" si="2"/>
@@ -14217,7 +14212,7 @@
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D27" s="100">
         <f t="shared" si="2"/>
@@ -14282,7 +14277,7 @@
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D32" s="100">
         <f t="shared" si="3"/>
@@ -14296,7 +14291,7 @@
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D33" s="100">
         <f t="shared" si="3"/>
@@ -14310,7 +14305,7 @@
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D34" s="100">
         <f t="shared" si="3"/>
@@ -14324,7 +14319,7 @@
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D35" s="100">
         <f t="shared" si="3"/>
@@ -14366,7 +14361,7 @@
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D38" s="100">
         <f t="shared" si="4"/>
@@ -14380,7 +14375,7 @@
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D39" s="100">
         <f t="shared" si="4"/>
@@ -14394,7 +14389,7 @@
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D40" s="100">
         <f t="shared" si="4"/>
@@ -14408,7 +14403,7 @@
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D41" s="100">
         <f t="shared" si="4"/>
@@ -14489,7 +14484,7 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="294" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14564,7 +14559,7 @@
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D52" s="100">
         <f t="shared" si="6"/>
@@ -14577,7 +14572,7 @@
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D53" s="100">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
@@ -14592,14 +14587,14 @@
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D54" s="104">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="294"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA92AFDE-6DE9-457C-89E2-2FD148A3B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407D42A-CE5E-4F23-B696-A6E44E1FA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3930,6 +3930,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4159,9 +4162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4172,19 +4172,19 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4556,7 +4556,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4600,27 +4600,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="395" t="s">
+      <c r="C3" s="396" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="396"/>
+      <c r="D3" s="397"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="407" t="s">
+      <c r="I3" s="408" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="408"/>
+      <c r="J3" s="409"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="397" t="s">
+      <c r="C4" s="398" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="398"/>
+      <c r="D4" s="399"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4637,10 +4637,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="399">
+      <c r="C5" s="400">
         <v>44931</v>
       </c>
-      <c r="D5" s="398"/>
+      <c r="D5" s="399"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4648,10 +4648,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="391">
+      <c r="I5" s="392">
         <v>1333330500</v>
       </c>
-      <c r="J5" s="392"/>
+      <c r="J5" s="393"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4674,11 +4674,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="409">
+      <c r="I6" s="410">
         <f>I4*I5/1000000</f>
         <v>2346.6616800000002</v>
       </c>
-      <c r="J6" s="410"/>
+      <c r="J6" s="411"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,30 +4752,30 @@
       <c r="B11" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="421">
+      <c r="C11" s="422">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="419" t="s">
+      <c r="I11" s="420" t="s">
         <v>336</v>
       </c>
-      <c r="J11" s="420"/>
+      <c r="J11" s="421"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="423">
+      <c r="C12" s="424">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="424"/>
+      <c r="D12" s="425"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4849,14 +4849,14 @@
         <f>I4</f>
         <v>1.76</v>
       </c>
-      <c r="C16" s="430">
+      <c r="C16" s="431">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
         <v>-1.4560303572390382E-2</v>
       </c>
-      <c r="E16" s="427">
+      <c r="E16" s="428">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.25167237122853597</v>
       </c>
@@ -4864,14 +4864,14 @@
         <f>E16/B16</f>
         <v>0.14299566547075906</v>
       </c>
-      <c r="G16" s="414" t="s">
+      <c r="G16" s="415" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="411">
+      <c r="H16" s="412">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>2.0402161228044116</v>
       </c>
-      <c r="I16" s="414" t="s">
+      <c r="I16" s="415" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4884,19 +4884,19 @@
         <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
         <v>1.7367035142841751</v>
       </c>
-      <c r="C17" s="431"/>
+      <c r="C17" s="432"/>
       <c r="D17" s="288">
         <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="E17" s="428"/>
+      <c r="E17" s="429"/>
       <c r="F17" s="162">
         <f>E16/B17</f>
         <v>0.14491383771528146</v>
       </c>
-      <c r="G17" s="415"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="415"/>
+      <c r="G17" s="416"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="416"/>
       <c r="J17" s="205">
         <f>B17-$H$16</f>
         <v>-0.30351260852023643</v>
@@ -4907,19 +4907,19 @@
         <f>C35</f>
         <v>1.62</v>
       </c>
-      <c r="C18" s="432"/>
+      <c r="C18" s="433"/>
       <c r="D18" s="160">
         <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
         <v>7.9243126983081863E-2</v>
       </c>
-      <c r="E18" s="429"/>
+      <c r="E18" s="430"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.15535331557317034</v>
       </c>
-      <c r="G18" s="416"/>
-      <c r="H18" s="413"/>
-      <c r="I18" s="416"/>
+      <c r="G18" s="417"/>
+      <c r="H18" s="414"/>
+      <c r="I18" s="417"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>-0.42021612280441145</v>
@@ -4952,52 +4952,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="402" t="s">
+      <c r="C21" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="403"/>
-      <c r="H21" s="403"/>
-      <c r="I21" s="403"/>
-      <c r="J21" s="404"/>
+      <c r="D21" s="404"/>
+      <c r="E21" s="404"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="418" t="s">
+      <c r="C22" s="419" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="383"/>
-      <c r="E22" s="383"/>
-      <c r="F22" s="383"/>
-      <c r="G22" s="418" t="s">
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="419" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="418"/>
-      <c r="I22" s="383"/>
-      <c r="J22" s="383"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="384"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="405" t="s">
+      <c r="C23" s="406" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
-      <c r="F23" s="406"/>
-      <c r="G23" s="405" t="s">
+      <c r="D23" s="407"/>
+      <c r="E23" s="407"/>
+      <c r="F23" s="407"/>
+      <c r="G23" s="406" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="405"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="406"/>
+      <c r="H23" s="406"/>
+      <c r="I23" s="407"/>
+      <c r="J23" s="407"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5041,211 +5041,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="400">
+      <c r="C26" s="401">
         <v>44932</v>
       </c>
-      <c r="D26" s="401"/>
-      <c r="E26" s="436" t="str">
+      <c r="D26" s="402"/>
+      <c r="E26" s="437" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="437"/>
-      <c r="G26" s="437"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="417" t="s">
+      <c r="F26" s="438"/>
+      <c r="G26" s="438"/>
+      <c r="H26" s="439"/>
+      <c r="I26" s="418" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="417"/>
+      <c r="J26" s="418"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="426">
+      <c r="C27" s="427">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="D27" s="381"/>
-      <c r="E27" s="425">
+      <c r="D27" s="382"/>
+      <c r="E27" s="426">
         <f>E31/D25</f>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F27" s="381"/>
-      <c r="G27" s="434">
+      <c r="F27" s="382"/>
+      <c r="G27" s="435">
         <f>G31/D25</f>
-        <v>0.10533333333333333</v>
-      </c>
-      <c r="H27" s="435"/>
-      <c r="I27" s="433">
+        <v>0.1265</v>
+      </c>
+      <c r="H27" s="436"/>
+      <c r="I27" s="434">
         <f>C27+E27+G27</f>
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="J27" s="433"/>
+        <v>0.32416666666666666</v>
+      </c>
+      <c r="J27" s="434"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="382">
+      <c r="C28" s="383">
         <v>40000</v>
       </c>
-      <c r="D28" s="383"/>
-      <c r="E28" s="382">
+      <c r="D28" s="384"/>
+      <c r="E28" s="383">
         <v>30000</v>
       </c>
-      <c r="F28" s="383"/>
-      <c r="G28" s="391">
-        <v>40000</v>
-      </c>
-      <c r="H28" s="392"/>
-      <c r="I28" s="371">
+      <c r="F28" s="384"/>
+      <c r="G28" s="392">
+        <v>55000</v>
+      </c>
+      <c r="H28" s="393"/>
+      <c r="I28" s="372">
         <f>C28+E28+G28</f>
-        <v>110000</v>
-      </c>
-      <c r="J28" s="371"/>
+        <v>125000</v>
+      </c>
+      <c r="J28" s="372"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="384">
+      <c r="C29" s="385">
         <v>1.75</v>
       </c>
-      <c r="D29" s="383"/>
-      <c r="E29" s="384">
+      <c r="D29" s="384"/>
+      <c r="E29" s="385">
         <v>1.62</v>
       </c>
-      <c r="F29" s="383"/>
-      <c r="G29" s="385">
-        <v>1.58</v>
-      </c>
-      <c r="H29" s="386"/>
-      <c r="I29" s="393"/>
-      <c r="J29" s="393"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="386">
+        <v>1.38</v>
+      </c>
+      <c r="H29" s="387"/>
+      <c r="I29" s="394"/>
+      <c r="J29" s="394"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="369">
+      <c r="C30" s="370">
         <f>C29*$I$5/1000000</f>
         <v>2333.3283750000001</v>
       </c>
-      <c r="D30" s="376"/>
-      <c r="E30" s="369">
+      <c r="D30" s="377"/>
+      <c r="E30" s="370">
         <f>E29*$I$5/1000000</f>
         <v>2159.99541</v>
       </c>
-      <c r="F30" s="376"/>
-      <c r="G30" s="387">
+      <c r="F30" s="377"/>
+      <c r="G30" s="388">
         <f>G29*$I$5/1000000</f>
-        <v>2106.66219</v>
-      </c>
-      <c r="H30" s="388"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
+        <v>1839.9960899999999</v>
+      </c>
+      <c r="H30" s="389"/>
+      <c r="I30" s="395"/>
+      <c r="J30" s="395"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="377">
+      <c r="C31" s="378">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="378"/>
-      <c r="E31" s="370">
+      <c r="D31" s="379"/>
+      <c r="E31" s="371">
         <f>E28*E29</f>
         <v>48600</v>
       </c>
-      <c r="F31" s="379"/>
-      <c r="G31" s="389">
+      <c r="F31" s="380"/>
+      <c r="G31" s="390">
         <f>G28*G29</f>
-        <v>63200</v>
-      </c>
-      <c r="H31" s="390"/>
-      <c r="I31" s="370">
+        <v>75900</v>
+      </c>
+      <c r="H31" s="391"/>
+      <c r="I31" s="371">
         <f>C31+E31+G31</f>
-        <v>181800</v>
-      </c>
-      <c r="J31" s="370"/>
+        <v>194500</v>
+      </c>
+      <c r="J31" s="371"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="372"/>
-      <c r="D32" s="373"/>
-      <c r="E32" s="380">
+      <c r="C32" s="373"/>
+      <c r="D32" s="374"/>
+      <c r="E32" s="381">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.6942857142857144</v>
       </c>
-      <c r="F32" s="381"/>
+      <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="380">
+      <c r="I32" s="381">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.6527272727272728</v>
-      </c>
-      <c r="J32" s="380"/>
+        <v>1.556</v>
+      </c>
+      <c r="J32" s="381"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="374"/>
-      <c r="D33" s="375"/>
-      <c r="E33" s="369">
+      <c r="C33" s="375"/>
+      <c r="D33" s="376"/>
+      <c r="E33" s="370">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="F33" s="376"/>
+      <c r="F33" s="377"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="369">
+      <c r="I33" s="370">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2203.6316809090908</v>
-      </c>
-      <c r="J33" s="369"/>
+        <v>2074.6622579999998</v>
+      </c>
+      <c r="J33" s="370"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="439">
+      <c r="C35" s="440">
         <f>E29</f>
         <v>1.62</v>
       </c>
-      <c r="D35" s="440"/>
-      <c r="G35" s="442" t="s">
+      <c r="D35" s="441"/>
+      <c r="G35" s="443" t="s">
         <v>311</v>
       </c>
-      <c r="H35" s="443"/>
-      <c r="I35" s="439">
+      <c r="H35" s="444"/>
+      <c r="I35" s="440">
         <f>F14</f>
         <v>2.0402161228044116</v>
       </c>
-      <c r="J35" s="440"/>
+      <c r="J35" s="441"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="382">
+      <c r="C36" s="383">
         <f>E28</f>
         <v>30000</v>
       </c>
-      <c r="D36" s="441"/>
-      <c r="G36" s="444" t="s">
+      <c r="D36" s="442"/>
+      <c r="G36" s="445" t="s">
         <v>321</v>
       </c>
-      <c r="H36" s="444"/>
-      <c r="I36" s="445">
+      <c r="H36" s="445"/>
+      <c r="I36" s="446">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.16583778445966368</v>
       </c>
-      <c r="J36" s="446"/>
+      <c r="J36" s="447"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5369,7 +5369,7 @@
         <v>329</v>
       </c>
       <c r="D49" s="367">
-        <f>IF(OR(F42="Strongly Agree",F42="Agree"),2,4)</f>
+        <f>IF(F42="Strongly Agree",2, IF(F42="Agree",3,4))</f>
         <v>4</v>
       </c>
       <c r="E49" s="363">
@@ -5384,8 +5384,8 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="368" t="str">
-        <f>IF(D49=4,"⇒ Quarter Kelly %", "⇒ Half Kelly %")</f>
-        <v>⇒ Quarter Kelly %</v>
+        <f>IF(D49=4,"⇒ 1/4 Kelly %",IF(D49=2,"⇒ 1/2 Kelly %","⇒ 1/3 Kelly %"""))</f>
+        <v>⇒ 1/4 Kelly %</v>
       </c>
       <c r="C50" s="85" t="str">
         <f>" [W – (1 – W)/R] /"&amp;D49</f>
@@ -5403,7 +5403,7 @@
         <v>332</v>
       </c>
       <c r="H50" s="78">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6434,7 +6434,7 @@
       <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6451,7 +6451,7 @@
       <formula1>"Strongly Agree,Agree,So-so,Disagree,Strongly Disagree"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{5650037A-2134-4900-ABF2-A28ECB840AD9}">
-      <formula1>"⇒ Half Kelly %, ⇒ Quarter Kelly %"</formula1>
+      <formula1>"⇒ 1/2 Kelly %, ⇒ 1/3 Kelly %, ⇒ 1/4 Kelly %"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10618,11 +10618,11 @@
         <v>258</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="447">
+      <c r="D52" s="448">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="448"/>
+      <c r="E52" s="449"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10631,11 +10631,11 @@
         <v>229</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="450">
+      <c r="D53" s="451">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="378"/>
+      <c r="E53" s="379"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10651,10 +10651,10 @@
         <v>131</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="455">
+      <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="383"/>
+      <c r="E54" s="384"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10665,10 +10665,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="455">
+      <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="383"/>
+      <c r="E55" s="384"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10683,8 +10683,8 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="449"/>
-      <c r="E57" s="449"/>
+      <c r="D57" s="450"/>
+      <c r="E57" s="450"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10730,11 +10730,11 @@
         <v>135</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="453">
+      <c r="D60" s="454">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>-498869.31999999983</v>
       </c>
-      <c r="E60" s="454"/>
+      <c r="E60" s="455"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10751,20 +10751,20 @@
       <c r="B63" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="445">
+      <c r="D63" s="446">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16776182102549406</v>
       </c>
-      <c r="E63" s="446"/>
+      <c r="E63" s="447"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D64" s="451">
+      <c r="D64" s="452">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="452"/>
+      <c r="E64" s="453"/>
       <c r="F64" s="266" t="s">
         <v>244</v>
       </c>
@@ -10773,11 +10773,11 @@
       <c r="B65" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="D65" s="451">
+      <c r="D65" s="452">
         <f>D64</f>
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="452"/>
+      <c r="E65" s="453"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12253,7 +12253,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12666,7 +12666,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-1.2460526478618767E-2</v>
       </c>
-      <c r="E20" s="458" t="str">
+      <c r="E20" s="459" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -12689,7 +12689,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>-9.6150204319184174E-4</v>
       </c>
-      <c r="E21" s="458"/>
+      <c r="E21" s="459"/>
       <c r="F21" s="148">
         <f>D18+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.6615901269293709</v>
@@ -12711,11 +12711,11 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E23" s="459" t="s">
+      <c r="E23" s="460" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="459"/>
-      <c r="G23" s="459"/>
+      <c r="F23" s="460"/>
+      <c r="G23" s="460"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12843,7 +12843,7 @@
       <c r="F29" s="366" t="s">
         <v>349</v>
       </c>
-      <c r="G29" s="460">
+      <c r="G29" s="369">
         <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
         <v>1.6340679600032741</v>
       </c>
@@ -12882,10 +12882,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="456" t="s">
+      <c r="C32" s="457" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="457"/>
+      <c r="D32" s="458"/>
       <c r="E32" s="30" t="s">
         <v>214</v>
       </c>
@@ -13839,14 +13839,14 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="E25:G27">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$30</formula>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:G27">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCD26E-7BA5-46EF-9B8D-F0A165D205A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EBA7B7-BC73-4F93-9D48-521CAA3C80FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3933,6 +3933,179 @@
     <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3955,182 +4128,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4555,8 +4555,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4600,27 +4600,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="396" t="s">
+      <c r="C3" s="401" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="397"/>
+      <c r="D3" s="402"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="408" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="409"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="403" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="399"/>
+      <c r="D4" s="404"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4637,10 +4637,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="400">
+      <c r="C5" s="405">
         <v>44931</v>
       </c>
-      <c r="D5" s="399"/>
+      <c r="D5" s="404"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4648,10 +4648,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="392">
+      <c r="I5" s="413">
         <v>1333330500</v>
       </c>
-      <c r="J5" s="393"/>
+      <c r="J5" s="414"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4674,11 +4674,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="410">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
         <v>2359.9949849999998</v>
       </c>
-      <c r="J6" s="411"/>
+      <c r="J6" s="416"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,30 +4752,30 @@
       <c r="B11" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="422">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="423"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="420" t="s">
+      <c r="I11" s="423" t="s">
         <v>336</v>
       </c>
-      <c r="J11" s="421"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="424">
+      <c r="C12" s="379">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="425"/>
+      <c r="D12" s="380"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4849,14 +4849,14 @@
         <f>I4</f>
         <v>1.77</v>
       </c>
-      <c r="C16" s="431">
+      <c r="C16" s="389">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
         <v>-1.9833198710867889E-2</v>
       </c>
-      <c r="E16" s="428">
+      <c r="E16" s="384">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.25194656451543168</v>
       </c>
@@ -4864,14 +4864,14 @@
         <f>E16/B16</f>
         <v>0.14234269181662806</v>
       </c>
-      <c r="G16" s="415" t="s">
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="412">
+      <c r="H16" s="417">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>2.0424389077766301</v>
       </c>
-      <c r="I16" s="415" t="s">
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4884,19 +4884,19 @@
         <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
         <v>1.7380865802561487</v>
       </c>
-      <c r="C17" s="432"/>
+      <c r="C17" s="390"/>
       <c r="D17" s="288">
         <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="E17" s="429"/>
+      <c r="E17" s="385"/>
       <c r="F17" s="162">
         <f>E16/B17</f>
         <v>0.14495627972589337</v>
       </c>
-      <c r="G17" s="416"/>
-      <c r="H17" s="413"/>
-      <c r="I17" s="416"/>
+      <c r="G17" s="393"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
         <f>B17-$H$16</f>
         <v>-0.30435232752048136</v>
@@ -4907,19 +4907,19 @@
         <f>C35</f>
         <v>1.62</v>
       </c>
-      <c r="C18" s="433"/>
+      <c r="C18" s="391"/>
       <c r="D18" s="160">
         <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
         <v>8.0182245852940509E-2</v>
       </c>
-      <c r="E18" s="430"/>
+      <c r="E18" s="386"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.15552257068853806</v>
       </c>
-      <c r="G18" s="417"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="417"/>
+      <c r="G18" s="394"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>-0.42243890777662996</v>
@@ -4952,52 +4952,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="403" t="s">
+      <c r="C21" s="408" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="D21" s="409"/>
+      <c r="E21" s="409"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="410"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="419" t="s">
+      <c r="C22" s="421" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="384"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="384"/>
-      <c r="G22" s="419" t="s">
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="421" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="384"/>
-      <c r="J22" s="384"/>
+      <c r="H22" s="421"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="406" t="s">
+      <c r="C23" s="387" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="407"/>
-      <c r="E23" s="407"/>
-      <c r="F23" s="407"/>
-      <c r="G23" s="406" t="s">
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="406"/>
-      <c r="I23" s="407"/>
-      <c r="J23" s="407"/>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5041,211 +5041,211 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="401">
+      <c r="C26" s="406">
         <v>44932</v>
       </c>
-      <c r="D26" s="402"/>
-      <c r="E26" s="437" t="str">
+      <c r="D26" s="407"/>
+      <c r="E26" s="398" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="438"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="418" t="s">
+      <c r="F26" s="399"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="418"/>
+      <c r="J26" s="420"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="427">
+      <c r="C27" s="383">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="D27" s="382"/>
-      <c r="E27" s="426">
+      <c r="E27" s="381">
         <f>E31/D25</f>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="F27" s="382"/>
-      <c r="G27" s="435">
+      <c r="G27" s="396">
         <f>G31/D25</f>
         <v>0.10533333333333333</v>
       </c>
-      <c r="H27" s="436"/>
-      <c r="I27" s="434">
+      <c r="H27" s="397"/>
+      <c r="I27" s="395">
         <f>C27+E27+G27</f>
         <v>0.30299999999999999</v>
       </c>
-      <c r="J27" s="434"/>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="383">
+      <c r="C28" s="372">
         <v>40000</v>
       </c>
-      <c r="D28" s="384"/>
-      <c r="E28" s="383">
+      <c r="D28" s="422"/>
+      <c r="E28" s="372">
         <v>30000</v>
       </c>
-      <c r="F28" s="384"/>
-      <c r="G28" s="392">
+      <c r="F28" s="422"/>
+      <c r="G28" s="413">
         <v>40000</v>
       </c>
-      <c r="H28" s="393"/>
-      <c r="I28" s="372">
+      <c r="H28" s="414"/>
+      <c r="I28" s="437">
         <f>C28+E28+G28</f>
         <v>110000</v>
       </c>
-      <c r="J28" s="372"/>
+      <c r="J28" s="437"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="385">
+      <c r="C29" s="447">
         <v>1.75</v>
       </c>
-      <c r="D29" s="384"/>
-      <c r="E29" s="385">
+      <c r="D29" s="422"/>
+      <c r="E29" s="447">
         <v>1.62</v>
       </c>
-      <c r="F29" s="384"/>
-      <c r="G29" s="386">
+      <c r="F29" s="422"/>
+      <c r="G29" s="427">
         <v>1.58</v>
       </c>
-      <c r="H29" s="387"/>
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="433"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="370">
+      <c r="C30" s="435">
         <f>C29*$I$5/1000000</f>
         <v>2333.3283750000001</v>
       </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="370">
+      <c r="D30" s="442"/>
+      <c r="E30" s="435">
         <f>E29*$I$5/1000000</f>
         <v>2159.99541</v>
       </c>
-      <c r="F30" s="377"/>
-      <c r="G30" s="388">
+      <c r="F30" s="442"/>
+      <c r="G30" s="429">
         <f>G29*$I$5/1000000</f>
         <v>2106.66219</v>
       </c>
-      <c r="H30" s="389"/>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
+      <c r="H30" s="430"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="434"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="443">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="371">
+      <c r="D31" s="444"/>
+      <c r="E31" s="436">
         <f>E28*E29</f>
         <v>48600</v>
       </c>
-      <c r="F31" s="380"/>
-      <c r="G31" s="390">
+      <c r="F31" s="445"/>
+      <c r="G31" s="431">
         <f>G28*G29</f>
         <v>63200</v>
       </c>
-      <c r="H31" s="391"/>
-      <c r="I31" s="371">
+      <c r="H31" s="432"/>
+      <c r="I31" s="436">
         <f>C31+E31+G31</f>
         <v>181800</v>
       </c>
-      <c r="J31" s="371"/>
+      <c r="J31" s="436"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="373"/>
-      <c r="D32" s="374"/>
-      <c r="E32" s="381">
+      <c r="C32" s="438"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="446">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.6942857142857144</v>
       </c>
       <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="381">
+      <c r="I32" s="446">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.6527272727272728</v>
       </c>
-      <c r="J32" s="381"/>
+      <c r="J32" s="446"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="375"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="370">
+      <c r="C33" s="440"/>
+      <c r="D33" s="441"/>
+      <c r="E33" s="435">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="F33" s="377"/>
+      <c r="F33" s="442"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="370">
+      <c r="I33" s="435">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2203.6316809090908</v>
       </c>
-      <c r="J33" s="370"/>
+      <c r="J33" s="435"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="440">
+      <c r="C35" s="370">
         <f>E29</f>
         <v>1.62</v>
       </c>
-      <c r="D35" s="441"/>
-      <c r="G35" s="443" t="s">
+      <c r="D35" s="371"/>
+      <c r="G35" s="374" t="s">
         <v>311</v>
       </c>
-      <c r="H35" s="444"/>
-      <c r="I35" s="440">
+      <c r="H35" s="375"/>
+      <c r="I35" s="370">
         <f>F14</f>
         <v>2.0424389077766301</v>
       </c>
-      <c r="J35" s="441"/>
+      <c r="J35" s="371"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="383">
+      <c r="C36" s="372">
         <f>E28</f>
         <v>30000</v>
       </c>
-      <c r="D36" s="442"/>
-      <c r="G36" s="445" t="s">
+      <c r="D36" s="373"/>
+      <c r="G36" s="376" t="s">
         <v>321</v>
       </c>
-      <c r="H36" s="445"/>
-      <c r="I36" s="446">
+      <c r="H36" s="376"/>
+      <c r="I36" s="377">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.16710794730093137</v>
       </c>
-      <c r="J36" s="447"/>
+      <c r="J36" s="378"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6324,22 +6324,28 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6356,28 +6362,22 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
@@ -6469,8 +6469,8 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10635,7 +10635,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="379"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10654,7 +10654,7 @@
       <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="384"/>
+      <c r="E54" s="422"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10668,7 +10668,7 @@
       <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="384"/>
+      <c r="E55" s="422"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10751,11 +10751,11 @@
       <c r="B63" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="446">
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16776182102549406</v>
       </c>
-      <c r="E63" s="447"/>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -10816,7 +10816,7 @@
   <dimension ref="A1:M903"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12252,8 +12252,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12378,7 +12378,8 @@
         <v>68</v>
       </c>
       <c r="C6" s="65">
-        <v>0.38619999999999999</v>
+        <f>Data!C35</f>
+        <v>0.42808178207371606</v>
       </c>
       <c r="D6" s="226">
         <v>0.38619999999999999</v>
@@ -12395,7 +12396,7 @@
       </c>
       <c r="C7" s="309">
         <f>C4*C6</f>
-        <v>229.11314999999999</v>
+        <v>253.95951721523204</v>
       </c>
       <c r="D7" s="309">
         <f>D4*D6</f>
@@ -12414,7 +12415,7 @@
       </c>
       <c r="C8" s="192">
         <f>IF(C4="","",C4-C7)</f>
-        <v>364.13684999999998</v>
+        <v>339.29048278476796</v>
       </c>
       <c r="D8" s="191">
         <f>D4-D7</f>
@@ -12442,7 +12443,7 @@
       </c>
       <c r="C9" s="193">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>2.7310321784433791E-4</v>
+        <v>2.54468402833932E-4</v>
       </c>
       <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
@@ -12909,7 +12910,7 @@
       </c>
       <c r="E33" s="120">
         <f>(C33-G19)/C9</f>
-        <v>470.28181649849898</v>
+        <v>504.72072740299501</v>
       </c>
       <c r="F33" s="158">
         <f>C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12933,7 +12934,7 @@
       </c>
       <c r="E34" s="120">
         <f>(C34-G19)/C9</f>
-        <v>948.2830298319609</v>
+        <v>1017.7261459187864</v>
       </c>
       <c r="F34" s="158">
         <f>C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D924C7B-6941-4B38-8059-1A3D69A4190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D64E0-B453-40FD-B500-ADDB988CDC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3940,179 +3940,6 @@
     <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4135,9 +3962,182 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4562,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4607,27 +4607,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="401" t="s">
+      <c r="C3" s="396" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="402"/>
+      <c r="D3" s="397"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="408" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="412"/>
+      <c r="J3" s="409"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="398" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="404"/>
+      <c r="D4" s="399"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4644,10 +4644,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="405">
+      <c r="C5" s="400">
         <v>44931</v>
       </c>
-      <c r="D5" s="404"/>
+      <c r="D5" s="399"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4655,10 +4655,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="413">
+      <c r="I5" s="392">
         <v>1333330500</v>
       </c>
-      <c r="J5" s="414"/>
+      <c r="J5" s="393"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4681,11 +4681,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="415">
+      <c r="I6" s="410">
         <f>I4*I5/1000000</f>
         <v>2359.9949849999998</v>
       </c>
-      <c r="J6" s="416"/>
+      <c r="J6" s="411"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4759,30 +4759,30 @@
       <c r="B11" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="422">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="420" t="s">
         <v>336</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="421"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="379">
+      <c r="C12" s="424">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="380"/>
+      <c r="D12" s="425"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4856,14 +4856,14 @@
         <f>I4</f>
         <v>1.77</v>
       </c>
-      <c r="C16" s="389">
+      <c r="C16" s="431">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
         <v>-1.9833198710867889E-2</v>
       </c>
-      <c r="E16" s="384">
+      <c r="E16" s="428">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.25194656451543168</v>
       </c>
@@ -4871,14 +4871,14 @@
         <f>E16/B16</f>
         <v>0.14234269181662806</v>
       </c>
-      <c r="G16" s="392" t="s">
+      <c r="G16" s="415" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="417">
+      <c r="H16" s="412">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>2.0424389077766301</v>
       </c>
-      <c r="I16" s="392" t="s">
+      <c r="I16" s="415" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4891,19 +4891,19 @@
         <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
         <v>1.7380865802561487</v>
       </c>
-      <c r="C17" s="390"/>
+      <c r="C17" s="432"/>
       <c r="D17" s="288">
         <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="E17" s="385"/>
+      <c r="E17" s="429"/>
       <c r="F17" s="162">
         <f>E16/B17</f>
         <v>0.14495627972589337</v>
       </c>
-      <c r="G17" s="393"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="393"/>
+      <c r="G17" s="416"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="416"/>
       <c r="J17" s="205">
         <f>B17-$H$16</f>
         <v>-0.30435232752048136</v>
@@ -4914,19 +4914,19 @@
         <f>C35</f>
         <v>1.62</v>
       </c>
-      <c r="C18" s="391"/>
+      <c r="C18" s="433"/>
       <c r="D18" s="160">
         <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
         <v>8.0182245852940509E-2</v>
       </c>
-      <c r="E18" s="386"/>
+      <c r="E18" s="430"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0.15552257068853806</v>
       </c>
-      <c r="G18" s="394"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="394"/>
+      <c r="G18" s="417"/>
+      <c r="H18" s="414"/>
+      <c r="I18" s="417"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>-0.42243890777662996</v>
@@ -4959,52 +4959,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="408" t="s">
+      <c r="C21" s="403" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
-      <c r="I21" s="409"/>
-      <c r="J21" s="410"/>
+      <c r="D21" s="404"/>
+      <c r="E21" s="404"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="421" t="s">
+      <c r="C22" s="419" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="421" t="s">
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="419" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="421"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="384"/>
+      <c r="J22" s="384"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="387" t="s">
+      <c r="C23" s="406" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="387" t="s">
+      <c r="D23" s="407"/>
+      <c r="E23" s="407"/>
+      <c r="F23" s="407"/>
+      <c r="G23" s="406" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="387"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="388"/>
+      <c r="H23" s="406"/>
+      <c r="I23" s="407"/>
+      <c r="J23" s="407"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5048,207 +5048,207 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="406">
+      <c r="C26" s="401">
         <v>44932</v>
       </c>
-      <c r="D26" s="407"/>
-      <c r="E26" s="398" t="str">
+      <c r="D26" s="402"/>
+      <c r="E26" s="437" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="399"/>
-      <c r="G26" s="399"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="420" t="s">
+      <c r="F26" s="438"/>
+      <c r="G26" s="438"/>
+      <c r="H26" s="439"/>
+      <c r="I26" s="418" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="420"/>
+      <c r="J26" s="418"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="383">
+      <c r="C27" s="427">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="D27" s="382"/>
-      <c r="E27" s="381">
+      <c r="E27" s="426">
         <f>E31/D25</f>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="F27" s="382"/>
-      <c r="G27" s="396">
+      <c r="G27" s="435">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="397"/>
-      <c r="I27" s="395">
+      <c r="H27" s="436"/>
+      <c r="I27" s="434">
         <f>C27+E27+G27</f>
         <v>0.19766666666666666</v>
       </c>
-      <c r="J27" s="395"/>
+      <c r="J27" s="434"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="372">
+      <c r="C28" s="383">
         <v>40000</v>
       </c>
-      <c r="D28" s="422"/>
-      <c r="E28" s="372">
+      <c r="D28" s="384"/>
+      <c r="E28" s="383">
         <v>30000</v>
       </c>
-      <c r="F28" s="422"/>
-      <c r="G28" s="413"/>
-      <c r="H28" s="414"/>
-      <c r="I28" s="437">
+      <c r="F28" s="384"/>
+      <c r="G28" s="392"/>
+      <c r="H28" s="393"/>
+      <c r="I28" s="372">
         <f>C28+E28+G28</f>
         <v>70000</v>
       </c>
-      <c r="J28" s="437"/>
+      <c r="J28" s="372"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="447">
+      <c r="C29" s="385">
         <v>1.75</v>
       </c>
-      <c r="D29" s="422"/>
-      <c r="E29" s="447">
+      <c r="D29" s="384"/>
+      <c r="E29" s="385">
         <v>1.62</v>
       </c>
-      <c r="F29" s="422"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="428"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="394"/>
+      <c r="J29" s="394"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="435">
+      <c r="C30" s="370">
         <f>C29*$I$5/1000000</f>
         <v>2333.3283750000001</v>
       </c>
-      <c r="D30" s="442"/>
-      <c r="E30" s="435">
+      <c r="D30" s="377"/>
+      <c r="E30" s="370">
         <f>E29*$I$5/1000000</f>
         <v>2159.99541</v>
       </c>
-      <c r="F30" s="442"/>
-      <c r="G30" s="429">
+      <c r="F30" s="377"/>
+      <c r="G30" s="388">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="430"/>
-      <c r="I30" s="434"/>
-      <c r="J30" s="434"/>
+      <c r="H30" s="389"/>
+      <c r="I30" s="395"/>
+      <c r="J30" s="395"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="443">
+      <c r="C31" s="378">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="444"/>
-      <c r="E31" s="436">
+      <c r="D31" s="379"/>
+      <c r="E31" s="371">
         <f>E28*E29</f>
         <v>48600</v>
       </c>
-      <c r="F31" s="445"/>
-      <c r="G31" s="431">
+      <c r="F31" s="380"/>
+      <c r="G31" s="390">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="432"/>
-      <c r="I31" s="436">
+      <c r="H31" s="391"/>
+      <c r="I31" s="371">
         <f>C31+E31+G31</f>
         <v>118600</v>
       </c>
-      <c r="J31" s="436"/>
+      <c r="J31" s="371"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="438"/>
-      <c r="D32" s="439"/>
-      <c r="E32" s="446">
+      <c r="C32" s="373"/>
+      <c r="D32" s="374"/>
+      <c r="E32" s="381">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.6942857142857144</v>
       </c>
       <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="446">
+      <c r="I32" s="381">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.6942857142857144</v>
       </c>
-      <c r="J32" s="446"/>
+      <c r="J32" s="381"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="440"/>
-      <c r="D33" s="441"/>
-      <c r="E33" s="435">
+      <c r="C33" s="375"/>
+      <c r="D33" s="376"/>
+      <c r="E33" s="370">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="F33" s="442"/>
+      <c r="F33" s="377"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="435">
+      <c r="I33" s="370">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="J33" s="435"/>
+      <c r="J33" s="370"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="370">
+      <c r="C35" s="440">
         <f>E29</f>
         <v>1.62</v>
       </c>
-      <c r="D35" s="371"/>
-      <c r="G35" s="374" t="s">
+      <c r="D35" s="441"/>
+      <c r="G35" s="443" t="s">
         <v>311</v>
       </c>
-      <c r="H35" s="375"/>
-      <c r="I35" s="370">
+      <c r="H35" s="444"/>
+      <c r="I35" s="440">
         <f>F14</f>
         <v>2.0424389077766301</v>
       </c>
-      <c r="J35" s="371"/>
+      <c r="J35" s="441"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="372">
+      <c r="C36" s="383">
         <f>E28</f>
         <v>30000</v>
       </c>
-      <c r="D36" s="373"/>
-      <c r="G36" s="376" t="s">
+      <c r="D36" s="442"/>
+      <c r="G36" s="445" t="s">
         <v>321</v>
       </c>
-      <c r="H36" s="376"/>
-      <c r="I36" s="377">
+      <c r="H36" s="445"/>
+      <c r="I36" s="446">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0.16710794730093137</v>
       </c>
-      <c r="J36" s="378"/>
+      <c r="J36" s="447"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6327,6 +6327,44 @@
     <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6343,44 +6381,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10640,7 +10640,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="444"/>
+      <c r="E53" s="379"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10659,7 +10659,7 @@
       <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="422"/>
+      <c r="E54" s="384"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="422"/>
+      <c r="E55" s="384"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10756,11 +10756,11 @@
       <c r="B63" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="377">
+      <c r="D63" s="446">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16776182102549406</v>
       </c>
-      <c r="E63" s="378"/>
+      <c r="E63" s="447"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D64E0-B453-40FD-B500-ADDB988CDC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1342B5D-2FC6-444D-8D90-6E9DEB762B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3940,6 +3940,179 @@
     <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3962,182 +4135,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4607,33 +4607,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="396" t="s">
+      <c r="C3" s="401" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="397"/>
+      <c r="D3" s="402"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="408" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="409"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="398" t="s">
+      <c r="C4" s="403" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="399"/>
+      <c r="D4" s="404"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4644,10 +4644,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="400">
+      <c r="C5" s="405">
         <v>44931</v>
       </c>
-      <c r="D5" s="399"/>
+      <c r="D5" s="404"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4655,10 +4655,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="392">
+      <c r="I5" s="413">
         <v>1333330500</v>
       </c>
-      <c r="J5" s="393"/>
+      <c r="J5" s="414"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4681,11 +4681,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="410">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
-        <v>2359.9949849999998</v>
-      </c>
-      <c r="J6" s="411"/>
+        <v>2333.3283750000001</v>
+      </c>
+      <c r="J6" s="416"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>2.8468760612500799E-2</v>
+        <v>2.832600481885315E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4725,11 +4725,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>22.376837056785025</v>
+        <v>22.489610571927528</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>4.4689068319277214E-2</v>
+        <v>4.44649762521118E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.75340216596326104</v>
+        <v>0.75719911949856356</v>
       </c>
       <c r="J10" s="130" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4759,36 +4759,36 @@
       <c r="B11" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="422">
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="423"/>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="420" t="s">
+      <c r="I11" s="423" t="s">
         <v>336</v>
       </c>
-      <c r="J11" s="421"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="424">
+      <c r="C12" s="379">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="425"/>
+      <c r="D12" s="380"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="133"/>
       <c r="I12" s="135">
-        <v>1.1452116568883259</v>
+        <v>1.1265936692555745</v>
       </c>
       <c r="J12" s="136" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4806,21 +4806,21 @@
       </c>
       <c r="D14" s="184">
         <f>MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.8010410913637067</v>
+        <v>1.772812009880244</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>227</v>
       </c>
       <c r="F14" s="184">
         <f>MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>2.0424389077766301</v>
+        <v>2.0092344760046403</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f>IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.9118952382817638</v>
+        <v>1.8813813879464165</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4854,59 +4854,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>1.77</v>
-      </c>
-      <c r="C16" s="431">
+        <v>1.75</v>
+      </c>
+      <c r="C16" s="389">
         <v>0.1</v>
       </c>
       <c r="D16" s="159">
         <f>IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
-        <v>-1.9833198710867889E-2</v>
-      </c>
-      <c r="E16" s="428">
+        <v>-2.492492117347625E-2</v>
+      </c>
+      <c r="E16" s="384">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.25194656451543168</v>
+        <v>0.24785060723622637</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>0.14234269181662806</v>
-      </c>
-      <c r="G16" s="415" t="s">
+        <v>0.14162891842070077</v>
+      </c>
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="412">
+      <c r="H16" s="417">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>2.0424389077766301</v>
-      </c>
-      <c r="I16" s="415" t="s">
+        <v>2.0092344760046403</v>
+      </c>
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>-0.27243890777663005</v>
+        <v>-0.25923447600464034</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="289">
         <f>MAX(H14/(1+C16),'FCFF Model'!G29)</f>
-        <v>1.7380865802561487</v>
-      </c>
-      <c r="C17" s="432"/>
+        <v>1.710346716314924</v>
+      </c>
+      <c r="C17" s="390"/>
       <c r="D17" s="288">
         <f>IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="E17" s="429"/>
+      <c r="E17" s="385"/>
       <c r="F17" s="162">
         <f>E16/B17</f>
-        <v>0.14495627972589337</v>
-      </c>
-      <c r="G17" s="416"/>
-      <c r="H17" s="413"/>
-      <c r="I17" s="416"/>
+        <v>0.14491249339797016</v>
+      </c>
+      <c r="G17" s="393"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
         <f>B17-$H$16</f>
-        <v>-0.30435232752048136</v>
+        <v>-0.29888775968971637</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4914,22 +4914,22 @@
         <f>C35</f>
         <v>1.62</v>
       </c>
-      <c r="C18" s="433"/>
+      <c r="C18" s="391"/>
       <c r="D18" s="160">
         <f>IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>8.0182245852940509E-2</v>
-      </c>
-      <c r="E18" s="430"/>
+        <v>6.1346535769392835E-2</v>
+      </c>
+      <c r="E18" s="386"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>0.15552257068853806</v>
-      </c>
-      <c r="G18" s="417"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="417"/>
+        <v>0.15299420199767058</v>
+      </c>
+      <c r="G18" s="394"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>-0.42243890777662996</v>
+        <v>-0.38923447600464023</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4959,52 +4959,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="403" t="s">
+      <c r="C21" s="408" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="404"/>
-      <c r="E21" s="404"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="405"/>
+      <c r="D21" s="409"/>
+      <c r="E21" s="409"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="410"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="419" t="s">
+      <c r="C22" s="421" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="384"/>
-      <c r="E22" s="384"/>
-      <c r="F22" s="384"/>
-      <c r="G22" s="419" t="s">
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="421" t="s">
         <v>340</v>
       </c>
-      <c r="H22" s="419"/>
-      <c r="I22" s="384"/>
-      <c r="J22" s="384"/>
+      <c r="H22" s="421"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="406" t="s">
+      <c r="C23" s="387" t="s">
         <v>341</v>
       </c>
-      <c r="D23" s="407"/>
-      <c r="E23" s="407"/>
-      <c r="F23" s="407"/>
-      <c r="G23" s="406" t="s">
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="406"/>
-      <c r="I23" s="407"/>
-      <c r="J23" s="407"/>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5041,214 +5041,214 @@
       </c>
       <c r="J25" s="354">
         <f>IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
-        <v>1.5295161906254111</v>
+        <v>1.5051051103571331</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="401">
+      <c r="C26" s="406">
         <v>44932</v>
       </c>
-      <c r="D26" s="402"/>
-      <c r="E26" s="437" t="str">
+      <c r="D26" s="407"/>
+      <c r="E26" s="398" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="438"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="418" t="s">
+      <c r="F26" s="399"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="418"/>
+      <c r="J26" s="420"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="427">
+      <c r="C27" s="383">
         <f>C31/D25</f>
         <v>0.11666666666666667</v>
       </c>
       <c r="D27" s="382"/>
-      <c r="E27" s="426">
+      <c r="E27" s="381">
         <f>E31/D25</f>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="F27" s="382"/>
-      <c r="G27" s="435">
+      <c r="G27" s="396">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="436"/>
-      <c r="I27" s="434">
+      <c r="H27" s="397"/>
+      <c r="I27" s="395">
         <f>C27+E27+G27</f>
         <v>0.19766666666666666</v>
       </c>
-      <c r="J27" s="434"/>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="383">
+      <c r="C28" s="372">
         <v>40000</v>
       </c>
-      <c r="D28" s="384"/>
-      <c r="E28" s="383">
+      <c r="D28" s="422"/>
+      <c r="E28" s="372">
         <v>30000</v>
       </c>
-      <c r="F28" s="384"/>
-      <c r="G28" s="392"/>
-      <c r="H28" s="393"/>
-      <c r="I28" s="372">
+      <c r="F28" s="422"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="414"/>
+      <c r="I28" s="437">
         <f>C28+E28+G28</f>
         <v>70000</v>
       </c>
-      <c r="J28" s="372"/>
+      <c r="J28" s="437"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="385">
+      <c r="C29" s="447">
         <v>1.75</v>
       </c>
-      <c r="D29" s="384"/>
-      <c r="E29" s="385">
+      <c r="D29" s="422"/>
+      <c r="E29" s="447">
         <v>1.62</v>
       </c>
-      <c r="F29" s="384"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="394"/>
-      <c r="J29" s="394"/>
+      <c r="F29" s="422"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="433"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="370">
+      <c r="C30" s="435">
         <f>C29*$I$5/1000000</f>
         <v>2333.3283750000001</v>
       </c>
-      <c r="D30" s="377"/>
-      <c r="E30" s="370">
+      <c r="D30" s="442"/>
+      <c r="E30" s="435">
         <f>E29*$I$5/1000000</f>
         <v>2159.99541</v>
       </c>
-      <c r="F30" s="377"/>
-      <c r="G30" s="388">
+      <c r="F30" s="442"/>
+      <c r="G30" s="429">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="389"/>
-      <c r="I30" s="395"/>
-      <c r="J30" s="395"/>
+      <c r="H30" s="430"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="434"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="378">
+      <c r="C31" s="443">
         <f>C28*C29</f>
         <v>70000</v>
       </c>
-      <c r="D31" s="379"/>
-      <c r="E31" s="371">
+      <c r="D31" s="444"/>
+      <c r="E31" s="436">
         <f>E28*E29</f>
         <v>48600</v>
       </c>
-      <c r="F31" s="380"/>
-      <c r="G31" s="390">
+      <c r="F31" s="445"/>
+      <c r="G31" s="431">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="391"/>
-      <c r="I31" s="371">
+      <c r="H31" s="432"/>
+      <c r="I31" s="436">
         <f>C31+E31+G31</f>
         <v>118600</v>
       </c>
-      <c r="J31" s="371"/>
+      <c r="J31" s="436"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="373"/>
-      <c r="D32" s="374"/>
-      <c r="E32" s="381">
+      <c r="C32" s="438"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="446">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.6942857142857144</v>
       </c>
       <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="381">
+      <c r="I32" s="446">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.6942857142857144</v>
       </c>
-      <c r="J32" s="381"/>
+      <c r="J32" s="446"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="375"/>
-      <c r="D33" s="376"/>
-      <c r="E33" s="370">
+      <c r="C33" s="440"/>
+      <c r="D33" s="441"/>
+      <c r="E33" s="435">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="F33" s="377"/>
+      <c r="F33" s="442"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="370">
+      <c r="I33" s="435">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2259.0428185714286</v>
       </c>
-      <c r="J33" s="370"/>
+      <c r="J33" s="435"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="440">
+      <c r="C35" s="370">
         <f>E29</f>
         <v>1.62</v>
       </c>
-      <c r="D35" s="441"/>
-      <c r="G35" s="443" t="s">
+      <c r="D35" s="371"/>
+      <c r="G35" s="374" t="s">
         <v>311</v>
       </c>
-      <c r="H35" s="444"/>
-      <c r="I35" s="440">
+      <c r="H35" s="375"/>
+      <c r="I35" s="370">
         <f>F14</f>
-        <v>2.0424389077766301</v>
-      </c>
-      <c r="J35" s="441"/>
+        <v>2.0092344760046403</v>
+      </c>
+      <c r="J35" s="371"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="146" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="383">
+      <c r="C36" s="372">
         <f>E28</f>
         <v>30000</v>
       </c>
-      <c r="D36" s="442"/>
-      <c r="G36" s="445" t="s">
+      <c r="D36" s="373"/>
+      <c r="G36" s="376" t="s">
         <v>321</v>
       </c>
-      <c r="H36" s="445"/>
-      <c r="I36" s="446">
+      <c r="H36" s="376"/>
+      <c r="I36" s="377">
         <f>IF(C26="",0,I35/C29-1)</f>
-        <v>0.16710794730093137</v>
-      </c>
-      <c r="J36" s="447"/>
+        <v>0.14813398628836594</v>
+      </c>
+      <c r="J36" s="378"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="F45" s="365">
         <f>I35/C29-1</f>
-        <v>0.16710794730093137</v>
+        <v>0.14813398628836594</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F46" s="365">
         <f>D14/C29-1</f>
-        <v>2.9166337922118091E-2</v>
+        <v>1.303543421728226E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="E49" s="363">
         <f>F45/ABS(F46)</f>
-        <v>5.7294799143846653</v>
+        <v>11.363947208752835</v>
       </c>
       <c r="F49" s="360">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
@@ -6327,22 +6327,28 @@
     <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6359,28 +6365,22 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="I4" s="91">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4080811779137488</v>
+        <v>2.3689324098066566</v>
       </c>
       <c r="K4" s="74"/>
     </row>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.6358482526225129</v>
+        <v>1.6092538651543156</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10640,7 +10640,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="379"/>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10659,7 +10659,7 @@
       <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="384"/>
+      <c r="E54" s="422"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="384"/>
+      <c r="E55" s="422"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="454">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-485536.01500000013</v>
+        <v>-512202.625</v>
       </c>
       <c r="E60" s="455"/>
       <c r="F60" s="6"/>
@@ -10756,11 +10756,11 @@
       <c r="B63" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="446">
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.16776182102549406</v>
       </c>
-      <c r="E63" s="447"/>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="G25" s="206">
         <f>ROUND(F25*Exchange_Rate,2)</f>
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I25" s="74"/>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="G26" s="351">
         <f>ROUND(F26*Exchange_Rate,2)</f>
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I26" s="74" t="s">
         <v>300</v>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="G27" s="207">
         <f>ROUND(F27*Exchange_Rate,2)</f>
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="I27" s="74" t="s">
         <v>299</v>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="G29" s="369">
         <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
-        <v>1.6358482526225129</v>
+        <v>1.6092538651543156</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="90"/>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="C30" s="252">
         <f>MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
-        <v>1.8010410913637067</v>
+        <v>1.772812009880244</v>
       </c>
       <c r="D30" s="23" t="str">
         <f>IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="E30" s="251">
         <f>MAX(G26, G19*Exchange_Rate)</f>
-        <v>2.0424389077766301</v>
+        <v>2.0092344760046403</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="C33" s="253">
         <f>MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>1.9118952382817638</v>
+        <v>1.8813813879464165</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12917,11 +12917,11 @@
       </c>
       <c r="E33" s="120">
         <f>(C33-G19)/C9</f>
-        <v>504.72072740299501</v>
+        <v>384.80858901754357</v>
       </c>
       <c r="F33" s="158">
         <f>C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81380000769283944</v>
+        <v>0.81404590308229252</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C34" s="254">
         <f>MAX(Asset_Model!D7,G19*Exchange_Rate,(G12/(1+G34)^G4+G19)*Exchange_Rate)</f>
-        <v>2.0424389077766301</v>
+        <v>2.0092344760046403</v>
       </c>
       <c r="D34" s="208" t="str">
         <f>D33</f>
@@ -12941,11 +12941,11 @@
       </c>
       <c r="E34" s="120">
         <f>(C34-G19)/C9</f>
-        <v>1017.7261459187864</v>
+        <v>887.24066559115931</v>
       </c>
       <c r="F34" s="158">
         <f>C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86936604348392665</v>
+        <v>0.86936604348392654</v>
       </c>
       <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1342B5D-2FC6-444D-8D90-6E9DEB762B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CF219B-9B7F-4663-9F82-6CF0C095CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4562,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5075,17 +5075,17 @@
       <c r="D27" s="382"/>
       <c r="E27" s="381">
         <f>E31/D25</f>
-        <v>8.1000000000000003E-2</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="F27" s="382"/>
       <c r="G27" s="396">
         <f>G31/D25</f>
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H27" s="397"/>
       <c r="I27" s="395">
         <f>C27+E27+G27</f>
-        <v>0.19766666666666666</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="J27" s="395"/>
     </row>
@@ -5098,14 +5098,16 @@
       </c>
       <c r="D28" s="422"/>
       <c r="E28" s="372">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="422"/>
+      <c r="G28" s="413">
         <v>30000</v>
       </c>
-      <c r="F28" s="422"/>
-      <c r="G28" s="413"/>
       <c r="H28" s="414"/>
       <c r="I28" s="437">
         <f>C28+E28+G28</f>
-        <v>70000</v>
+        <v>90000</v>
       </c>
       <c r="J28" s="437"/>
     </row>
@@ -5121,7 +5123,9 @@
         <v>1.62</v>
       </c>
       <c r="F29" s="422"/>
-      <c r="G29" s="427"/>
+      <c r="G29" s="427">
+        <v>1.52</v>
+      </c>
       <c r="H29" s="428"/>
       <c r="I29" s="433"/>
       <c r="J29" s="433"/>
@@ -5142,7 +5146,7 @@
       <c r="F30" s="442"/>
       <c r="G30" s="429">
         <f>G29*$I$5/1000000</f>
-        <v>0</v>
+        <v>2026.66236</v>
       </c>
       <c r="H30" s="430"/>
       <c r="I30" s="434"/>
@@ -5159,17 +5163,17 @@
       <c r="D31" s="444"/>
       <c r="E31" s="436">
         <f>E28*E29</f>
-        <v>48600</v>
+        <v>32400.000000000004</v>
       </c>
       <c r="F31" s="445"/>
       <c r="G31" s="431">
         <f>G28*G29</f>
-        <v>0</v>
+        <v>45600</v>
       </c>
       <c r="H31" s="432"/>
       <c r="I31" s="436">
         <f>C31+E31+G31</f>
-        <v>118600</v>
+        <v>148000</v>
       </c>
       <c r="J31" s="436"/>
     </row>
@@ -5181,14 +5185,14 @@
       <c r="D32" s="439"/>
       <c r="E32" s="446">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.6942857142857144</v>
+        <v>1.7066666666666668</v>
       </c>
       <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
       <c r="I32" s="446">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.6942857142857144</v>
+        <v>1.6444444444444444</v>
       </c>
       <c r="J32" s="446"/>
     </row>
@@ -5200,14 +5204,14 @@
       <c r="D33" s="441"/>
       <c r="E33" s="435">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2259.0428185714286</v>
+        <v>2275.5507200000002</v>
       </c>
       <c r="F33" s="442"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
       <c r="I33" s="435">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2259.0428185714286</v>
+        <v>2192.5879333333332</v>
       </c>
       <c r="J33" s="435"/>
     </row>
@@ -5217,7 +5221,6 @@
         <v>309</v>
       </c>
       <c r="C35" s="370">
-        <f>E29</f>
         <v>1.62</v>
       </c>
       <c r="D35" s="371"/>
@@ -5237,7 +5240,7 @@
       </c>
       <c r="C36" s="372">
         <f>E28</f>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D36" s="373"/>
       <c r="G36" s="376" t="s">
@@ -5311,11 +5314,11 @@
       </c>
       <c r="E42" s="358">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F42" s="102" t="str">
         <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>So-so</v>
+        <v>Agree</v>
       </c>
       <c r="G42" s="74" t="s">
         <v>326</v>
@@ -5343,8 +5346,8 @@
         <v>327</v>
       </c>
       <c r="F45" s="365">
-        <f>I35/C29-1</f>
-        <v>0.14813398628836594</v>
+        <f>I35/C35-1</f>
+        <v>0.24026819506459263</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5363,7 +5366,7 @@
       </c>
       <c r="F48" s="214">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0.54784353741496594</v>
+        <v>0.59784353741496599</v>
       </c>
       <c r="G48" s="74"/>
     </row>
@@ -5373,11 +5376,11 @@
       </c>
       <c r="D49" s="367">
         <f>IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="363">
         <f>F45/ABS(F46)</f>
-        <v>11.363947208752835</v>
+        <v>18.431928776568657</v>
       </c>
       <c r="F49" s="360">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
@@ -5388,19 +5391,19 @@
     <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="368" t="str">
         <f>IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/4 Kelly %</v>
+        <v>⇒ 1/3 Kelly %</v>
       </c>
       <c r="C50" s="85" t="str">
         <f>" [W – (1 – W)/R] /"&amp;D49</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
+        <v xml:space="preserve"> [W – (1 – W)/R] /3</v>
       </c>
       <c r="E50" s="107">
         <f>MAX(F48-ABS((1-F48)/F49),0)/D49</f>
-        <v>0.13583049319727891</v>
+        <v>0.19794065759637189</v>
       </c>
       <c r="F50" s="359">
         <f>MIN(E50,H50)</f>
-        <v>0.13583049319727891</v>
+        <v>0.19794065759637189</v>
       </c>
       <c r="G50" s="362" t="s">
         <v>332</v>
@@ -6438,7 +6441,7 @@
       <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191FC75B-7575-43E6-A681-B9ED8B2D93D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62F25A2-D36E-4E95-B489-298AC4BB3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4522,8 +4522,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:J51"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.8928250598004736E-2</v>
+        <v>4.8931236597668001E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4685,11 +4685,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>30.353389882012891</v>
+        <v>30.351537584415926</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.2945249406643368E-2</v>
+        <v>3.2947259993623933E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.69678552756526047</v>
+        <v>0.69674300664211719</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0925736824671428</v>
+        <v>1.0926403601964314</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4767,7 +4767,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6463740605901702</v>
+        <v>1.6464258352315482</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4809,53 +4809,53 @@
       <c r="C16" s="359"/>
       <c r="D16" s="156">
         <f>I35/B16-1</f>
-        <v>0.19264733733580974</v>
+        <v>0.19270923282268471</v>
       </c>
       <c r="E16" s="396" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="393">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.9078405160255842</v>
+        <v>1.9079569479655942</v>
       </c>
       <c r="G16" s="396" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.29784051602558415</v>
+        <v>-0.29795694796559413</v>
       </c>
       <c r="I16" s="414">
-        <v>0.42</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>0.2608695652173913</v>
+        <v>1.5590062111801242E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>E14/(1+C17)</f>
-        <v>1.4967036914456091</v>
+        <v>1.4967507593014073</v>
       </c>
       <c r="C17" s="360">
         <v>0.1</v>
       </c>
       <c r="D17" s="268">
         <f>I35/B17-1</f>
-        <v>0.28292742517127234</v>
+        <v>0.28295366006080047</v>
       </c>
       <c r="E17" s="397"/>
       <c r="F17" s="394"/>
       <c r="G17" s="397"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.41113682457997514</v>
+        <v>-0.4112061886641869</v>
       </c>
       <c r="I17" s="415"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>0.28061666607793156</v>
+        <v>1.6769659105912302E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4866,19 +4866,19 @@
       <c r="C18" s="358"/>
       <c r="D18" s="157">
         <f>I35/B18-1</f>
-        <v>0.3522269106413054</v>
+        <v>0.35229708791867798</v>
       </c>
       <c r="E18" s="398"/>
       <c r="F18" s="395"/>
       <c r="G18" s="398"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.48784051602558431</v>
+        <v>-0.4879569479655943</v>
       </c>
       <c r="I18" s="416"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>0.29577464788732394</v>
+        <v>1.767605633802817E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -5171,7 +5171,7 @@
       <c r="H35" s="370"/>
       <c r="I35" s="365">
         <f>'FCFF Model'!C31</f>
-        <v>1.9201622131106537</v>
+        <v>1.9202618648445227</v>
       </c>
       <c r="J35" s="366"/>
     </row>
@@ -5190,7 +5190,7 @@
       <c r="H36" s="364"/>
       <c r="I36" s="365">
         <f>'FCFF Model'!C32</f>
-        <v>1.7510946618124614</v>
+        <v>1.5174412675390871</v>
       </c>
       <c r="J36" s="366"/>
     </row>
@@ -5278,11 +5278,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>0.12553470874012529</v>
+        <v>0.12559312124532407</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.22851069296906834</v>
+        <v>0.22857444967659801</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5291,11 +5291,11 @@
       </c>
       <c r="E46" s="329">
         <f>'FCFF Model'!C32/C29-1</f>
-        <v>2.6432978788078154E-2</v>
+        <v>-0.11052680683523608</v>
       </c>
       <c r="F46" s="332">
         <f>'FCFF Model'!C32/C36-1</f>
-        <v>0.12034207409626463</v>
+        <v>-2.9148261331358172E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5305,11 +5305,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.57660463774039949</v>
+        <v>0.57665136774455861</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.65898542512355396</v>
+        <v>0.65903643048957772</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5320,11 +5320,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>100</v>
+        <v>1.1363136676204495</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>100</v>
+        <v>7.8417867562719401</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5334,11 +5334,11 @@
       </c>
       <c r="E50" s="361">
         <f>MAX(J25*2/E45,1)</f>
-        <v>3.9829622023903455</v>
+        <v>3.9811097538004327</v>
       </c>
       <c r="F50" s="361">
         <f>MAX(J25*2/F45,1)</f>
-        <v>2.1880814131865636</v>
+        <v>2.1874710874615797</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5350,11 +5350,11 @@
       </c>
       <c r="E51" s="327">
         <f>MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.14370477424422942</v>
+        <v>5.1264145288331488E-2</v>
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.2996119227666475</v>
+        <v>0.28140078837484456</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.3046311654482508</v>
+        <v>2.3047718127798005</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5173486665866289</v>
+        <v>1.5174412675390871</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -12254,8 +12254,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12774,7 +12774,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
-        <v>1.6463740605901702</v>
+        <v>1.6464258352315482</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-392.25005195792647</v>
+        <v>-392.04659006147989</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.71252771327831166</v>
+        <v>0.71250663767235278</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0741680489034255</v>
+        <v>2.0742946315018207</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12821,11 +12821,11 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1288.8775007228148</v>
+        <v>1289.3749399100532</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.89999999999999991</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12835,7 +12835,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
-        <v>1.9201622131106537</v>
+        <v>1.9202618648445227</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12843,11 +12843,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>683.6715817577483</v>
+        <v>684.06318912030156</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83317549545381686</v>
+        <v>0.83316788855052948</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12856,8 +12856,8 @@
         <v>315</v>
       </c>
       <c r="C32" s="350">
-        <f>MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8</f>
-        <v>1.7510946618124614</v>
+        <f>MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
+        <v>1.5174412675390871</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12865,11 +12865,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>19.276740978615024</v>
+        <v>-898.92493931875856</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.75981557833002467</v>
+        <v>0.65839110801554412</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62F25A2-D36E-4E95-B489-298AC4BB3C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA314350-089F-4552-A54D-461F5BB8A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3890,13 +3890,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4064,6 +4057,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4522,8 +4524,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4567,27 +4569,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="376"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="387" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="388"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="374" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="378"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4604,10 +4606,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="379">
+      <c r="C5" s="376">
         <v>44931</v>
       </c>
-      <c r="D5" s="378"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4615,10 +4617,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="389">
+      <c r="I5" s="386">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="390"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4641,11 +4643,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="391">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
         <v>2146.6613772800001</v>
       </c>
-      <c r="J6" s="392"/>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4719,30 +4721,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="406">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="407"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="404" t="s">
+      <c r="I11" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="405"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="402">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="403"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4806,26 +4808,28 @@
         <f>I4</f>
         <v>1.61</v>
       </c>
-      <c r="C16" s="359"/>
+      <c r="C16" s="420">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="156">
-        <f>I35/B16-1</f>
-        <v>0.19270923282268471</v>
-      </c>
-      <c r="E16" s="396" t="s">
+        <f>I35/B16-(1+C16)</f>
+        <v>9.2709232822684617E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="393">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9079569479655942</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>-0.29795694796559413</v>
       </c>
-      <c r="I16" s="414">
+      <c r="I16" s="411">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4835,27 +4839,25 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f>E14/(1+C17)</f>
-        <v>1.4967507593014073</v>
-      </c>
-      <c r="C17" s="360">
-        <v>0.1</v>
-      </c>
+        <f>I35/(1+C16)</f>
+        <v>1.7456926044041114</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f>I35/B17-1</f>
-        <v>0.28295366006080047</v>
-      </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="397"/>
+        <f>I35/B17-(1+C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.4112061886641869</v>
-      </c>
-      <c r="I17" s="415"/>
+        <v>-0.16226434356148278</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.6769659105912302E-2</v>
+        <v>1.4378247313803471E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4863,19 +4865,19 @@
         <f>C35</f>
         <v>1.42</v>
       </c>
-      <c r="C18" s="358"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f>I35/B18-1</f>
-        <v>0.35229708791867798</v>
-      </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="398"/>
+        <f>I35/B18-(1+C16)</f>
+        <v>0.25229708791867789</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>-0.4879569479655943</v>
       </c>
-      <c r="I18" s="416"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>1.767605633802817E-2</v>
@@ -4908,52 +4910,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="384"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="400" t="s">
+      <c r="C22" s="397" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="401"/>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="400" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="400"/>
-      <c r="I22" s="401"/>
-      <c r="J22" s="401"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="385" t="s">
+      <c r="C23" s="382" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="385" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="385"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4980,11 +4982,11 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="363" t="s">
+      <c r="H25" s="360" t="s">
         <v>341</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="362">
+      <c r="J25" s="359">
         <v>0.25</v>
       </c>
     </row>
@@ -4992,46 +4994,46 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="380">
+      <c r="C26" s="377">
         <v>44932</v>
       </c>
-      <c r="D26" s="381"/>
-      <c r="E26" s="420" t="str">
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="422"/>
-      <c r="I26" s="399" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="399"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="413">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="411">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0.12909090909090909</v>
       </c>
-      <c r="F27" s="412"/>
-      <c r="G27" s="418">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="419"/>
-      <c r="I27" s="417">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.2841818181818182</v>
       </c>
-      <c r="J27" s="417"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
@@ -5040,13 +5042,13 @@
       <c r="C28" s="436">
         <v>60000</v>
       </c>
-      <c r="D28" s="401"/>
+      <c r="D28" s="398"/>
       <c r="E28" s="436">
         <v>60000</v>
       </c>
-      <c r="F28" s="401"/>
-      <c r="G28" s="389"/>
-      <c r="H28" s="390"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>120000</v>
@@ -5060,15 +5062,15 @@
       <c r="C29" s="437">
         <v>1.706</v>
       </c>
-      <c r="D29" s="401"/>
+      <c r="D29" s="398"/>
       <c r="E29" s="437">
         <v>1.42</v>
       </c>
-      <c r="F29" s="401"/>
-      <c r="G29" s="409"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="408"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
@@ -5084,11 +5086,11 @@
         <v>1893.3286681599998</v>
       </c>
       <c r="F30" s="432"/>
-      <c r="G30" s="371">
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="372"/>
+      <c r="H30" s="369"/>
       <c r="I30" s="423"/>
       <c r="J30" s="423"/>
     </row>
@@ -5106,11 +5108,11 @@
         <v>85200</v>
       </c>
       <c r="F31" s="435"/>
-      <c r="G31" s="373">
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="374"/>
+      <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>187560</v>
@@ -5127,7 +5129,7 @@
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.5629999999999999</v>
       </c>
-      <c r="F32" s="412"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
@@ -5160,39 +5162,39 @@
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="367">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>1.42</v>
       </c>
-      <c r="D35" s="368"/>
-      <c r="G35" s="369" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="370"/>
-      <c r="I35" s="365">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f>'FCFF Model'!C31</f>
         <v>1.9202618648445227</v>
       </c>
-      <c r="J35" s="366"/>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="367">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>1.5629999999999999</v>
       </c>
-      <c r="D36" s="368"/>
-      <c r="G36" s="364" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="364"/>
-      <c r="I36" s="365">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f>'FCFF Model'!C32</f>
         <v>1.5174412675390871</v>
       </c>
-      <c r="J36" s="366"/>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5332,11 +5334,11 @@
       <c r="B50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E50" s="361">
+      <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
         <v>3.9811097538004327</v>
       </c>
-      <c r="F50" s="361">
+      <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
         <v>2.1874710874615797</v>
       </c>
@@ -6298,7 +6300,7 @@
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E29:F29"/>
@@ -6330,6 +6332,7 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -10657,7 +10660,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10671,7 +10674,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12254,7 +12257,7 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA314350-089F-4552-A54D-461F5BB8A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F76116-9975-4DFA-8C2C-8A9C5ECF57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3899,201 +3899,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4525,7 +4525,7 @@
   <dimension ref="A1:L965"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4569,27 +4569,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4606,10 +4606,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>44931</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4617,10 +4617,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4643,11 +4643,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>2146.6613772800001</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4721,30 +4721,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4808,28 +4808,28 @@
         <f>I4</f>
         <v>1.61</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.1</v>
       </c>
       <c r="D16" s="156">
         <f>I35/B16-(1+C16)</f>
         <v>9.2709232822684617E-2</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9079569479655942</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>-0.29795694796559413</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4842,19 +4842,19 @@
         <f>I35/(1+C16)</f>
         <v>1.7456926044041114</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
         <f>I35/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
         <v>-0.16226434356148278</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
         <v>1.4378247313803471E-2</v>
@@ -4863,24 +4863,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>1.42</v>
-      </c>
-      <c r="C18" s="422"/>
+        <v>1.41</v>
+      </c>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
         <f>I35/B18-(1+C16)</f>
-        <v>0.25229708791867789</v>
-      </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+        <v>0.26188784740746285</v>
+      </c>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.4879569479655943</v>
-      </c>
-      <c r="I18" s="413"/>
+        <v>-0.49795694796559431</v>
+      </c>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>1.767605633802817E-2</v>
+        <v>1.7801418439716315E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4910,52 +4910,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4994,207 +4994,207 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377">
+      <c r="C26" s="416">
         <v>44932</v>
       </c>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="D26" s="417"/>
+      <c r="E26" s="401" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="402"/>
+      <c r="G26" s="402"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="389">
         <f>C31/D25</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="375"/>
+      <c r="E27" s="388">
         <f>E31/D25</f>
-        <v>0.12909090909090909</v>
-      </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+        <v>0.12818181818181817</v>
+      </c>
+      <c r="F27" s="375"/>
+      <c r="G27" s="399">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="400"/>
+      <c r="I27" s="398">
         <f>C27+E27+G27</f>
-        <v>0.2841818181818182</v>
-      </c>
-      <c r="J27" s="414"/>
+        <v>0.28327272727272723</v>
+      </c>
+      <c r="J27" s="398"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="363">
         <v>60000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363">
         <v>60000</v>
       </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="F28" s="364"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="377">
         <f>C28+E28+G28</f>
         <v>120000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="365">
         <v>1.706</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
-        <v>1.42</v>
-      </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="D29" s="364"/>
+      <c r="E29" s="365">
+        <v>1.41</v>
+      </c>
+      <c r="F29" s="364"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="361">
         <f>C29*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
-        <v>1893.3286681599998</v>
-      </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+        <v>1879.9953676799998</v>
+      </c>
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>102360</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <f>E28*E29</f>
-        <v>85200</v>
-      </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+        <v>84600</v>
+      </c>
+      <c r="F31" s="373"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="410"/>
+      <c r="I31" s="372">
         <f>C31+E31+G31</f>
-        <v>187560</v>
-      </c>
-      <c r="J31" s="425"/>
+        <v>186960</v>
+      </c>
+      <c r="J31" s="372"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="F32" s="409"/>
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="F32" s="375"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="J32" s="427"/>
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="J32" s="374"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="368"/>
+      <c r="D33" s="369"/>
+      <c r="E33" s="361">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2083.9948650239999</v>
-      </c>
-      <c r="F33" s="432"/>
+        <v>2077.328214784</v>
+      </c>
+      <c r="F33" s="362"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="361">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2083.9948650239999</v>
-      </c>
-      <c r="J33" s="424"/>
+        <v>2077.328214784</v>
+      </c>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>E29</f>
-        <v>1.42</v>
-      </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+        <v>1.41</v>
+      </c>
+      <c r="D35" s="435"/>
+      <c r="G35" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H35" s="437"/>
+      <c r="I35" s="432">
         <f>'FCFF Model'!C31</f>
         <v>1.9202618648445227</v>
       </c>
-      <c r="J35" s="363"/>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="434">
         <f>E32</f>
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="D36" s="435"/>
+      <c r="G36" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H36" s="431"/>
+      <c r="I36" s="432">
         <f>'FCFF Model'!C32</f>
         <v>1.5174412675390871</v>
       </c>
-      <c r="J36" s="363"/>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.22857444967659801</v>
+        <v>0.23251724316079758</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="F46" s="332">
         <f>'FCFF Model'!C32/C36-1</f>
-        <v>-2.9148261331358172E-2</v>
+        <v>-2.6032562555143079E-2</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.65903643048957772</v>
+        <v>0.66219066527693737</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>7.8417867562719401</v>
+        <v>8.93178467038239</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>2.1874710874615797</v>
+        <v>2.1503781534783828</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.28140078837484456</v>
+        <v>0.2903534105982371</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6301,38 +6301,12 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6349,12 +6323,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10641,7 +10641,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10660,7 +10660,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F76116-9975-4DFA-8C2C-8A9C5ECF57BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9926A8-AD10-4F64-8869-0F8169328CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3899,201 +3899,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4524,8 +4524,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4569,33 +4569,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="374" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4606,10 +4606,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="376">
         <v>44931</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4617,10 +4617,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4643,11 +4643,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>2146.6613772800001</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>2159.9946777600003</v>
+      </c>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.8931236597668001E-2</v>
+        <v>4.8433631346891728E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>30.351537584415926</v>
+        <v>30.663368104885624</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.2947259993623933E-2</v>
+        <v>3.2612203479391068E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.69674300664211719</v>
+        <v>0.70390131728092942</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4721,36 +4721,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0926403601964314</v>
+        <v>1.0882463455200195</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4769,7 +4769,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6464258352315482</v>
+        <v>1.7024820151580062</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4806,81 +4806,81 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.61</v>
-      </c>
-      <c r="C16" s="404">
-        <v>0.1</v>
+        <v>1.62</v>
+      </c>
+      <c r="C16" s="420">
+        <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f>I35/B16-(1+C16)</f>
-        <v>9.2709232822684617E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <f>I35/B16-(1+J25)</f>
+        <v>-5.016626295113924E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.9079569479655942</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>1.9002841663837244</v>
+      </c>
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.29795694796559413</v>
-      </c>
-      <c r="I16" s="390">
+        <v>-0.28028416638372433</v>
+      </c>
+      <c r="I16" s="411">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.5590062111801242E-2</v>
+        <v>1.5493827160493827E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f>I35/(1+C16)</f>
-        <v>1.7456926044041114</v>
-      </c>
-      <c r="C17" s="405"/>
+        <f>(I35+I36)/2</f>
+        <v>1.6123581330727796</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f>I35/B17-(1+C16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <f>I35/B17-(1+J25)</f>
+        <v>-4.4716557810129398E-2</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.16226434356148278</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>-0.2879260333109448</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.4378247313803471E-2</v>
+        <v>1.5567261072554172E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>1.41</v>
-      </c>
-      <c r="C18" s="406"/>
+        <v>1.37</v>
+      </c>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f>I35/B18-(1+C16)</f>
-        <v>0.26188784740746285</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <f>I35/B18-(1+J25)</f>
+        <v>0.15965741169281333</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.49795694796559431</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>-0.53028416638372433</v>
+      </c>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
-        <v>1.7801418439716315E-2</v>
+        <v>1.8321167883211677E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4910,52 +4910,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="397" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="382" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4987,214 +4987,214 @@
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="359">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="416">
+      <c r="C26" s="377">
         <v>44932</v>
       </c>
-      <c r="D26" s="417"/>
-      <c r="E26" s="401" t="str">
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="402"/>
-      <c r="G26" s="402"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="388">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
-        <v>0.12818181818181817</v>
-      </c>
-      <c r="F27" s="375"/>
-      <c r="G27" s="399">
+        <v>0.12454545454545454</v>
+      </c>
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="400"/>
-      <c r="I27" s="398">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>0.28327272727272723</v>
-      </c>
-      <c r="J27" s="398"/>
+        <v>0.27963636363636363</v>
+      </c>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="436">
         <v>60000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363">
+      <c r="D28" s="398"/>
+      <c r="E28" s="436">
         <v>60000</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="377">
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>120000</v>
       </c>
-      <c r="J28" s="377"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="437">
         <v>1.706</v>
       </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365">
-        <v>1.41</v>
-      </c>
-      <c r="F29" s="364"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="D29" s="398"/>
+      <c r="E29" s="437">
+        <v>1.37</v>
+      </c>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>1879.9953676799998</v>
-      </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+        <v>1826.6621657600003</v>
+      </c>
+      <c r="F30" s="432"/>
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>102360</v>
       </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
-        <v>84600</v>
-      </c>
-      <c r="F31" s="373"/>
-      <c r="G31" s="409">
+        <v>82200</v>
+      </c>
+      <c r="F31" s="435"/>
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="372">
+      <c r="H31" s="371"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>186960</v>
-      </c>
-      <c r="J31" s="372"/>
+        <v>184560</v>
+      </c>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="366"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="374">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="F32" s="375"/>
+        <v>1.538</v>
+      </c>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="374">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="J32" s="374"/>
+        <v>1.538</v>
+      </c>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="361">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>2077.328214784</v>
-      </c>
-      <c r="F33" s="362"/>
+        <v>2050.6616138240001</v>
+      </c>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="361">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>2077.328214784</v>
-      </c>
-      <c r="J33" s="361"/>
+        <v>2050.6616138240001</v>
+      </c>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="364">
         <f>E29</f>
-        <v>1.41</v>
-      </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="436" t="s">
+        <v>1.37</v>
+      </c>
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="432">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f>'FCFF Model'!C31</f>
-        <v>1.9202618648445227</v>
-      </c>
-      <c r="J35" s="433"/>
+        <v>1.8627306540191544</v>
+      </c>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="434">
+      <c r="C36" s="364">
         <f>E32</f>
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="D36" s="435"/>
-      <c r="G36" s="431" t="s">
+        <v>1.538</v>
+      </c>
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="431"/>
-      <c r="I36" s="432">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f>'FCFF Model'!C32</f>
-        <v>1.5174412675390871</v>
-      </c>
-      <c r="J36" s="433"/>
+        <v>1.3619856121264049</v>
+      </c>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5280,11 +5280,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>0.12559312124532407</v>
+        <v>9.1870254407476315E-2</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.23251724316079758</v>
+        <v>0.21113826659242796</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5292,12 +5292,12 @@
         <v>300</v>
       </c>
       <c r="E46" s="329">
-        <f>'FCFF Model'!C32/C29-1</f>
-        <v>-0.11052680683523608</v>
+        <f>I36/C29-1</f>
+        <v>-0.20164969980867242</v>
       </c>
       <c r="F46" s="332">
-        <f>'FCFF Model'!C32/C36-1</f>
-        <v>-2.6032562555143079E-2</v>
+        <f>I36/C36-1</f>
+        <v>-0.11444368522340387</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.57665136774455861</v>
+        <v>0.56804712515577571</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.66219066527693737</v>
+        <v>0.68731513734072736</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5322,11 +5322,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.1363136676204495</v>
+        <v>0.45559331104704781</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>8.93178467038239</v>
+        <v>1.844909714155639</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
-        <v>3.9811097538004327</v>
+        <v>4.3539663907521344</v>
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>2.1503781534783828</v>
+        <v>1.8944931511261407</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5352,11 +5352,11 @@
       </c>
       <c r="E51" s="327">
         <f>MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>5.1264145288331488E-2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.2903534105982371</v>
+        <v>0.27333429676139165</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6301,12 +6301,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6323,38 +6349,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.3047718127798005</v>
+        <v>2.2955032542128126</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5174412675390871</v>
+        <v>1.5113389309944614</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10641,7 +10641,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10660,7 +10660,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-692854.62271999987</v>
+        <v>-679521.32223999966</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12258,7 +12258,7 @@
   <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12776,8 +12776,8 @@
         <v>313</v>
       </c>
       <c r="C27" s="238">
-        <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
-        <v>1.6464258352315482</v>
+        <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
+        <v>1.7024820151580062</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-392.04659006147989</v>
+        <v>-171.75927619817344</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.71250663767235278</v>
+        <v>0.73974032908445164</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0742946315018207</v>
+        <v>2.0659529287915315</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12824,11 +12824,11 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1289.3749399100532</v>
+        <v>1256.5940532084148</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.90000000000000013</v>
+        <v>0.9</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12837,8 +12837,8 @@
         <v>307</v>
       </c>
       <c r="C31" s="350">
-        <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
-        <v>1.9202618648445227</v>
+        <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
+        <v>1.8627306540191544</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12846,11 +12846,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>684.06318912030156</v>
+        <v>457.97935835176548</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83316788855052948</v>
+        <v>0.81146940245045862</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12859,8 +12859,8 @@
         <v>315</v>
       </c>
       <c r="C32" s="350">
-        <f>MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
-        <v>1.5174412675390871</v>
+        <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
+        <v>1.3619856121264049</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-898.92493931875856</v>
+        <v>-1509.8283009221816</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.65839110801554412</v>
+        <v>0.59332767645910611</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -13788,7 +13788,7 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9926A8-AD10-4F64-8869-0F8169328CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3906FCDF-F1D9-4585-886F-DE3B9B58E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4595,7 +4595,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4645,7 +4645,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>2159.9946777600003</v>
+        <v>2199.9945791999999</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.8433631346891728E-2</v>
+        <v>4.7253344997732677E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>30.663368104885624</v>
+        <v>31.429272715345942</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.2612203479391068E-2</v>
+        <v>3.1817471853611522E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.70390131728092942</v>
+        <v>0.72148324964956101</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0882463455200195</v>
+        <v>1.0813883145650227</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4769,7 +4769,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.7024820151580062</v>
+        <v>1.6926532590520276</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4806,58 +4806,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f>I35/B16-(1+J25)</f>
-        <v>-5.016626295113924E-2</v>
+        <v>-7.7881714669815638E-2</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.9002841663837244</v>
+        <v>1.8883087458459027</v>
       </c>
       <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.28028416638372433</v>
+        <v>-0.23830874584590278</v>
       </c>
       <c r="I16" s="411">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.5493827160493827E-2</v>
+        <v>1.5212121212121213E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>(I35+I36)/2</f>
-        <v>1.6123581330727796</v>
+        <v>1.6028088890182131</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f>I35/B17-(1+J25)</f>
-        <v>-4.4716557810129398E-2</v>
+        <v>-4.4843459828250776E-2</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.2879260333109448</v>
+        <v>-0.28549985682768964</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.5567261072554172E-2</v>
+        <v>1.5660007984716624E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4868,14 +4868,14 @@
       <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f>I35/B18-(1+J25)</f>
-        <v>0.15965741169281333</v>
+        <v>0.15145632904730211</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.53028416638372433</v>
+        <v>-0.51830874584590259</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
@@ -5173,7 +5173,7 @@
       <c r="H35" s="367"/>
       <c r="I35" s="362">
         <f>'FCFF Model'!C31</f>
-        <v>1.8627306540191544</v>
+        <v>1.851495170794804</v>
       </c>
       <c r="J35" s="363"/>
     </row>
@@ -5192,7 +5192,7 @@
       <c r="H36" s="361"/>
       <c r="I36" s="362">
         <f>'FCFF Model'!C32</f>
-        <v>1.3619856121264049</v>
+        <v>1.3541226072416221</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5280,11 +5280,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>9.1870254407476315E-2</v>
+        <v>8.5284390852757408E-2</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.21113826659242796</v>
+        <v>0.20383301091989847</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5293,11 +5293,11 @@
       </c>
       <c r="E46" s="329">
         <f>I36/C29-1</f>
-        <v>-0.20164969980867242</v>
+        <v>-0.20625872963562597</v>
       </c>
       <c r="F46" s="332">
         <f>I36/C36-1</f>
-        <v>-0.11444368522340387</v>
+        <v>-0.11955617214458902</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.56804712515577571</v>
+        <v>0.56146126160105669</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68731513734072736</v>
+        <v>0.68000988166819776</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5322,11 +5322,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.45559331104704781</v>
+        <v>0.4134825760025756</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.844909714155639</v>
+        <v>1.7049141609634892</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
-        <v>4.3539663907521344</v>
+        <v>4.6901900336087969</v>
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>1.8944931511261407</v>
+        <v>1.9623906755574076</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.27333429676139165</v>
+        <v>0.25087916990967063</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.2955032542128126</v>
+        <v>2.2810371983978817</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5113389309944614</v>
+        <v>1.5018146084778541</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10738,7 +10738,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-679521.32223999966</v>
+        <v>-639521.42079999996</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12703,7 +12703,7 @@
       </c>
       <c r="G22" s="345">
         <f>ROUND(F22*Exchange_Rate,2)</f>
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I22" s="73"/>
     </row>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="G23" s="348">
         <f>ROUND(F23*Exchange_Rate,2)</f>
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I23" s="73"/>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="G24" s="347">
         <f>MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>1.7024820151580062</v>
+        <v>1.6926532590520276</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-171.75927619817344</v>
+        <v>-210.38392532774566</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.73974032908445164</v>
+        <v>0.74013392355804675</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0659529287915315</v>
+        <v>2.0529334785580935</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1256.5940532084148</v>
+        <v>1205.4307430495046</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>1.8627306540191544</v>
+        <v>1.851495170794804</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12846,11 +12846,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>457.97935835176548</v>
+        <v>413.82660975748962</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81146940245045862</v>
+        <v>0.81169003824015995</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C32" s="350">
         <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>1.3619856121264049</v>
+        <v>1.3541226072416221</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-1509.8283009221816</v>
+        <v>-1540.7280202258387</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59332767645910611</v>
+        <v>0.59364336898701564</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3906FCDF-F1D9-4585-886F-DE3B9B58E688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6101D087-5D3F-409F-9E2E-1D72C5A0CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3899,201 +3899,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4569,27 +4569,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4606,10 +4606,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>44931</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4617,10 +4617,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4643,11 +4643,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.7253344997732677E-2</v>
+        <v>4.7251888191836358E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>31.429272715345942</v>
+        <v>31.430241699900016</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.1817471853611522E-2</v>
+        <v>3.1816490930872514E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.72148324964956101</v>
+        <v>0.72150549343901371</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4721,36 +4721,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0813883145650227</v>
+        <v>1.0813549757003784</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4769,7 +4769,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6926532590520276</v>
+        <v>1.6926365908805852</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4808,28 +4808,28 @@
         <f>I4</f>
         <v>1.65</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f>I35/B16-(1+J25)</f>
-        <v>-7.7881714669815638E-2</v>
-      </c>
-      <c r="E16" s="393" t="s">
+        <v>-7.7904274414659413E-2</v>
+      </c>
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.8883087458459027</v>
-      </c>
-      <c r="G16" s="393" t="s">
+        <v>1.8882505298758976</v>
+      </c>
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.23830874584590278</v>
-      </c>
-      <c r="I16" s="411">
+        <v>-0.23825052987589768</v>
+      </c>
+      <c r="I16" s="390">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4840,24 +4840,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>(I35+I36)/2</f>
-        <v>1.6028088890182131</v>
-      </c>
-      <c r="C17" s="421"/>
+        <v>1.60278360996014</v>
+      </c>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
         <f>I35/B17-(1+J25)</f>
-        <v>-4.4843459828250776E-2</v>
-      </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+        <v>-4.48484650639418E-2</v>
+      </c>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.28549985682768964</v>
-      </c>
-      <c r="I17" s="412"/>
+        <v>-0.28546691991575757</v>
+      </c>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.5660007984716624E-2</v>
+        <v>1.566025497392266E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4865,19 +4865,19 @@
         <f>C35</f>
         <v>1.37</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
         <f>I35/B18-(1+J25)</f>
-        <v>0.15145632904730211</v>
-      </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+        <v>0.15142915855168737</v>
+      </c>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.51830874584590259</v>
-      </c>
-      <c r="I18" s="413"/>
+        <v>-0.51825052987589748</v>
+      </c>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>1.8321167883211677E-2</v>
@@ -4910,52 +4910,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4994,207 +4994,207 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377">
+      <c r="C26" s="416">
         <v>44932</v>
       </c>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="D26" s="417"/>
+      <c r="E26" s="401" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="402"/>
+      <c r="G26" s="402"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="389">
         <f>C31/D25</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="375"/>
+      <c r="E27" s="388">
         <f>E31/D25</f>
         <v>0.12454545454545454</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+      <c r="F27" s="375"/>
+      <c r="G27" s="399">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="400"/>
+      <c r="I27" s="398">
         <f>C27+E27+G27</f>
         <v>0.27963636363636363</v>
       </c>
-      <c r="J27" s="414"/>
+      <c r="J27" s="398"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="363">
         <v>60000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363">
         <v>60000</v>
       </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="F28" s="364"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="377">
         <f>C28+E28+G28</f>
         <v>120000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="365">
         <v>1.706</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
+      <c r="D29" s="364"/>
+      <c r="E29" s="365">
         <v>1.37</v>
       </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="F29" s="364"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="361">
         <f>C29*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
         <v>1826.6621657600003</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>102360</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <f>E28*E29</f>
         <v>82200</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+      <c r="F31" s="373"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="410"/>
+      <c r="I31" s="372">
         <f>C31+E31+G31</f>
         <v>184560</v>
       </c>
-      <c r="J31" s="425"/>
+      <c r="J31" s="372"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.538</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.538</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="374"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="368"/>
+      <c r="D33" s="369"/>
+      <c r="E33" s="361">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="361">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="J33" s="424"/>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>E29</f>
         <v>1.37</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D35" s="435"/>
+      <c r="G35" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H35" s="437"/>
+      <c r="I35" s="432">
         <f>'FCFF Model'!C31</f>
-        <v>1.851495170794804</v>
-      </c>
-      <c r="J35" s="363"/>
+        <v>1.8514579472158119</v>
+      </c>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="434">
         <f>E32</f>
         <v>1.538</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D36" s="435"/>
+      <c r="G36" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H36" s="431"/>
+      <c r="I36" s="432">
         <f>'FCFF Model'!C32</f>
-        <v>1.3541226072416221</v>
-      </c>
-      <c r="J36" s="363"/>
+        <v>1.3541092727044681</v>
+      </c>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5280,11 +5280,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>8.5284390852757408E-2</v>
+        <v>8.5262571638811124E-2</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.20383301091989847</v>
+        <v>0.20380880833277759</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5293,11 +5293,11 @@
       </c>
       <c r="E46" s="329">
         <f>I36/C29-1</f>
-        <v>-0.20625872963562597</v>
+        <v>-0.20626654589421567</v>
       </c>
       <c r="F46" s="332">
         <f>I36/C36-1</f>
-        <v>-0.11955617214458902</v>
+        <v>-0.11956484219475416</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.56146126160105669</v>
+        <v>0.56143944238711041</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68000988166819776</v>
+        <v>0.67998567908107688</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5322,11 +5322,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.4134825760025756</v>
+        <v>0.41336112586351376</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.7049141609634892</v>
+        <v>1.704588109611703</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
-        <v>4.6901900336087969</v>
+        <v>4.6913902819454947</v>
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>1.9623906755574076</v>
+        <v>1.9626237122533137</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.25087916990967063</v>
+        <v>0.25081152289034087</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6301,38 +6301,12 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6349,12 +6323,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.2810371983978817</v>
+        <v>2.280966874732107</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5018146084778541</v>
+        <v>1.5017683080016251</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10641,7 +10641,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10660,7 +10660,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>1.6926532590520276</v>
+        <v>1.6926365908805852</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-210.38392532774566</v>
+        <v>-210.44942723527626</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.74013392355804675</v>
+        <v>0.74014945376741015</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0529334785580935</v>
+        <v>2.0528701872588964</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1205.4307430495046</v>
+        <v>1205.1820234558872</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>1.851495170794804</v>
+        <v>1.8514579472158119</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12846,11 +12846,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>413.82660975748962</v>
+        <v>413.68033003883426</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81169003824015995</v>
+        <v>0.81169874395184294</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C32" s="350">
         <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>1.3541226072416221</v>
+        <v>1.3541092727044681</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-1540.7280202258387</v>
+        <v>-1540.7804217518635</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59364336898701564</v>
+        <v>0.59365582538918038</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6101D087-5D3F-409F-9E2E-1D72C5A0CA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C41B1FB-7701-4491-A386-EA7B1CC4FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3899,201 +3899,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4569,33 +4569,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="372" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="374" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4606,10 +4606,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="376">
         <v>44931</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4617,10 +4617,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4643,11 +4643,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>2199.9945791999999</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>2173.32797824</v>
+      </c>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.7251888191836358E-2</v>
+        <v>4.7855788153563283E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>31.430241699900016</v>
+        <v>31.033618376118767</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.1816490930872514E-2</v>
+        <v>3.2223119711026926E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.72150549343901371</v>
+        <v>0.71240069845631671</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4721,36 +4721,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="401" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0813549757003784</v>
+        <v>1.0819003184636433</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4769,7 +4769,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6926365908805852</v>
+        <v>1.6929092416372915</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4806,58 +4806,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.65</v>
-      </c>
-      <c r="C16" s="404">
+        <v>1.63</v>
+      </c>
+      <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f>I35/B16-(1+J25)</f>
-        <v>-7.7904274414659413E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-6.3762678245242732E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.8882505298758976</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>1.8892028015950266</v>
+      </c>
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.23825052987589768</v>
-      </c>
-      <c r="I16" s="390">
+        <v>-0.25920280159502673</v>
+      </c>
+      <c r="I16" s="411">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.5212121212121213E-2</v>
+        <v>1.539877300613497E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>(I35+I36)/2</f>
-        <v>1.60278360996014</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>1.6031971138850438</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f>I35/B17-(1+J25)</f>
-        <v>-4.48484650639418E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>-4.4766611404307044E-2</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.28546691991575757</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>-0.2860056877099828</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.566025497392266E-2</v>
+        <v>1.5656215809405318E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4865,19 +4865,19 @@
         <f>C35</f>
         <v>1.37</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f>I35/B18-(1+J25)</f>
-        <v>0.15142915855168737</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>0.151873601795806</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.51825052987589748</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>-0.51920280159502652</v>
+      </c>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>1.8321167883211677E-2</v>
@@ -4910,52 +4910,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="379" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="397" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="382" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4994,207 +4994,207 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="416">
+      <c r="C26" s="377">
         <v>44932</v>
       </c>
-      <c r="D26" s="417"/>
-      <c r="E26" s="401" t="str">
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F26" s="402"/>
-      <c r="G26" s="402"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="388">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0.12454545454545454</v>
       </c>
-      <c r="F27" s="375"/>
-      <c r="G27" s="399">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="400"/>
-      <c r="I27" s="398">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.27963636363636363</v>
       </c>
-      <c r="J27" s="398"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="436">
         <v>60000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363">
+      <c r="D28" s="398"/>
+      <c r="E28" s="436">
         <v>60000</v>
       </c>
-      <c r="F28" s="364"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="377">
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>120000</v>
       </c>
-      <c r="J28" s="377"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="437">
         <v>1.706</v>
       </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365">
+      <c r="D29" s="398"/>
+      <c r="E29" s="437">
         <v>1.37</v>
       </c>
-      <c r="F29" s="364"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
         <v>1826.6621657600003</v>
       </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+      <c r="F30" s="432"/>
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>102360</v>
       </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>82200</v>
       </c>
-      <c r="F31" s="373"/>
-      <c r="G31" s="409">
+      <c r="F31" s="435"/>
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="372">
+      <c r="H31" s="371"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>184560</v>
       </c>
-      <c r="J31" s="372"/>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="366"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="374">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.538</v>
       </c>
-      <c r="F32" s="375"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="374">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.538</v>
       </c>
-      <c r="J32" s="374"/>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="361">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="F33" s="362"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="361">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="J33" s="361"/>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>1.37</v>
       </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="436" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="432">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f>'FCFF Model'!C31</f>
-        <v>1.8514579472158119</v>
-      </c>
-      <c r="J35" s="433"/>
+        <v>1.8520668344602542</v>
+      </c>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="434">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>1.538</v>
       </c>
-      <c r="D36" s="435"/>
-      <c r="G36" s="431" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="431"/>
-      <c r="I36" s="432">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f>'FCFF Model'!C32</f>
-        <v>1.3541092727044681</v>
-      </c>
-      <c r="J36" s="433"/>
+        <v>1.3543273933098332</v>
+      </c>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5280,11 +5280,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>8.5262571638811124E-2</v>
+        <v>8.5619480926292013E-2</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.20380880833277759</v>
+        <v>0.20420470381030831</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5293,11 +5293,11 @@
       </c>
       <c r="E46" s="329">
         <f>I36/C29-1</f>
-        <v>-0.20626654589421567</v>
+        <v>-0.20613869090865578</v>
       </c>
       <c r="F46" s="332">
         <f>I36/C36-1</f>
-        <v>-0.11956484219475416</v>
+        <v>-0.11942302125498494</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.56143944238711041</v>
+        <v>0.5617963516745913</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.67998567908107688</v>
+        <v>0.6803815745586077</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5322,11 +5322,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.41336112586351376</v>
+        <v>0.41534891169087584</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.704588109611703</v>
+        <v>1.7099274634352331</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
-        <v>4.6913902819454947</v>
+        <v>4.6718339760124392</v>
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>1.9626237122533137</v>
+        <v>1.9588187369649019</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.25081152289034087</v>
+        <v>0.25191829973939867</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -6301,12 +6301,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6323,38 +6349,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.280966874732107</v>
+        <v>2.2821171989145772</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5017683080016251</v>
+        <v>1.5025256712146984</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10641,7 +10641,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10660,7 +10660,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10738,7 +10738,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-639521.42079999996</v>
+        <v>-666188.02175999992</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>1.6926365908805852</v>
+        <v>1.6929092416372915</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-210.44942723527626</v>
+        <v>-209.37797529373412</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.74014945376741015</v>
+        <v>0.73989553752488335</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0528701872588964</v>
+        <v>2.0539054790231197</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12824,11 +12824,11 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1205.1820234558872</v>
+        <v>1209.2504712542345</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.9</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>1.8514579472158119</v>
+        <v>1.8520668344602542</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12846,11 +12846,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>413.68033003883426</v>
+        <v>416.07311056187012</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81169874395184294</v>
+        <v>0.81155640706846088</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C32" s="350">
         <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>1.3541092727044681</v>
+        <v>1.3543273933098332</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-1540.7804217518635</v>
+        <v>-1539.9232601986298</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59365582538918038</v>
+        <v>0.5934521653638033</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C41B1FB-7701-4491-A386-EA7B1CC4FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8390CC40-1A29-4EE4-A5EE-118E2577F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4595,7 +4595,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4645,7 +4645,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>2173.32797824</v>
+        <v>2079.9948748800002</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>4.7855788153563283E-2</v>
+        <v>5.013320459323891E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>31.033618376118767</v>
+        <v>29.623844689281196</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.2223119711026926E-2</v>
+        <v>3.3756590695394453E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.71240069845631671</v>
+        <v>0.68003825373600391</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0819003184636433</v>
+        <v>1.0847139755884807</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4769,7 +4769,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6929092416372915</v>
+        <v>1.6943159637868739</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4806,58 +4806,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f>I35/B16-(1+J25)</f>
-        <v>-6.3762678245242732E-2</v>
+        <v>-1.076388153370722E-2</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.8892028015950266</v>
+        <v>1.894115979669065</v>
       </c>
       <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.25920280159502673</v>
+        <v>-0.33411597966906492</v>
       </c>
       <c r="I16" s="411">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.539877300613497E-2</v>
+        <v>1.6089743589743591E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>(I35+I36)/2</f>
-        <v>1.6031971138850438</v>
+        <v>1.6053305579184578</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f>I35/B17-(1+J25)</f>
-        <v>-4.4766611404307044E-2</v>
+        <v>-4.4344963312128449E-2</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.2860056877099828</v>
+        <v>-0.28878542175060717</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.5656215809405318E-2</v>
+        <v>1.5635409091412155E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4868,14 +4868,14 @@
       <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f>I35/B18-(1+J25)</f>
-        <v>0.151873601795806</v>
+        <v>0.15416667504190995</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.51920280159502652</v>
+        <v>-0.52411597966906487</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
@@ -5173,7 +5173,7 @@
       <c r="H35" s="367"/>
       <c r="I35" s="362">
         <f>'FCFF Model'!C31</f>
-        <v>1.8520668344602542</v>
+        <v>1.8552083448074166</v>
       </c>
       <c r="J35" s="363"/>
     </row>
@@ -5192,7 +5192,7 @@
       <c r="H36" s="361"/>
       <c r="I36" s="362">
         <f>'FCFF Model'!C32</f>
-        <v>1.3543273933098332</v>
+        <v>1.355452771029499</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5280,11 +5280,11 @@
       </c>
       <c r="E45" s="329">
         <f>I35/C29-1</f>
-        <v>8.5619480926292013E-2</v>
+        <v>8.7460928960971129E-2</v>
       </c>
       <c r="F45" s="332">
         <f>I35/C36-1</f>
-        <v>0.20420470381030831</v>
+        <v>0.2062472983143151</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5293,11 +5293,11 @@
       </c>
       <c r="E46" s="329">
         <f>I36/C29-1</f>
-        <v>-0.20613869090865578</v>
+        <v>-0.20547903222186459</v>
       </c>
       <c r="F46" s="332">
         <f>I36/C36-1</f>
-        <v>-0.11942302125498494</v>
+        <v>-0.11869130622269242</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5307,11 +5307,11 @@
       </c>
       <c r="E48" s="353">
         <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.5617963516745913</v>
+        <v>0.56363779970927053</v>
       </c>
       <c r="F48" s="329">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.6803815745586077</v>
+        <v>0.68242416906261438</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5322,11 +5322,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.41534891169087584</v>
+        <v>0.42564405728043231</v>
       </c>
       <c r="F49" s="328">
         <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.7099274634352331</v>
+        <v>1.7376782249522753</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5336,11 +5336,11 @@
       </c>
       <c r="E50" s="358">
         <f>MAX(J25*2/E45,1)</f>
-        <v>4.6718339760124392</v>
+        <v>4.5734707457600576</v>
       </c>
       <c r="F50" s="358">
         <f>MAX(J25*2/F45,1)</f>
-        <v>1.9588187369649019</v>
+        <v>1.9394193440071696</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F51" s="327">
         <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.25191829973939867</v>
+        <v>0.25763662743710097</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.2821171989145772</v>
+        <v>2.2880522145596025</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5025256712146984</v>
+        <v>1.5064332327413166</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -10738,7 +10738,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-666188.02175999992</v>
+        <v>-759521.12511999998</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>1.6929092416372915</v>
+        <v>1.6943159637868739</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12785,11 +12785,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-209.37797529373412</v>
+        <v>-203.84989535517849</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.73989553752488335</v>
+        <v>0.73858953159657703</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0539054790231197</v>
+        <v>2.0592469931036423</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -12824,11 +12824,11 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1209.2504712542345</v>
+        <v>1230.2413377439789</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.90000000000000013</v>
+        <v>0.9</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>1.8520668344602542</v>
+        <v>1.8552083448074166</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12846,11 +12846,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>416.07311056187012</v>
+        <v>428.41849115608983</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81155640706846088</v>
+        <v>0.81082430418420393</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C32" s="350">
         <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>1.3543273933098332</v>
+        <v>1.355452771029499</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-1539.9232601986298</v>
+        <v>-1535.5007962477857</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.5934521653638033</v>
+        <v>0.59240464986083918</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8390CC40-1A29-4EE4-A5EE-118E2577F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EFDE17-3AE9-45F7-ABC3-CA3AC5A7D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="352">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1205,6 +1205,40 @@
   </si>
   <si>
     <t>Performance Target =</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>1. 香港大众住宅楼市场基本饱和、商业物业市场低迷、办公楼(特别九龙)供应量过大
+2. 内地市场低迷
+3. 上半年业绩很差，预计23年6月止年报的P&amp;L数字将很难看。</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>1. Yes. 关键是香港人口及GDP增长可持续性强，预计楼市经历调整及经济恢复后，将会有上涨空间
+2. Yes. 信和在国内物业相对(地理及品质)优质，相信中国经济会恢复。另外信和在这方面的敞口可控
+3. Yes. 我认为是短期影响，而且开关后正在恢复</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2985,13 +3019,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="468">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3899,201 +4059,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4131,6 +4291,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4139,7 +4344,15 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4522,10 +4735,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L965"/>
+  <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4569,27 +4782,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4606,10 +4819,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>44931</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4617,10 +4830,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4643,11 +4856,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>2079.9948748800002</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4721,30 +4934,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4808,28 +5021,28 @@
         <f>I4</f>
         <v>1.56</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f>I35/B16-(1+J25)</f>
+        <f>I37/B16-(1+J27)</f>
         <v>-1.076388153370722E-2</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.894115979669065</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>-0.33411597966906492</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
@@ -4839,22 +5052,22 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f>(I35+I36)/2</f>
+        <f>(I37+I38)/2</f>
         <v>1.6053305579184578</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
-        <f>I35/B17-(1+J25)</f>
+        <f>I37/B17-(1+J27)</f>
         <v>-4.4344963312128449E-2</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
         <v>-0.28878542175060717</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
         <v>1.5635409091412155E-2</v>
@@ -4862,22 +5075,22 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
-        <f>C35</f>
+        <f>C37</f>
         <v>1.37</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
-        <f>I35/B18-(1+J25)</f>
+        <f>I37/B18-(1+J27)</f>
         <v>0.15416667504190995</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>-0.52411597966906487</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>1.8321167883211677E-2</v>
@@ -4910,338 +5123,344 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="453" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="454"/>
+      <c r="E24" s="454"/>
+      <c r="F24" s="454"/>
+      <c r="G24" s="454"/>
+      <c r="H24" s="454"/>
+      <c r="I24" s="454"/>
+      <c r="J24" s="455"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="456" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="457" t="s">
+        <v>345</v>
+      </c>
+      <c r="D25" s="458"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="459"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="34">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="360" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="360" t="s">
         <v>341</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="359">
+      <c r="I27" s="30"/>
+      <c r="J27" s="359">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="377">
-        <v>44932</v>
-      </c>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v>Action_Planning</v>
-      </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="396"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="410">
-        <f>C31/D25</f>
-        <v>0.15509090909090908</v>
-      </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
-        <f>E31/D25</f>
-        <v>0.12454545454545454</v>
-      </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
-        <f>C27+E27+G27</f>
-        <v>0.27963636363636363</v>
-      </c>
-      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="436">
-        <v>60000</v>
-      </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436">
-        <v>60000</v>
-      </c>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
-        <f>C28+E28+G28</f>
-        <v>120000</v>
-      </c>
-      <c r="J28" s="426"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="416">
+        <v>44932</v>
+      </c>
+      <c r="D28" s="417"/>
+      <c r="E28" s="401" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v>Action_Planning</v>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="428" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="428"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="437">
-        <v>1.706</v>
-      </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
-        <v>1.37</v>
-      </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="389">
+        <f>C33/D27</f>
+        <v>0.15509090909090908</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="388">
+        <f>E33/D27</f>
+        <v>0.12454545454545454</v>
+      </c>
+      <c r="F29" s="375"/>
+      <c r="G29" s="399">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="400"/>
+      <c r="I29" s="398">
+        <f>C29+E29+G29</f>
+        <v>0.27963636363636363</v>
+      </c>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="363">
+        <v>60000</v>
+      </c>
+      <c r="D30" s="364"/>
+      <c r="E30" s="363">
+        <v>60000</v>
+      </c>
+      <c r="F30" s="364"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="377">
+        <f>C30+E30+G30</f>
+        <v>120000</v>
+      </c>
+      <c r="J30" s="377"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="365">
+        <v>1.706</v>
+      </c>
+      <c r="D31" s="364"/>
+      <c r="E31" s="365">
+        <v>1.37</v>
+      </c>
+      <c r="F31" s="364"/>
+      <c r="G31" s="386"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="361">
+        <f>C31*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="362"/>
+      <c r="E32" s="361">
+        <f>E31*$I$5/1000000</f>
         <v>1826.6621657600003</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="362"/>
+      <c r="G32" s="407">
+        <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="408"/>
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
-        <f>C28*C29</f>
+      <c r="C33" s="370">
+        <f>C30*C31</f>
         <v>102360</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
-        <f>E28*E29</f>
+      <c r="D33" s="371"/>
+      <c r="E33" s="372">
+        <f>E30*E31</f>
         <v>82200</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
-        <f>G28*G29</f>
+      <c r="F33" s="373"/>
+      <c r="G33" s="409">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="410"/>
+      <c r="I33" s="372">
+        <f>C33+E33+G33</f>
         <v>184560</v>
       </c>
-      <c r="J31" s="425"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="372"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="366"/>
+      <c r="D34" s="367"/>
+      <c r="E34" s="374">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.538</v>
       </c>
-      <c r="F32" s="409"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="427">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="375"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="374">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>1.538</v>
       </c>
-      <c r="J32" s="427"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="374"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="368"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="361">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="F33" s="432"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="424">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="362"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="361">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="J33" s="424"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="361"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
-        <f>E29</f>
+      <c r="C37" s="434">
+        <f>E31</f>
         <v>1.37</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D37" s="435"/>
+      <c r="G37" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H37" s="437"/>
+      <c r="I37" s="432">
         <f>'FCFF Model'!C31</f>
         <v>1.8552083448074166</v>
       </c>
-      <c r="J35" s="363"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
+      <c r="J37" s="433"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
-        <f>E32</f>
+      <c r="C38" s="434">
+        <f>E34</f>
         <v>1.538</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D38" s="435"/>
+      <c r="G38" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H38" s="431"/>
+      <c r="I38" s="432">
         <f>'FCFF Model'!C32</f>
         <v>1.355452771029499</v>
       </c>
-      <c r="J36" s="363"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="433"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="319" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="324"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="208">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.64</v>
-      </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="329">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.44088435374149659</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5250,10 +5469,11 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="332">
-        <v>0.5</v>
+        <v>297</v>
+      </c>
+      <c r="F42" s="208">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -5261,139 +5481,162 @@
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
+      <c r="B43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.44088435374149659</v>
+      </c>
+      <c r="G43" s="331"/>
       <c r="H43" s="114"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="B44" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="258" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="258" t="s">
+      <c r="F46" s="258" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="329">
-        <f>I35/C29-1</f>
+      <c r="E47" s="329">
+        <f>I37/C31-1</f>
         <v>8.7460928960971129E-2</v>
       </c>
-      <c r="F45" s="332">
-        <f>I35/C36-1</f>
+      <c r="F47" s="332">
+        <f>I37/C38-1</f>
         <v>0.2062472983143151</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="329">
-        <f>I36/C29-1</f>
-        <v>-0.20547903222186459</v>
-      </c>
-      <c r="F46" s="332">
-        <f>I36/C36-1</f>
-        <v>-0.11869130622269242</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="353">
-        <f>IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.56363779970927053</v>
-      </c>
-      <c r="F48" s="329">
-        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.68242416906261438</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f>IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.42564405728043231</v>
-      </c>
-      <c r="F49" s="328">
-        <f>IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.7376782249522753</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>300</v>
+      </c>
+      <c r="E48" s="329">
+        <f>I38/C31-1</f>
+        <v>-0.20547903222186459</v>
+      </c>
+      <c r="F48" s="332">
+        <f>I38/C38-1</f>
+        <v>-0.11869130622269242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" s="358">
-        <f>MAX(J25*2/E45,1)</f>
-        <v>4.5734707457600576</v>
-      </c>
-      <c r="F50" s="358">
-        <f>MAX(J25*2/F45,1)</f>
-        <v>1.9394193440071696</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>302</v>
+      </c>
+      <c r="E50" s="353">
+        <f>IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.56363779970927053</v>
+      </c>
+      <c r="F50" s="329">
+        <f>IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.68242416906261438</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="326"/>
+      <c r="E51" s="328">
+        <f>IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>0.42564405728043231</v>
+      </c>
+      <c r="F51" s="328">
+        <f>IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>1.7376782249522753</v>
+      </c>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" s="358">
+        <f>MAX(J27*2/E47,1)</f>
+        <v>4.5734707457600576</v>
+      </c>
+      <c r="F52" s="358">
+        <f>MAX(J27*2/F47,1)</f>
+        <v>1.9394193440071696</v>
+      </c>
+      <c r="G52" s="330"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="327">
-        <f>MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+      <c r="E53" s="327">
+        <f>MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="327">
-        <f>MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="327">
+        <f>MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.25763662743710097</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="330" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="3" t="s">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6299,46 +6542,23 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6346,70 +6566,97 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36 I35:J36">
+  <conditionalFormatting sqref="C37:D38 I37:J38">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="26">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
-      <formula>LEN(TRIM(E26))=0</formula>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6439,10 +6686,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7383,10 +7630,10 @@
         <v>2735259</v>
       </c>
       <c r="E28" s="35">
-        <v>250534</v>
+        <v>2505340</v>
       </c>
       <c r="F28" s="35">
-        <v>13930</v>
+        <v>1393000</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -7409,10 +7656,10 @@
         <v>2733761</v>
       </c>
       <c r="E29" s="137">
-        <v>247681</v>
+        <v>2476810</v>
       </c>
       <c r="F29" s="137">
-        <v>13234</v>
+        <v>1323400</v>
       </c>
       <c r="G29" s="137"/>
       <c r="H29" s="137"/>
@@ -7583,15 +7830,15 @@
         <v>77</v>
       </c>
       <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+        <f>IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>-38351.032800000001</v>
       </c>
       <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <f>IF(E7="","",D30-E30+D33+IF($C$55="Yes",D57,0))</f>
         <v>30824.4568</v>
       </c>
       <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$55="Yes",E57,0))</f>
         <v>40938.171199999997</v>
       </c>
       <c r="F34" s="140" t="str">
@@ -7599,31 +7846,31 @@
         <v/>
       </c>
       <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
+        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$55="Yes",G57,0))</f>
         <v/>
       </c>
       <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
+        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$55="Yes",H57,0))</f>
         <v/>
       </c>
       <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
+        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$55="Yes",I57,0))</f>
         <v/>
       </c>
       <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
+        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$55="Yes",J57,0))</f>
         <v/>
       </c>
       <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
+        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$55="Yes",K57,0))</f>
         <v/>
       </c>
       <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
+        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$55="Yes",L57,0))</f>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$55="Yes",M57,0))</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -7883,11 +8130,11 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="22"/>
-        <v>2.0574852330215075E-2</v>
+        <v>2.0574852330215074E-3</v>
       </c>
       <c r="F42" s="48">
         <f t="shared" si="22"/>
-        <v>0.51987305425419372</v>
+        <v>5.1987305425419371E-3</v>
       </c>
       <c r="G42" s="48" t="str">
         <f t="shared" si="22"/>
@@ -7934,11 +8181,11 @@
       </c>
       <c r="E43" s="14">
         <f t="shared" si="23"/>
-        <v>1.2390090479285856</v>
+        <v>0.12390090479285856</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" si="23"/>
-        <v>0.76356354843584706</v>
+        <v>7.6356354843584709E-3</v>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="23"/>
@@ -8125,181 +8372,436 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="461" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="460"/>
+      <c r="D47" s="460"/>
+      <c r="E47" s="460"/>
+      <c r="F47" s="460"/>
+      <c r="G47" s="460"/>
+      <c r="H47" s="460"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="460"/>
+      <c r="K47" s="460"/>
+      <c r="L47" s="460"/>
+      <c r="M47" s="460"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="165" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="462">
+        <f>C13</f>
+        <v>4.0755265935096111E-2</v>
+      </c>
+      <c r="D48" s="462">
+        <f>D13</f>
+        <v>4.0700740522180902E-2</v>
+      </c>
+      <c r="E48" s="462">
+        <f t="shared" ref="E48:M48" si="27">E13</f>
+        <v>0.16197829338590986</v>
+      </c>
+      <c r="F48" s="462">
+        <f t="shared" si="27"/>
+        <v>0.16192039624057217</v>
+      </c>
+      <c r="G48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" s="463">
+        <f>C7/(C29+C21+C22)</f>
+        <v>0.21518782982573623</v>
+      </c>
+      <c r="D49" s="463">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>0.27153287965223549</v>
+      </c>
+      <c r="E49" s="463">
+        <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>0.3255920715748068</v>
+      </c>
+      <c r="F49" s="463">
+        <f t="shared" si="28"/>
+        <v>0.38825797760377201</v>
+      </c>
+      <c r="G49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="139" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="464">
+        <f>(C29+C21+C22)/C29</f>
+        <v>2.3829647431282006</v>
+      </c>
+      <c r="D50" s="464">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>2.3833257552507332</v>
+      </c>
+      <c r="E50" s="464">
+        <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>2.110728315857898</v>
+      </c>
+      <c r="F50" s="464">
+        <f t="shared" si="29"/>
+        <v>2.6923832552516247</v>
+      </c>
+      <c r="G50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="H50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="I50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="139" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="465">
+        <f>C48*C49*C50</f>
+        <v>2.0898689516308248E-2</v>
+      </c>
+      <c r="D51" s="465">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>2.6339537362629725E-2</v>
+      </c>
+      <c r="E51" s="465">
+        <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
+        <v>0.11131738001703805</v>
+      </c>
+      <c r="F51" s="465">
+        <f t="shared" si="30"/>
+        <v>0.16926175003778149</v>
+      </c>
+      <c r="G51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="466" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="467">
+        <f>C35*C51</f>
+        <v>-1.3636053679448659E-2</v>
+      </c>
+      <c r="D52" s="467">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>1.1275476093191759E-2</v>
+      </c>
+      <c r="E52" s="467">
+        <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
+        <v>1.6528587659126053E-2</v>
+      </c>
+      <c r="F52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="315" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="316" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="320" t="str">
+        <f>IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="320" t="str">
+        <f t="shared" ref="D58:M58" si="32">IF(D57="","",D57/D7)</f>
+        <v/>
+      </c>
+      <c r="E58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H58" s="320" t="str">
+        <f>IF(H57="","",H57/H7)</f>
+        <v/>
+      </c>
+      <c r="I58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M58" s="321" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="53"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8883,12 +9385,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9566,38 +10080,49 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="B57:M58">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:M52">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10641,7 +11166,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10660,7 +11185,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,7 +11199,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12214,17 +12739,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 I20">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H13 H14 G15:H17">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12232,12 +12757,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:J20">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J17">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13767,12 +14292,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EFDE17-3AE9-45F7-ABC3-CA3AC5A7D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8937B991-6C81-48F3-8F44-7D4995F98921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4059,201 +4059,246 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4291,51 +4336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4345,14 +4345,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4402,6 +4394,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4782,33 +4782,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="384" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="385"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="397"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="386" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="387"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4819,10 +4819,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="388">
         <v>44931</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="387"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4830,10 +4830,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="398">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="399"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4856,11 +4856,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="400">
         <f>I4*I5/1000000</f>
-        <v>2079.9948748800002</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>2159.9946777600003</v>
+      </c>
+      <c r="J6" s="401"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>5.013320459323891E-2</v>
+        <v>4.8565086808626971E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
@@ -4900,11 +4900,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>29.623844689281196</v>
+        <v>30.580368825414151</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.3756590695394453E-2</v>
+        <v>3.2700717434412989E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.68003825373600391</v>
+        <v>0.70199600466316692</v>
       </c>
       <c r="J10" s="127" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4934,36 +4934,36 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="415">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="416"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="413" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="414"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="411">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="412"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="130"/>
       <c r="I12" s="132">
-        <v>1.0847139755884807</v>
+        <v>1.0911999940872192</v>
       </c>
       <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -4982,7 +4982,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f>'FCFF Model'!C27</f>
-        <v>1.6943159637868739</v>
+        <v>1.7039587277342774</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -5019,58 +5019,58 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.56</v>
-      </c>
-      <c r="C16" s="404">
+        <v>1.62</v>
+      </c>
+      <c r="C16" s="432">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f>I37/B16-(1+J27)</f>
-        <v>-1.076388153370722E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-4.8130575367406392E-2</v>
+      </c>
+      <c r="E16" s="405" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="402">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
-        <v>1.894115979669065</v>
-      </c>
-      <c r="G16" s="395" t="s">
+        <v>1.9054417960219194</v>
+      </c>
+      <c r="G16" s="405" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>-0.33411597966906492</v>
-      </c>
-      <c r="I16" s="390">
+        <v>-0.28544179602191933</v>
+      </c>
+      <c r="I16" s="423">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.6089743589743591E-2</v>
+        <v>1.5493827160493827E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
         <f>(I37+I38)/2</f>
-        <v>1.6053305579184578</v>
-      </c>
-      <c r="C17" s="405"/>
+        <v>1.6145977250461119</v>
+      </c>
+      <c r="C17" s="433"/>
       <c r="D17" s="268">
         <f>I37/B17-(1+J27)</f>
-        <v>-4.4344963312128449E-2</v>
-      </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+        <v>-4.4276540863137148E-2</v>
+      </c>
+      <c r="E17" s="406"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17" s="356">
         <f>B17-$F$16</f>
-        <v>-0.28878542175060717</v>
-      </c>
-      <c r="I17" s="391"/>
+        <v>-0.29084407097580756</v>
+      </c>
+      <c r="I17" s="424"/>
       <c r="J17" s="159">
         <f>I16/B17</f>
-        <v>1.5635409091412155E-2</v>
+        <v>1.5545667884106031E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -5078,19 +5078,19 @@
         <f>C37</f>
         <v>1.37</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="434"/>
       <c r="D18" s="157">
         <f>I37/B18-(1+J27)</f>
-        <v>0.15416667504190995</v>
-      </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+        <v>0.16206457511299388</v>
+      </c>
+      <c r="E18" s="407"/>
+      <c r="F18" s="404"/>
+      <c r="G18" s="407"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>-0.52411597966906487</v>
-      </c>
-      <c r="I18" s="392"/>
+        <v>-0.53544179602191933</v>
+      </c>
+      <c r="I18" s="425"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>1.8321167883211677E-2</v>
@@ -5123,84 +5123,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="391" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="392"/>
+      <c r="E21" s="392"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="392"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="393"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="409" t="s">
         <v>330</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="410"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="410"/>
+      <c r="G22" s="409" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="410"/>
+      <c r="J22" s="410"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="394" t="s">
         <v>332</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="394" t="s">
         <v>333</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="453" t="s">
+      <c r="C24" s="435" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="454"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="454"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="454"/>
-      <c r="I24" s="454"/>
-      <c r="J24" s="455"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="436"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="436"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="437"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="456" t="s">
+      <c r="B25" s="361" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="457" t="s">
+      <c r="C25" s="370" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="459"/>
+      <c r="D25" s="371"/>
+      <c r="E25" s="371"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="371"/>
+      <c r="H25" s="371"/>
+      <c r="I25" s="371"/>
+      <c r="J25" s="372"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5239,207 +5239,207 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="416">
+      <c r="C28" s="389">
         <v>44932</v>
       </c>
-      <c r="D28" s="417"/>
-      <c r="E28" s="401" t="str">
+      <c r="D28" s="390"/>
+      <c r="E28" s="429" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="428" t="s">
+      <c r="F28" s="430"/>
+      <c r="G28" s="430"/>
+      <c r="H28" s="431"/>
+      <c r="I28" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="428"/>
+      <c r="J28" s="408"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="389">
+      <c r="C29" s="422">
         <f>C33/D27</f>
         <v>0.15509090909090908</v>
       </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="388">
+      <c r="D29" s="421"/>
+      <c r="E29" s="420">
         <f>E33/D27</f>
         <v>0.12454545454545454</v>
       </c>
-      <c r="F29" s="375"/>
-      <c r="G29" s="399">
+      <c r="F29" s="421"/>
+      <c r="G29" s="427">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="400"/>
-      <c r="I29" s="398">
+      <c r="H29" s="428"/>
+      <c r="I29" s="426">
         <f>C29+E29+G29</f>
         <v>0.27963636363636363</v>
       </c>
-      <c r="J29" s="398"/>
+      <c r="J29" s="426"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="363">
+      <c r="C30" s="451">
         <v>60000</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="363">
+      <c r="D30" s="410"/>
+      <c r="E30" s="451">
         <v>60000</v>
       </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="377">
+      <c r="F30" s="410"/>
+      <c r="G30" s="398"/>
+      <c r="H30" s="399"/>
+      <c r="I30" s="441">
         <f>C30+E30+G30</f>
         <v>120000</v>
       </c>
-      <c r="J30" s="377"/>
+      <c r="J30" s="441"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="452">
         <v>1.706</v>
       </c>
-      <c r="D31" s="364"/>
-      <c r="E31" s="365">
+      <c r="D31" s="410"/>
+      <c r="E31" s="452">
         <v>1.37</v>
       </c>
-      <c r="F31" s="364"/>
-      <c r="G31" s="386"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="F31" s="410"/>
+      <c r="G31" s="418"/>
+      <c r="H31" s="419"/>
+      <c r="I31" s="417"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="361">
+      <c r="C32" s="439">
         <f>C31*$I$5/1000000</f>
         <v>2274.6610618879999</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="361">
+      <c r="D32" s="447"/>
+      <c r="E32" s="439">
         <f>E31*$I$5/1000000</f>
         <v>1826.6621657600003</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="407">
+      <c r="F32" s="447"/>
+      <c r="G32" s="380">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="408"/>
-      <c r="I32" s="376"/>
-      <c r="J32" s="376"/>
+      <c r="H32" s="381"/>
+      <c r="I32" s="438"/>
+      <c r="J32" s="438"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="370">
+      <c r="C33" s="448">
         <f>C30*C31</f>
         <v>102360</v>
       </c>
-      <c r="D33" s="371"/>
-      <c r="E33" s="372">
+      <c r="D33" s="449"/>
+      <c r="E33" s="440">
         <f>E30*E31</f>
         <v>82200</v>
       </c>
-      <c r="F33" s="373"/>
-      <c r="G33" s="409">
+      <c r="F33" s="450"/>
+      <c r="G33" s="382">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="372">
+      <c r="H33" s="383"/>
+      <c r="I33" s="440">
         <f>C33+E33+G33</f>
         <v>184560</v>
       </c>
-      <c r="J33" s="372"/>
+      <c r="J33" s="440"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="367"/>
-      <c r="E34" s="374">
+      <c r="C34" s="443"/>
+      <c r="D34" s="444"/>
+      <c r="E34" s="442">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.538</v>
       </c>
-      <c r="F34" s="375"/>
+      <c r="F34" s="421"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="374">
+      <c r="I34" s="442">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.538</v>
       </c>
-      <c r="J34" s="374"/>
+      <c r="J34" s="442"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="368"/>
-      <c r="D35" s="369"/>
-      <c r="E35" s="361">
+      <c r="C35" s="445"/>
+      <c r="D35" s="446"/>
+      <c r="E35" s="439">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="F35" s="362"/>
+      <c r="F35" s="447"/>
       <c r="G35" s="116"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="361">
+      <c r="I35" s="439">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>2050.6616138240001</v>
       </c>
-      <c r="J35" s="361"/>
+      <c r="J35" s="439"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="434">
+      <c r="C37" s="376">
         <f>E31</f>
         <v>1.37</v>
       </c>
-      <c r="D37" s="435"/>
-      <c r="G37" s="436" t="s">
+      <c r="D37" s="377"/>
+      <c r="G37" s="378" t="s">
         <v>317</v>
       </c>
-      <c r="H37" s="437"/>
-      <c r="I37" s="432">
+      <c r="H37" s="379"/>
+      <c r="I37" s="374">
         <f>'FCFF Model'!C31</f>
-        <v>1.8552083448074166</v>
-      </c>
-      <c r="J37" s="433"/>
+        <v>1.8660284679048016</v>
+      </c>
+      <c r="J37" s="375"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="434">
+      <c r="C38" s="376">
         <f>E34</f>
         <v>1.538</v>
       </c>
-      <c r="D38" s="435"/>
-      <c r="G38" s="431" t="s">
+      <c r="D38" s="377"/>
+      <c r="G38" s="373" t="s">
         <v>315</v>
       </c>
-      <c r="H38" s="431"/>
-      <c r="I38" s="432">
+      <c r="H38" s="373"/>
+      <c r="I38" s="374">
         <f>'FCFF Model'!C32</f>
-        <v>1.355452771029499</v>
-      </c>
-      <c r="J38" s="433"/>
+        <v>1.3631669821874219</v>
+      </c>
+      <c r="J38" s="375"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -5525,11 +5525,11 @@
       </c>
       <c r="E47" s="329">
         <f>I37/C31-1</f>
-        <v>8.7460928960971129E-2</v>
+        <v>9.3803322335757056E-2</v>
       </c>
       <c r="F47" s="332">
         <f>I37/C38-1</f>
-        <v>0.2062472983143151</v>
+        <v>0.2132824888847864</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
@@ -5538,11 +5538,11 @@
       </c>
       <c r="E48" s="329">
         <f>I38/C31-1</f>
-        <v>-0.20547903222186459</v>
+        <v>-0.20095722028873275</v>
       </c>
       <c r="F48" s="332">
         <f>I38/C38-1</f>
-        <v>-0.11869130622269242</v>
+        <v>-0.11367556424744996</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
@@ -5552,11 +5552,11 @@
       </c>
       <c r="E50" s="353">
         <f>IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
-        <v>0.56363779970927053</v>
+        <v>0.56998019308405634</v>
       </c>
       <c r="F50" s="329">
         <f>IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
-        <v>0.68242416906261438</v>
+        <v>0.68945935963308569</v>
       </c>
       <c r="G50" s="73"/>
     </row>
@@ -5567,11 +5567,11 @@
       <c r="D51" s="326"/>
       <c r="E51" s="328">
         <f>IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>0.42564405728043231</v>
+        <v>0.4667825430754946</v>
       </c>
       <c r="F51" s="328">
         <f>IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>1.7376782249522753</v>
+        <v>1.8762386648067233</v>
       </c>
       <c r="G51" s="73"/>
     </row>
@@ -5581,11 +5581,11 @@
       </c>
       <c r="E52" s="358">
         <f>MAX(J27*2/E47,1)</f>
-        <v>4.5734707457600576</v>
+        <v>4.2642412874061213</v>
       </c>
       <c r="F52" s="358">
         <f>MAX(J27*2/F47,1)</f>
-        <v>1.9394193440071696</v>
+        <v>1.8754469815666723</v>
       </c>
       <c r="G52" s="330"/>
       <c r="H52" s="84"/>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F53" s="327">
         <f>MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.25763662743710097</v>
+        <v>0.27937181422995533</v>
       </c>
       <c r="G53" s="330" t="s">
         <v>304</v>
@@ -6546,15 +6546,30 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6571,37 +6586,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8372,20 +8372,20 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="461" t="s">
+      <c r="B47" s="363" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="460"/>
-      <c r="D47" s="460"/>
-      <c r="E47" s="460"/>
-      <c r="F47" s="460"/>
-      <c r="G47" s="460"/>
-      <c r="H47" s="460"/>
-      <c r="I47" s="460"/>
-      <c r="J47" s="460"/>
-      <c r="K47" s="460"/>
-      <c r="L47" s="460"/>
-      <c r="M47" s="460"/>
+      <c r="C47" s="362"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="362"/>
+      <c r="F47" s="362"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="362"/>
+      <c r="L47" s="362"/>
+      <c r="M47" s="362"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
@@ -8393,47 +8393,47 @@
       <c r="B48" s="165" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="462">
+      <c r="C48" s="364">
         <f>C13</f>
         <v>4.0755265935096111E-2</v>
       </c>
-      <c r="D48" s="462">
+      <c r="D48" s="364">
         <f>D13</f>
         <v>4.0700740522180902E-2</v>
       </c>
-      <c r="E48" s="462">
+      <c r="E48" s="364">
         <f t="shared" ref="E48:M48" si="27">E13</f>
         <v>0.16197829338590986</v>
       </c>
-      <c r="F48" s="462">
+      <c r="F48" s="364">
         <f t="shared" si="27"/>
         <v>0.16192039624057217</v>
       </c>
-      <c r="G48" s="462" t="str">
+      <c r="G48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="462" t="str">
+      <c r="H48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="462" t="str">
+      <c r="I48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="462" t="str">
+      <c r="J48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="462" t="str">
+      <c r="K48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="462" t="str">
+      <c r="L48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="462" t="str">
+      <c r="M48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8444,47 +8444,47 @@
       <c r="B49" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="463">
+      <c r="C49" s="365">
         <f>C7/(C29+C21+C22)</f>
         <v>0.21518782982573623</v>
       </c>
-      <c r="D49" s="463">
+      <c r="D49" s="365">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.27153287965223549</v>
       </c>
-      <c r="E49" s="463">
+      <c r="E49" s="365">
         <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.3255920715748068</v>
       </c>
-      <c r="F49" s="463">
+      <c r="F49" s="365">
         <f t="shared" si="28"/>
         <v>0.38825797760377201</v>
       </c>
-      <c r="G49" s="463" t="str">
+      <c r="G49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="463" t="str">
+      <c r="H49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="463" t="str">
+      <c r="I49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="463" t="str">
+      <c r="J49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="463" t="str">
+      <c r="K49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="463" t="str">
+      <c r="L49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="463" t="str">
+      <c r="M49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -8495,47 +8495,47 @@
       <c r="B50" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="464">
+      <c r="C50" s="366">
         <f>(C29+C21+C22)/C29</f>
         <v>2.3829647431282006</v>
       </c>
-      <c r="D50" s="464">
+      <c r="D50" s="366">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>2.3833257552507332</v>
       </c>
-      <c r="E50" s="464">
+      <c r="E50" s="366">
         <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>2.110728315857898</v>
       </c>
-      <c r="F50" s="464">
+      <c r="F50" s="366">
         <f t="shared" si="29"/>
         <v>2.6923832552516247</v>
       </c>
-      <c r="G50" s="464" t="str">
+      <c r="G50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H50" s="464" t="str">
+      <c r="H50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I50" s="464" t="str">
+      <c r="I50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J50" s="464" t="str">
+      <c r="J50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K50" s="464" t="str">
+      <c r="K50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L50" s="464" t="str">
+      <c r="L50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M50" s="464" t="str">
+      <c r="M50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -8546,47 +8546,47 @@
       <c r="B51" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="C51" s="465">
+      <c r="C51" s="367">
         <f>C48*C49*C50</f>
         <v>2.0898689516308248E-2</v>
       </c>
-      <c r="D51" s="465">
+      <c r="D51" s="367">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>2.6339537362629725E-2</v>
       </c>
-      <c r="E51" s="465">
+      <c r="E51" s="367">
         <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
         <v>0.11131738001703805</v>
       </c>
-      <c r="F51" s="465">
+      <c r="F51" s="367">
         <f t="shared" si="30"/>
         <v>0.16926175003778149</v>
       </c>
-      <c r="G51" s="465" t="str">
+      <c r="G51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H51" s="465" t="str">
+      <c r="H51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I51" s="465" t="str">
+      <c r="I51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J51" s="465" t="str">
+      <c r="J51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K51" s="465" t="str">
+      <c r="K51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L51" s="465" t="str">
+      <c r="L51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M51" s="465" t="str">
+      <c r="M51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -8594,50 +8594,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="466" t="s">
+      <c r="B52" s="368" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="467">
+      <c r="C52" s="369">
         <f>C35*C51</f>
         <v>-1.3636053679448659E-2</v>
       </c>
-      <c r="D52" s="467">
+      <c r="D52" s="369">
         <f>IF(D35="","",D35*D51)</f>
         <v>1.1275476093191759E-2</v>
       </c>
-      <c r="E52" s="467">
+      <c r="E52" s="369">
         <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
         <v>1.6528587659126053E-2</v>
       </c>
-      <c r="F52" s="467" t="str">
+      <c r="F52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G52" s="467" t="str">
+      <c r="G52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H52" s="467" t="str">
+      <c r="H52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I52" s="467" t="str">
+      <c r="I52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J52" s="467" t="str">
+      <c r="J52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K52" s="467" t="str">
+      <c r="K52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L52" s="467" t="str">
+      <c r="L52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M52" s="467" t="str">
+      <c r="M52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -10109,7 +10109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:M52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(D48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.2880522145596025</v>
+        <v>2.3017335621993449</v>
       </c>
       <c r="K4" s="73"/>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.5064332327413166</v>
+        <v>1.5154409103729924</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
@@ -11149,11 +11149,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="453">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="454"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -11162,11 +11162,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="456">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="449"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11182,10 +11182,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="463">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="410"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11196,10 +11196,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="463">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="410"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11214,8 +11214,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="455"/>
+      <c r="E57" s="455"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11261,11 +11261,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="461">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>-759521.12511999998</v>
-      </c>
-      <c r="E60" s="447"/>
+        <v>-679521.32223999966</v>
+      </c>
+      <c r="E60" s="462"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11282,20 +11282,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="444">
+      <c r="D63" s="459">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-0.20579547550468244</v>
       </c>
-      <c r="E63" s="445"/>
+      <c r="E63" s="460"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="457">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="458"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -11304,10 +11304,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="457">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12739,17 +12739,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 I20">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H13 H14 G15:H17">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12757,12 +12757,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:J20">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:J17">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13130,7 +13130,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.2460530702747653E-2</v>
       </c>
-      <c r="E17" s="451" t="str">
+      <c r="E17" s="466" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13153,7 +13153,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-5.4727634848892271E-3</v>
       </c>
-      <c r="E18" s="451"/>
+      <c r="E18" s="466"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.6288309244897492</v>
@@ -13175,10 +13175,10 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E20" s="452" t="s">
+      <c r="E20" s="467" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="452"/>
+      <c r="F20" s="467"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="G22" s="345">
         <f>ROUND(F22*Exchange_Rate,2)</f>
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I22" s="73"/>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="G23" s="348">
         <f>ROUND(F23*Exchange_Rate,2)</f>
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I23" s="73"/>
     </row>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="G24" s="347">
         <f>MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1">
@@ -13283,10 +13283,10 @@
       <c r="B26" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="464" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="450"/>
+      <c r="D26" s="465"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="C27" s="238">
         <f>MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
-        <v>1.6943159637868739</v>
+        <v>1.7039587277342774</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -13310,11 +13310,11 @@
       </c>
       <c r="E27" s="118">
         <f>(C27-G16)/C9</f>
-        <v>-203.84989535517849</v>
+        <v>-165.95615070511087</v>
       </c>
       <c r="F27" s="155">
         <f>C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.73858953159657703</v>
+        <v>0.73837791295086153</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.9</f>
-        <v>2.0592469931036423</v>
+        <v>2.0715602059794103</v>
       </c>
       <c r="D30" s="334" t="str">
         <f>D27</f>
@@ -13349,11 +13349,11 @@
       </c>
       <c r="E30" s="118">
         <f>(C30-G16)/C9</f>
-        <v>1230.2413377439789</v>
+        <v>1278.6293048332193</v>
       </c>
       <c r="F30" s="155">
         <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.9</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I30" s="73"/>
     </row>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="C31" s="350">
         <f>MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
-        <v>1.8552083448074166</v>
+        <v>1.8660284679048016</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -13371,11 +13371,11 @@
       </c>
       <c r="E31" s="118">
         <f>(C31-G16)/C9</f>
-        <v>428.41849115608983</v>
+        <v>470.93897428427124</v>
       </c>
       <c r="F31" s="155">
         <f>C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.81082430418420393</v>
+        <v>0.81070567790729875</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="C32" s="350">
         <f>IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
-        <v>1.355452771029499</v>
+        <v>1.3631669821874219</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -13393,11 +13393,11 @@
       </c>
       <c r="E32" s="118">
         <f>(C32-G16)/C9</f>
-        <v>-1535.5007962477857</v>
+        <v>-1505.1858005277311</v>
       </c>
       <c r="F32" s="155">
         <f>C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.59240464986083918</v>
+        <v>0.59223491570627018</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -14292,12 +14292,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEECDD7-8926-4409-9216-8AD07301DD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A36FB3-BD98-4212-9F4C-1FF867DA37BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1326,10 +1326,6 @@
 3. 家居清潔業務市场地位比较稳定</t>
   </si>
   <si>
-    <t>1. 家居清潔業務处于红海市场，容量可能持续萎缩
-2. 家居清潔業務高端化难度很大，进口产品竞争力强</t>
-  </si>
-  <si>
     <t>1. 宠物护理市场广阔，是可持续增长的业务</t>
   </si>
   <si>
@@ -1351,6 +1347,11 @@
   </si>
   <si>
     <t>Room for further cutting the Operating expense is low</t>
+  </si>
+  <si>
+    <t>1. 家居清潔業務处于红海市场，容量可能持续萎缩
+2. 家居清潔業務高端化难度很大，进口产品竞争力强
+3. 不是港股通的一员，交易量小</t>
   </si>
 </sst>
 </file>
@@ -4331,170 +4332,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4543,10 +4380,174 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5004,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:H38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5049,27 +5050,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="430" t="s">
+      <c r="C3" s="417" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="431"/>
+      <c r="D3" s="418"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="440" t="s">
+      <c r="I3" s="429" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="441"/>
+      <c r="J3" s="430"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="432" t="s">
+      <c r="C4" s="419" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="433"/>
+      <c r="D4" s="420"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -5086,10 +5087,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="434">
+      <c r="C5" s="421">
         <v>44931</v>
       </c>
-      <c r="D5" s="433"/>
+      <c r="D5" s="420"/>
       <c r="E5" s="118" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -5097,10 +5098,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="405">
+      <c r="I5" s="431">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="406"/>
+      <c r="J5" s="432"/>
       <c r="K5" s="144"/>
       <c r="L5" s="83"/>
     </row>
@@ -5123,11 +5124,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="126"/>
-      <c r="I6" s="442">
+      <c r="I6" s="433">
         <f>I4*I5/1000000</f>
         <v>2399.9940864</v>
       </c>
-      <c r="J6" s="443"/>
+      <c r="J6" s="434"/>
       <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -5201,30 +5202,30 @@
       <c r="B11" s="280" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="448">
         <f ca="1">C12-D10</f>
         <v>4.3189999999999999E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="449"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="452" t="s">
+      <c r="I11" s="446" t="s">
         <v>369</v>
       </c>
-      <c r="J11" s="453"/>
+      <c r="J11" s="447"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="450">
+      <c r="C12" s="444">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="451"/>
+      <c r="D12" s="445"/>
       <c r="G12" s="127" t="s">
         <v>16</v>
       </c>
@@ -5292,28 +5293,28 @@
         <f>I4</f>
         <v>1.8</v>
       </c>
-      <c r="C16" s="426">
+      <c r="C16" s="465">
         <v>0.2</v>
       </c>
       <c r="D16" s="152">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>-7.0596867342332059E-2</v>
       </c>
-      <c r="E16" s="417" t="s">
+      <c r="E16" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="444">
+      <c r="F16" s="435">
         <f>('Val Models'!G16)*Exchange_Rate</f>
         <v>1.9989792102971353</v>
       </c>
-      <c r="G16" s="417" t="s">
+      <c r="G16" s="438" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="343">
         <f>B16-$F$16</f>
         <v>-0.19897921029713528</v>
       </c>
-      <c r="I16" s="412">
+      <c r="I16" s="456">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -5327,19 +5328,19 @@
         <f ca="1">MIN((I37+I38)/2,E14,I37/(1+C16))</f>
         <v>1.6941046989865021</v>
       </c>
-      <c r="C17" s="427"/>
+      <c r="C17" s="466"/>
       <c r="D17" s="260">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="418"/>
-      <c r="F17" s="445"/>
-      <c r="G17" s="418"/>
+      <c r="E17" s="439"/>
+      <c r="F17" s="436"/>
+      <c r="G17" s="439"/>
       <c r="H17" s="344">
         <f ca="1">B17-$F$16</f>
         <v>-0.30487451131063326</v>
       </c>
-      <c r="I17" s="413"/>
+      <c r="I17" s="457"/>
       <c r="J17" s="155">
         <f ca="1">I16/B17</f>
         <v>0.28923832174784853</v>
@@ -5350,19 +5351,19 @@
         <f>C37</f>
         <v>1.42</v>
       </c>
-      <c r="C18" s="428"/>
+      <c r="C18" s="467"/>
       <c r="D18" s="153">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.23163777379141015</v>
       </c>
-      <c r="E18" s="419"/>
-      <c r="F18" s="446"/>
-      <c r="G18" s="419"/>
+      <c r="E18" s="440"/>
+      <c r="F18" s="437"/>
+      <c r="G18" s="440"/>
       <c r="H18" s="345">
         <f>B18-$F$16</f>
         <v>-0.57897921029713539</v>
       </c>
-      <c r="I18" s="414"/>
+      <c r="I18" s="458"/>
       <c r="J18" s="156">
         <f>I16/B18</f>
         <v>0.34507042253521125</v>
@@ -5395,84 +5396,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="437" t="s">
+      <c r="C21" s="424" t="s">
         <v>371</v>
       </c>
-      <c r="D21" s="438"/>
-      <c r="E21" s="438"/>
-      <c r="F21" s="438"/>
-      <c r="G21" s="438"/>
-      <c r="H21" s="438"/>
-      <c r="I21" s="438"/>
-      <c r="J21" s="439"/>
+      <c r="D21" s="425"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="425"/>
+      <c r="H21" s="425"/>
+      <c r="I21" s="425"/>
+      <c r="J21" s="426"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="448" t="s">
+      <c r="C22" s="442" t="s">
         <v>372</v>
       </c>
-      <c r="D22" s="449"/>
-      <c r="E22" s="449"/>
-      <c r="F22" s="449"/>
-      <c r="G22" s="448" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" s="448"/>
-      <c r="I22" s="449"/>
-      <c r="J22" s="449"/>
+      <c r="D22" s="443"/>
+      <c r="E22" s="443"/>
+      <c r="F22" s="443"/>
+      <c r="G22" s="442" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="442"/>
+      <c r="I22" s="443"/>
+      <c r="J22" s="443"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="415" t="s">
-        <v>374</v>
-      </c>
-      <c r="D23" s="416"/>
-      <c r="E23" s="416"/>
-      <c r="F23" s="416"/>
-      <c r="G23" s="415" t="s">
-        <v>376</v>
-      </c>
-      <c r="H23" s="415"/>
-      <c r="I23" s="416"/>
-      <c r="J23" s="416"/>
+      <c r="C23" s="427" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="428"/>
+      <c r="E23" s="428"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="427" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="427"/>
+      <c r="I23" s="428"/>
+      <c r="J23" s="428"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="454" t="s">
-        <v>375</v>
-      </c>
-      <c r="D24" s="455"/>
-      <c r="E24" s="455"/>
-      <c r="F24" s="455"/>
-      <c r="G24" s="455"/>
-      <c r="H24" s="455"/>
-      <c r="I24" s="455"/>
-      <c r="J24" s="456"/>
+      <c r="C24" s="392" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="393"/>
+      <c r="E24" s="393"/>
+      <c r="F24" s="393"/>
+      <c r="G24" s="393"/>
+      <c r="H24" s="393"/>
+      <c r="I24" s="393"/>
+      <c r="J24" s="394"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="350" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="457" t="s">
-        <v>377</v>
-      </c>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="459"/>
+      <c r="C25" s="395" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="396"/>
+      <c r="E25" s="396"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="396"/>
+      <c r="H25" s="396"/>
+      <c r="I25" s="396"/>
+      <c r="J25" s="397"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5512,211 +5513,211 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="435">
+      <c r="C28" s="422">
         <v>44932</v>
       </c>
-      <c r="D28" s="436"/>
-      <c r="E28" s="423" t="str">
+      <c r="D28" s="423"/>
+      <c r="E28" s="462" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="424"/>
-      <c r="G28" s="424"/>
-      <c r="H28" s="425"/>
-      <c r="I28" s="447" t="s">
+      <c r="F28" s="463"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="464"/>
+      <c r="I28" s="441" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="447"/>
+      <c r="J28" s="441"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="411">
+      <c r="C29" s="455">
         <f>C33/D27</f>
         <v>0.15545454545454546</v>
       </c>
-      <c r="D29" s="402"/>
-      <c r="E29" s="410">
+      <c r="D29" s="454"/>
+      <c r="E29" s="453">
         <f>E33/D27</f>
         <v>0.12909090909090909</v>
       </c>
-      <c r="F29" s="402"/>
-      <c r="G29" s="421">
+      <c r="F29" s="454"/>
+      <c r="G29" s="460">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="422"/>
-      <c r="I29" s="420">
+      <c r="H29" s="461"/>
+      <c r="I29" s="459">
         <f>C29+E29+G29</f>
         <v>0.28454545454545455</v>
       </c>
-      <c r="J29" s="420"/>
+      <c r="J29" s="459"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="392">
+      <c r="C30" s="469">
         <v>60000</v>
       </c>
-      <c r="D30" s="393"/>
-      <c r="E30" s="392">
+      <c r="D30" s="470"/>
+      <c r="E30" s="469">
         <v>60000</v>
       </c>
-      <c r="F30" s="393"/>
-      <c r="G30" s="405"/>
-      <c r="H30" s="406"/>
-      <c r="I30" s="429">
+      <c r="F30" s="470"/>
+      <c r="G30" s="431"/>
+      <c r="H30" s="432"/>
+      <c r="I30" s="468">
         <f>C30+E30+G30</f>
         <v>120000</v>
       </c>
-      <c r="J30" s="429"/>
+      <c r="J30" s="468"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="394">
+      <c r="C31" s="471">
         <v>1.71</v>
       </c>
-      <c r="D31" s="393"/>
-      <c r="E31" s="394">
+      <c r="D31" s="470"/>
+      <c r="E31" s="471">
         <v>1.42</v>
       </c>
-      <c r="F31" s="393"/>
-      <c r="G31" s="408"/>
-      <c r="H31" s="409"/>
-      <c r="I31" s="407"/>
-      <c r="J31" s="407"/>
+      <c r="F31" s="470"/>
+      <c r="G31" s="451"/>
+      <c r="H31" s="452"/>
+      <c r="I31" s="450"/>
+      <c r="J31" s="450"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="395">
+      <c r="C32" s="410">
         <f>C31*$I$5/1000000</f>
         <v>2279.9943820799999</v>
       </c>
-      <c r="D32" s="396"/>
-      <c r="E32" s="395">
+      <c r="D32" s="472"/>
+      <c r="E32" s="410">
         <f>E31*$I$5/1000000</f>
         <v>1893.3286681599998</v>
       </c>
-      <c r="F32" s="396"/>
-      <c r="G32" s="467">
+      <c r="F32" s="472"/>
+      <c r="G32" s="405">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="468"/>
-      <c r="I32" s="471"/>
-      <c r="J32" s="471"/>
+      <c r="H32" s="406"/>
+      <c r="I32" s="409"/>
+      <c r="J32" s="409"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="397">
+      <c r="C33" s="473">
         <f>C30*C31</f>
         <v>102600</v>
       </c>
-      <c r="D33" s="398"/>
-      <c r="E33" s="399">
+      <c r="D33" s="474"/>
+      <c r="E33" s="411">
         <f>E30*E31</f>
         <v>85200</v>
       </c>
-      <c r="F33" s="400"/>
-      <c r="G33" s="469">
+      <c r="F33" s="475"/>
+      <c r="G33" s="407">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="470"/>
-      <c r="I33" s="399">
+      <c r="H33" s="408"/>
+      <c r="I33" s="411">
         <f>C33+E33+G33</f>
         <v>187800</v>
       </c>
-      <c r="J33" s="399"/>
+      <c r="J33" s="411"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="472"/>
-      <c r="D34" s="473"/>
-      <c r="E34" s="401">
+      <c r="C34" s="413"/>
+      <c r="D34" s="414"/>
+      <c r="E34" s="412">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.5649999999999999</v>
       </c>
-      <c r="F34" s="402"/>
+      <c r="F34" s="454"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
-      <c r="I34" s="401">
+      <c r="I34" s="412">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.5649999999999999</v>
       </c>
-      <c r="J34" s="401"/>
+      <c r="J34" s="412"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="474"/>
-      <c r="D35" s="475"/>
-      <c r="E35" s="395">
+      <c r="C35" s="415"/>
+      <c r="D35" s="416"/>
+      <c r="E35" s="410">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>2086.6615251200001</v>
       </c>
-      <c r="F35" s="396"/>
+      <c r="F35" s="472"/>
       <c r="G35" s="114"/>
       <c r="H35" s="114"/>
-      <c r="I35" s="395">
+      <c r="I35" s="410">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>2086.6615251200001</v>
       </c>
-      <c r="J35" s="395"/>
+      <c r="J35" s="410"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="463">
+      <c r="C37" s="401">
         <f>E31</f>
         <v>1.42</v>
       </c>
-      <c r="D37" s="464"/>
+      <c r="D37" s="402"/>
       <c r="E37" s="149" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
-      <c r="G37" s="460" t="s">
+      <c r="G37" s="398" t="s">
         <v>359</v>
       </c>
-      <c r="H37" s="460"/>
-      <c r="I37" s="461">
+      <c r="H37" s="398"/>
+      <c r="I37" s="399">
         <f ca="1">'Val Models'!C48</f>
         <v>2.0329256387838024</v>
       </c>
-      <c r="J37" s="462"/>
+      <c r="J37" s="400"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="139" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="463">
+      <c r="C38" s="401">
         <f>E34</f>
         <v>1.5649999999999999</v>
       </c>
-      <c r="D38" s="464"/>
-      <c r="G38" s="465" t="s">
+      <c r="D38" s="402"/>
+      <c r="G38" s="403" t="s">
         <v>308</v>
       </c>
-      <c r="H38" s="466"/>
-      <c r="I38" s="461">
+      <c r="H38" s="404"/>
+      <c r="I38" s="399">
         <f ca="1">'Val Models'!C49</f>
         <v>1.4426230936743392</v>
       </c>
-      <c r="J38" s="462"/>
+      <c r="J38" s="400"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -6839,6 +6840,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -6855,46 +6896,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -11468,7 +11469,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="398"/>
+      <c r="E53" s="474"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11487,7 +11488,7 @@
       <c r="D54" s="486">
         <v>0</v>
       </c>
-      <c r="E54" s="393"/>
+      <c r="E54" s="470"/>
       <c r="F54" s="6" t="s">
         <v>128</v>
       </c>
@@ -11501,7 +11502,7 @@
       <c r="D55" s="486">
         <v>0</v>
       </c>
-      <c r="E55" s="393"/>
+      <c r="E55" s="470"/>
       <c r="F55" s="5" t="s">
         <v>129</v>
       </c>
@@ -11838,7 +11839,7 @@
       <c r="J8" s="259"/>
       <c r="K8" s="6"/>
       <c r="L8" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M8" s="56"/>
     </row>
@@ -11960,7 +11961,7 @@
       <c r="J13" s="298"/>
       <c r="K13" s="6"/>
       <c r="L13" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
@@ -13074,7 +13075,7 @@
   </sheetPr>
   <dimension ref="A1:J919"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -14013,7 +14014,7 @@
         <v>1.01</v>
       </c>
       <c r="I47" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1">

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE77C81-45D9-440A-ADA6-5AF08240F355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2606AC9-AC11-4A70-ABB8-6F6673A09736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1453,34 +1464,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2300,7 +2311,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="391">
@@ -2348,7 +2359,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2448,7 +2459,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2465,8 +2476,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2475,7 +2486,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2500,7 +2511,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,16 +2530,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2558,14 +2569,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2659,7 +2670,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,7 +2703,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,7 +2723,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2720,7 +2731,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2730,7 +2741,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,7 +2762,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2760,7 +2771,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,10 +2816,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2817,13 +2828,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2832,7 +2843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2889,7 +2900,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2931,7 +2942,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2943,13 +2954,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2961,10 +2972,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3041,7 +3052,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3060,7 +3071,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3072,41 +3083,122 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,23 +3208,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3150,76 +3229,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10276,10 +10287,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -10488,13 +10495,13 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10529,27 +10536,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
+      <c r="C3" s="333" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="349"/>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
+      <c r="C4" s="335" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10566,10 +10573,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>44931</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10577,10 +10584,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10603,11 +10610,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
         <v>2253.3277811200001</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10616,7 +10623,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.6336006198848027E-2</v>
+        <v>4.6326051617126843E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10647,11 +10654,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>32.051494905985024</v>
+        <v>32.058382158711957</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.1199792800093967E-2</v>
+        <v>3.1193090002149319E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10662,7 +10669,7 @@
         <v>402</v>
       </c>
       <c r="D10" s="122">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="85" t="s">
@@ -10671,47 +10678,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.73576684100632705</v>
+        <v>0.73592494321644153</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4385673947224928</v>
+        <v>1.4388765153186223</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="329"/>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
+      <c r="I11" s="345" t="s">
         <v>395</v>
       </c>
-      <c r="J11" s="357"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0861016511917114</v>
+        <v>1.0858683188756306</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10730,7 +10737,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.053322455335342</v>
+        <v>2.052421248947915</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10774,28 +10781,28 @@
         <f>I4</f>
         <v>1.69</v>
       </c>
-      <c r="C16" s="344">
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.11526570035066963</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>0.11483092336380385</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.2184102281699567</v>
-      </c>
-      <c r="G16" s="338" t="s">
+        <v>2.2174571475924783</v>
+      </c>
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.52841022816995675</v>
-      </c>
-      <c r="I16" s="333">
+        <v>-0.5274571475924783</v>
+      </c>
+      <c r="I16" s="364">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -10807,24 +10814,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8523325279938596</v>
-      </c>
-      <c r="C17" s="345"/>
+        <v>1.8517202170706903</v>
+      </c>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.36607770017609709</v>
-      </c>
-      <c r="I17" s="334"/>
+        <v>-0.36573693052178791</v>
+      </c>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.26453133689267283</v>
+        <v>0.26461880984112729</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10832,19 +10839,19 @@
         <f>C37</f>
         <v>1.6</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.1892493959953947</v>
-      </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+        <v>0.18879016280301775</v>
+      </c>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.61841022816995661</v>
-      </c>
-      <c r="I18" s="335"/>
+        <v>-0.61745714759247816</v>
+      </c>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0.30624999999999997</v>
@@ -10882,84 +10889,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
+      <c r="C21" s="340" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="355" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
         <v>399</v>
       </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
+      <c r="C23" s="343" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
         <v>400</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="366" t="s">
+      <c r="C24" s="318" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="367" t="s">
+      <c r="C25" s="319" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10999,214 +11006,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="338">
         <v>44932</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.15545454545454546</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>4.8484848484848485E-2</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.20393939393939395</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>60000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346">
         <v>20000</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>80000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>1.71</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="336"/>
+      <c r="E31" s="360">
         <v>1.6</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>2279.9943820799999</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>2133.3280768000004</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>102600</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>32000</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>134600</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.6825000000000001</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.6825000000000001</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>2243.32780576</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>2243.32780576</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>E31</f>
         <v>1.6</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
-        <v>2.2227990335926315</v>
-      </c>
-      <c r="J37" s="370"/>
+        <v>2.2220642604848284</v>
+      </c>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>1.6825000000000001</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6426579642682735</v>
-      </c>
-      <c r="J38" s="370"/>
+        <v>1.6419369991583319</v>
+      </c>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11330,11 +11337,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.29988247578516458</v>
+        <v>0.29945278390925645</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.32112869752905282</v>
+        <v>0.32069198245755026</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11349,11 +11356,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-3.9381307445454095E-2</v>
+        <v>-3.9802924468811729E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-2.3680258978737934E-2</v>
+        <v>-2.4108767216444726E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11378,11 +11385,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.62168888267408806</v>
+        <v>0.6216037517841615</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.62538360969514861</v>
+        <v>0.62529708736422762</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11397,11 +11404,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>7.6148430622960674</v>
+        <v>7.5233864824153276</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>13.561029793524993</v>
+        <v>13.301882239702595</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11416,11 +11423,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>3.5532206331765757</v>
+        <v>3.5571282179523935</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>3.379417233017592</v>
+        <v>3.3829754634360443</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11435,11 +11442,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.16098300425191883</v>
+        <v>0.16060926583286303</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.1768823110380664</v>
+        <v>0.17650968180009657</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>273</v>
@@ -12408,6 +12415,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12424,46 +12471,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12568,12 +12575,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16116,18 +16123,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16185,7 +16192,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4135880102554923</v>
+        <v>2.4130694878134356</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16230,7 +16237,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8471723305621217</v>
+        <v>1.8467754938593899</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16327,7 +16334,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16352,7 +16359,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16377,7 +16384,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16402,7 +16409,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16427,7 +16434,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16452,7 +16459,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>342</v>
       </c>
@@ -16473,7 +16480,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16492,7 +16499,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16516,7 +16523,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16540,7 +16547,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16825,7 +16832,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16854,7 +16861,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16879,7 +16886,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16904,7 +16911,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16928,7 +16935,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16972,7 +16979,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17221,14 +17228,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17243,7 +17250,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17273,7 +17280,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17288,12 +17295,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17308,7 +17315,7 @@
         <v>5.3810490818230637E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17316,7 +17323,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17332,7 +17339,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17349,7 +17356,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17384,7 +17391,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17405,16 +17412,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-588437.21888000006</v>
       </c>
-      <c r="E63" s="347"/>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17526,14 +17533,14 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19105,12 +19112,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19164,7 +19171,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>385</v>
       </c>
@@ -19188,7 +19195,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>386</v>
       </c>
@@ -19212,7 +19219,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>387</v>
       </c>
@@ -19236,7 +19243,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>388</v>
       </c>
@@ -19260,7 +19267,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>346</v>
       </c>
@@ -19325,7 +19332,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>349</v>
       </c>
@@ -19418,7 +19425,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>359</v>
       </c>
@@ -19527,7 +19534,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>358</v>
       </c>
@@ -19859,14 +19866,14 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20172,7 +20179,7 @@
       </c>
       <c r="D15" s="106">
         <f>C15/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>1.9393096424724863</v>
+        <v>1.9388930114785279</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>199</v>
@@ -20192,14 +20199,14 @@
       </c>
       <c r="D16" s="106">
         <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>0.12160048486389022</v>
+        <v>0.1215743608609125</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>274</v>
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>2.0425438316347591</v>
+        <v>2.0421050223553427</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20212,9 +20219,9 @@
       </c>
       <c r="D17" s="106">
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-1.2987635546484473E-2</v>
-      </c>
-      <c r="E17" s="339" t="str">
+        <v>-1.2984845351773739E-2</v>
+      </c>
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20235,16 +20242,16 @@
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-5.3786601551327751E-3</v>
-      </c>
-      <c r="E18" s="339"/>
+        <v>-5.3775046323232562E-3</v>
+      </c>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>1.9393096424724863</v>
+        <v>1.9388930114785279</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>0.10323418916227298</v>
+        <v>0.1032120108768155</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20303,11 +20310,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>2.0179221379980525</v>
+        <v>2.0174833287186362</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.1916685660559936</v>
+        <v>2.190721230515317</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20325,11 +20332,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>2.0179221379980525</v>
+        <v>2.0174833287186362</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.1916685660559936</v>
+        <v>2.190721230515317</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20342,7 +20349,7 @@
       <c r="F24" s="389"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.1916685660559936</v>
+        <v>2.190721230515317</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20690,10 +20697,10 @@
       <c r="E40" s="390" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8471723305621217</v>
+        <v>1.8467754938593899</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20705,7 +20712,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8073738140541835</v>
+        <v>1.8065546150503111</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20734,7 +20741,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.053322455335342</v>
+        <v>2.052421248947915</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20742,15 +20749,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-0.59615928551431252</v>
+        <v>-0.57058437565633024</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.89394471983990509</v>
+        <v>0.8937443734249777</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7478359379271924</v>
+        <v>1.7474442216876158</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20760,7 +20767,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*1.01</f>
-        <v>2.4377238903580474</v>
+        <v>2.4372001826915701</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20768,7 +20775,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-21.857174719369674</v>
+        <v>-21.852479039923249</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20776,7 +20783,7 @@
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>2.0750474000030512</v>
+        <v>2.0750474000030508</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>404</v>
@@ -20788,7 +20795,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.2227990335926315</v>
+        <v>2.2220642604848284</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20796,15 +20803,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-9.9698083349576283</v>
+        <v>-9.9534387511062477</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.92095213605131199</v>
+        <v>0.92084553375141986</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.8920983519213177</v>
+        <v>1.8918793372428766</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20813,7 +20820,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6426579642682735</v>
+        <v>1.6419369991583319</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20821,15 +20828,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>22.117450205037088</v>
+        <v>22.133056076714428</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.68058755565925633</v>
+        <v>0.68043502578375681</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3982687503417539</v>
+        <v>1.3979553773500926</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21767,16 +21774,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21791,7 +21798,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21805,7 +21812,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21819,7 +21826,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21834,7 +21841,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21849,7 +21856,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21864,7 +21871,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21879,7 +21886,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2606AC9-AC11-4A70-ABB8-6F6673A09736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71530269-2400-4FFF-9766-E96D5FC8FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1216,9 +1216,6 @@
     <t>4. The Company's Liquidity and leverage rating</t>
   </si>
   <si>
-    <t>Cyclicals</t>
-  </si>
-  <si>
     <t>WCInv</t>
   </si>
   <si>
@@ -1457,6 +1454,9 @@
   </si>
   <si>
     <t>宠物产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
   </si>
 </sst>
 </file>
@@ -3083,6 +3083,134 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3100,137 +3228,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10491,8 +10491,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -10536,27 +10536,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="334"/>
+      <c r="C3" s="348" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="349"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="357" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
-        <v>394</v>
-      </c>
-      <c r="D4" s="336"/>
+      <c r="C4" s="350" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="319"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10573,10 +10573,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="351">
         <v>44931</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="319"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10584,10 +10584,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="318">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10610,11 +10610,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="358">
         <f>I4*I5/1000000</f>
         <v>2253.3277811200001</v>
       </c>
-      <c r="J6" s="347"/>
+      <c r="J6" s="358"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10666,7 +10666,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D10" s="122">
         <v>2.8999999999999998E-2</v>
@@ -10689,30 +10689,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="328">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="329"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
-        <v>395</v>
-      </c>
-      <c r="J11" s="345"/>
+      <c r="I11" s="357" t="s">
+        <v>394</v>
+      </c>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="364">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="365"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.052421248947915</v>
+        <v>2.0680797670058966</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10781,28 +10781,28 @@
         <f>I4</f>
         <v>1.69</v>
       </c>
-      <c r="C16" s="370">
+      <c r="C16" s="344">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.11483092336380385</v>
-      </c>
-      <c r="E16" s="351" t="s">
+        <v>0.12001135084512882</v>
+      </c>
+      <c r="E16" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="359">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.2174571475924783</v>
-      </c>
-      <c r="G16" s="351" t="s">
+        <v>2.2449648200886565</v>
+      </c>
+      <c r="G16" s="338" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.5274571475924783</v>
-      </c>
-      <c r="I16" s="364">
+        <v>-0.55496482008865655</v>
+      </c>
+      <c r="I16" s="333">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -10814,47 +10814,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8517202170706903</v>
-      </c>
-      <c r="C17" s="371"/>
+        <v>1.8590159857735564</v>
+      </c>
+      <c r="C17" s="345"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+      <c r="E17" s="339"/>
+      <c r="F17" s="360"/>
+      <c r="G17" s="339"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.36573693052178791</v>
-      </c>
-      <c r="I17" s="365"/>
+        <v>-0.38594883431510008</v>
+      </c>
+      <c r="I17" s="334"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.26461880984112729</v>
+        <v>0.26358030471486543</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>1.6</v>
-      </c>
-      <c r="C18" s="372"/>
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="346"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.18879016280301775</v>
-      </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+        <v>0.28721278861884514</v>
+      </c>
+      <c r="E18" s="340"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="340"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.61745714759247816</v>
-      </c>
-      <c r="I18" s="366"/>
+        <v>-0.7449648200886565</v>
+      </c>
+      <c r="I18" s="335"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>0.30624999999999997</v>
+        <v>0.32666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10870,7 +10870,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10881,7 +10881,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="131">
         <f>IF(OR(D20="Cyclicals",D20="Cyclicals",D20="Cyclicals"),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -10889,84 +10889,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="C21" s="354" t="s">
+        <v>396</v>
+      </c>
+      <c r="D21" s="355"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="356"/>
+      <c r="H21" s="356"/>
+      <c r="I21" s="356"/>
+      <c r="J21" s="356"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
+      <c r="C22" s="363" t="s">
+        <v>397</v>
+      </c>
+      <c r="D22" s="349"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="363" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
-        <v>399</v>
-      </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="H22" s="363"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
-        <v>401</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
+      <c r="C23" s="336" t="s">
         <v>400</v>
       </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="D23" s="337"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="337"/>
+      <c r="G23" s="336" t="s">
+        <v>399</v>
+      </c>
+      <c r="H23" s="336"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="318" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="C24" s="366" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="366"/>
+      <c r="E24" s="366"/>
+      <c r="F24" s="366"/>
+      <c r="G24" s="366"/>
+      <c r="H24" s="366"/>
+      <c r="I24" s="366"/>
+      <c r="J24" s="366"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="319" t="s">
-        <v>407</v>
-      </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="C25" s="367" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="367"/>
+      <c r="E25" s="367"/>
+      <c r="F25" s="367"/>
+      <c r="G25" s="367"/>
+      <c r="H25" s="367"/>
+      <c r="I25" s="367"/>
+      <c r="J25" s="367"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11006,214 +11006,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338">
+      <c r="C28" s="352">
         <v>44932</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="D28" s="353"/>
+      <c r="E28" s="343" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="343"/>
+      <c r="G28" s="343"/>
+      <c r="H28" s="343"/>
+      <c r="I28" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="362"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="332">
         <f>C33/D27</f>
         <v>0.15545454545454546</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+      <c r="D29" s="326"/>
+      <c r="E29" s="331">
         <f>E33/D27</f>
-        <v>4.8484848484848485E-2</v>
-      </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F29" s="326"/>
+      <c r="G29" s="342">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="342"/>
+      <c r="I29" s="341">
         <f>C29+E29+G29</f>
-        <v>0.20393939393939395</v>
-      </c>
-      <c r="J29" s="367"/>
+        <v>0.29181818181818181</v>
+      </c>
+      <c r="J29" s="341"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="318">
         <v>60000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="D30" s="319"/>
+      <c r="E30" s="318">
+        <v>60000</v>
+      </c>
+      <c r="F30" s="319"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="347">
         <f>C30+E30+G30</f>
-        <v>80000</v>
-      </c>
-      <c r="J30" s="373"/>
+        <v>120000</v>
+      </c>
+      <c r="J30" s="347"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
+      <c r="C31" s="320">
         <v>1.71</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360">
-        <v>1.6</v>
-      </c>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="D31" s="319"/>
+      <c r="E31" s="320">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="319"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="320"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="327">
         <f>C31*$I$5/1000000</f>
         <v>2279.9943820799999</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+      <c r="D32" s="326"/>
+      <c r="E32" s="327">
         <f>E31*$I$5/1000000</f>
-        <v>2133.3280768000004</v>
-      </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+        <v>1999.9950719999999</v>
+      </c>
+      <c r="F32" s="326"/>
+      <c r="G32" s="327">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="327"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="323">
         <f>C30*C31</f>
         <v>102600</v>
       </c>
-      <c r="D33" s="375"/>
-      <c r="E33" s="326">
+      <c r="D33" s="324"/>
+      <c r="E33" s="323">
         <f>E30*E31</f>
-        <v>32000</v>
-      </c>
-      <c r="F33" s="375"/>
-      <c r="G33" s="326">
+        <v>90000</v>
+      </c>
+      <c r="F33" s="324"/>
+      <c r="G33" s="323">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="323"/>
+      <c r="I33" s="323">
         <f>C33+E33+G33</f>
-        <v>134600</v>
-      </c>
-      <c r="J33" s="326"/>
+        <v>192600</v>
+      </c>
+      <c r="J33" s="323"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="330"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="325">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>1.6825000000000001</v>
-      </c>
-      <c r="F34" s="362"/>
+        <v>1.605</v>
+      </c>
+      <c r="F34" s="326"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="325">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>1.6825000000000001</v>
-      </c>
-      <c r="J34" s="329"/>
+        <v>1.605</v>
+      </c>
+      <c r="J34" s="325"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="321">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>2243.32780576</v>
-      </c>
-      <c r="F35" s="374"/>
+        <v>2139.9947270399998</v>
+      </c>
+      <c r="F35" s="322"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="321">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>2243.32780576</v>
-      </c>
-      <c r="J35" s="328"/>
+        <v>2139.9947270399998</v>
+      </c>
+      <c r="J35" s="321"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="371">
         <f>E31</f>
-        <v>1.6</v>
-      </c>
-      <c r="D37" s="324"/>
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="372"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="368" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="368"/>
+      <c r="I37" s="369">
         <f ca="1">Val_Models!C46</f>
-        <v>2.2220642604848284</v>
-      </c>
-      <c r="J37" s="322"/>
+        <v>2.2308191829282675</v>
+      </c>
+      <c r="J37" s="370"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="371">
         <f>E34</f>
-        <v>1.6825000000000001</v>
-      </c>
-      <c r="D38" s="324"/>
+        <v>1.605</v>
+      </c>
+      <c r="D38" s="372"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="368" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="368"/>
+      <c r="I38" s="369">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6419369991583319</v>
-      </c>
-      <c r="J38" s="322"/>
+        <v>1.6544638136047172</v>
+      </c>
+      <c r="J38" s="370"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11266,7 +11266,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="54">
         <f>80%-(5%*IF(LEFT(D20,2)="St",3,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",6,IF(LEFT(D20,2)="Tu",7,IF(LEFT(D20,2)="Fa",8,0))))))</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
@@ -11337,11 +11337,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.29945278390925645</v>
+        <v>0.30457262159547804</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.32069198245755026</v>
+        <v>0.38991849403630385</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11356,11 +11356,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-3.9802924468811729E-2</v>
+        <v>-3.2477301985545548E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-2.4108767216444726E-2</v>
+        <v>3.0818575454652386E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11385,11 +11385,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.6216037517841615</v>
+        <v>0.68284829780111023</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.62529708736422762</v>
+        <v>0.69771247278921267</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11404,11 +11404,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>7.5233864824153276</v>
+        <v>9.3780148896306752</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>13.301882239702595</v>
+        <v>100</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11423,11 +11423,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>3.5571282179523935</v>
+        <v>1.6416446014772834</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>3.3829754634360443</v>
+        <v>1.2823192735080857</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11442,11 +11442,11 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.16060926583286303</v>
+        <v>0.39535332921150135</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.17650968180009657</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="170" t="s">
         <v>273</v>
@@ -11497,17 +11497,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12415,14 +12415,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12439,38 +12463,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13301,7 +13301,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C21" s="150">
         <v>3572928</v>
@@ -13586,7 +13586,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C31" s="150">
         <v>187570</v>
@@ -13638,7 +13638,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C33" s="161">
         <v>24700</v>
@@ -13685,7 +13685,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" s="161">
         <v>0</v>
@@ -13813,7 +13813,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13864,7 +13864,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14104,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14155,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14479,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14530,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14646,7 +14646,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
@@ -14659,7 +14659,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="6"/>
@@ -16119,8 +16119,8 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -16212,11 +16212,11 @@
       <c r="C6" s="6"/>
       <c r="D6" s="193">
         <f>E49-I49-E53</f>
-        <v>2267642.6</v>
+        <v>2261528.8000000003</v>
       </c>
       <c r="E6" s="149">
         <f>1-D6/D3</f>
-        <v>0.23637958589625385</v>
+        <v>0.23843838585341959</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -16237,7 +16237,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8467754938593899</v>
+        <v>1.841796395294935</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16276,7 +16276,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16401,7 +16401,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16417,11 +16417,11 @@
         <v>251216</v>
       </c>
       <c r="D15" s="180">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E15" s="51">
         <f t="shared" si="0"/>
-        <v>75364.800000000003</v>
+        <v>150729.60000000001</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" s="179">
         <f>70620+117999</f>
@@ -16590,7 +16590,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16598,7 +16598,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16614,11 +16614,11 @@
       </c>
       <c r="F24" s="233">
         <f>E24/$E$28</f>
-        <v>0.92955840244070109</v>
+        <v>0.90298712461295472</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16627,7 +16627,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16635,28 +16635,28 @@
       </c>
       <c r="D25" s="183">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0.34288403605897672</v>
+        <v>0.51423192788204675</v>
       </c>
       <c r="E25" s="51">
         <f>SUM(E15:E17)</f>
-        <v>150812.40000000002</v>
+        <v>226177.2</v>
       </c>
       <c r="F25" s="233">
         <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
-        <v>5.8884281850336402E-2</v>
+        <v>8.5785923693769583E-2</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
-        <v>5.186803264578713</v>
+        <v>5.3394300150875385</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16672,7 +16672,7 @@
       </c>
       <c r="F26" s="233">
         <f t="shared" si="2"/>
-        <v>1.1557315708962441E-2</v>
+        <v>1.1226951693275531E-2</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="41" t="s">
@@ -16689,7 +16689,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="I27" s="184">
         <f>(E25+E24)/$I$28</f>
-        <v>5.1268577417296992</v>
+        <v>5.2794844922385247</v>
       </c>
       <c r="J27" s="13" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Problem!","")</f>
@@ -16730,11 +16730,11 @@
       </c>
       <c r="D28" s="166">
         <f t="shared" ref="D28" si="4">E28/C28</f>
-        <v>0.83879112176880788</v>
+        <v>0.86347336953122111</v>
       </c>
       <c r="E28" s="212">
         <f>SUM(E24:E27)</f>
-        <v>2561165.65</v>
+        <v>2636530.4500000002</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -16792,11 +16792,11 @@
         <v>146031</v>
       </c>
       <c r="D31" s="180">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E31" s="51">
         <f t="shared" ref="E31:E42" si="5">C31*D31</f>
-        <v>73015.5</v>
+        <v>29206.2</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -16894,11 +16894,11 @@
         <v>1500</v>
       </c>
       <c r="D35" s="180">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="51">
         <f t="shared" si="5"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F35" s="181" t="s">
         <v>204</v>
@@ -16968,11 +16968,11 @@
         <v>184134</v>
       </c>
       <c r="D38" s="180">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="51">
         <f t="shared" si="5"/>
-        <v>73653.600000000006</v>
+        <v>36826.800000000003</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -17044,11 +17044,11 @@
         <v>3925</v>
       </c>
       <c r="D42" s="180">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="51">
         <f t="shared" si="5"/>
-        <v>392.5</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17074,16 +17074,16 @@
       </c>
       <c r="D44" s="183">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E44" s="51">
         <f>SUM(E30:E31)</f>
-        <v>73015.5</v>
+        <v>29206.2</v>
       </c>
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17100,18 +17100,18 @@
       </c>
       <c r="D45" s="183">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E45" s="51">
         <f>SUM(E32:E35)</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="F45" s="233"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17119,11 +17119,11 @@
       </c>
       <c r="D46" s="183">
         <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E46" s="51">
         <f>E36+E37+E38+E39</f>
-        <v>73653.600000000006</v>
+        <v>36826.800000000003</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="I46" s="184">
         <f>(E44+E24)/D55</f>
-        <v>153.89918151028598</v>
+        <v>151.15148331660814</v>
       </c>
       <c r="J46" s="13" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17149,11 +17149,11 @@
       </c>
       <c r="D47" s="183">
         <f t="shared" si="6"/>
-        <v>0.80062536693785114</v>
+        <v>0.79651042103497438</v>
       </c>
       <c r="E47" s="51">
         <f>E40+E41+E42</f>
-        <v>76366.849999999991</v>
+        <v>75974.349999999991</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -17162,7 +17162,7 @@
       </c>
       <c r="I47" s="184">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>5.1002257974850052</v>
+        <v>5.1611147759838394</v>
       </c>
       <c r="J47" s="13" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Problem!","")</f>
@@ -17179,11 +17179,11 @@
       </c>
       <c r="D48" s="310">
         <f>E48/C48</f>
-        <v>0.52437998918156936</v>
+        <v>0.33358549018965034</v>
       </c>
       <c r="E48" s="304">
         <f>SUM(E30:E42)</f>
-        <v>223935.95</v>
+        <v>142457.34999999998</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17205,11 +17205,11 @@
       </c>
       <c r="D49" s="149">
         <f>E49/C49</f>
-        <v>0.80021307589535839</v>
+        <v>0.79845646396299341</v>
       </c>
       <c r="E49" s="51">
         <f>E28+E48</f>
-        <v>2785101.6</v>
+        <v>2778987.8000000003</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -17300,7 +17300,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="347">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="319"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="319"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17362,7 +17362,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17380,11 +17380,11 @@
       </c>
       <c r="D61" s="149">
         <f>IF(E61=0,0,E61/C61)</f>
-        <v>0.37437347491015605</v>
+        <v>0.45238158531600242</v>
       </c>
       <c r="E61" s="130">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E33*G33)+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>149280.29999999999</v>
+        <v>180385.80000000002</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -17417,11 +17417,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="347">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-588437.21888000006</v>
       </c>
-      <c r="E63" s="373"/>
+      <c r="E63" s="347"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17530,7 +17530,7 @@
   <dimension ref="A1:L878"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17628,13 +17628,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17721,7 +17721,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17813,7 +17813,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -18083,7 +18083,7 @@
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="287"/>
       <c r="D21" s="287"/>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19245,7 +19245,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19269,7 +19269,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19427,7 +19427,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19479,7 +19479,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19536,7 +19536,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19587,7 +19587,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19596,7 +19596,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19691,7 +19691,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19731,7 +19731,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19786,7 +19786,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19862,8 +19862,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="G15" s="199">
         <f>C15+C16+C17+C18</f>
-        <v>2507486.3499999996</v>
+        <v>2538591.8499999996</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20195,18 +20195,18 @@
       </c>
       <c r="C16" s="51">
         <f>Asset_Model!E61</f>
-        <v>149280.29999999999</v>
+        <v>180385.80000000002</v>
       </c>
       <c r="D16" s="106">
         <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>0.1215743608609125</v>
+        <v>0.14690678102458526</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>274</v>
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>2.0421050223553427</v>
+        <v>2.0674374425190156</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20221,7 +20221,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.2984845351773739E-2</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="339" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20244,14 +20244,14 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-5.3775046323232562E-3</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="339"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.9388930114785279</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>0.1032120108768155</v>
+        <v>0.12854443104048827</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20310,11 +20310,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>2.0174833287186362</v>
+        <v>2.0428157488823091</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.190721230515317</v>
+        <v>2.2182289030114952</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20332,11 +20332,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>2.0174833287186362</v>
+        <v>2.0428157488823091</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.190721230515317</v>
+        <v>2.2182289030114952</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20349,7 +20349,7 @@
       <c r="F24" s="389"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.190721230515317</v>
+        <v>2.2182289030114952</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20697,10 +20697,10 @@
       <c r="E40" s="390" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="368"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8467754938593899</v>
+        <v>1.841796395294935</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20712,7 +20712,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8065546150503111</v>
+        <v>1.8011479696626103</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.052421248947915</v>
+        <v>2.0680797670058966</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20749,15 +20749,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-0.57058437565633024</v>
+        <v>-3.5526586492354011E-2</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.8937443734249777</v>
+        <v>0.90056300893543562</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7474442216876158</v>
+        <v>1.7607759813907651</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20775,7 +20775,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-21.852479039923249</v>
+        <v>-20.451357901952093</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20786,7 +20786,7 @@
         <v>2.0750474000030508</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.2220642604848284</v>
+        <v>2.2308191829282675</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20803,15 +20803,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-9.9534387511062477</v>
+        <v>-9.0365471821042398</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.92084553375141986</v>
+        <v>0.92447366070244785</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.8918793372428766</v>
+        <v>1.8993333326850661</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6419369991583319</v>
+        <v>1.6544638136047172</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20828,15 +20828,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>22.133056076714428</v>
+        <v>22.841326535639841</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.68043502578375681</v>
+        <v>0.68562626230207868</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3979553773500926</v>
+        <v>1.408620785112612</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22491,7 +22491,7 @@
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71530269-2400-4FFF-9766-E96D5FC8FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A534AE-5E73-48D0-882F-5CD2BF411B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1222,9 +1222,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>FCInv</t>
-  </si>
-  <si>
     <t>FCInv / Sales</t>
   </si>
   <si>
@@ -1457,6 +1454,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>FCInv - D&amp;A</t>
   </si>
 </sst>
 </file>
@@ -3083,84 +3083,39 @@
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3168,6 +3123,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,9 +3140,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3199,6 +3162,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3211,26 +3183,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10536,27 +10536,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="349"/>
+      <c r="C3" s="333" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="334"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="357" t="s">
+      <c r="I3" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="357"/>
+      <c r="J3" s="345"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="350" t="s">
-        <v>393</v>
-      </c>
-      <c r="D4" s="319"/>
+      <c r="C4" s="335" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="336"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10573,10 +10573,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="351">
+      <c r="C5" s="337">
         <v>44931</v>
       </c>
-      <c r="D5" s="319"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10584,10 +10584,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="318">
+      <c r="I5" s="346">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="318"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10610,11 +10610,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="358">
+      <c r="I6" s="347">
         <f>I4*I5/1000000</f>
         <v>2253.3277811200001</v>
       </c>
-      <c r="J6" s="358"/>
+      <c r="J6" s="347"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10666,7 +10666,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" s="122">
         <v>2.8999999999999998E-2</v>
@@ -10689,30 +10689,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="328">
+      <c r="C11" s="358">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="329"/>
+      <c r="D11" s="359"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="357" t="s">
-        <v>394</v>
-      </c>
-      <c r="J11" s="357"/>
+      <c r="I11" s="345" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="364">
+      <c r="C12" s="356">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="357"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.0680797670058966</v>
+        <v>2.0733811106274298</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10781,28 +10781,28 @@
         <f>I4</f>
         <v>1.69</v>
       </c>
-      <c r="C16" s="344">
+      <c r="C16" s="370">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.12001135084512882</v>
-      </c>
-      <c r="E16" s="338" t="s">
+        <v>0.12176523496642577</v>
+      </c>
+      <c r="E16" s="351" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="359">
+      <c r="F16" s="348">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>2.2449648200886565</v>
       </c>
-      <c r="G16" s="338" t="s">
+      <c r="G16" s="351" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>-0.55496482008865655</v>
       </c>
-      <c r="I16" s="333">
+      <c r="I16" s="364">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -10814,24 +10814,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8590159857735564</v>
-      </c>
-      <c r="C17" s="345"/>
+        <v>1.8614860392443831</v>
+      </c>
+      <c r="C17" s="371"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="339"/>
-      <c r="F17" s="360"/>
-      <c r="G17" s="339"/>
+      <c r="E17" s="352"/>
+      <c r="F17" s="349"/>
+      <c r="G17" s="352"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.38594883431510008</v>
-      </c>
-      <c r="I17" s="334"/>
+        <v>-0.38347878084427345</v>
+      </c>
+      <c r="I17" s="365"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.26358030471486543</v>
+        <v>0.26323055326211386</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10839,19 +10839,19 @@
         <f>C37</f>
         <v>1.5</v>
       </c>
-      <c r="C18" s="346"/>
+      <c r="C18" s="372"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.28721278861884514</v>
-      </c>
-      <c r="E18" s="340"/>
-      <c r="F18" s="361"/>
-      <c r="G18" s="340"/>
+        <v>0.28918883139550644</v>
+      </c>
+      <c r="E18" s="353"/>
+      <c r="F18" s="350"/>
+      <c r="G18" s="353"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>-0.7449648200886565</v>
       </c>
-      <c r="I18" s="335"/>
+      <c r="I18" s="366"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0.32666666666666666</v>
@@ -10870,7 +10870,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10889,84 +10889,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="354" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" s="355"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="356"/>
-      <c r="H21" s="356"/>
-      <c r="I21" s="356"/>
-      <c r="J21" s="356"/>
+      <c r="C21" s="340" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="341"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
+      <c r="H21" s="342"/>
+      <c r="I21" s="342"/>
+      <c r="J21" s="342"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="363" t="s">
+      <c r="C22" s="355" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="334"/>
+      <c r="E22" s="334"/>
+      <c r="F22" s="334"/>
+      <c r="G22" s="355" t="s">
         <v>397</v>
       </c>
-      <c r="D22" s="349"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="349"/>
-      <c r="G22" s="363" t="s">
-        <v>398</v>
-      </c>
-      <c r="H22" s="363"/>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="336" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="337"/>
-      <c r="E23" s="337"/>
-      <c r="F23" s="337"/>
-      <c r="G23" s="336" t="s">
+      <c r="C23" s="343" t="s">
         <v>399</v>
       </c>
-      <c r="H23" s="336"/>
-      <c r="I23" s="337"/>
-      <c r="J23" s="337"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="343" t="s">
+        <v>398</v>
+      </c>
+      <c r="H23" s="343"/>
+      <c r="I23" s="344"/>
+      <c r="J23" s="344"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="366" t="s">
-        <v>405</v>
-      </c>
-      <c r="D24" s="366"/>
-      <c r="E24" s="366"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="366"/>
-      <c r="H24" s="366"/>
-      <c r="I24" s="366"/>
-      <c r="J24" s="366"/>
+      <c r="C24" s="318" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="367" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="367"/>
-      <c r="E25" s="367"/>
-      <c r="F25" s="367"/>
-      <c r="G25" s="367"/>
-      <c r="H25" s="367"/>
-      <c r="I25" s="367"/>
-      <c r="J25" s="367"/>
+      <c r="C25" s="319" t="s">
+        <v>405</v>
+      </c>
+      <c r="D25" s="319"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11006,214 +11006,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="352">
+      <c r="C28" s="338">
         <v>44932</v>
       </c>
-      <c r="D28" s="353"/>
-      <c r="E28" s="343" t="str">
+      <c r="D28" s="339"/>
+      <c r="E28" s="369" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="343"/>
-      <c r="G28" s="343"/>
-      <c r="H28" s="343"/>
-      <c r="I28" s="362" t="s">
+      <c r="F28" s="369"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="369"/>
+      <c r="I28" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="362"/>
+      <c r="J28" s="354"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="332">
+      <c r="C29" s="363">
         <f>C33/D27</f>
         <v>0.15545454545454546</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="331">
+      <c r="D29" s="362"/>
+      <c r="E29" s="361">
         <f>E33/D27</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="F29" s="326"/>
-      <c r="G29" s="342">
+      <c r="F29" s="362"/>
+      <c r="G29" s="368">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="342"/>
-      <c r="I29" s="341">
+      <c r="H29" s="368"/>
+      <c r="I29" s="367">
         <f>C29+E29+G29</f>
         <v>0.29181818181818181</v>
       </c>
-      <c r="J29" s="341"/>
+      <c r="J29" s="367"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="318">
+      <c r="C30" s="346">
         <v>60000</v>
       </c>
-      <c r="D30" s="319"/>
-      <c r="E30" s="318">
+      <c r="D30" s="336"/>
+      <c r="E30" s="346">
         <v>60000</v>
       </c>
-      <c r="F30" s="319"/>
-      <c r="G30" s="318"/>
-      <c r="H30" s="318"/>
-      <c r="I30" s="347">
+      <c r="F30" s="336"/>
+      <c r="G30" s="346"/>
+      <c r="H30" s="346"/>
+      <c r="I30" s="373">
         <f>C30+E30+G30</f>
         <v>120000</v>
       </c>
-      <c r="J30" s="347"/>
+      <c r="J30" s="373"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="320">
+      <c r="C31" s="360">
         <v>1.71</v>
       </c>
-      <c r="D31" s="319"/>
-      <c r="E31" s="320">
+      <c r="D31" s="336"/>
+      <c r="E31" s="360">
         <v>1.5</v>
       </c>
-      <c r="F31" s="319"/>
-      <c r="G31" s="320"/>
-      <c r="H31" s="320"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="336"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="327"/>
+      <c r="J31" s="327"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="327">
+      <c r="C32" s="325">
         <f>C31*$I$5/1000000</f>
         <v>2279.9943820799999</v>
       </c>
-      <c r="D32" s="326"/>
-      <c r="E32" s="327">
+      <c r="D32" s="362"/>
+      <c r="E32" s="325">
         <f>E31*$I$5/1000000</f>
         <v>1999.9950719999999</v>
       </c>
-      <c r="F32" s="326"/>
-      <c r="G32" s="327">
+      <c r="F32" s="362"/>
+      <c r="G32" s="325">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="327"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="327"/>
+      <c r="J32" s="327"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="323">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>102600</v>
       </c>
-      <c r="D33" s="324"/>
-      <c r="E33" s="323">
+      <c r="D33" s="375"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>90000</v>
       </c>
-      <c r="F33" s="324"/>
-      <c r="G33" s="323">
+      <c r="F33" s="375"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="323"/>
-      <c r="I33" s="323">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>192600</v>
       </c>
-      <c r="J33" s="323"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="373"/>
-      <c r="E34" s="325">
+      <c r="C34" s="327"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="329">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.605</v>
       </c>
-      <c r="F34" s="326"/>
+      <c r="F34" s="362"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="325">
+      <c r="I34" s="329">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.605</v>
       </c>
-      <c r="J34" s="325"/>
+      <c r="J34" s="329"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="321">
+      <c r="C35" s="331"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="328">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>2139.9947270399998</v>
       </c>
-      <c r="F35" s="322"/>
+      <c r="F35" s="374"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="321">
+      <c r="I35" s="328">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>2139.9947270399998</v>
       </c>
-      <c r="J35" s="321"/>
+      <c r="J35" s="328"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="371">
+      <c r="C37" s="323">
         <f>E31</f>
         <v>1.5</v>
       </c>
-      <c r="D37" s="372"/>
+      <c r="D37" s="324"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="368" t="s">
+      <c r="G37" s="320" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="368"/>
-      <c r="I37" s="369">
+      <c r="H37" s="320"/>
+      <c r="I37" s="321">
         <f ca="1">Val_Models!C46</f>
-        <v>2.2308191829282675</v>
-      </c>
-      <c r="J37" s="370"/>
+        <v>2.2337832470932595</v>
+      </c>
+      <c r="J37" s="322"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="371">
+      <c r="C38" s="323">
         <f>E34</f>
         <v>1.605</v>
       </c>
-      <c r="D38" s="372"/>
+      <c r="D38" s="324"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="368" t="s">
+      <c r="G38" s="320" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="368"/>
-      <c r="I38" s="369">
+      <c r="H38" s="320"/>
+      <c r="I38" s="321">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6544638136047172</v>
-      </c>
-      <c r="J38" s="370"/>
+        <v>1.6587048885019438</v>
+      </c>
+      <c r="J38" s="322"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11337,11 +11337,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.30457262159547804</v>
+        <v>0.30630599245219847</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.38991849403630385</v>
+        <v>0.39176526298645453</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11356,11 +11356,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-3.2477301985545548E-2</v>
+        <v>-2.9997141226933421E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.0818575454652386E-2</v>
+        <v>3.3460989720837331E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11385,11 +11385,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.68284829780111023</v>
+        <v>0.68326965096264358</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69771247278921267</v>
+        <v>0.69816139111084619</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11404,7 +11404,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>9.3780148896306752</v>
+        <v>10.211172795932189</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11423,11 +11423,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.6416446014772834</v>
+        <v>1.6323546137545091</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2823192735080857</v>
+        <v>1.2762744613661363</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11442,7 +11442,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.39535332921150135</v>
+        <v>0.39957716707930058</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -11497,17 +11497,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12415,6 +12415,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12431,46 +12471,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13301,7 +13301,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C21" s="150">
         <v>3572928</v>
@@ -13586,7 +13586,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="150">
         <v>187570</v>
@@ -13638,7 +13638,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C33" s="161">
         <v>24700</v>
@@ -13685,7 +13685,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C34" s="161">
         <v>0</v>
@@ -13813,7 +13813,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13864,7 +13864,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14104,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14155,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14479,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14530,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14659,7 +14659,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="6"/>
@@ -16119,7 +16119,7 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -16276,7 +16276,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16401,7 +16401,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C17" s="179">
         <f>70620+117999</f>
@@ -16590,7 +16590,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16598,7 +16598,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16627,7 +16627,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16647,7 +16647,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16656,7 +16656,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17066,7 +17066,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17083,7 +17083,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17111,7 +17111,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17197,7 +17197,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17300,7 +17300,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="347">
+      <c r="D56" s="373">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17323,7 +17323,7 @@
       <c r="D57" s="383">
         <v>0</v>
       </c>
-      <c r="E57" s="319"/>
+      <c r="E57" s="336"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="D58" s="383">
         <v>0</v>
       </c>
-      <c r="E58" s="319"/>
+      <c r="E58" s="336"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17362,7 +17362,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17417,11 +17417,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="347">
+      <c r="D63" s="373">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-588437.21888000006</v>
       </c>
-      <c r="E63" s="347"/>
+      <c r="E63" s="373"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17529,8 +17529,8 @@
   </sheetPr>
   <dimension ref="A1:L878"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17628,13 +17628,13 @@
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
       <c r="K4" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17721,7 +17721,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17813,7 +17813,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -18107,7 +18107,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19221,7 +19221,7 @@
     </row>
     <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19245,7 +19245,7 @@
     </row>
     <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19269,7 +19269,7 @@
     </row>
     <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19427,7 +19427,7 @@
     </row>
     <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19479,7 +19479,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19511,7 +19511,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19527,7 +19527,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19536,7 +19536,7 @@
     </row>
     <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19587,7 +19587,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19596,7 +19596,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19649,7 +19649,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19691,7 +19691,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19712,7 +19712,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19731,7 +19731,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19786,7 +19786,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19862,8 +19862,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -20120,8 +20120,8 @@
         <v/>
       </c>
       <c r="G11" s="250">
-        <f ca="1">IF(F10="",IF(E10="",1,D11),E11)*(1+G10)*(1+G10)</f>
-        <v>1.1664000000000001</v>
+        <f ca="1">IF(F9="",IF(E9="",1,D11),E11)*(1+G10)</f>
+        <v>1.08</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="36"/>
@@ -20221,7 +20221,7 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.2984845351773739E-2</v>
       </c>
-      <c r="E17" s="339" t="str">
+      <c r="E17" s="352" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20244,7 +20244,7 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-5.3775046323232562E-3</v>
       </c>
-      <c r="E18" s="339"/>
+      <c r="E18" s="352"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.9388930114785279</v>
@@ -20660,8 +20660,8 @@
         <v/>
       </c>
       <c r="G38" s="149">
-        <f ca="1">IF(F36="",IF(E36="",1,D38),E38)*(1+G35-C37)</f>
-        <v>0.88562098662594302</v>
+        <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
+        <v>0.95647066555601856</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.18307964451283229</v>
+        <v>-0.16951818936373358</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20697,7 +20697,7 @@
       <c r="E40" s="390" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="368"/>
+      <c r="F40" s="320"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.841796395294935</v>
@@ -20712,7 +20712,7 @@
       <c r="F41" s="388"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8011479696626103</v>
+        <v>1.8158739241668693</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.0680797670058966</v>
+        <v>2.0733811106274298</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20749,15 +20749,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-3.5526586492354011E-2</v>
+        <v>-0.32874075867912295</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.90056300893543562</v>
+        <v>0.9028715243222093</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7607759813907651</v>
+        <v>1.7652895783355333</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20786,7 +20786,7 @@
         <v>2.0750474000030508</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.2308191829282675</v>
+        <v>2.2337832470932595</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20803,15 +20803,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-9.0365471821042398</v>
+        <v>-9.2004878134785972</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.92447366070244785</v>
+        <v>0.92570199837774525</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.8993333326850661</v>
+        <v>1.9018569553577906</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20820,7 +20820,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6544638136047172</v>
+        <v>1.6587048885019438</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20828,15 +20828,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>22.841326535639841</v>
+        <v>22.606755197890426</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.68562626230207868</v>
+        <v>0.68738380592800619</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.408620785112612</v>
+        <v>1.4122316626684266</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22491,7 +22491,7 @@
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A534AE-5E73-48D0-882F-5CD2BF411B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F48B713-FCCF-40AB-A8A9-327AF14C17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1225,9 +1214,6 @@
     <t>FCInv / Sales</t>
   </si>
   <si>
-    <t>FCInv = Δ PP&amp;E + R&amp;D</t>
-  </si>
-  <si>
     <t>Reinvestment =</t>
   </si>
   <si>
@@ -1378,9 +1364,6 @@
     <t>韩国</t>
   </si>
   <si>
-    <t>Chinese EV makers rapid expand production</t>
-  </si>
-  <si>
     <t>2. Sentiment Trap</t>
   </si>
   <si>
@@ -1397,9 +1380,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>FY</t>
   </si>
   <si>
     <t>家居清潔产品生产商</t>
@@ -1456,7 +1436,16 @@
     <t xml:space="preserve">Asset Plays </t>
   </si>
   <si>
-    <t>FCInv - D&amp;A</t>
+    <t>- D&amp;A</t>
+  </si>
+  <si>
+    <t>FCInv</t>
+  </si>
+  <si>
+    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -1464,34 +1453,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1734,7 +1723,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,6 +1866,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2311,10 +2306,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2359,7 +2354,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2459,7 +2454,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2476,8 +2471,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2486,7 +2481,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2511,7 +2506,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2530,16 +2525,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2569,14 +2564,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2670,7 +2665,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2703,7 +2698,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,7 +2718,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2731,7 +2726,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2741,7 +2736,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,7 +2757,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,7 +2766,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,10 +2811,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2828,13 +2823,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,7 +2838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,7 +2895,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2942,7 +2937,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2954,13 +2949,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2972,10 +2967,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3052,7 +3047,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3071,7 +3066,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3081,6 +3076,143 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3100,137 +3232,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3274,7 +3278,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3336,6 +3340,13 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
@@ -3366,6 +3377,13 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10491,17 +10509,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10536,27 +10554,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="333" t="s">
-        <v>391</v>
-      </c>
-      <c r="D3" s="334"/>
+      <c r="C3" s="351" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="345" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="345"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="335" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="336"/>
+      <c r="C4" s="353" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10573,10 +10591,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="337">
+      <c r="C5" s="354">
         <v>44931</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10584,10 +10602,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="346">
+      <c r="I5" s="321">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="346"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10600,7 +10618,7 @@
       </c>
       <c r="D6" s="220">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>45169</v>
+        <v>45351</v>
       </c>
       <c r="E6" s="128">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
@@ -10610,11 +10628,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="347">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>2253.3277811200001</v>
       </c>
-      <c r="J6" s="347"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10666,7 +10684,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D10" s="122">
         <v>2.8999999999999998E-2</v>
@@ -10689,30 +10707,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="358">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="359"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="345" t="s">
-        <v>393</v>
-      </c>
-      <c r="J11" s="345"/>
+      <c r="I11" s="360" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="357"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10737,7 +10755,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.0733811106274298</v>
+        <v>2.0377204948602943</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10781,28 +10799,28 @@
         <f>I4</f>
         <v>1.69</v>
       </c>
-      <c r="C16" s="370">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.12176523496642577</v>
-      </c>
-      <c r="E16" s="351" t="s">
+        <v>7.849148507647552E-2</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="348">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.2449648200886565</v>
-      </c>
-      <c r="G16" s="351" t="s">
+        <v>2.2122414285607874</v>
+      </c>
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.55496482008865655</v>
-      </c>
-      <c r="I16" s="364">
+        <v>-0.52224142856078748</v>
+      </c>
+      <c r="I16" s="336">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -10814,47 +10832,47 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8614860392443831</v>
-      </c>
-      <c r="C17" s="371"/>
+        <v>1.8005421748160364</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="352"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="352"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.38347878084427345</v>
-      </c>
-      <c r="I17" s="365"/>
+        <v>-0.41169925374475103</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.26323055326211386</v>
+        <v>0.2721402513384969</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="372"/>
+        <v>1.55</v>
+      </c>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.28918883139550644</v>
-      </c>
-      <c r="E18" s="353"/>
-      <c r="F18" s="350"/>
-      <c r="G18" s="353"/>
+        <v>0.19396813534144752</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.7449648200886565</v>
-      </c>
-      <c r="I18" s="366"/>
+        <v>-0.66224142856078738</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>0.32666666666666666</v>
+        <v>0.31612903225806449</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10870,7 +10888,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10889,84 +10907,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="340" t="s">
-        <v>395</v>
-      </c>
-      <c r="D21" s="341"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="342"/>
-      <c r="H21" s="342"/>
-      <c r="I21" s="342"/>
-      <c r="J21" s="342"/>
+      <c r="C21" s="357" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="355" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="355" t="s">
-        <v>397</v>
-      </c>
-      <c r="H22" s="355"/>
-      <c r="I22" s="334"/>
-      <c r="J22" s="334"/>
+      <c r="C22" s="366" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
+        <v>394</v>
+      </c>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="343" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="343" t="s">
-        <v>398</v>
-      </c>
-      <c r="H23" s="343"/>
-      <c r="I23" s="344"/>
-      <c r="J23" s="344"/>
+      <c r="C23" s="339" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="318" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
+      <c r="C24" s="369" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="319" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
+      <c r="C25" s="370" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11006,105 +11024,105 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="338">
+      <c r="C28" s="355">
         <v>44932</v>
       </c>
-      <c r="D28" s="339"/>
-      <c r="E28" s="369" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="354" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="354"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="363">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.15545454545454546</v>
       </c>
-      <c r="D29" s="362"/>
-      <c r="E29" s="361">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="F29" s="362"/>
-      <c r="G29" s="368">
+        <v>7.045454545454545E-2</v>
+      </c>
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="368"/>
-      <c r="I29" s="367">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.29181818181818181</v>
-      </c>
-      <c r="J29" s="367"/>
+        <v>0.22590909090909089</v>
+      </c>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="346">
+      <c r="C30" s="321">
         <v>60000</v>
       </c>
-      <c r="D30" s="336"/>
-      <c r="E30" s="346">
-        <v>60000</v>
-      </c>
-      <c r="F30" s="336"/>
-      <c r="G30" s="346"/>
-      <c r="H30" s="346"/>
-      <c r="I30" s="373">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
-        <v>120000</v>
-      </c>
-      <c r="J30" s="373"/>
+        <v>90000</v>
+      </c>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="360">
+      <c r="C31" s="323">
         <v>1.71</v>
       </c>
-      <c r="D31" s="336"/>
-      <c r="E31" s="360">
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="336"/>
-      <c r="G31" s="360"/>
-      <c r="H31" s="360"/>
-      <c r="I31" s="327"/>
-      <c r="J31" s="327"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
+        <v>1.55</v>
+      </c>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>2279.9943820799999</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="325">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
-        <v>1999.9950719999999</v>
-      </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="325">
+        <v>2066.6615744000001</v>
+      </c>
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="325"/>
-      <c r="I32" s="327"/>
-      <c r="J32" s="327"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
@@ -11114,12 +11132,12 @@
         <f>C30*C31</f>
         <v>102600</v>
       </c>
-      <c r="D33" s="375"/>
+      <c r="D33" s="327"/>
       <c r="E33" s="326">
         <f>E30*E31</f>
-        <v>90000</v>
-      </c>
-      <c r="F33" s="375"/>
+        <v>46500</v>
+      </c>
+      <c r="F33" s="327"/>
       <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
@@ -11127,7 +11145,7 @@
       <c r="H33" s="326"/>
       <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>192600</v>
+        <v>149100</v>
       </c>
       <c r="J33" s="326"/>
     </row>
@@ -11135,85 +11153,85 @@
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="327"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="329">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>1.605</v>
-      </c>
-      <c r="F34" s="362"/>
+        <v>1.6566666666666667</v>
+      </c>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="329">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>1.605</v>
-      </c>
-      <c r="J34" s="329"/>
+        <v>1.6566666666666667</v>
+      </c>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="331"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="328">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>2139.9947270399998</v>
-      </c>
-      <c r="F35" s="374"/>
+        <v>2208.8834461866668</v>
+      </c>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="328">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>2139.9947270399998</v>
-      </c>
-      <c r="J35" s="328"/>
+        <v>2208.8834461866668</v>
+      </c>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="323">
+      <c r="C37" s="374">
         <f>E31</f>
-        <v>1.5</v>
-      </c>
-      <c r="D37" s="324"/>
+        <v>1.55</v>
+      </c>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="320" t="s">
+      <c r="G37" s="371" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="320"/>
-      <c r="I37" s="321">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.2337832470932595</v>
-      </c>
-      <c r="J37" s="322"/>
+        <v>2.1606506097792435</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="323">
+      <c r="C38" s="374">
         <f>E34</f>
-        <v>1.605</v>
-      </c>
-      <c r="D38" s="324"/>
+        <v>1.6566666666666667</v>
+      </c>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="320" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="320"/>
-      <c r="I38" s="321">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6587048885019438</v>
-      </c>
-      <c r="J38" s="322"/>
+        <v>1.6301763958882354</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11337,11 +11355,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.30630599245219847</v>
+        <v>0.26353836829195521</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.39176526298645453</v>
+        <v>0.30421565982650511</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11356,11 +11374,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-2.9997141226933421E-2</v>
+        <v>-4.6680470240798022E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.3460989720837331E-2</v>
+        <v>-1.5990103085572249E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11385,11 +11403,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.68326965096264358</v>
+        <v>0.67732455564523275</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69816139111084619</v>
+        <v>0.68446132151421035</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11404,11 +11422,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>10.211172795932189</v>
+        <v>5.6455808378216954</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>100</v>
+        <v>19.025246941715881</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11423,11 +11441,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.6323546137545091</v>
+        <v>1.8972569468370009</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2762744613661363</v>
+        <v>1.6435708808848011</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11442,7 +11460,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.39957716707930058</v>
+        <v>0.32687673344235857</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -11497,17 +11515,17 @@
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12415,14 +12433,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12439,47 +12481,23 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
       <formula>$B$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12494,17 +12512,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12514,17 +12532,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:H28">
-    <cfRule type="containsBlanks" dxfId="19" priority="13">
+    <cfRule type="containsBlanks" dxfId="21" priority="13">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12571,16 +12589,16 @@
   </sheetPr>
   <dimension ref="A1:N949"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -13301,7 +13319,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C21" s="150">
         <v>3572928</v>
@@ -13586,7 +13604,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C31" s="150">
         <v>187570</v>
@@ -13638,7 +13656,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="C33" s="161">
         <v>24700</v>
@@ -13685,7 +13703,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C34" s="161">
         <v>0</v>
@@ -13864,7 +13882,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14104,7 +14122,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14155,7 +14173,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14479,7 +14497,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14530,7 +14548,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14659,7 +14677,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="6"/>
@@ -16075,22 +16093,22 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B60:M61">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$C$58="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M38 D45:M49 D51:M55">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M43">
-    <cfRule type="containsBlanks" dxfId="14" priority="7">
+    <cfRule type="containsBlanks" dxfId="16" priority="7">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="13" priority="6">
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16120,21 +16138,21 @@
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16273,10 +16291,10 @@
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="188">
-        <v>44926</v>
+        <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16334,7 +16352,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16359,7 +16377,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16384,7 +16402,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16401,7 +16419,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16409,7 +16427,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16434,7 +16452,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16459,9 +16477,9 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="179">
         <f>70620+117999</f>
@@ -16480,7 +16498,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16499,7 +16517,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16523,7 +16541,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16547,7 +16565,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16590,7 +16608,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16598,7 +16616,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16618,7 +16636,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16627,7 +16645,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16647,7 +16665,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16656,7 +16674,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16689,7 +16707,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16832,7 +16850,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16854,14 +16872,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16886,7 +16904,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16911,7 +16929,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16935,7 +16953,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16979,7 +16997,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17066,7 +17084,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17083,7 +17101,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17092,7 +17110,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17111,7 +17129,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17141,7 +17159,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17197,7 +17215,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17228,14 +17246,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17250,7 +17268,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17280,31 +17298,31 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="376">
+      <c r="D55" s="379">
         <f>D56+D57+D58</f>
         <v>15944</v>
       </c>
-      <c r="E55" s="377"/>
+      <c r="E55" s="380"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="373">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
-      <c r="E56" s="378"/>
+      <c r="E56" s="381"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
@@ -17315,15 +17333,15 @@
         <v>5.3810490818230637E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="383">
+      <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="336"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17336,10 +17354,10 @@
         <v>111</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="383">
+      <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="336"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17356,13 +17374,13 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17391,7 +17409,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17412,16 +17430,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="373">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-588437.21888000006</v>
       </c>
-      <c r="E63" s="373"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17453,11 +17471,11 @@
         <v>223</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="381">
+      <c r="D66" s="384">
         <f>((C28-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I28)/Data!C7</f>
         <v>-0.10897632357366624</v>
       </c>
-      <c r="E66" s="382"/>
+      <c r="E66" s="385"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -17468,10 +17486,10 @@
         <v>222</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="379">
+      <c r="D67" s="382">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E67" s="380"/>
+      <c r="E67" s="383"/>
       <c r="F67" s="109" t="s">
         <v>209</v>
       </c>
@@ -17484,10 +17502,10 @@
         <v>224</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="379">
+      <c r="D68" s="382">
         <v>0.15</v>
       </c>
-      <c r="E68" s="380"/>
+      <c r="E68" s="383"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -17527,20 +17545,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L878"/>
+  <dimension ref="A1:L879"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -17613,7 +17631,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17623,18 +17641,19 @@
       <c r="F4" s="205">
         <v>1296901</v>
       </c>
-      <c r="G4" s="205"/>
+      <c r="G4" s="205">
+        <f>F4*1.05</f>
+        <v>1361746.05</v>
+      </c>
       <c r="H4" s="206"/>
       <c r="I4" s="206"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="43" t="s">
-        <v>387</v>
-      </c>
+      <c r="K4" s="43"/>
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17644,7 +17663,10 @@
       <c r="F5" s="196">
         <v>64283</v>
       </c>
-      <c r="G5" s="196"/>
+      <c r="G5" s="196">
+        <f>F5*1.05</f>
+        <v>67497.150000000009</v>
+      </c>
       <c r="H5" s="197"/>
       <c r="I5" s="197"/>
       <c r="J5" s="6"/>
@@ -17653,7 +17675,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -17663,7 +17685,10 @@
       <c r="F6" s="196">
         <v>76943</v>
       </c>
-      <c r="G6" s="196"/>
+      <c r="G6" s="196">
+        <f>F6*1.3</f>
+        <v>100025.90000000001</v>
+      </c>
       <c r="H6" s="197"/>
       <c r="I6" s="197"/>
       <c r="J6" s="6"/>
@@ -17672,7 +17697,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="B7" s="118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="196"/>
       <c r="D7" s="196"/>
@@ -17682,7 +17707,10 @@
       <c r="F7" s="196">
         <v>4067</v>
       </c>
-      <c r="G7" s="196"/>
+      <c r="G7" s="196">
+        <f>F7*1.2</f>
+        <v>4880.3999999999996</v>
+      </c>
       <c r="H7" s="197"/>
       <c r="I7" s="197"/>
       <c r="J7" s="6"/>
@@ -17710,8 +17738,8 @@
         <v>1442194</v>
       </c>
       <c r="G8" s="200">
-        <f>1132761/0.71</f>
-        <v>1595438.0281690143</v>
+        <f>SUM(G4:G7)</f>
+        <v>1534149.4999999998</v>
       </c>
       <c r="H8" s="200"/>
       <c r="I8" s="201"/>
@@ -17721,7 +17749,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C9" s="285"/>
       <c r="D9" s="171">
@@ -17738,7 +17766,7 @@
       </c>
       <c r="G9" s="149">
         <f>G8/F8-1</f>
-        <v>0.1062575687938061</v>
+        <v>6.3760839387766E-2</v>
       </c>
       <c r="H9" s="180"/>
       <c r="I9" s="180"/>
@@ -17804,7 +17832,7 @@
       </c>
       <c r="G11" s="208">
         <f>1-G10/G8</f>
-        <v>0.43675554565230323</v>
+        <v>0.41425420298241999</v>
       </c>
       <c r="H11" s="208"/>
       <c r="I11" s="208"/>
@@ -17813,7 +17841,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="51">
         <f>C8-C10</f>
@@ -17833,7 +17861,7 @@
       </c>
       <c r="G12" s="51">
         <f>G8-G10</f>
-        <v>696816.4065473926</v>
+        <v>635527.87837837811</v>
       </c>
       <c r="H12" s="51" t="str">
         <f>IF(H9="","",H8-H10)</f>
@@ -17868,7 +17896,7 @@
       </c>
       <c r="G13" s="207">
         <f>G14/G8</f>
-        <v>0.42153394127681648</v>
+        <v>0.43837401770622564</v>
       </c>
       <c r="H13" s="180"/>
       <c r="I13" s="180"/>
@@ -17926,7 +17954,7 @@
       </c>
       <c r="G15" s="166">
         <f>G17/G8</f>
-        <v>1.5221604375486787E-2</v>
+        <v>-2.4119814723805613E-2</v>
       </c>
       <c r="H15" s="166" t="str">
         <f>IF(H9="","",H17/H8)</f>
@@ -17957,9 +17985,9 @@
         <f>F17/E17-1</f>
         <v>-0.99035789165732113</v>
       </c>
-      <c r="G16" s="149">
+      <c r="G16" s="149" t="str">
         <f>IF(ABS(F17+G17)=ABS(F17)+ABS(G17),IF(G17&lt;0,-1,1)*(G17-F17)/F17,"Turn")</f>
-        <v>29.701803375974059</v>
+        <v>Turn</v>
       </c>
       <c r="H16" s="149" t="str">
         <f>IF(H9="","",IF(ABS(G17+H17)=ABS(G17)+ABS(H17),IF(H17&lt;0,-1,1)*(H17-G17)/G17,"Turn"))</f>
@@ -17995,7 +18023,7 @@
       </c>
       <c r="G17" s="154">
         <f>G12-G14</f>
-        <v>24285.12647039548</v>
+        <v>-37003.401698619011</v>
       </c>
       <c r="H17" s="154" t="str">
         <f>IF(H9="","",H12-H14)</f>
@@ -18046,7 +18074,7 @@
       </c>
       <c r="G19" s="149">
         <f>G20/G8</f>
-        <v>1.141620328161509E-2</v>
+        <v>-2.4119814723805613E-2</v>
       </c>
       <c r="H19" s="149" t="str">
         <f>IF(H8="","",H20/H8)</f>
@@ -18070,7 +18098,7 @@
       </c>
       <c r="G20" s="210">
         <f>IF(G17="","",IF(G17&lt;=0,G17,G17*(1-G18)))</f>
-        <v>18213.84485279661</v>
+        <v>-37003.401698619011</v>
       </c>
       <c r="H20" s="210" t="str">
         <f>IF(H17="","",IF(H17&lt;=0,H17,H17*(1-H18)))</f>
@@ -18094,7 +18122,7 @@
       </c>
       <c r="G21" s="213">
         <f>IF(G9&lt;=0,0,(G8-F8)*Asset_Model!$D$67)</f>
-        <v>13117.688811267621</v>
+        <v>7871.3907999999792</v>
       </c>
       <c r="H21" s="213" t="str">
         <f>IF(H8="","",IF(H9&lt;=0,0,(H8-G8)*Asset_Model!$D$67))</f>
@@ -18106,89 +18134,109 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B22" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="95">
+      <c r="B22" s="318" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="319"/>
+      <c r="D22" s="319">
+        <v>14919</v>
+      </c>
+      <c r="E22" s="319">
+        <v>30551</v>
+      </c>
+      <c r="F22" s="319">
+        <v>32102</v>
+      </c>
+      <c r="G22" s="320">
+        <f>F22</f>
+        <v>32102</v>
+      </c>
+      <c r="H22" s="320"/>
+      <c r="I22" s="320"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B23" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="288"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="288"/>
+      <c r="F23" s="95">
         <f>Data!C33</f>
         <v>24700</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G23" s="161">
         <v>37925</v>
       </c>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161" t="str">
-        <f>IF(I15="","",IF(ABS(H23+I23)=ABS(H23)+ABS(I23),IF(I23&lt;0,-1,1)*(I23-H23)/H23,"Turn"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B23" s="85" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="289"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="214">
-        <f>F21+F22</f>
-        <v>24700</v>
-      </c>
-      <c r="G23" s="214">
-        <f>IF(G15="","",G21+G22)</f>
-        <v>51042.688811267624</v>
-      </c>
-      <c r="H23" s="214" t="str">
-        <f>IF(H15="","",H21+H22)</f>
-        <v/>
-      </c>
-      <c r="I23" s="214" t="str">
-        <f>IF(I15="","",I21+I22)</f>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161" t="str">
+        <f>IF(I15="","",IF(ABS(H24+I24)=ABS(H24)+ABS(I24),IF(I24&lt;0,-1,1)*(I24-H24)/H24,"Turn"))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="214">
+        <f>F21-F22+F23</f>
+        <v>-7402</v>
+      </c>
+      <c r="G24" s="214">
+        <f>IF(G15="","",G21-G22+G23)</f>
+        <v>13694.390799999979</v>
+      </c>
+      <c r="H24" s="214" t="str">
+        <f>IF(H15="","",H21-H22+H23)</f>
+        <v/>
+      </c>
+      <c r="I24" s="214" t="str">
+        <f>IF(I15="","",I21-I22+I23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B25" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C24" s="285"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="171">
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="171">
         <f>AVERAGE(Data!C54:E54)</f>
         <v>0.39057414113288563</v>
       </c>
-      <c r="G24" s="384"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="386"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B25" s="84" t="s">
+      <c r="G25" s="387"/>
+      <c r="H25" s="388"/>
+      <c r="I25" s="389"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B26" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="289"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="214">
-        <f>F20-F23</f>
-        <v>-24106.75</v>
-      </c>
-      <c r="G25" s="214">
-        <f>G20-G23</f>
-        <v>-32828.843958471014</v>
-      </c>
-      <c r="H25" s="214" t="str">
-        <f>IF(H20="","",H20-H23)</f>
-        <v/>
-      </c>
-      <c r="I25" s="214" t="str">
-        <f>IF(I20="","",I20-I23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="289"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="214">
+        <f>F20-F24</f>
+        <v>7995.25</v>
+      </c>
+      <c r="G26" s="214">
+        <f>G20-G24</f>
+        <v>-50697.79249861899</v>
+      </c>
+      <c r="H26" s="214" t="str">
+        <f>IF(H20="","",H20-H24)</f>
+        <v/>
+      </c>
+      <c r="I26" s="214" t="str">
+        <f>IF(I20="","",I20-I24)</f>
+        <v/>
+      </c>
+    </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
@@ -19041,61 +19089,80 @@
     <row r="876" ht="15.75" customHeight="1"/>
     <row r="877" ht="15.75" customHeight="1"/>
     <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="C22:G22">
+    <cfRule type="containsBlanks" priority="2">
+      <formula>LEN(TRIM(C22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:I22">
+    <cfRule type="containsBlanks" dxfId="14" priority="1">
+      <formula>LEN(TRIM(C22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G18:G20">
-    <cfRule type="containsBlanks" dxfId="12" priority="20">
+    <cfRule type="containsBlanks" dxfId="13" priority="24">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="containsBlanks" dxfId="11" priority="9">
-      <formula>LEN(TRIM(G24))=0</formula>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(H9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H13">
-    <cfRule type="containsBlanks" priority="2">
+    <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(H9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H23">
-    <cfRule type="containsBlanks" dxfId="9" priority="28">
+  <conditionalFormatting sqref="H10:H21">
+    <cfRule type="containsBlanks" dxfId="10" priority="32">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H17">
-    <cfRule type="containsBlanks" priority="29">
+    <cfRule type="containsBlanks" priority="33">
       <formula>LEN(TRIM(H15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:I20">
-    <cfRule type="containsBlanks" dxfId="8" priority="22">
+    <cfRule type="containsBlanks" dxfId="9" priority="26">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I23 H25:I25">
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+  <conditionalFormatting sqref="H21:I24">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="11">
+    <cfRule type="containsBlanks" priority="4">
       <formula>LEN(TRIM(H21))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="containsBlanks" dxfId="7" priority="14">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="15">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I9:I17">
-    <cfRule type="containsBlanks" priority="25">
+    <cfRule type="containsBlanks" priority="29">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I23">
-    <cfRule type="containsBlanks" dxfId="6" priority="24">
+  <conditionalFormatting sqref="I9:I21">
+    <cfRule type="containsBlanks" dxfId="6" priority="28">
       <formula>LEN(TRIM(I9))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19112,12 +19179,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19171,9 +19238,9 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19195,9 +19262,9 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19219,9 +19286,9 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19243,9 +19310,9 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19267,9 +19334,9 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19332,9 +19399,9 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19425,9 +19492,9 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19479,7 +19546,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19495,7 +19562,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19511,7 +19578,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19527,16 +19594,16 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19587,7 +19654,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19596,7 +19663,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19605,7 +19672,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19649,7 +19716,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19670,7 +19737,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19691,7 +19758,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19712,7 +19779,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19731,7 +19798,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19752,7 +19819,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19769,7 +19836,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19786,7 +19853,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19862,18 +19929,18 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -19943,7 +20010,7 @@
       </c>
       <c r="D4" s="243">
         <f>IF(B4="NOPAT",Projections!G20,Projections!G8)</f>
-        <v>18213.84485279661</v>
+        <v>-37003.401698619011</v>
       </c>
       <c r="E4" s="243" t="str">
         <f>IF(OR(Projections!H8="",E3=""),"",IF(B4="NOPAT",Projections!H20,Projections!H8))</f>
@@ -19966,7 +20033,7 @@
       <c r="C5" s="102"/>
       <c r="D5" s="241">
         <f>D4/C4-1</f>
-        <v>29.701803375974059</v>
+        <v>-63.374044161178276</v>
       </c>
       <c r="E5" s="241" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
@@ -19988,7 +20055,7 @@
       </c>
       <c r="C6" s="171">
         <f>C7/C4</f>
-        <v>41.635061104087654</v>
+        <v>-12.477033291192583</v>
       </c>
       <c r="D6" s="171">
         <f>IFD7/D4</f>
@@ -20005,15 +20072,15 @@
         <v>68</v>
       </c>
       <c r="C7" s="313">
-        <f>Projections!F23</f>
-        <v>24700</v>
+        <f>Projections!F24</f>
+        <v>-7402</v>
       </c>
       <c r="D7" s="313">
-        <f>Projections!G23</f>
-        <v>51042.688811267624</v>
+        <f>Projections!G24</f>
+        <v>13694.390799999979</v>
       </c>
       <c r="E7" s="247" t="str">
-        <f>Projections!H23</f>
+        <f>Projections!H24</f>
         <v/>
       </c>
       <c r="F7" s="247"/>
@@ -20029,11 +20096,11 @@
       </c>
       <c r="C8" s="51">
         <f>IF(C4="","",Projections!F20-C7)</f>
-        <v>-24106.75</v>
+        <v>7995.25</v>
       </c>
       <c r="D8" s="210">
         <f>Projections!G20-D7</f>
-        <v>-32828.843958471014</v>
+        <v>-50697.79249861899</v>
       </c>
       <c r="E8" s="210" t="str">
         <f>IF(E4="","",Projections!H20-E7)</f>
@@ -20055,11 +20122,11 @@
       </c>
       <c r="C9" s="167">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>-1.8080107049383769E-2</v>
+        <v>5.9964522752584066E-3</v>
       </c>
       <c r="D9" s="248">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-2.4621693636706382E-2</v>
+        <v>-3.802343806371563E-2</v>
       </c>
       <c r="E9" s="248" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
@@ -20071,7 +20138,7 @@
       </c>
       <c r="G9" s="249">
         <f>INDEX(D9:F9,Projections!E2)</f>
-        <v>-2.4621693636706382E-2</v>
+        <v>-3.802343806371563E-2</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="35"/>
@@ -20206,7 +20273,7 @@
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>2.0674374425190156</v>
+        <v>2.0373017520683052</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20221,9 +20288,9 @@
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-1.2984845351773739E-2</v>
       </c>
-      <c r="E17" s="352" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
-        <v>⇒</v>
+        <v>Error!</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>206</v>
@@ -20244,10 +20311,10 @@
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
         <v>-5.3775046323232562E-3</v>
       </c>
-      <c r="E18" s="352"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>1.9388930114785279</v>
+        <v>1.9111403918221088</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
@@ -20266,10 +20333,10 @@
         <f>B3</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="E20" s="387" t="s">
+      <c r="E20" s="390" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="387"/>
+      <c r="F20" s="390"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -20306,15 +20373,15 @@
       <c r="D22" s="268"/>
       <c r="E22" s="239">
         <f>IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>-2.4621693636706382E-2</v>
+        <v>-3.802343806371563E-2</v>
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>2.0428157488823091</v>
+        <v>1.9992783140045896</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.2182289030114952</v>
+        <v>2.1709529817926687</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20328,28 +20395,28 @@
       <c r="D23" s="270"/>
       <c r="E23" s="98">
         <f>IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>-2.4621693636706382E-2</v>
+        <v>-3.802343806371563E-2</v>
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>2.0428157488823091</v>
+        <v>1.9992783140045896</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.2182289030114952</v>
+        <v>2.1709529817926687</v>
       </c>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="388" t="s">
+      <c r="E24" s="391" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="389"/>
+      <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.2182289030114952</v>
+        <v>2.1709529817926687</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20412,11 +20479,11 @@
       </c>
       <c r="C28" s="51">
         <f>C8</f>
-        <v>-24106.75</v>
+        <v>7995.25</v>
       </c>
       <c r="D28" s="51">
         <f>D8</f>
-        <v>-32828.843958471014</v>
+        <v>-50697.79249861899</v>
       </c>
       <c r="E28" s="51" t="str">
         <f>E8</f>
@@ -20440,7 +20507,7 @@
         <v>7.1109500000000006E-2</v>
       </c>
       <c r="D29" s="207">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E29" s="180"/>
       <c r="F29" s="207"/>
@@ -20499,7 +20566,7 @@
       </c>
       <c r="D32" s="276">
         <f>(D30*D29)*(1-D31)</f>
-        <v>956.64</v>
+        <v>717.48</v>
       </c>
       <c r="E32" s="277" t="str">
         <f>IF(E28="","",(E30*E29)*(1-E31))</f>
@@ -20518,11 +20585,11 @@
       </c>
       <c r="C33" s="51">
         <f>C28-C32</f>
-        <v>-24957.077400999999</v>
+        <v>7144.9225989999995</v>
       </c>
       <c r="D33" s="210">
         <f>D28-D32</f>
-        <v>-33785.483958471013</v>
+        <v>-51415.272498618993</v>
       </c>
       <c r="E33" s="210" t="str">
         <f>IF(E28="","",E28-E32)</f>
@@ -20543,11 +20610,11 @@
       </c>
       <c r="C34" s="139">
         <f>C33/(Common_Shares/Data!$C$4)</f>
-        <v>-1.8717854171542678E-2</v>
+        <v>5.3587051530994967E-3</v>
       </c>
       <c r="D34" s="245">
         <f>D33/(Common_Shares/Data!$C$4)</f>
-        <v>-2.5339175404581457E-2</v>
+        <v>-3.8561549389621939E-2</v>
       </c>
       <c r="E34" s="245" t="str">
         <f>IF(E33="","",E33/(Common_Shares/Data!$C$4))</f>
@@ -20559,7 +20626,7 @@
       </c>
       <c r="G34" s="139">
         <f>INDEX(D34:F34,Projections!E2)</f>
-        <v>-2.5339175404581457E-2</v>
+        <v>-3.8561549389621939E-2</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="43"/>
@@ -20636,7 +20703,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.16213917540458145</v>
+        <v>-0.17536154938962195</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>301</v>
@@ -20684,7 +20751,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.16951818936373358</v>
+        <v>-0.18334231848885843</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20694,10 +20761,10 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="390" t="s">
+      <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="320"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.841796395294935</v>
@@ -20706,13 +20773,13 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="388" t="s">
+      <c r="E41" s="391" t="s">
         <v>305</v>
       </c>
-      <c r="F41" s="388"/>
+      <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8158739241668693</v>
+        <v>1.8008627403138502</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20741,7 +20808,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.0733811106274298</v>
+        <v>2.0377204948602943</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20749,15 +20816,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-0.32874075867912295</v>
+        <v>6.9831755972911899E-2</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.9028715243222093</v>
+        <v>0.88734280442073443</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7652895783355333</v>
+        <v>1.7349279081881177</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20766,8 +20833,8 @@
         <v>312</v>
       </c>
       <c r="C45" s="255">
-        <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*1.01</f>
-        <v>2.4372001826915701</v>
+        <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
+        <v>2.3165467083008981</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20775,18 +20842,18 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>-20.451357901952093</v>
+        <v>46.568361326707858</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>2.0750474000030508</v>
+        <v>1.9723222811910186</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20795,7 +20862,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.2337832470932595</v>
+        <v>2.1606506097792435</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20803,15 +20870,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-9.2004878134785972</v>
+        <v>20.57030591569626</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.92570199837774525</v>
+        <v>0.8953951059805918</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9018569553577906</v>
+        <v>1.8395913729113695</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20820,7 +20887,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6587048885019438</v>
+        <v>1.6301763958882354</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20828,15 +20895,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>22.606755197890426</v>
+        <v>-67.894371120051233</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.68738380592800619</v>
+        <v>0.6755613147988514</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.4122316626684266</v>
+        <v>1.3879423265504942</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21774,16 +21841,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21798,7 +21865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21812,7 +21879,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21826,7 +21893,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21841,7 +21908,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21856,7 +21923,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21871,7 +21938,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21886,7 +21953,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>
@@ -22491,7 +22558,7 @@
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F48B713-FCCF-40AB-A8A9-327AF14C17A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7628AC-E587-456D-9A01-1C23D4BD5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -1376,76 +1376,78 @@
     <t>6601.HK</t>
   </si>
   <si>
-    <t>CHEERWIN GP</t>
-  </si>
-  <si>
     <t>CNY</t>
   </si>
   <si>
     <t>家居清潔产品生产商</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Consumer Discretionary, 12.4y</t>
+  </si>
+  <si>
+    <t>Current Industry average PB is 1.01, while 5yrs average is 1.38</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>家居护理</t>
+  </si>
+  <si>
+    <t>个人护理</t>
+  </si>
+  <si>
+    <t>宠物产品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>- D&amp;A</t>
+  </si>
+  <si>
+    <t>FCInv</t>
+  </si>
+  <si>
+    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>1. 家居清潔業務竞争剧烈，产能过剩价格战频发
+2. 家居清潔業務高端化难度很大，进口产品竞争力强
+3. 不是港股通的一员，交易量小</t>
+  </si>
+  <si>
+    <t>1. 宠物护理市场广阔，是可持续增长的业务
+2. 公司很多现金，可经济不好时通过M&amp;A快速做大宠物业务</t>
   </si>
   <si>
     <t>1. 可依托母公司立白的支持
 2. 通过IPO积累大量现金，Strong Balance Sheet with no debt
-3. 家居清潔業務市场地位比较稳定</t>
-  </si>
-  <si>
-    <t>1. 家居清潔業務处于红海市场，容量可能持续萎缩
-2. 家居清潔業務高端化难度很大，进口产品竞争力强
-3. 不是港股通的一员，交易量小</t>
-  </si>
-  <si>
-    <t>1. 宠物护理市场竞争大，现在公司优势很小</t>
-  </si>
-  <si>
-    <t>1. 宠物护理市场广阔，是可持续增长的业务
-2. 公司很多现金，可用通过M&amp;A快速做大宠物业务</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary, 12.4y</t>
-  </si>
-  <si>
-    <t>Current Industry average PB is 1.01, while 5yrs average is 1.38</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1. 家居清潔業務处于红海市场，容量可能持续萎缩
+3. 家居清潔業務市占第一，有一定品牌力</t>
+  </si>
+  <si>
+    <t>朝云集团</t>
+  </si>
+  <si>
+    <t>1. 宠物护理市场竞争大，现在公司优势很小
+2. 家族企业，管理层薪水很高
+3. M&amp;A的效果可能不好</t>
+  </si>
+  <si>
+    <t>1. Yes. 就业务業務有一定品牌及(生产/研发)规模优势基础，未来经济转暖市场还有发展空间。
+2. Yes. 宠物护理基数发展快，毛利高。现在经济差给了它逆势并购的机会
+3. Yes. 毛利率差的主因是经济差导致市场竞争加剧</t>
+  </si>
+  <si>
+    <t>1. 家居清潔業務竞争剧烈
 2. 宠物护理市场容量及基数都较小，不足以取代家居清潔業務
-3. 主要业务毛利率过低</t>
-  </si>
-  <si>
-    <t>1. No. 传统业务肯定很难改变，但也不会像市场想象的那么悲观，公司产品是有竞争力及需求的
-2. No. 宠物护理基数太小，短期没有替代作用
-3. No. 主营业务护城河太浅，经济不好毛利率自然差</t>
-  </si>
-  <si>
-    <t>家居护理</t>
-  </si>
-  <si>
-    <t>个人护理</t>
-  </si>
-  <si>
-    <t>宠物产品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Plays </t>
-  </si>
-  <si>
-    <t>- D&amp;A</t>
-  </si>
-  <si>
-    <t>FCInv</t>
-  </si>
-  <si>
-    <t>FCInv = Δ PP&amp;E + D&amp;A</t>
-  </si>
-  <si>
-    <t>Quarter</t>
+3. 主要业务毛利率低</t>
   </si>
 </sst>
 </file>
@@ -10509,8 +10511,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10540,7 +10542,7 @@
       </c>
       <c r="C2" s="44" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>6601.HK : CHEERWIN GP</v>
+        <v>6601.HK : 朝云集团</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="12"/>
@@ -10572,7 +10574,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="353" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D4" s="322"/>
       <c r="E4" s="6"/>
@@ -10580,7 +10582,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10630,7 +10632,7 @@
       <c r="H6" s="84"/>
       <c r="I6" s="361">
         <f>I4*I5/1000000</f>
-        <v>2253.3277811200001</v>
+        <v>2026.66167296</v>
       </c>
       <c r="J6" s="361"/>
       <c r="K6" s="91"/>
@@ -10641,7 +10643,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.6326051617126843E-2</v>
+        <v>5.1495365034588646E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10672,11 +10674,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>32.058382158711957</v>
+        <v>28.840231847051161</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.1193090002149319E-2</v>
+        <v>3.4673785054964719E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10684,7 +10686,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D10" s="122">
         <v>2.8999999999999998E-2</v>
@@ -10696,11 +10698,11 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.73592494321644153</v>
+        <v>0.66204981521883766</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.4388765153186223</v>
+        <v>1.2944362599342543</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -10718,7 +10720,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="360" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J11" s="360"/>
     </row>
@@ -10736,7 +10738,7 @@
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0858683188756306</v>
+        <v>1.0856176614761353</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10755,7 +10757,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.0377204948602943</v>
+        <v>2.0387185289754779</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10797,28 +10799,28 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>7.849148507647552E-2</v>
+        <v>0.22169267553653382</v>
       </c>
       <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.2122414285607874</v>
+        <v>2.2112202169222295</v>
       </c>
       <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.52224142856078748</v>
+        <v>-0.69122021692222946</v>
       </c>
       <c r="I16" s="336">
         <f>0.28+0.21</f>
@@ -10826,13 +10828,13 @@
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>0.28994082840236685</v>
+        <v>0.32236842105263158</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8005421748160364</v>
+        <v>1.8008107223462764</v>
       </c>
       <c r="C17" s="348"/>
       <c r="D17" s="149">
@@ -10844,35 +10846,35 @@
       <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.41169925374475103</v>
+        <v>-0.4104094945759531</v>
       </c>
       <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.2721402513384969</v>
+        <v>0.27209966817699693</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="129">
         <f>C37</f>
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.19396813534144752</v>
+        <v>0.60081072234627642</v>
       </c>
       <c r="E18" s="343"/>
       <c r="F18" s="364"/>
       <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.66224142856078738</v>
+        <v>-1.0112202169222295</v>
       </c>
       <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>0.31612903225806449</v>
+        <v>0.40833333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -10888,7 +10890,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10908,7 +10910,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="357" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D21" s="358"/>
       <c r="E21" s="359"/>
@@ -10924,13 +10926,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="366" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D22" s="352"/>
       <c r="E22" s="352"/>
       <c r="F22" s="352"/>
       <c r="G22" s="366" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H22" s="366"/>
       <c r="I22" s="352"/>
@@ -10942,13 +10944,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="339" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D23" s="340"/>
       <c r="E23" s="340"/>
       <c r="F23" s="340"/>
       <c r="G23" s="339" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H23" s="339"/>
       <c r="I23" s="340"/>
@@ -10960,7 +10962,7 @@
         <v>291</v>
       </c>
       <c r="C24" s="369" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D24" s="369"/>
       <c r="E24" s="369"/>
@@ -10976,7 +10978,7 @@
         <v>290</v>
       </c>
       <c r="C25" s="370" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D25" s="370"/>
       <c r="E25" s="370"/>
@@ -11046,12 +11048,12 @@
       </c>
       <c r="C29" s="335">
         <f>C33/D27</f>
-        <v>0.15545454545454546</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D29" s="329"/>
       <c r="E29" s="334">
         <f>E33/D27</f>
-        <v>7.045454545454545E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F29" s="329"/>
       <c r="G29" s="345">
@@ -11061,7 +11063,7 @@
       <c r="H29" s="345"/>
       <c r="I29" s="344">
         <f>C29+E29+G29</f>
-        <v>0.22590909090909089</v>
+        <v>0.31590909090909092</v>
       </c>
       <c r="J29" s="344"/>
     </row>
@@ -11070,18 +11072,18 @@
         <v>32</v>
       </c>
       <c r="C30" s="321">
-        <v>60000</v>
+        <v>90000</v>
       </c>
       <c r="D30" s="322"/>
       <c r="E30" s="321">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F30" s="322"/>
       <c r="G30" s="321"/>
       <c r="H30" s="321"/>
       <c r="I30" s="350">
         <f>C30+E30+G30</f>
-        <v>90000</v>
+        <v>140000</v>
       </c>
       <c r="J30" s="350"/>
     </row>
@@ -11090,11 +11092,11 @@
         <v>33</v>
       </c>
       <c r="C31" s="323">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="D31" s="322"/>
       <c r="E31" s="323">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="F31" s="322"/>
       <c r="G31" s="323"/>
@@ -11108,12 +11110,12 @@
       </c>
       <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
-        <v>2279.9943820799999</v>
+        <v>2199.9945791999999</v>
       </c>
       <c r="D32" s="329"/>
       <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
-        <v>2066.6615744000001</v>
+        <v>1599.9960575999999</v>
       </c>
       <c r="F32" s="329"/>
       <c r="G32" s="330">
@@ -11130,12 +11132,12 @@
       </c>
       <c r="C33" s="326">
         <f>C30*C31</f>
-        <v>102600</v>
+        <v>148500</v>
       </c>
       <c r="D33" s="327"/>
       <c r="E33" s="326">
         <f>E30*E31</f>
-        <v>46500</v>
+        <v>60000</v>
       </c>
       <c r="F33" s="327"/>
       <c r="G33" s="326">
@@ -11145,7 +11147,7 @@
       <c r="H33" s="326"/>
       <c r="I33" s="326">
         <f>C33+E33+G33</f>
-        <v>149100</v>
+        <v>208500</v>
       </c>
       <c r="J33" s="326"/>
     </row>
@@ -11157,14 +11159,14 @@
       <c r="D34" s="376"/>
       <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
-        <v>1.6566666666666667</v>
+        <v>1.4892857142857143</v>
       </c>
       <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
       <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
-        <v>1.6566666666666667</v>
+        <v>1.4892857142857143</v>
       </c>
       <c r="J34" s="328"/>
     </row>
@@ -11176,14 +11178,14 @@
       <c r="D35" s="378"/>
       <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
-        <v>2208.8834461866668</v>
+        <v>1985.7093929142857</v>
       </c>
       <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
       <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
-        <v>2208.8834461866668</v>
+        <v>1985.7093929142857</v>
       </c>
       <c r="J35" s="324"/>
     </row>
@@ -11194,7 +11196,7 @@
       </c>
       <c r="C37" s="374">
         <f>E31</f>
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
@@ -11208,7 +11210,7 @@
       <c r="H37" s="371"/>
       <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.1606506097792435</v>
+        <v>2.1609728668155315</v>
       </c>
       <c r="J37" s="373"/>
     </row>
@@ -11218,7 +11220,7 @@
       </c>
       <c r="C38" s="374">
         <f>E34</f>
-        <v>1.6566666666666667</v>
+        <v>1.4892857142857143</v>
       </c>
       <c r="D38" s="375"/>
       <c r="E38" s="6"/>
@@ -11229,7 +11231,7 @@
       <c r="H38" s="371"/>
       <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6301763958882354</v>
+        <v>1.6309748231803822</v>
       </c>
       <c r="J38" s="373"/>
     </row>
@@ -11355,11 +11357,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.26353836829195521</v>
+        <v>0.30968052534274637</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.30421565982650511</v>
+        <v>0.45101295613512904</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11374,11 +11376,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-4.6680470240798022E-2</v>
+        <v>-1.1530410193707707E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-1.5990103085572249E-2</v>
+        <v>9.5138970001215961E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11403,11 +11405,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67732455564523275</v>
+        <v>0.68545377735502089</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.68446132151421035</v>
+        <v>0.7102539584537515</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11422,11 +11424,11 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>5.6455808378216954</v>
+        <v>26.857719728977465</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>19.025246941715881</v>
+        <v>100</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11441,11 +11443,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8972569468370009</v>
+        <v>1.6145671396243371</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.6435708808848011</v>
+        <v>1.1086156022759439</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11460,7 +11462,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.32687673344235857</v>
+        <v>0.4</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -13656,7 +13658,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C33" s="161">
         <v>24700</v>
@@ -14677,7 +14679,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="6"/>
@@ -16210,7 +16212,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4130694878134356</v>
+        <v>2.4125124647268397</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16255,7 +16257,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.841796395294935</v>
+        <v>1.8413712425514395</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16294,7 +16296,7 @@
         <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -17437,7 +17439,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-588437.21888000006</v>
+        <v>-815103.32703999989</v>
       </c>
       <c r="E63" s="350"/>
       <c r="F63" s="6"/>
@@ -17631,7 +17633,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C4" s="205"/>
       <c r="D4" s="205"/>
@@ -17653,7 +17655,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C5" s="196"/>
       <c r="D5" s="196"/>
@@ -17675,7 +17677,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C6" s="196"/>
       <c r="D6" s="196"/>
@@ -18135,7 +18137,7 @@
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1">
       <c r="B22" s="318" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C22" s="319"/>
       <c r="D22" s="319">
@@ -18156,7 +18158,7 @@
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C23" s="288"/>
       <c r="D23" s="288"/>
@@ -20246,7 +20248,7 @@
       </c>
       <c r="D15" s="106">
         <f>C15/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>1.9388930114785279</v>
+        <v>1.9384454453494597</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>199</v>
@@ -20266,14 +20268,14 @@
       </c>
       <c r="D16" s="106">
         <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>0.14690678102458526</v>
+        <v>0.14687286966437726</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>274</v>
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>2.0373017520683052</v>
+        <v>2.0368314696682353</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20286,7 +20288,7 @@
       </c>
       <c r="D17" s="106">
         <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-1.2984845351773739E-2</v>
+        <v>-1.2981847983205057E-2</v>
       </c>
       <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
@@ -20309,16 +20311,16 @@
       </c>
       <c r="D18" s="106">
         <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-5.3775046323232562E-3</v>
+        <v>-5.37626331115799E-3</v>
       </c>
       <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>1.9111403918221088</v>
+        <v>1.9106928256930407</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>0.12854443104048827</v>
+        <v>0.12851475837001422</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20377,11 +20379,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>1.9992783140045896</v>
+        <v>1.9988080316045196</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.1709529817926687</v>
+        <v>2.1699413010102155</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20399,11 +20401,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>1.9992783140045896</v>
+        <v>1.9988080316045196</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.1709529817926687</v>
+        <v>2.1699413010102155</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20416,7 +20418,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.1709529817926687</v>
+        <v>2.1699413010102155</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20637,7 +20639,7 @@
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="D35" s="149" t="str">
         <f>D10</f>
@@ -20676,7 +20678,7 @@
       </c>
       <c r="G36" s="278">
         <f ca="1">C35*G35</f>
-        <v>0.1368</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="43"/>
@@ -20703,7 +20705,7 @@
       </c>
       <c r="G37" s="275">
         <f ca="1">G34-G36</f>
-        <v>-0.17536154938962195</v>
+        <v>-0.17056154938962195</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>301</v>
@@ -20751,7 +20753,7 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-0.18334231848885843</v>
+        <v>-0.17832386871004619</v>
       </c>
       <c r="I39" s="43"/>
     </row>
@@ -20767,7 +20769,7 @@
       <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.841796395294935</v>
+        <v>1.8413712425514395</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20779,7 +20781,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8008627403138502</v>
+        <v>1.8054336009137215</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20808,7 +20810,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.0377204948602943</v>
+        <v>2.0387185289754779</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20816,15 +20818,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>6.9831755972911899E-2</v>
+        <v>0.31469596031452196</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.88734280442073443</v>
+        <v>0.88798238512594452</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7349279081881177</v>
+        <v>1.7361784129642646</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20834,7 +20836,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3165467083008981</v>
+        <v>2.3160119661377658</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20842,18 +20844,18 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>46.568361326707858</v>
+        <v>46.557611676730936</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.96</v>
+        <v>0.95999999999999985</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
         <v>1.9723222811910186</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
@@ -20862,7 +20864,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.1606506097792435</v>
+        <v>2.1609728668155315</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20870,15 +20872,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>20.57030591569626</v>
+        <v>20.702473971069264</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.8953951059805918</v>
+        <v>0.89573542040132459</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.8395913729113695</v>
+        <v>1.8402905496974342</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20887,7 +20889,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6301763958882354</v>
+        <v>1.6309748231803822</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20895,15 +20897,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-67.894371120051233</v>
+        <v>-67.682794402022211</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.6755613147988514</v>
+        <v>0.67604824722223844</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3879423265504942</v>
+        <v>1.3889427303714117</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -22558,7 +22560,7 @@
         <v>2.3129251700680271</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7628AC-E587-456D-9A01-1C23D4BD5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2C8823-1E81-47AF-AD07-DA19CD00E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40470" yWindow="6210" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3089,84 +3089,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3174,6 +3129,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3190,9 +3146,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,6 +3168,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3217,26 +3189,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10511,8 +10511,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10556,33 +10556,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10593,10 +10593,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44931</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10604,10 +10604,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10630,11 +10630,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>2026.66167296</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>2079.9948748800002</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>5.1495365034588646E-2</v>
+        <v>5.0142618668748917E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10674,11 +10674,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>28.840231847051161</v>
+        <v>29.618282931275623</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.4673785054964719E-2</v>
+        <v>3.3762929549978851E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10698,47 +10698,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.66204981521883766</v>
+        <v>0.67991057928181065</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2944362599342543</v>
+        <v>1.3293575303610132</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0856176614761353</v>
+        <v>1.0849176645278931</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10757,7 +10757,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.0387185289754779</v>
+        <v>1.9254034225907726</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10799,59 +10799,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.52</v>
-      </c>
-      <c r="C16" s="347">
+        <v>1.56</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.22169267553653382</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.14420399076596691</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.2112202169222295</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>2.03551813822251</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.69122021692222946</v>
-      </c>
-      <c r="I16" s="336">
+        <v>-0.47551813822250999</v>
+      </c>
+      <c r="I16" s="367">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>0.32236842105263158</v>
+        <v>0.3141025641025641</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.8008107223462764</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>1.747465187995757</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.4104094945759531</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>-0.28805295022675304</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.27209966817699693</v>
+        <v>0.28040615822624887</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10859,19 +10859,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.60081072234627642</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.54746518799575705</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-1.0112202169222295</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>-0.83551813822251009</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0.40833333333333333</v>
@@ -10909,84 +10909,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11026,214 +11026,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>44932</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>90000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>50000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.65</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>1.2</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>2.1609728668155315</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>2.0969582255949084</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6309748231803822</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>1.5403227380726181</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11357,11 +11357,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.30968052534274637</v>
+        <v>0.2708837730878233</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45101295613512904</v>
+        <v>0.40802950399658111</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11376,11 +11376,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-1.1530410193707707E-2</v>
+        <v>-6.6471067834776854E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>9.5138970001215961E-2</v>
+        <v>3.4269464413268613E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11405,11 +11405,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.68545377735502089</v>
+        <v>0.67608003636542169</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.7102539584537515</v>
+        <v>0.69986866268110204</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11424,7 +11424,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>26.857719728977465</v>
+        <v>4.0752132004429784</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11443,11 +11443,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.6145671396243371</v>
+        <v>1.8458100841569971</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.1086156022759439</v>
+        <v>1.2254015827350306</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11462,7 +11462,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.4</v>
+        <v>0.32321561056845138</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12435,6 +12435,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12451,46 +12491,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16139,7 +16139,7 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4125124647268397</v>
+        <v>2.4109568974006699</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16257,7 +16257,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8413712425514395</v>
+        <v>1.8401839421821604</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17320,7 +17320,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17359,7 +17359,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17437,11 +17437,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-815103.32703999989</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>-761770.12511999998</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -19931,8 +19931,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -20247,8 +20247,8 @@
         <v>2380753.0499999998</v>
       </c>
       <c r="D15" s="106">
-        <f>C15/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>1.9384454453494597</v>
+        <f>C15/(Dashboard!I5/Data!C4)</f>
+        <v>1.785569187142477</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>199</v>
@@ -20267,15 +20267,15 @@
         <v>180385.80000000002</v>
       </c>
       <c r="D16" s="106">
-        <f>C16/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>0.14687286966437726</v>
+        <f>C16/(Dashboard!I5/Data!C4)</f>
+        <v>0.1352896833537798</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>274</v>
       </c>
       <c r="G16" s="264">
-        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5*Exchange_Rate</f>
-        <v>2.0368314696682353</v>
+        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
+        <v>1.876195959172879</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -20287,12 +20287,12 @@
         <v>-15944</v>
       </c>
       <c r="D17" s="106">
-        <f>C17/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-1.2981847983205057E-2</v>
-      </c>
-      <c r="E17" s="342" t="str">
+        <f>C17/(Dashboard!I5/Data!C4)</f>
+        <v>-1.1958029464584602E-2</v>
+      </c>
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
-        <v>Error!</v>
+        <v>⇒</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>206</v>
@@ -20310,17 +20310,17 @@
         <v>-6603</v>
       </c>
       <c r="D18" s="106">
-        <f>C18/(Dashboard!I5/Data!C4)*Exchange_Rate</f>
-        <v>-5.37626331115799E-3</v>
-      </c>
-      <c r="E18" s="342"/>
+        <f>C18/(Dashboard!I5/Data!C4)</f>
+        <v>-4.952262202374067E-3</v>
+      </c>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
-        <v>1.9106928256930407</v>
+        <v>1.757816567486058</v>
       </c>
       <c r="G18" s="88">
         <f>SUM(D16:D18)</f>
-        <v>0.12851475837001422</v>
+        <v>0.11837939168682114</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -20379,11 +20379,11 @@
       </c>
       <c r="F22" s="239">
         <f>SUM(D12:F12)+E22+$G$16</f>
-        <v>1.9988080316045196</v>
+        <v>1.8381725211091633</v>
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>2.1699413010102155</v>
+        <v>1.9942658386011027</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20401,11 +20401,11 @@
       </c>
       <c r="F23" s="98">
         <f>SUM(D12:F12)+E23+$G$16</f>
-        <v>1.9988080316045196</v>
+        <v>1.8381725211091633</v>
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>2.1699413010102155</v>
+        <v>1.9942658386011027</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20418,7 +20418,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.1699413010102155</v>
+        <v>1.9942658386011027</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20766,10 +20766,10 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8413712425514395</v>
+        <v>1.8401839421821604</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20781,7 +20781,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8054336009137215</v>
+        <v>1.802981349683519</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.0387185289754779</v>
+        <v>1.9254034225907726</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20818,15 +20818,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>0.31469596031452196</v>
+        <v>8.2060960646556804</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.88798238512594452</v>
+        <v>0.83916804897748265</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7361784129642646</v>
+        <v>1.6407368838486613</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3160119661377658</v>
+        <v>2.3145186215046429</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20844,15 +20844,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>46.557611676730936</v>
+        <v>73.096998393583519</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.95999999999999985</v>
+        <v>0.96</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9723222811910186</v>
+        <v>1.9723222811910184</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>394</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.1609728668155315</v>
+        <v>2.0969582255949084</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20872,15 +20872,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>20.702473971069264</v>
+        <v>36.815479601647638</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.89573542040132459</v>
+        <v>0.86976180613419773</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.8402905496974342</v>
+        <v>1.7869276974660639</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6309748231803822</v>
+        <v>1.5403227380726181</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20897,15 +20897,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-67.682794402022211</v>
+        <v>-56.011989370129186</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.67604824722223844</v>
+        <v>0.63888439471202885</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3889427303714117</v>
+        <v>1.3125895070789291</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2C8823-1E81-47AF-AD07-DA19CD00E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1304F41-C638-4610-BF00-EE263ED4B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3089,6 +3089,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3106,137 +3234,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10556,27 +10556,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10593,10 +10593,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44931</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10604,10 +10604,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10630,11 +10630,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>2079.9948748800002</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>5.0142618668748917E-2</v>
+        <v>5.0141079652893002E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10674,11 +10674,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>29.618282931275623</v>
+        <v>29.61919202632048</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.3762929549978851E-2</v>
+        <v>3.3761893272151747E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10698,47 +10698,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.67991057928181065</v>
+        <v>0.67993144826128538</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3293575303610132</v>
+        <v>1.3293983332781336</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0849176645278931</v>
+        <v>1.0848843653996785</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10757,7 +10757,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>1.9254034225907726</v>
+        <v>1.9253222677560975</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10801,28 +10801,28 @@
         <f>I4</f>
         <v>1.56</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.14420399076596691</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>0.14415482735833884</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.03551813822251</v>
-      </c>
-      <c r="G16" s="354" t="s">
+        <v>2.0354556625327098</v>
+      </c>
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.47551813822250999</v>
-      </c>
-      <c r="I16" s="367">
+        <v>-0.47545566253270977</v>
+      </c>
+      <c r="I16" s="336">
         <f>0.28+0.21</f>
         <v>0.49</v>
       </c>
@@ -10834,24 +10834,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.747465187995757</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>1.7474012755658406</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.28805295022675304</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>-0.28805438696686925</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.28040615822624887</v>
+        <v>0.28041641427858577</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10859,19 +10859,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.54746518799575705</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.54740127556584062</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.83551813822251009</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>-0.83545566253270986</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>0.40833333333333333</v>
@@ -10909,84 +10909,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11026,214 +11026,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341">
+      <c r="C28" s="355">
         <v>44932</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>90000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
         <v>50000</v>
       </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.65</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>1.2</v>
       </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.0969582255949084</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>2.0968815306790085</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.5403227380726181</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>1.540257814204878</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11357,11 +11357,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.2708837730878233</v>
+        <v>0.27083729132061118</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.40802950399658111</v>
+        <v>0.40797800621132452</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11376,11 +11376,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-6.6471067834776854E-2</v>
+        <v>-6.6510415633407205E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.4269464413268613E-2</v>
+        <v>3.4225870449318574E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11405,11 +11405,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67608003636542169</v>
+        <v>0.67607145340883745</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69986866268110204</v>
+        <v>0.69985915350618133</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11424,7 +11424,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.0752132004429784</v>
+        <v>4.0721034253253654</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11443,11 +11443,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8458100841569971</v>
+        <v>1.8461268666585173</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2254015827350306</v>
+        <v>1.2255562613368181</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11462,7 +11462,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.32321561056845138</v>
+        <v>0.32312147782226919</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12435,14 +12435,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12459,38 +12483,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4109568974006699</v>
+        <v>2.4108828984554309</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16257,7 +16257,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8401839421821604</v>
+        <v>1.8401274618398884</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17320,7 +17320,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17359,7 +17359,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17437,11 +17437,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-761770.12511999998</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20290,7 +20290,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.1958029464584602E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20313,7 +20313,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-4.952262202374067E-3</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.757816567486058</v>
@@ -20383,7 +20383,7 @@
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>1.9942658386011027</v>
+        <v>1.9942046290586417</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>1.9942658386011027</v>
+        <v>1.9942046290586417</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20418,7 +20418,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>1.9942658386011027</v>
+        <v>1.9942046290586417</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20766,10 +20766,10 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8401839421821604</v>
+        <v>1.8401274618398884</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20781,7 +20781,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.802981349683519</v>
+        <v>1.8028647365515744</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>1.9254034225907726</v>
+        <v>1.9253222677560975</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20818,15 +20818,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>8.2060960646556804</v>
+        <v>8.1925622565054983</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83916804897748265</v>
+        <v>0.83915843454173433</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.6407368838486613</v>
+        <v>1.6407180857552772</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3145186215046429</v>
+        <v>2.3144475825172135</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20844,7 +20844,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>73.096998393583519</v>
+        <v>73.085151557459668</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9723222811910184</v>
+        <v>1.9723222811910188</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>394</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.0969582255949084</v>
+        <v>2.0968815306790085</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20872,15 +20872,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>36.815479601647638</v>
+        <v>36.80268955306903</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86976180613419773</v>
+        <v>0.86975669039023329</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7869276974660639</v>
+        <v>1.786917187157933</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.5403227380726181</v>
+        <v>1.540257814204878</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20897,15 +20897,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-56.011989370129186</v>
+        <v>-56.022816416649349</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63888439471202885</v>
+        <v>0.63887707494696977</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3125895070789291</v>
+        <v>1.3125744686042218</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1304F41-C638-4610-BF00-EE263ED4B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3B5607-6493-4DCA-8A83-93A9E783A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1455,34 +1466,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2308,7 +2319,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2356,7 +2367,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2456,7 +2467,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2473,8 +2484,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,7 +2494,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2508,7 +2519,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2527,16 +2538,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2566,14 +2577,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2667,7 +2678,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2700,7 +2711,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2720,7 +2731,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2728,7 +2739,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2738,7 +2749,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2759,7 +2770,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,7 +2779,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2813,10 +2824,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,13 +2836,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2840,7 +2851,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2897,7 +2908,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2939,7 +2950,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2951,13 +2962,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2969,10 +2980,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3049,7 +3060,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3068,7 +3079,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3093,22 +3104,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,10 +3129,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3146,10 +3157,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3174,13 +3185,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3193,7 +3204,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10511,17 +10522,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10643,7 +10654,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>5.0141079652893002E-2</v>
+        <v>4.9996092605446164E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10674,11 +10685,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>29.61919202632048</v>
+        <v>29.705086722803003</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.3761893272151747E-2</v>
+        <v>3.3664267986544996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10698,11 +10709,11 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.67993144826128538</v>
+        <v>0.68190322741466092</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3293983332781336</v>
+        <v>1.3332535453392809</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -10738,7 +10749,7 @@
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0848843653996785</v>
+        <v>1.08174733320872</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10757,7 +10768,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>1.9253222677560975</v>
+        <v>1.9176829353539169</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10806,35 +10817,35 @@
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.14415482735833884</v>
+        <v>0.13952543543236917</v>
       </c>
       <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.0354556625327098</v>
+        <v>2.029569975412238</v>
       </c>
       <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.47545566253270977</v>
+        <v>-0.46956997541223799</v>
       </c>
       <c r="I16" s="336">
-        <f>0.28+0.21</f>
-        <v>0.49</v>
+        <f>0.0447+0.0251</f>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>0.3141025641025641</v>
+        <v>4.4743589743589746E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.7474012755658406</v>
+        <v>1.7413830660620799</v>
       </c>
       <c r="C17" s="348"/>
       <c r="D17" s="149">
@@ -10846,12 +10857,12 @@
       <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.28805438696686925</v>
+        <v>-0.28818690935015812</v>
       </c>
       <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>0.28041641427858577</v>
+        <v>4.0083081867704144E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10862,19 +10873,19 @@
       <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.54740127556584062</v>
+        <v>0.54138306606207998</v>
       </c>
       <c r="E18" s="343"/>
       <c r="F18" s="364"/>
       <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.83545566253270986</v>
+        <v>-0.82956997541223809</v>
       </c>
       <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
-        <v>0.40833333333333333</v>
+        <v>5.8166666666666672E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -11210,7 +11221,7 @@
       <c r="H37" s="371"/>
       <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.0968815306790085</v>
+        <v>2.0896596792744959</v>
       </c>
       <c r="J37" s="373"/>
     </row>
@@ -11231,7 +11242,7 @@
       <c r="H38" s="371"/>
       <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.540257814204878</v>
+        <v>1.5341463482831335</v>
       </c>
       <c r="J38" s="373"/>
     </row>
@@ -11357,11 +11368,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.27083729132061118</v>
+        <v>0.2664604116815128</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.40797800621132452</v>
+        <v>0.40312880143131613</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11376,11 +11387,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-6.6510415633407205E-2</v>
+        <v>-7.0214334373858489E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.4225870449318574E-2</v>
+        <v>3.0122248247667516E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11405,11 +11416,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67607145340883745</v>
+        <v>0.67526337357088251</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69985915350618133</v>
+        <v>0.69896387080801536</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11424,7 +11435,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>4.0721034253253654</v>
+        <v>3.7949574550224421</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11443,11 +11454,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8461268666585173</v>
+        <v>1.8764513529222711</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2255562613368181</v>
+        <v>1.2402983816208142</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11462,7 +11473,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.32312147782226919</v>
+        <v>0.31425958088722339</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12595,12 +12606,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16143,18 +16154,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16212,7 +16223,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4108828984554309</v>
+        <v>2.4039116326668415</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16257,7 +16268,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8401274618398884</v>
+        <v>1.8348065822444561</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -16354,7 +16365,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16379,7 +16390,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16404,7 +16415,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16429,7 +16440,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16454,7 +16465,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16479,7 +16490,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>339</v>
       </c>
@@ -16500,7 +16511,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16519,7 +16530,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16543,7 +16554,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16567,7 +16578,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16852,7 +16863,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16881,7 +16892,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16906,7 +16917,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16931,7 +16942,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16955,7 +16966,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16999,7 +17010,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17248,14 +17259,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17270,7 +17281,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17300,7 +17311,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17315,7 +17326,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
@@ -17335,7 +17346,7 @@
         <v>5.3810490818230637E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17376,7 +17387,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17411,7 +17422,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17432,7 +17443,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
@@ -17553,14 +17564,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19181,12 +19192,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19240,7 +19251,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>382</v>
       </c>
@@ -19264,7 +19275,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>383</v>
       </c>
@@ -19288,7 +19299,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>384</v>
       </c>
@@ -19312,7 +19323,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>385</v>
       </c>
@@ -19336,7 +19347,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>343</v>
       </c>
@@ -19401,7 +19412,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>346</v>
       </c>
@@ -19494,7 +19505,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>356</v>
       </c>
@@ -19603,7 +19614,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>355</v>
       </c>
@@ -19935,14 +19946,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20383,7 +20394,7 @@
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>1.9942046290586417</v>
+        <v>1.9884382226873869</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20405,7 +20416,7 @@
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>1.9942046290586417</v>
+        <v>1.9884382226873869</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20418,7 +20429,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>1.9942046290586417</v>
+        <v>1.9884382226873869</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20769,7 +20780,7 @@
       <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8401274618398884</v>
+        <v>1.8348065822444561</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20781,7 +20792,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.8028647365515744</v>
+        <v>1.7918957578721921</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20810,7 +20821,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>1.9253222677560975</v>
+        <v>1.9176829353539169</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20818,15 +20829,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>8.1925622565054983</v>
+        <v>6.9185869038289161</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83915843454173433</v>
+        <v>0.83825268126657471</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.6407180857552772</v>
+        <v>1.638947161793108</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20836,7 +20847,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3144475825172135</v>
+        <v>2.3077551673601677</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20844,7 +20855,7 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>73.085151557459668</v>
+        <v>71.969089117563513</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
@@ -20852,7 +20863,7 @@
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9723222811910188</v>
+        <v>1.9723222811910186</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>394</v>
@@ -20864,7 +20875,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.0968815306790085</v>
+        <v>2.0896596792744959</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20872,15 +20883,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>36.80268955306903</v>
+        <v>35.598335532891092</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86975669039023329</v>
+        <v>0.86927474823867712</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.786917187157933</v>
+        <v>1.78592703586235</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20889,7 +20900,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.540257814204878</v>
+        <v>1.5341463482831335</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20897,15 +20908,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-56.022816416649349</v>
+        <v>-57.041996698790619</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63887707494696977</v>
+        <v>0.63818749717567136</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3125744686042218</v>
+        <v>1.3111577294344863</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21843,16 +21854,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21867,7 +21878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21881,7 +21892,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21895,7 +21906,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21910,7 +21921,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21925,7 +21936,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21940,7 +21951,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21955,7 +21966,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3B5607-6493-4DCA-8A83-93A9E783A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A596B905-5934-4E05-BFA6-D1CE5C297BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3100,84 +3100,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3185,6 +3140,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3201,9 +3157,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3216,6 +3179,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3228,26 +3200,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10522,8 +10522,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -10567,27 +10567,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10604,10 +10604,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44931</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10615,10 +10615,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10641,11 +10641,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
         <v>2079.9948748800002</v>
       </c>
-      <c r="J6" s="361"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>4.9996092605446164E-2</v>
+        <v>5.0008415751500022E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10685,11 +10685,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>29.705086722803003</v>
+        <v>29.697766752419486</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.3664267986544996E-2</v>
+        <v>3.3672565628812129E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10709,47 +10709,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.68190322741466092</v>
+        <v>0.68173519183625375</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.3332535453392809</v>
+        <v>1.332925003074561</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.08174733320872</v>
+        <v>1.0820139646530151</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10768,7 +10768,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>1.9176829353539169</v>
+        <v>1.9183317716068327</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10812,28 +10812,28 @@
         <f>I4</f>
         <v>1.56</v>
       </c>
-      <c r="C16" s="347">
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.13952543543236917</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.13991874221020506</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.029569975412238</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>2.0300702282506133</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.46956997541223799</v>
-      </c>
-      <c r="I16" s="336">
+        <v>-0.47007022825061329</v>
+      </c>
+      <c r="I16" s="367">
         <f>0.0447+0.0251</f>
         <v>6.9800000000000001E-2</v>
       </c>
@@ -10845,24 +10845,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.7413830660620799</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>1.7418943648732665</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.28818690935015812</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>-0.2881758633773468</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>4.0083081867704144E-2</v>
+        <v>4.0071316267837158E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10870,19 +10870,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.54138306606207998</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.54189436487326659</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.82956997541223809</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>-0.83007022825061338</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.8166666666666672E-2</v>
@@ -10920,84 +10920,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11037,214 +11037,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>44932</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>90000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>50000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.65</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>1.2</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>2.0896596792744959</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>2.0902732378479199</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>1.5341463482831335</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>1.5346654172854661</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11368,11 +11368,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.2664604116815128</v>
+        <v>0.26683226536237581</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.40312880143131613</v>
+        <v>0.40354078320723641</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11387,11 +11387,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-7.0214334373858489E-2</v>
+        <v>-6.9899747099717469E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.0122248247667516E-2</v>
+        <v>3.047078378880208E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11416,11 +11416,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67526337357088251</v>
+        <v>0.67533201766638284</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69896387080801536</v>
+        <v>0.6990399225397208</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11435,7 +11435,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.7949574550224421</v>
+        <v>3.8173566634185194</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11454,11 +11454,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8764513529222711</v>
+        <v>1.8738363567875385</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2402983816208142</v>
+        <v>1.2390321395179218</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11473,7 +11473,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.31425958088722339</v>
+        <v>0.31501232457833916</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12446,6 +12446,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12462,46 +12502,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4039116326668415</v>
+        <v>2.4045041540541372</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16268,7 +16268,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8348065822444561</v>
+        <v>1.8352588293764873</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17331,7 +17331,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17354,7 +17354,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17370,7 +17370,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17448,11 +17448,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-761770.12511999998</v>
       </c>
-      <c r="E63" s="350"/>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20301,7 +20301,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.1958029464584602E-2</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20324,7 +20324,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-4.952262202374067E-3</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.757816567486058</v>
@@ -20394,7 +20394,7 @@
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>1.9884382226873869</v>
+        <v>1.9889283372815538</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>1.9884382226873869</v>
+        <v>1.9889283372815538</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20429,7 +20429,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>1.9884382226873869</v>
+        <v>1.9889283372815538</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20777,10 +20777,10 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8348065822444561</v>
+        <v>1.8352588293764873</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20792,7 +20792,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.7918957578721921</v>
+        <v>1.7928267659628838</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>1.9176829353539169</v>
+        <v>1.9183317716068327</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20829,15 +20829,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>6.9185869038289161</v>
+        <v>7.0267902586013546</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83825268126657471</v>
+        <v>0.83832966559100297</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.638947161793108</v>
+        <v>1.6390976811327342</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20847,7 +20847,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3077551673601677</v>
+        <v>2.3083239878919715</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20855,11 +20855,11 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>71.969089117563513</v>
+        <v>72.06394862876995</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.96</v>
+        <v>0.95999999999999985</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.0896596792744959</v>
+        <v>2.0902732378479199</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20883,15 +20883,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>35.598335532891092</v>
+        <v>35.700655795816473</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86927474823867712</v>
+        <v>0.86931571081862957</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.78592703586235</v>
+        <v>1.7860111935801994</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.5341463482831335</v>
+        <v>1.5346654172854661</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20908,15 +20908,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-57.041996698790619</v>
+        <v>-56.95543401497266</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63818749717567136</v>
+        <v>0.63824610770496226</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3111577294344863</v>
+        <v>1.3112781449061874</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A596B905-5934-4E05-BFA6-D1CE5C297BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0DEC9-FB9E-4D73-958C-F2BF22D9BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="32"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1466,34 +1455,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2319,7 +2308,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2367,7 +2356,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2467,7 +2456,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2484,8 +2473,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2494,7 +2483,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2508,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,16 +2527,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2577,14 +2566,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2678,7 +2667,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2711,7 +2700,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2731,7 +2720,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2739,7 +2728,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2749,7 +2738,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2770,7 +2759,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2779,7 +2768,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2824,10 +2813,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2836,13 +2825,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,7 +2840,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2908,7 +2897,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2950,7 +2939,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2962,13 +2951,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2980,10 +2969,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3060,7 +3049,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3079,7 +3068,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3098,6 +3087,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,137 +3234,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10522,17 +10511,17 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10567,27 +10556,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10604,10 +10593,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44931</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10615,10 +10604,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10641,11 +10630,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>2079.9948748800002</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10720,30 +10709,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10812,28 +10801,28 @@
         <f>I4</f>
         <v>1.56</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>0.13991874221020506</v>
       </c>
-      <c r="E16" s="354" t="s">
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>2.0300702282506133</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>-0.47007022825061329</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <f>0.0447+0.0251</f>
         <v>6.9800000000000001E-2</v>
       </c>
@@ -10847,19 +10836,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>1.7418943648732665</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>-0.2881758633773468</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>4.0071316267837158E-2</v>
@@ -10870,19 +10859,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.54189436487326659</v>
       </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>-0.83007022825061338</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.8166666666666672E-2</v>
@@ -10920,84 +10909,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11037,214 +11026,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341">
+      <c r="C28" s="355">
         <v>44932</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>90000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
         <v>50000</v>
       </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.65</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>1.2</v>
       </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>2.0902732378479199</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>1.5346654172854661</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12446,14 +12435,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12470,38 +12483,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12606,12 +12595,12 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16154,18 +16143,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16365,7 +16354,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16390,7 +16379,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16415,7 +16404,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16440,7 +16429,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16465,7 +16454,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16490,7 +16479,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>339</v>
       </c>
@@ -16511,7 +16500,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16530,7 +16519,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16554,7 +16543,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16578,7 +16567,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16863,7 +16852,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16892,7 +16881,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16917,7 +16906,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16942,7 +16931,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16966,7 +16955,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -17010,7 +16999,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17259,14 +17248,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17281,7 +17270,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17311,7 +17300,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17326,12 +17315,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17346,7 +17335,7 @@
         <v>5.3810490818230637E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17354,7 +17343,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17370,7 +17359,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17387,7 +17376,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17422,7 +17411,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17443,16 +17432,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>-761770.12511999998</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17564,14 +17553,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19192,12 +19181,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19251,7 +19240,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
         <v>382</v>
       </c>
@@ -19275,7 +19264,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
         <v>383</v>
       </c>
@@ -19299,7 +19288,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
         <v>384</v>
       </c>
@@ -19323,7 +19312,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
         <v>385</v>
       </c>
@@ -19347,7 +19336,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>343</v>
       </c>
@@ -19412,7 +19401,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
         <v>346</v>
       </c>
@@ -19505,7 +19494,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
         <v>356</v>
       </c>
@@ -19614,7 +19603,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
         <v>355</v>
       </c>
@@ -19946,14 +19935,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20301,7 +20290,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.1958029464584602E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20324,7 +20313,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-4.952262202374067E-3</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.757816567486058</v>
@@ -20777,7 +20766,7 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.8352588293764873</v>
@@ -21854,16 +21843,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21878,7 +21867,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21892,7 +21881,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21906,7 +21895,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21921,7 +21910,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21936,7 +21925,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21951,7 +21940,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21966,7 +21955,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF0DEC9-FB9E-4D73-958C-F2BF22D9BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A696F7-BD28-4FE7-ABD5-B5FCA47BC85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -3089,84 +3089,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3174,6 +3129,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3190,9 +3146,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,6 +3168,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3217,26 +3189,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10556,33 +10556,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10593,10 +10593,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44931</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10604,10 +10604,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10630,11 +10630,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>2079.9948748800002</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>1973.3284710400001</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>5.0008415751500022E-2</v>
+        <v>5.2798711756443864E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10674,11 +10674,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>29.697766752419486</v>
+        <v>28.128304976395821</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.3672565628812129E-2</v>
+        <v>3.5551377903473423E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10698,47 +10698,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.68173519183625375</v>
+        <v>0.6457069835916055</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.332925003074561</v>
+        <v>1.2624828428922195</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0820139646530151</v>
+        <v>1.0838026603062947</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10757,7 +10757,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>1.9183317716068327</v>
+        <v>1.9226867310597755</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10799,59 +10799,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.56</v>
-      </c>
-      <c r="C16" s="347">
+        <v>1.48</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.13991874221020506</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>0.21512874828346717</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.0300702282506133</v>
-      </c>
-      <c r="G16" s="341" t="s">
+        <v>2.0334261718074864</v>
+      </c>
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.47007022825061329</v>
-      </c>
-      <c r="I16" s="336">
+        <v>-0.55342617180748643</v>
+      </c>
+      <c r="I16" s="367">
         <f>0.0447+0.0251</f>
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.4743589743589746E-2</v>
+        <v>4.7162162162162166E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.7418943648732665</v>
-      </c>
-      <c r="C17" s="348"/>
+        <v>1.7453254562162761</v>
+      </c>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.2881758633773468</v>
-      </c>
-      <c r="I17" s="337"/>
+        <v>-0.28810071559121031</v>
+      </c>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>4.0071316267837158E-2</v>
+        <v>3.9992541076734611E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10859,19 +10859,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.54189436487326659</v>
-      </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+        <v>0.54532545621627615</v>
+      </c>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.83007022825061338</v>
-      </c>
-      <c r="I18" s="338"/>
+        <v>-0.83342617180748646</v>
+      </c>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.8166666666666672E-2</v>
@@ -10909,84 +10909,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369" t="s">
+      <c r="C24" s="321" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370" t="s">
+      <c r="C25" s="322" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11026,214 +11026,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355">
+      <c r="C28" s="341">
         <v>44932</v>
       </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>90000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349">
         <v>50000</v>
       </c>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.65</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323">
+      <c r="D31" s="339"/>
+      <c r="E31" s="363">
         <v>1.2</v>
       </c>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
-        <v>2.0902732378479199</v>
-      </c>
-      <c r="J37" s="373"/>
+        <v>2.0943905474595312</v>
+      </c>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
-        <v>1.5346654172854661</v>
-      </c>
-      <c r="J38" s="373"/>
+        <v>1.5381493848478205</v>
+      </c>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11357,11 +11357,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.26683226536237581</v>
+        <v>0.26932760452092808</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.40354078320723641</v>
+        <v>0.40630540356994893</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11376,11 +11376,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-6.9899747099717469E-2</v>
+        <v>-6.7788251607381445E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.047078378880208E-2</v>
+        <v>3.2810138506929709E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11405,11 +11405,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67533201766638284</v>
+        <v>0.67579270113147172</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.6990399225397208</v>
+        <v>0.69955032004780482</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11424,7 +11424,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.8173566634185194</v>
+        <v>3.973072001927854</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11443,11 +11443,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8738363567875385</v>
+        <v>1.8564751314273378</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2390321395179218</v>
+        <v>1.2306014037884208</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11462,7 +11462,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.31501232457833916</v>
+        <v>0.3200643667996349</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12435,6 +12435,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12451,46 +12491,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.4045041540541372</v>
+        <v>2.408479080690161</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16257,7 +16257,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.8352588293764873</v>
+        <v>1.838292726902756</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17320,7 +17320,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17359,7 +17359,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17437,11 +17437,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-761770.12511999998</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>-868436.52896000003</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20290,7 +20290,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.1958029464584602E-2</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20313,7 +20313,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-4.952262202374067E-3</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.757816567486058</v>
@@ -20383,7 +20383,7 @@
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>1.9889283372815538</v>
+        <v>1.9922162684800397</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>1.9889283372815538</v>
+        <v>1.9922162684800397</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20418,7 +20418,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>1.9889283372815538</v>
+        <v>1.9922162684800397</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20766,10 +20766,10 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.8352588293764873</v>
+        <v>1.838292726902756</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20781,7 +20781,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.7928267659628838</v>
+        <v>1.7990786645348613</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>1.9183317716068327</v>
+        <v>1.9226867310597755</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20818,15 +20818,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>7.0267902586013546</v>
+        <v>7.7530462601560695</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83832966559100297</v>
+        <v>0.83884611452987312</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.6390976811327342</v>
+        <v>1.6401074393374957</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3083239878919715</v>
+        <v>2.3121399174625545</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20844,15 +20844,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>72.06394862876995</v>
+        <v>72.700313164902056</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.95999999999999985</v>
+        <v>0.96</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9723222811910186</v>
+        <v>1.9723222811910188</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>394</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.0902732378479199</v>
+        <v>2.0943905474595312</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20872,15 +20872,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>35.700655795816473</v>
+        <v>36.38728005673147</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86931571081862957</v>
+        <v>0.86959050807257743</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7860111935801994</v>
+        <v>1.7865757651914196</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.5346654172854661</v>
+        <v>1.5381493848478205</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20897,15 +20897,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-56.95543401497266</v>
+        <v>-56.374429213728874</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63824610770496226</v>
+        <v>0.63863929613499348</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3112781449061874</v>
+        <v>1.3120859514699967</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/6601.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A696F7-BD28-4FE7-ABD5-B5FCA47BC85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C78BA04-4FFE-4CC7-BB3A-8D44E7BDF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3089,6 +3089,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3106,137 +3234,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10556,33 +10556,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10593,10 +10593,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44931</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10604,10 +10604,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>1333330048</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10630,11 +10630,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
-        <v>1973.3284710400001</v>
-      </c>
-      <c r="J6" s="350"/>
+        <v>2106.6614758400001</v>
+      </c>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>5.2798711756443864E-2</v>
+        <v>4.9266321354595619E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
@@ -10674,11 +10674,11 @@
       </c>
       <c r="I9" s="225">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>28.128304976395821</v>
+        <v>30.145101680248203</v>
       </c>
       <c r="J9" s="166">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>3.5551377903473423E-2</v>
+        <v>3.3172885286873129E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -10698,47 +10698,47 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>0.6457069835916055</v>
+        <v>0.69200411088935132</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.2624828428922195</v>
+        <v>1.3530027387178605</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>390</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="84"/>
       <c r="I12" s="226">
-        <v>1.0838026603062947</v>
+        <v>1.0796236594518025</v>
       </c>
       <c r="J12" s="227" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
@@ -10757,7 +10757,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>1.9226867310597755</v>
+        <v>1.9125181654184527</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
@@ -10799,59 +10799,59 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>1.48</v>
-      </c>
-      <c r="C16" s="373">
+        <v>1.58</v>
+      </c>
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>0.21512874828346717</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>0.11947754647923747</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
-        <v>2.0334261718074864</v>
-      </c>
-      <c r="G16" s="354" t="s">
+        <v>2.0255855472909081</v>
+      </c>
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>-0.55342617180748643</v>
-      </c>
-      <c r="I16" s="367">
+        <v>-0.44558554729090805</v>
+      </c>
+      <c r="I16" s="336">
         <f>0.0447+0.0251</f>
         <v>6.9800000000000001E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>4.7162162162162166E-2</v>
+        <v>4.4177215189873414E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>1.7453254562162761</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>1.7373121028643295</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>-0.28810071559121031</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>-0.28827344442657865</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>3.9992541076734611E-2</v>
+        <v>4.0177006701858475E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10859,19 +10859,19 @@
         <f>C37</f>
         <v>1.2</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.54532545621627615</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.53731210286432951</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
-        <v>-0.83342617180748646</v>
-      </c>
-      <c r="I18" s="369"/>
+        <v>-0.82558554729090816</v>
+      </c>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>5.8166666666666672E-2</v>
@@ -10909,84 +10909,84 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>406</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>404</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>405</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>408</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321" t="s">
+      <c r="C24" s="369" t="s">
         <v>410</v>
       </c>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322" t="s">
+      <c r="C25" s="370" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11026,214 +11026,214 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341">
+      <c r="C28" s="355">
         <v>44932</v>
       </c>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v>Action_Planning</v>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.31590909090909092</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>90000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321">
         <v>50000</v>
       </c>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>140000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.65</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363">
+      <c r="D31" s="322"/>
+      <c r="E31" s="323">
         <v>1.2</v>
       </c>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>2199.9945791999999</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>1599.9960575999999</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>148500</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>60000</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>208500</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1985.7093929142857</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>E31</f>
         <v>1.2</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>314</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.0943905474595312</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>2.0847745234371953</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.4892857142857143</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.5381493848478205</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>1.530014532334762</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11357,11 +11357,11 @@
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.26932760452092808</v>
+        <v>0.26349971117405779</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.40630540356994893</v>
+        <v>0.39984860086910001</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11376,11 +11376,11 @@
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-6.7788251607381445E-2</v>
+        <v>-7.271846525165937E-2</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>3.2810138506929709E-2</v>
+        <v>2.7347887419024941E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11405,11 +11405,11 @@
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.67579270113147172</v>
+        <v>0.67471689043235683</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.69955032004780482</v>
+        <v>0.69835841466892945</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11424,7 +11424,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.973072001927854</v>
+        <v>3.6235598518499392</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
@@ -11443,11 +11443,11 @@
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>1.8564751314273378</v>
+        <v>1.8975352867454158</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>1.2306014037884208</v>
+        <v>1.2504733014276244</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11462,7 +11462,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.3200643667996349</v>
+        <v>0.30826723450627608</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
@@ -12435,14 +12435,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12459,38 +12483,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="I4" s="139">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
-        <v>2.408479080690161</v>
+        <v>2.3991923013668974</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -16257,7 +16257,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="187">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.838292726902756</v>
+        <v>1.8312045113466489</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>Dashboard!J4</f>
@@ -17320,7 +17320,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>15944</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17359,7 +17359,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17437,11 +17437,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>-868436.52896000003</v>
-      </c>
-      <c r="E63" s="376"/>
+        <v>-735103.52416000003</v>
+      </c>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20290,7 +20290,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.1958029464584602E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20313,7 +20313,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-4.952262202374067E-3</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>1.757816567486058</v>
@@ -20383,7 +20383,7 @@
       </c>
       <c r="G22" s="271">
         <f>F22*Exchange_Rate</f>
-        <v>1.9922162684800397</v>
+        <v>1.9845345439436206</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20405,7 +20405,7 @@
       </c>
       <c r="G23" s="272">
         <f>F23*Exchange_Rate</f>
-        <v>1.9922162684800397</v>
+        <v>1.9845345439436206</v>
       </c>
       <c r="I23" s="43"/>
     </row>
@@ -20418,7 +20418,7 @@
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f>MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>1.9922162684800397</v>
+        <v>1.9845345439436206</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20766,10 +20766,10 @@
       <c r="E40" s="393" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
-        <v>1.838292726902756</v>
+        <v>1.8312045113466489</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
@@ -20781,7 +20781,7 @@
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.7990786645348613</v>
+        <v>1.7844890480403761</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>1.9226867310597755</v>
+        <v>1.9125181654184527</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20818,15 +20818,15 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>7.7530462601560695</v>
+        <v>6.0572826361748131</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83884611452987312</v>
+        <v>0.83763951431653771</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.6401074393374957</v>
+        <v>1.6377483010498886</v>
       </c>
       <c r="I44" s="43"/>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*0.96</f>
-        <v>2.3121399174625545</v>
+        <v>2.3032246093122213</v>
       </c>
       <c r="D45" s="256" t="str">
         <f>D44</f>
@@ -20844,15 +20844,15 @@
       </c>
       <c r="E45" s="223">
         <f>(C45-G16)/C9</f>
-        <v>72.700313164902056</v>
+        <v>71.213549368395547</v>
       </c>
       <c r="F45" s="223">
         <f>C45/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.96</v>
+        <v>0.95999999999999985</v>
       </c>
       <c r="G45" s="223">
         <f>C45/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.9723222811910188</v>
+        <v>1.9723222811910184</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>394</v>
@@ -20864,7 +20864,7 @@
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.0943905474595312</v>
+        <v>2.0847745234371953</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20872,15 +20872,15 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>36.38728005673147</v>
+        <v>34.783661186618545</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.86959050807257743</v>
+        <v>0.86894848830976645</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.7865757651914196</v>
+        <v>1.7852567340631311</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
@@ -20889,7 +20889,7 @@
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.5381493848478205</v>
+        <v>1.530014532334762</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20897,15 +20897,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>-56.374429213728874</v>
+        <v>-57.731040112913902</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.63863929613499348</v>
+        <v>0.63772067435489155</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>1.3120859514699967</v>
+        <v>1.3101986408399109</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
